--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="52">
   <si>
     <t>APRIL</t>
   </si>
@@ -109,6 +109,75 @@
   </si>
   <si>
     <t>b22-23MQ415</t>
+  </si>
+  <si>
+    <t>Namrata Rubber Product</t>
+  </si>
+  <si>
+    <t>07/23-24</t>
+  </si>
+  <si>
+    <t>27ACUPN7499L1ZA</t>
+  </si>
+  <si>
+    <t>Visvonata V S Duclo</t>
+  </si>
+  <si>
+    <t>VGT26</t>
+  </si>
+  <si>
+    <t>30AABFV2740D1ZU</t>
+  </si>
+  <si>
+    <t>Krishna Paints And Sanitary</t>
+  </si>
+  <si>
+    <t>CA-06</t>
+  </si>
+  <si>
+    <t>30AJYPC9690H2ZQ</t>
+  </si>
+  <si>
+    <t>Repute Traders</t>
+  </si>
+  <si>
+    <t>3(23/24)</t>
+  </si>
+  <si>
+    <t>27AANPS7482F1Z2</t>
+  </si>
+  <si>
+    <t>Bits &amp; Bytes Technologies</t>
+  </si>
+  <si>
+    <t>B&amp;B/23-24/009</t>
+  </si>
+  <si>
+    <t>30AAUFB6451C1ZP</t>
+  </si>
+  <si>
+    <t>30AFSPS7509F1Z8</t>
+  </si>
+  <si>
+    <t>30AAXPG3450F1ZX</t>
+  </si>
+  <si>
+    <t>b23-24MQ101</t>
+  </si>
+  <si>
+    <t>b23-24MQ102</t>
+  </si>
+  <si>
+    <t>Shree Laxmi Lighting Hub</t>
+  </si>
+  <si>
+    <t>SLH/12</t>
+  </si>
+  <si>
+    <t>30AEAFS6324R1ZT</t>
+  </si>
+  <si>
+    <t>SLH/135</t>
   </si>
 </sst>
 </file>
@@ -333,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,18 +635,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -587,50 +677,32 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,52 +984,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J105"/>
+  <dimension ref="A2:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -990,336 +1062,545 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="21">
+        <v>44840</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1850</v>
+      </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="F5" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="H5" s="8">
+        <f>D5+E5+F5+G5</f>
+        <v>2183</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="21">
+        <v>44841</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="23">
+        <v>55015</v>
+      </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="8">
+        <v>4951.3500000000004</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4951.3500000000004</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6:H10" si="0">D6+E6+F6+G6</f>
+        <v>64917.7</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="21">
+        <v>44932</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="23">
+        <v>900</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="8">
+        <v>81</v>
+      </c>
+      <c r="G7" s="8">
+        <v>81</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>1062</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="21">
+        <v>44965</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="23">
+        <v>7200</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="8">
+        <v>648</v>
+      </c>
+      <c r="G8" s="8">
+        <v>648</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>8496</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="7">
+        <v>45020</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8">
+        <v>91479</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="8">
+        <v>8233.11</v>
+      </c>
+      <c r="G9" s="8">
+        <v>8233.11</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>107945.22</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="11">
+        <v>45020</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="12">
+        <v>246185</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="12">
+        <v>22156.65</v>
+      </c>
+      <c r="G10" s="12">
+        <v>22156.65</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>290498.30000000005</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+    <row r="11" spans="1:10" s="10" customFormat="1" ht="21">
+      <c r="A11" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="15">
+        <f>SUM(D5:D10)</f>
+        <v>402629</v>
+      </c>
+      <c r="E11" s="15">
+        <f>SUM(E5:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <f>SUM(F5:F10)</f>
+        <v>36236.61</v>
+      </c>
+      <c r="G11" s="15">
+        <f>SUM(G5:G10)</f>
+        <v>36236.61</v>
+      </c>
+      <c r="H11" s="15">
+        <f>SUM(H5:H10)</f>
+        <v>475102.22000000003</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="15">
-        <f>SUM(D5:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <f>SUM(E5:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <f>SUM(F5:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <f>SUM(G5:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <f>SUM(H5:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="79" t="s">
+    <row r="12" spans="1:10" ht="21">
+      <c r="A12" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1">
-      <c r="A14" s="16" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1">
+      <c r="A13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J13" s="17" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:10" s="81" customFormat="1" ht="15.6">
+      <c r="A14" s="18">
+        <v>45019</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="19">
+        <v>105</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G14" s="19">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H14" s="8">
+        <f>D14+E14+F14+G14</f>
+        <v>123.9</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="15" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="18">
+        <v>45020</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2245</v>
+      </c>
+      <c r="E15" s="19">
+        <v>404.1</v>
+      </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8">
+        <f>D15+E15+F15+G15</f>
+        <v>2649.1</v>
+      </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
+      <c r="A16" s="18">
+        <v>45022</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="19">
+        <v>5677.14</v>
+      </c>
       <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="8"/>
+      <c r="F16" s="19">
+        <v>510.94</v>
+      </c>
+      <c r="G16" s="19">
+        <v>510.94</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" ref="H16:H20" si="1">D16+E16+F16+G16</f>
+        <v>6699.0199999999995</v>
+      </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="A17" s="18">
+        <v>45024</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1712.01</v>
+      </c>
       <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="8"/>
+      <c r="F17" s="19">
+        <v>154.08000000000001</v>
+      </c>
+      <c r="G17" s="19">
+        <v>154.08000000000001</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="1"/>
+        <v>2020.1699999999998</v>
+      </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="21">
+        <v>45024</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="23">
+        <v>2013</v>
+      </c>
+      <c r="E18" s="23">
+        <v>242</v>
+      </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>2255</v>
+      </c>
       <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="J18" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A19" s="21"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="21">
+        <v>45027</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="23">
+        <v>3368.7</v>
+      </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="F19" s="23">
+        <v>303.18</v>
+      </c>
+      <c r="G19" s="23">
+        <v>303.18</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="1"/>
+        <v>3975.0599999999995</v>
+      </c>
       <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="J19" s="23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A21" s="27"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="90" t="s">
+      <c r="A20" s="21">
+        <v>45029</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1305</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23">
+        <v>117.45</v>
+      </c>
+      <c r="G20" s="23">
+        <v>117.45</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
+        <v>1539.9</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A21" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="29">
-        <f>SUM(D15:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="29">
-        <f>SUM(E15:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="29">
-        <f>SUM(F15:F21)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="29">
-        <f>SUM(G15:G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="29">
-        <f>SUM(H15:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="29">
+        <f>SUM(D15:D19)</f>
+        <v>15015.849999999999</v>
+      </c>
+      <c r="E21" s="29">
+        <f>SUM(E15:E19)</f>
+        <v>646.1</v>
+      </c>
+      <c r="F21" s="29">
+        <f>SUM(F15:F19)</f>
+        <v>968.2</v>
+      </c>
+      <c r="G21" s="29">
+        <f>SUM(G15:G19)</f>
+        <v>968.2</v>
+      </c>
+      <c r="H21" s="29">
+        <f>SUM(H15:H19)</f>
+        <v>17598.349999999999</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="21">
+      <c r="A23" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="84"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
+      <c r="A24" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="88"/>
-    </row>
-    <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A26" s="18"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A27" s="18"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -1341,17 +1622,17 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" s="14" customFormat="1" ht="15.6">
       <c r="A30" s="11"/>
@@ -1365,108 +1646,108 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+    <row r="31" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A32" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="30">
+        <f>SUM(D26:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="30">
+        <f>SUM(E26:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="30">
+        <f>SUM(F26:F31)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30">
+        <f>SUM(G26:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="30">
+        <f>SUM(H26:H31)</f>
+        <v>0</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="30">
-        <f>SUM(D27:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="30">
-        <f>SUM(E27:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="30">
-        <f>SUM(F27:F32)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="30">
-        <f>SUM(G27:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="30">
-        <f>SUM(H27:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="79" t="s">
+    <row r="33" spans="1:10" ht="21">
+      <c r="A33" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="81"/>
-    </row>
-    <row r="35" spans="1:10" s="6" customFormat="1">
-      <c r="A35" s="16" t="s">
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="87"/>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1">
+      <c r="A34" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D34" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J34" s="17" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A35" s="7"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A36" s="7"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1477,28 +1758,28 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="28"/>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A39" s="11"/>
@@ -1510,43 +1791,43 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="28"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A40" s="11"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="22"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A42" s="11"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="28"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="22"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A43" s="11"/>
@@ -1572,77 +1853,77 @@
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
       <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="J45" s="22"/>
+    </row>
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A46" s="11"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="22"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A48" s="11"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="22"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="34"/>
     </row>
     <row r="49" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A49" s="33"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="34"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A51" s="7"/>
@@ -1728,106 +2009,106 @@
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="82" t="s">
+    <row r="58" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A58" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="30">
-        <f>SUM(D36:D58)</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="30">
-        <f>SUM(E36:E58)</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="30">
-        <f>SUM(F36:F58)</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="30">
-        <f>SUM(G36:G58)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="30">
-        <f>SUM(H36:H58)</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="30">
+        <f>SUM(D35:D57)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="30">
+        <f>SUM(E35:E57)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="30">
+        <f>SUM(F35:F57)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="30">
+        <f>SUM(G35:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="30">
+        <f>SUM(H35:H57)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+    </row>
+    <row r="60" spans="1:10" ht="21">
+      <c r="A60" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="84"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
+      <c r="A61" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
       <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="88"/>
-    </row>
-    <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="64" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
@@ -1837,9 +2118,9 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A65" s="18"/>
-      <c r="B65" s="39"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -1909,128 +2190,128 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A71" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="88"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="30">
+        <f>SUM(D63:D70)</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="30">
+        <f>SUM(E63:E70)</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="30">
+        <f>SUM(F63:F70)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="30">
+        <f>SUM(G63:G70)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="30">
+        <f>SUM(H63:H70)</f>
+        <v>0</v>
+      </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="30">
-        <f>SUM(D64:D71)</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="30">
-        <f>SUM(E64:E71)</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="30">
-        <f>SUM(F64:F71)</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="30">
-        <f>SUM(G64:G71)</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="30">
-        <f>SUM(H64:H71)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="79" t="s">
+    <row r="72" spans="1:10" ht="21">
+      <c r="A72" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="81"/>
-    </row>
-    <row r="74" spans="1:10" s="6" customFormat="1">
-      <c r="A74" s="16" t="s">
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="87"/>
+    </row>
+    <row r="73" spans="1:10" s="6" customFormat="1">
+      <c r="A73" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B73" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D73" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E73" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F73" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G73" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="17" t="s">
+      <c r="H73" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I74" s="17" t="s">
+      <c r="I73" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J74" s="17" t="s">
+      <c r="J73" s="17" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="74" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A74" s="31"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+    </row>
     <row r="75" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A75" s="31"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="28"/>
     </row>
     <row r="76" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A76" s="11"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="28"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A77" s="37"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A78" s="7"/>
@@ -2046,7 +2327,7 @@
     </row>
     <row r="79" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -2168,7 +2449,7 @@
       <c r="A89" s="7"/>
       <c r="B89" s="38"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
@@ -2212,9 +2493,9 @@
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="93" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A93" s="7"/>
-      <c r="B93" s="38"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="8"/>
       <c r="D93" s="41"/>
       <c r="E93" s="8"/>
@@ -2224,11 +2505,11 @@
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
     </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="94" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A94" s="7"/>
-      <c r="B94" s="19"/>
+      <c r="B94" s="38"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="41"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -2236,168 +2517,156 @@
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="95" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
       <c r="A95" s="7"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="8"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-    </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="J95" s="19"/>
+    </row>
+    <row r="96" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A96" s="7"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
-      <c r="J96" s="19"/>
-    </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
+      <c r="J96" s="8"/>
+    </row>
+    <row r="97" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A97" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="90"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="30">
+        <f>SUM(D74:D96)</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="30">
+        <f>SUM(E74:E96)</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="30">
+        <f>SUM(F74:F96)</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="30">
+        <f>SUM(G74:G96)</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="30">
+        <f>SUM(H74:H96)</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" s="83"/>
-      <c r="C98" s="84"/>
-      <c r="D98" s="30">
-        <f>SUM(D75:D97)</f>
-        <v>0</v>
-      </c>
-      <c r="E98" s="30">
-        <f>SUM(E75:E97)</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="30">
-        <f>SUM(F75:F97)</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="30">
-        <f>SUM(G75:G97)</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="30">
-        <f>SUM(H75:H97)</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-    </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A99" s="98"/>
-      <c r="B99" s="98"/>
-      <c r="C99" s="98"/>
-      <c r="D99" s="99"/>
-      <c r="E99" s="99"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="99"/>
-      <c r="H99" s="99"/>
-      <c r="I99" s="99"/>
-      <c r="J99" s="99"/>
+      <c r="A98" s="79"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="80"/>
+      <c r="H98" s="80"/>
+      <c r="I98" s="80"/>
+      <c r="J98" s="80"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.6">
+      <c r="A99" s="78">
+        <v>44840</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1850</v>
+      </c>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="15.6">
-      <c r="A100" s="97">
-        <v>44840</v>
+      <c r="A100" s="78">
+        <v>44841</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D100" s="2">
-        <v>1850</v>
+        <v>55015</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:10" ht="15.6">
-      <c r="A101" s="97">
-        <v>44841</v>
+      <c r="A101" s="78">
+        <v>44932</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D101" s="2">
-        <v>55015</v>
+        <v>900</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="97">
-        <v>44932</v>
+      <c r="A102" s="78">
+        <v>44965</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
-        <v>900</v>
+        <v>7200</v>
       </c>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:10" ht="15.6">
-      <c r="A103" s="97">
-        <v>44965</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D103" s="2">
-        <v>7200</v>
-      </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="85"/>
-      <c r="B105" s="85"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
+    <row r="104" spans="1:10">
+      <c r="A104" s="96"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="96"/>
+      <c r="E104" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A61:H61"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A58:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2428,30 +2697,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2586,11 +2855,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -2615,18 +2884,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -2805,11 +3074,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -2839,30 +3108,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="88"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="84"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="81"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -2955,11 +3224,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -2984,18 +3253,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="81"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="87"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -3306,11 +3575,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -3335,30 +3604,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="86" t="s">
+      <c r="A67" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="87"/>
-      <c r="C67" s="87"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="87"/>
-      <c r="J67" s="88"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="84"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="79" t="s">
+      <c r="A68" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="80"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="81"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="87"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -3427,11 +3696,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="93" t="s">
+      <c r="A73" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="93"/>
-      <c r="C73" s="93"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="97"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -3456,18 +3725,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="79" t="s">
+      <c r="A74" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="81"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="87"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -3718,11 +3987,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="94" t="s">
+      <c r="A94" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="94"/>
-      <c r="C94" s="94"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -3748,12 +4017,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -3763,6 +4026,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3792,30 +4061,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -3932,11 +4201,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -3961,18 +4230,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -4091,11 +4360,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -4120,30 +4389,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="88"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="84"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="81"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -4248,11 +4517,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -4277,18 +4546,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="81"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="87"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -4599,11 +4868,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="84"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -4628,30 +4897,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="86" t="s">
+      <c r="A61" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="88"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="84"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="81"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="87"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -4780,11 +5049,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="78" t="s">
+      <c r="A72" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -4809,18 +5078,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="79" t="s">
+      <c r="A73" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="81"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="87"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -5131,11 +5400,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="82" t="s">
+      <c r="A98" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="83"/>
-      <c r="C98" s="84"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="91"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -5160,21 +5429,26 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="85"/>
-      <c r="B100" s="85"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
+      <c r="A100" s="96"/>
+      <c r="B100" s="96"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="96"/>
+      <c r="E100" s="96"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="85"/>
-      <c r="B108" s="85"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="96"/>
+      <c r="E108" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -5187,11 +5461,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5221,30 +5490,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5379,11 +5648,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -5408,18 +5677,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -5598,11 +5867,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5632,30 +5901,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="88"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="84"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="81"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -5748,11 +6017,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -5777,18 +6046,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="81"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="87"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -6099,11 +6368,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -6128,30 +6397,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="86" t="s">
+      <c r="A67" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="87"/>
-      <c r="C67" s="87"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="87"/>
-      <c r="J67" s="88"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="84"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="79" t="s">
+      <c r="A68" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="80"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="81"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="87"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -6220,11 +6489,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="93" t="s">
+      <c r="A73" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="93"/>
-      <c r="C73" s="93"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="97"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -6249,18 +6518,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="79" t="s">
+      <c r="A74" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="81"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="87"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -6511,11 +6780,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="94" t="s">
+      <c r="A94" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="94"/>
-      <c r="C94" s="94"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6541,12 +6810,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6556,6 +6819,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="52">
   <si>
     <t>APRIL</t>
   </si>
@@ -402,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -633,9 +633,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J104"/>
+  <dimension ref="A2:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1006,30 +1003,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
+      <c r="A2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1228,11 +1225,11 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="15">
         <f>SUM(D5:D10)</f>
         <v>402629</v>
@@ -1257,18 +1254,18 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1">
       <c r="A13" s="16" t="s">
@@ -1302,7 +1299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="81" customFormat="1" ht="15.6">
+    <row r="14" spans="1:10" s="80" customFormat="1" ht="15.6">
       <c r="A14" s="18">
         <v>45019</v>
       </c>
@@ -1502,11 +1499,11 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="29">
         <f>SUM(D15:D19)</f>
         <v>15015.849999999999</v>
@@ -1531,30 +1528,30 @@
       <c r="J21" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="84"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="83"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="87"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
@@ -1659,11 +1656,11 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="30">
         <f>SUM(D26:D31)</f>
         <v>0</v>
@@ -1688,18 +1685,18 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="85" t="s">
+      <c r="A33" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="87"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1">
       <c r="A34" s="16" t="s">
@@ -2010,11 +2007,11 @@
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="90"/>
-      <c r="C58" s="91"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="30">
         <f>SUM(D35:D57)</f>
         <v>0</v>
@@ -2039,30 +2036,30 @@
       <c r="J58" s="30"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="84"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="83"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="87"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="86"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
@@ -2191,11 +2188,11 @@
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A71" s="88" t="s">
+      <c r="A71" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="88"/>
-      <c r="C71" s="88"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
       <c r="D71" s="30">
         <f>SUM(D63:D70)</f>
         <v>0</v>
@@ -2220,18 +2217,18 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="85" t="s">
+      <c r="A72" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="86"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="86"/>
-      <c r="I72" s="86"/>
-      <c r="J72" s="87"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="85"/>
+      <c r="J72" s="86"/>
     </row>
     <row r="73" spans="1:10" s="6" customFormat="1">
       <c r="A73" s="16" t="s">
@@ -2542,11 +2539,11 @@
       <c r="J96" s="8"/>
     </row>
     <row r="97" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A97" s="89" t="s">
+      <c r="A97" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="90"/>
-      <c r="C97" s="91"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="90"/>
       <c r="D97" s="30">
         <f>SUM(D74:D96)</f>
         <v>0</v>
@@ -2571,90 +2568,22 @@
       <c r="J97" s="30"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="79"/>
-      <c r="B98" s="79"/>
-      <c r="C98" s="79"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="80"/>
-      <c r="F98" s="80"/>
-      <c r="G98" s="80"/>
-      <c r="H98" s="80"/>
-      <c r="I98" s="80"/>
-      <c r="J98" s="80"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.6">
-      <c r="A99" s="78">
-        <v>44840</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D99" s="2">
-        <v>1850</v>
-      </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.6">
-      <c r="A100" s="78">
-        <v>44841</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="2">
-        <v>55015</v>
-      </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.6">
-      <c r="A101" s="78">
-        <v>44932</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D101" s="2">
-        <v>900</v>
-      </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="78">
-        <v>44965</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" s="2">
-        <v>7200</v>
-      </c>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="96"/>
-      <c r="B104" s="96"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="96"/>
-      <c r="E104" s="96"/>
+      <c r="A98" s="78"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="79"/>
+      <c r="H98" s="79"/>
+      <c r="I98" s="79"/>
+      <c r="J98" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A72:J72"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A104:E104"/>
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -2697,30 +2626,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2855,11 +2784,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -2884,18 +2813,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -3074,11 +3003,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -3108,30 +3037,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="83"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="87"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -3224,11 +3153,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -3253,18 +3182,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="87"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="86"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -3575,11 +3504,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="100" t="s">
+      <c r="A65" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -3604,30 +3533,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="82" t="s">
+      <c r="A67" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="84"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="83"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="85" t="s">
+      <c r="A68" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="86"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="87"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="86"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -3696,11 +3625,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="97" t="s">
+      <c r="A73" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="97"/>
-      <c r="C73" s="97"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -3725,18 +3654,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="85" t="s">
+      <c r="A74" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="86"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="86"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="87"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="86"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -3987,11 +3916,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="99" t="s">
+      <c r="A94" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="99"/>
-      <c r="C94" s="99"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="98"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -4061,30 +3990,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
+      <c r="A2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -4201,11 +4130,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -4230,18 +4159,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -4360,11 +4289,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="95"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -4389,30 +4318,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="84"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="83"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -4517,11 +4446,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -4546,18 +4475,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="87"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -4868,11 +4797,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="89" t="s">
+      <c r="A59" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="90"/>
-      <c r="C59" s="91"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -4897,30 +4826,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="84"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="83"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="85" t="s">
+      <c r="A62" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="87"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="86"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -5049,11 +4978,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="88" t="s">
+      <c r="A72" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="88"/>
-      <c r="C72" s="88"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -5078,18 +5007,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="85" t="s">
+      <c r="A73" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="86"/>
-      <c r="I73" s="86"/>
-      <c r="J73" s="87"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="86"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -5400,11 +5329,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="89" t="s">
+      <c r="A98" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="90"/>
-      <c r="C98" s="91"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="90"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -5429,18 +5358,18 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="96"/>
-      <c r="B100" s="96"/>
-      <c r="C100" s="96"/>
-      <c r="D100" s="96"/>
-      <c r="E100" s="96"/>
+      <c r="A100" s="95"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="95"/>
+      <c r="E100" s="95"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="96"/>
-      <c r="B108" s="96"/>
-      <c r="C108" s="96"/>
-      <c r="D108" s="96"/>
-      <c r="E108" s="96"/>
+      <c r="A108" s="95"/>
+      <c r="B108" s="95"/>
+      <c r="C108" s="95"/>
+      <c r="D108" s="95"/>
+      <c r="E108" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5490,30 +5419,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5648,11 +5577,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -5677,18 +5606,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -5867,11 +5796,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5901,30 +5830,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="83"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="87"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -6017,11 +5946,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -6046,18 +5975,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="87"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="86"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -6368,11 +6297,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="100" t="s">
+      <c r="A65" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -6397,30 +6326,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="82" t="s">
+      <c r="A67" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="84"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="83"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="85" t="s">
+      <c r="A68" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="86"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="87"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="86"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -6489,11 +6418,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="97" t="s">
+      <c r="A73" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="97"/>
-      <c r="C73" s="97"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -6518,18 +6447,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="85" t="s">
+      <c r="A74" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="86"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="86"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="87"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="86"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -6780,11 +6709,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="99" t="s">
+      <c r="A94" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="99"/>
-      <c r="C94" s="99"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="98"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="56">
   <si>
     <t>APRIL</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>SLH/135</t>
+  </si>
+  <si>
+    <t>b23-24MQ103</t>
+  </si>
+  <si>
+    <t>b23-24MQ104</t>
+  </si>
+  <si>
+    <t>b23-24MQ105</t>
+  </si>
+  <si>
+    <t>03/23-24</t>
   </si>
 </sst>
 </file>
@@ -644,6 +656,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -653,27 +686,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -686,20 +698,20 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J98"/>
+  <dimension ref="A2:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1003,30 +1015,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="A2" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1108,7 +1120,7 @@
         <v>4951.3500000000004</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H10" si="0">D6+E6+F6+G6</f>
+        <f t="shared" ref="H6:H13" si="0">D6+E6+F6+G6</f>
         <v>64917.7</v>
       </c>
       <c r="I6" s="9"/>
@@ -1191,7 +1203,7 @@
         <v>8233.11</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="0"/>
+        <f>D9+E9+F9+G9</f>
         <v>107945.22</v>
       </c>
       <c r="I9" s="9"/>
@@ -1224,424 +1236,482 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A11" s="91" t="s">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A11" s="11">
+        <v>45033</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4831</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <v>434.8</v>
+      </c>
+      <c r="G11" s="12">
+        <v>434.8</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5701</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A12" s="11">
+        <v>45033</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="12">
+        <v>249351</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>22441.59</v>
+      </c>
+      <c r="G12" s="12">
+        <v>22441.59</v>
+      </c>
+      <c r="H12" s="8">
+        <v>294234.2</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A13" s="11">
+        <v>45033</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="12">
+        <v>132820</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <v>11953.8</v>
+      </c>
+      <c r="G13" s="12">
+        <v>11953.8</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>156727.59999999998</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" s="10" customFormat="1" ht="21">
+      <c r="A14" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="15">
-        <f>SUM(D5:D10)</f>
-        <v>402629</v>
-      </c>
-      <c r="E11" s="15">
-        <f>SUM(E5:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <f>SUM(F5:F10)</f>
-        <v>36236.61</v>
-      </c>
-      <c r="G11" s="15">
-        <f>SUM(G5:G10)</f>
-        <v>36236.61</v>
-      </c>
-      <c r="H11" s="15">
-        <f>SUM(H5:H10)</f>
-        <v>475102.22000000003</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="84" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="15">
+        <f>SUM(D5:D13)</f>
+        <v>789631</v>
+      </c>
+      <c r="E14" s="15">
+        <f>SUM(E5:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <f>SUM(F5:F13)</f>
+        <v>71066.8</v>
+      </c>
+      <c r="G14" s="15">
+        <f>SUM(G5:G13)</f>
+        <v>71066.8</v>
+      </c>
+      <c r="H14" s="15">
+        <f>SUM(H5:H13)</f>
+        <v>931765.02</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="21">
+      <c r="A15" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1">
-      <c r="A13" s="16" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1">
+      <c r="A16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J16" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="80" customFormat="1" ht="15.6">
-      <c r="A14" s="18">
+    <row r="17" spans="1:10" s="80" customFormat="1" ht="15.6">
+      <c r="A17" s="18">
         <v>45019</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B17" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D17" s="19">
         <v>105</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="G14" s="19">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="H14" s="8">
-        <f>D14+E14+F14+G14</f>
-        <v>123.9</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A15" s="18">
-        <v>45020</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="19">
-        <v>2245</v>
-      </c>
-      <c r="E15" s="19">
-        <v>404.1</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="8">
-        <f>D15+E15+F15+G15</f>
-        <v>2649.1</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A16" s="18">
-        <v>45022</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="19">
-        <v>5677.14</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19">
-        <v>510.94</v>
-      </c>
-      <c r="G16" s="19">
-        <v>510.94</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" ref="H16:H20" si="1">D16+E16+F16+G16</f>
-        <v>6699.0199999999995</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A17" s="18">
-        <v>45024</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1712.01</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G17" s="19">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H17" s="8">
+        <f>D17+E17+F17+G17</f>
+        <v>123.9</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A18" s="18">
+        <v>45020</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="19">
+        <v>2245</v>
+      </c>
+      <c r="E18" s="19">
+        <v>404.1</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="8">
+        <f>D18+E18+F18+G18</f>
+        <v>2649.1</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A19" s="18">
+        <v>45022</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="19">
+        <v>5677.14</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19">
+        <v>510.94</v>
+      </c>
+      <c r="G19" s="19">
+        <v>510.94</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" ref="H19:H24" si="1">D19+E19+F19+G19</f>
+        <v>6699.0199999999995</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A20" s="18">
+        <v>45024</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1712.01</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19">
         <v>154.08000000000001</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G20" s="19">
         <v>154.08000000000001</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H20" s="8">
         <f t="shared" si="1"/>
         <v>2020.1699999999998</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8" t="s">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A18" s="21">
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A21" s="21">
         <v>45024</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B21" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D21" s="23">
         <v>2013</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E21" s="23">
         <v>242</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="8">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="8">
         <f t="shared" si="1"/>
         <v>2255</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23" t="s">
+      <c r="I21" s="23"/>
+      <c r="J21" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A19" s="21">
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A22" s="21">
         <v>45027</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C22" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D22" s="23">
         <v>3368.7</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23">
         <v>303.18</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G22" s="23">
         <v>303.18</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H22" s="8">
         <f t="shared" si="1"/>
         <v>3975.0599999999995</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23" t="s">
+      <c r="I22" s="23"/>
+      <c r="J22" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A20" s="21">
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A23" s="21">
         <v>45029</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D23" s="23">
         <v>1305</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
         <v>117.45</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G23" s="23">
         <v>117.45</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H23" s="8">
         <f t="shared" si="1"/>
         <v>1539.9</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23" t="s">
+      <c r="I23" s="23"/>
+      <c r="J23" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A21" s="92" t="s">
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A24" s="21">
+        <v>45030</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="23">
+        <v>22450</v>
+      </c>
+      <c r="E24" s="23">
+        <v>4041</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="8">
+        <f t="shared" si="1"/>
+        <v>26491</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A25" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="29">
-        <f>SUM(D15:D19)</f>
-        <v>15015.849999999999</v>
-      </c>
-      <c r="E21" s="29">
-        <f>SUM(E15:E19)</f>
-        <v>646.1</v>
-      </c>
-      <c r="F21" s="29">
-        <f>SUM(F15:F19)</f>
-        <v>968.2</v>
-      </c>
-      <c r="G21" s="29">
-        <f>SUM(G15:G19)</f>
-        <v>968.2</v>
-      </c>
-      <c r="H21" s="29">
-        <f>SUM(H15:H19)</f>
-        <v>17598.349999999999</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="81" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="29">
+        <f>SUM(D17:D24)</f>
+        <v>38875.85</v>
+      </c>
+      <c r="E25" s="29">
+        <f>SUM(E17:E24)</f>
+        <v>4687.1000000000004</v>
+      </c>
+      <c r="F25" s="29">
+        <f>SUM(F17:F24)</f>
+        <v>1095.1000000000001</v>
+      </c>
+      <c r="G25" s="29">
+        <f>SUM(G17:G24)</f>
+        <v>1095.1000000000001</v>
+      </c>
+      <c r="H25" s="29">
+        <f>SUM(H17:H24)</f>
+        <v>45753.15</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="27" spans="1:10" ht="21">
+      <c r="A27" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="83"/>
-    </row>
-    <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="84" t="s">
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="90"/>
+    </row>
+    <row r="28" spans="1:10" ht="21">
+      <c r="A28" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A25" s="3" t="s">
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A26" s="18"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A30" s="18"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A31" s="18"/>
@@ -1655,188 +1725,188 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A32" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="30">
-        <f>SUM(D26:D31)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="30">
-        <f>SUM(E26:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="30">
-        <f>SUM(F26:F31)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="30">
-        <f>SUM(G26:G31)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="30">
-        <f>SUM(H26:H31)</f>
-        <v>0</v>
-      </c>
+    <row r="32" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="84" t="s">
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A36" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="30">
+        <f>SUM(D30:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="30">
+        <f>SUM(E30:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="30">
+        <f>SUM(F30:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="30">
+        <f>SUM(G30:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="30">
+        <f>SUM(H30:H35)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" ht="21">
+      <c r="A37" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="86"/>
-    </row>
-    <row r="34" spans="1:10" s="6" customFormat="1">
-      <c r="A34" s="16" t="s">
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="84"/>
+    </row>
+    <row r="38" spans="1:10" s="6" customFormat="1">
+      <c r="A38" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B38" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D38" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F38" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G38" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H38" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I38" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J38" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A35" s="7"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-    </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A38" s="11"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="28"/>
-    </row>
     <row r="39" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A39" s="11"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="22"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A41" s="11"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="22"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="J42" s="28"/>
     </row>
     <row r="43" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A44" s="11"/>
@@ -1850,10 +1920,10 @@
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A45" s="11"/>
       <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -1876,87 +1946,87 @@
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A47" s="11"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="28"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="22"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A48" s="33"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="34"/>
-    </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="22"/>
     </row>
     <row r="52" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="34"/>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
     </row>
     <row r="54" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A54" s="7"/>
@@ -2006,136 +2076,136 @@
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A58" s="88" t="s">
+    <row r="58" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A62" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="30">
-        <f>SUM(D35:D57)</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="30">
-        <f>SUM(E35:E57)</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="30">
-        <f>SUM(F35:F57)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="30">
-        <f>SUM(G35:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="30">
-        <f>SUM(H35:H57)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-    </row>
-    <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="81" t="s">
+      <c r="B62" s="86"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="30">
+        <f>SUM(D39:D61)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="30">
+        <f>SUM(E39:E61)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="30">
+        <f>SUM(F39:F61)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="30">
+        <f>SUM(G39:G61)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="30">
+        <f>SUM(H39:H61)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+    </row>
+    <row r="64" spans="1:10" ht="21">
+      <c r="A64" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="83"/>
-    </row>
-    <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="84" t="s">
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="90"/>
+    </row>
+    <row r="65" spans="1:10" ht="21">
+      <c r="A65" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A62" s="3" t="s">
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
@@ -2151,9 +2221,9 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="68" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -2187,168 +2257,168 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A71" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="30">
-        <f>SUM(D63:D70)</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="30">
-        <f>SUM(E63:E70)</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="30">
-        <f>SUM(F63:F70)</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="30">
-        <f>SUM(G63:G70)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="30">
-        <f>SUM(H63:H70)</f>
-        <v>0</v>
-      </c>
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="84" t="s">
+    <row r="72" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A73" s="18"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A75" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="81"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="30">
+        <f>SUM(D67:D74)</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="30">
+        <f>SUM(E67:E74)</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="30">
+        <f>SUM(F67:F74)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="30">
+        <f>SUM(G67:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="30">
+        <f>SUM(H67:H74)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" ht="21">
+      <c r="A76" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="86"/>
-    </row>
-    <row r="73" spans="1:10" s="6" customFormat="1">
-      <c r="A73" s="16" t="s">
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="84"/>
+    </row>
+    <row r="77" spans="1:10" s="6" customFormat="1">
+      <c r="A77" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B77" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D77" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E77" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F77" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G77" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H73" s="17" t="s">
+      <c r="H77" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I73" s="17" t="s">
+      <c r="I77" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J73" s="17" t="s">
+      <c r="J77" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A74" s="31"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A75" s="11"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="28"/>
-    </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A76" s="37"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-    </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-    </row>
     <row r="78" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A79" s="7"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="28"/>
     </row>
     <row r="80" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A80" s="7"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="38"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A81" s="7"/>
-      <c r="B81" s="38"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -2360,7 +2430,7 @@
     </row>
     <row r="82" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A82" s="7"/>
-      <c r="B82" s="38"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -2446,7 +2516,7 @@
       <c r="A89" s="7"/>
       <c r="B89" s="38"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="41"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
@@ -2458,7 +2528,7 @@
       <c r="A90" s="7"/>
       <c r="B90" s="38"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="41"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
@@ -2470,7 +2540,7 @@
       <c r="A91" s="7"/>
       <c r="B91" s="38"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="41"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -2482,7 +2552,7 @@
       <c r="A92" s="7"/>
       <c r="B92" s="38"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="41"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
@@ -2490,9 +2560,9 @@
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="93" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A93" s="7"/>
-      <c r="B93" s="19"/>
+      <c r="B93" s="38"/>
       <c r="C93" s="8"/>
       <c r="D93" s="41"/>
       <c r="E93" s="8"/>
@@ -2506,7 +2576,7 @@
       <c r="A94" s="7"/>
       <c r="B94" s="38"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
+      <c r="D94" s="41"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -2514,23 +2584,23 @@
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+    <row r="95" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A95" s="7"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="8"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="41"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="19"/>
+      <c r="J95" s="8"/>
     </row>
     <row r="96" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
+      <c r="B96" s="38"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
+      <c r="D96" s="41"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
@@ -2538,64 +2608,112 @@
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A97" s="88" t="s">
+    <row r="97" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A97" s="7"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+    </row>
+    <row r="98" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A98" s="7"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+    </row>
+    <row r="99" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A99" s="7"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="19"/>
+    </row>
+    <row r="100" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+    </row>
+    <row r="101" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A101" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="89"/>
-      <c r="C97" s="90"/>
-      <c r="D97" s="30">
-        <f>SUM(D74:D96)</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="30">
-        <f>SUM(E74:E96)</f>
-        <v>0</v>
-      </c>
-      <c r="F97" s="30">
-        <f>SUM(F74:F96)</f>
-        <v>0</v>
-      </c>
-      <c r="G97" s="30">
-        <f>SUM(G74:G96)</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="30">
-        <f>SUM(H74:H96)</f>
-        <v>0</v>
-      </c>
-      <c r="I97" s="30"/>
-      <c r="J97" s="30"/>
-    </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="78"/>
-      <c r="B98" s="78"/>
-      <c r="C98" s="78"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="79"/>
-      <c r="H98" s="79"/>
-      <c r="I98" s="79"/>
-      <c r="J98" s="79"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="30">
+        <f>SUM(D78:D100)</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="30">
+        <f>SUM(E78:E100)</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="30">
+        <f>SUM(F78:F100)</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="30">
+        <f>SUM(G78:G100)</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="30">
+        <f>SUM(H78:H100)</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+    </row>
+    <row r="102" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A102" s="78"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="79"/>
+      <c r="J102" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A65:H65"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A62:C62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2606,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A89" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2626,30 +2744,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2784,11 +2902,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -2813,18 +2931,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="86"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -3003,11 +3121,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -3037,30 +3155,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="83"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="86"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -3153,11 +3271,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -3182,18 +3300,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="86"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="84"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -3504,11 +3622,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="99" t="s">
+      <c r="A65" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="98"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -3533,30 +3651,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="81" t="s">
+      <c r="A67" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="83"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="90"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="86"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="84"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -3625,11 +3743,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="96" t="s">
+      <c r="A73" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -3654,18 +3772,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="86"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="84"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -3916,11 +4034,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="98" t="s">
+      <c r="A94" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="98"/>
-      <c r="C94" s="98"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="97"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -3990,30 +4108,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="A2" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -4159,18 +4277,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="86"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -4318,30 +4436,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="83"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="90"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="86"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -4446,11 +4564,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -4475,18 +4593,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="86"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="84"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -4797,11 +4915,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="89"/>
-      <c r="C59" s="90"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -4826,30 +4944,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="81" t="s">
+      <c r="A61" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="83"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="86"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="84"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -4978,11 +5096,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="87" t="s">
+      <c r="A72" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -5007,18 +5125,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="86"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="84"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -5329,11 +5447,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="88" t="s">
+      <c r="A98" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="89"/>
-      <c r="C98" s="90"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="87"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -5358,18 +5476,18 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="95"/>
-      <c r="B100" s="95"/>
-      <c r="C100" s="95"/>
-      <c r="D100" s="95"/>
-      <c r="E100" s="95"/>
+      <c r="A100" s="99"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="99"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="95"/>
-      <c r="B108" s="95"/>
-      <c r="C108" s="95"/>
-      <c r="D108" s="95"/>
-      <c r="E108" s="95"/>
+      <c r="A108" s="99"/>
+      <c r="B108" s="99"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="99"/>
+      <c r="E108" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5419,30 +5537,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5577,11 +5695,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -5606,18 +5724,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="86"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -5796,11 +5914,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5830,30 +5948,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="83"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="86"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -5946,11 +6064,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -5975,18 +6093,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="86"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="84"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -6297,11 +6415,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="99" t="s">
+      <c r="A65" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="98"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -6326,30 +6444,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="81" t="s">
+      <c r="A67" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="83"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="90"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="86"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="84"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -6418,11 +6536,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="96" t="s">
+      <c r="A73" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -6447,18 +6565,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="86"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="84"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -6709,11 +6827,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="98" t="s">
+      <c r="A94" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="98"/>
-      <c r="C94" s="98"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="97"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="69">
   <si>
     <t>APRIL</t>
   </si>
@@ -190,6 +190,45 @@
   </si>
   <si>
     <t>03/23-24</t>
+  </si>
+  <si>
+    <t>Digiserve</t>
+  </si>
+  <si>
+    <t>Digi.2324/0090</t>
+  </si>
+  <si>
+    <t>30AJKPJ5402A2Z1</t>
+  </si>
+  <si>
+    <t>06/23-24</t>
+  </si>
+  <si>
+    <t>02/23-24</t>
+  </si>
+  <si>
+    <t>27AAICN6069P1ZL</t>
+  </si>
+  <si>
+    <t>b23-24MQ107</t>
+  </si>
+  <si>
+    <t>b23-24MQ108</t>
+  </si>
+  <si>
+    <t>Collective Trade Links Pvt Ltd</t>
+  </si>
+  <si>
+    <t>I-C-1-23-450387</t>
+  </si>
+  <si>
+    <t>24AACCC4813C1ZB</t>
+  </si>
+  <si>
+    <t>Messung Systems Pvt Ltd</t>
+  </si>
+  <si>
+    <t>27AABCM1832E1ZV</t>
   </si>
 </sst>
 </file>
@@ -701,13 +740,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -993,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J102"/>
+  <dimension ref="A2:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1120,7 +1159,7 @@
         <v>4951.3500000000004</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H13" si="0">D6+E6+F6+G6</f>
+        <f t="shared" ref="H6:H15" si="0">D6+E6+F6+G6</f>
         <v>64917.7</v>
       </c>
       <c r="I6" s="9"/>
@@ -1315,496 +1354,585 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A14" s="91" t="s">
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A14" s="11">
+        <v>45038</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="12">
+        <v>128790</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
+        <v>11591</v>
+      </c>
+      <c r="G14" s="12">
+        <v>11591</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>151972</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A15" s="11">
+        <v>45043</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="12">
+        <v>196927</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12">
+        <v>17723.400000000001</v>
+      </c>
+      <c r="G15" s="12">
+        <v>17723.400000000001</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>232373.8</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" s="10" customFormat="1" ht="21">
+      <c r="A16" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="15">
-        <f>SUM(D5:D13)</f>
-        <v>789631</v>
-      </c>
-      <c r="E14" s="15">
-        <f>SUM(E5:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <f>SUM(F5:F13)</f>
-        <v>71066.8</v>
-      </c>
-      <c r="G14" s="15">
-        <f>SUM(G5:G13)</f>
-        <v>71066.8</v>
-      </c>
-      <c r="H14" s="15">
-        <f>SUM(H5:H13)</f>
-        <v>931765.02</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="82" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="15">
+        <f>SUM(D5:D15)</f>
+        <v>1115348</v>
+      </c>
+      <c r="E16" s="15">
+        <f>SUM(E5:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <f>SUM(F5:F15)</f>
+        <v>100381.20000000001</v>
+      </c>
+      <c r="G16" s="15">
+        <f>SUM(G5:G15)</f>
+        <v>100381.20000000001</v>
+      </c>
+      <c r="H16" s="15">
+        <f>SUM(H5:H15)</f>
+        <v>1316110.82</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="21">
+      <c r="A17" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
-    </row>
-    <row r="16" spans="1:10" s="6" customFormat="1">
-      <c r="A16" s="16" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1">
+      <c r="A18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J18" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="80" customFormat="1" ht="15.6">
-      <c r="A17" s="18">
+    <row r="19" spans="1:10" s="80" customFormat="1" ht="15.6">
+      <c r="A19" s="18">
         <v>45019</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B19" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D19" s="19">
         <v>105</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="G17" s="19">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="H17" s="8">
-        <f>D17+E17+F17+G17</f>
-        <v>123.9</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A18" s="18">
-        <v>45020</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2245</v>
-      </c>
-      <c r="E18" s="19">
-        <v>404.1</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="8">
-        <f>D18+E18+F18+G18</f>
-        <v>2649.1</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A19" s="18">
-        <v>45022</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="19">
-        <v>5677.14</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19">
-        <v>510.94</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="G19" s="19">
-        <v>510.94</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" ref="H19:H24" si="1">D19+E19+F19+G19</f>
-        <v>6699.0199999999995</v>
+        <f>D19+E19+F19+G19</f>
+        <v>123.9</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" ht="15.6">
       <c r="A20" s="18">
+        <v>45020</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="19">
+        <v>2245</v>
+      </c>
+      <c r="E20" s="19">
+        <v>404.1</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="8">
+        <f>D20+E20+F20+G20</f>
+        <v>2649.1</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A21" s="18">
+        <v>45022</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="19">
+        <v>5677.14</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19">
+        <v>510.94</v>
+      </c>
+      <c r="G21" s="19">
+        <v>510.94</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" ref="H21:H33" si="1">D21+E21+F21+G21</f>
+        <v>6699.0199999999995</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A22" s="18">
         <v>45024</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D22" s="19">
         <v>1712.01</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19">
         <v>154.08000000000001</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G22" s="19">
         <v>154.08000000000001</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H22" s="8">
         <f t="shared" si="1"/>
         <v>2020.1699999999998</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="s">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A21" s="21">
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A23" s="21">
         <v>45024</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B23" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D23" s="23">
         <v>2013</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E23" s="23">
         <v>242</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="8">
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="8">
         <f t="shared" si="1"/>
         <v>2255</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23" t="s">
+      <c r="I23" s="23"/>
+      <c r="J23" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A22" s="21">
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A24" s="21">
         <v>45027</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D24" s="23">
         <v>3368.7</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23">
         <v>303.18</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G24" s="23">
         <v>303.18</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H24" s="8">
         <f t="shared" si="1"/>
         <v>3975.0599999999995</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23" t="s">
+      <c r="I24" s="23"/>
+      <c r="J24" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A23" s="21">
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A25" s="21">
+        <v>45028</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="23">
+        <v>80025</v>
+      </c>
+      <c r="E25" s="23">
+        <v>14404.5</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="8">
+        <v>94430</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A26" s="21">
         <v>45029</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D26" s="23">
         <v>1305</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23">
         <v>117.45</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G26" s="23">
         <v>117.45</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H26" s="8">
         <f t="shared" si="1"/>
         <v>1539.9</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23" t="s">
+      <c r="I26" s="23"/>
+      <c r="J26" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A24" s="21">
+    <row r="27" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A27" s="21">
         <v>45030</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C27" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D27" s="23">
         <v>22450</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E27" s="23">
         <v>4041</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="8">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="8">
         <f t="shared" si="1"/>
         <v>26491</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A25" s="92" t="s">
+      <c r="I27" s="23"/>
+      <c r="J27" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A28" s="21">
+        <v>45036</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="23">
+        <v>79000</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23">
+        <v>7110</v>
+      </c>
+      <c r="G28" s="23">
+        <v>7110</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="1"/>
+        <v>93220</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A29" s="21">
+        <v>45036</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="23">
+        <v>33000</v>
+      </c>
+      <c r="E29" s="23">
+        <v>5940</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="8">
+        <f t="shared" si="1"/>
+        <v>38940</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A30" s="21">
+        <v>45041</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="23">
+        <v>96050</v>
+      </c>
+      <c r="E30" s="23">
+        <v>17289</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="8">
+        <f t="shared" si="1"/>
+        <v>113339</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A31" s="21">
+        <v>45043</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="23">
+        <v>620024</v>
+      </c>
+      <c r="D31" s="23">
+        <v>53344</v>
+      </c>
+      <c r="E31" s="23">
+        <v>9601.92</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="8">
+        <f t="shared" si="1"/>
+        <v>62945.919999999998</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A32" s="21">
+        <v>45044</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="23">
+        <v>65230</v>
+      </c>
+      <c r="E32" s="23">
+        <v>11741</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="8">
+        <f t="shared" si="1"/>
+        <v>76971</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A33" s="21"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A34" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="29">
-        <f>SUM(D17:D24)</f>
-        <v>38875.85</v>
-      </c>
-      <c r="E25" s="29">
-        <f>SUM(E17:E24)</f>
-        <v>4687.1000000000004</v>
-      </c>
-      <c r="F25" s="29">
-        <f>SUM(F17:F24)</f>
-        <v>1095.1000000000001</v>
-      </c>
-      <c r="G25" s="29">
-        <f>SUM(G17:G24)</f>
-        <v>1095.1000000000001</v>
-      </c>
-      <c r="H25" s="29">
-        <f>SUM(H17:H24)</f>
-        <v>45753.15</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-    </row>
-    <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="88" t="s">
+      <c r="B34" s="93"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="29">
+        <f>SUM(D19:D32)</f>
+        <v>445524.85</v>
+      </c>
+      <c r="E34" s="29">
+        <f>SUM(E19:E32)</f>
+        <v>63663.519999999997</v>
+      </c>
+      <c r="F34" s="29">
+        <f>SUM(F19:F30)</f>
+        <v>8205.1</v>
+      </c>
+      <c r="G34" s="29">
+        <f>SUM(G19:G30)</f>
+        <v>8205.1</v>
+      </c>
+      <c r="H34" s="29">
+        <f>SUM(H19:H30)</f>
+        <v>385682.15</v>
+      </c>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="36" spans="1:10" ht="21">
+      <c r="A36" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="90"/>
-    </row>
-    <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A30" s="18"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A36" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="30">
-        <f>SUM(D30:D35)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="30">
-        <f>SUM(E30:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="30">
-        <f>SUM(F30:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="30">
-        <f>SUM(G30:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="30">
-        <f>SUM(H30:H35)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="90"/>
     </row>
     <row r="37" spans="1:10" ht="21">
       <c r="A37" s="82" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B37" s="83"/>
       <c r="C37" s="83"/>
@@ -1812,721 +1940,756 @@
       <c r="E37" s="83"/>
       <c r="F37" s="83"/>
       <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="84"/>
-    </row>
-    <row r="38" spans="1:10" s="6" customFormat="1">
-      <c r="A38" s="16" t="s">
+      <c r="H37" s="84"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="16" t="s">
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="16" t="s">
+      <c r="E38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A39" s="7"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" s="14" customFormat="1" ht="15.6">
       <c r="A42" s="11"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="28"/>
-    </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="H42" s="19"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" s="14" customFormat="1" ht="15.6">
       <c r="A43" s="11"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="22"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A45" s="11"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="22"/>
-    </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A45" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="30">
+        <f>SUM(D39:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="30">
+        <f>SUM(E39:E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="30">
+        <f>SUM(F39:F44)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="30">
+        <f>SUM(G39:G44)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="30">
+        <f>SUM(H39:H44)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" ht="21">
+      <c r="A46" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="84"/>
+    </row>
+    <row r="47" spans="1:10" s="6" customFormat="1">
+      <c r="A47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="48" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="22"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A51" s="11"/>
       <c r="B51" s="22"/>
-      <c r="C51" s="28"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="22"/>
+      <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A52" s="33"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="34"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="22"/>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="22"/>
     </row>
     <row r="55" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A58" s="11"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="22"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="22"/>
     </row>
     <row r="61" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A62" s="85" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="34"/>
+    </row>
+    <row r="62" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+    </row>
+    <row r="63" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A71" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="30">
-        <f>SUM(D39:D61)</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="30">
-        <f>SUM(E39:E61)</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="30">
-        <f>SUM(F39:F61)</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="30">
-        <f>SUM(G39:G61)</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="30">
-        <f>SUM(H39:H61)</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-    </row>
-    <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="88" t="s">
+      <c r="B71" s="86"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="30">
+        <f>SUM(D48:D70)</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="30">
+        <f>SUM(E48:E70)</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="30">
+        <f>SUM(F48:F70)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="30">
+        <f>SUM(G48:G70)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="30">
+        <f>SUM(H48:H70)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+    </row>
+    <row r="73" spans="1:10" ht="21">
+      <c r="A73" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="90"/>
-    </row>
-    <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="82" t="s">
+      <c r="B73" s="89"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="89"/>
+      <c r="I73" s="89"/>
+      <c r="J73" s="90"/>
+    </row>
+    <row r="74" spans="1:10" ht="21">
+      <c r="A74" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A66" s="3" t="s">
+      <c r="B74" s="83"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A75" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="81"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="30">
-        <f>SUM(D67:D74)</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="30">
-        <f>SUM(E67:E74)</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="30">
-        <f>SUM(F67:F74)</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="30">
-        <f>SUM(G67:G74)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="30">
-        <f>SUM(H67:H74)</f>
-        <v>0</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="82" t="s">
+    <row r="76" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="18"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A78" s="18"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A84" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="81"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="30">
+        <f>SUM(D76:D83)</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="30">
+        <f>SUM(E76:E83)</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="30">
+        <f>SUM(F76:F83)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="30">
+        <f>SUM(G76:G83)</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="30">
+        <f>SUM(H76:H83)</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" ht="21">
+      <c r="A85" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="84"/>
-    </row>
-    <row r="77" spans="1:10" s="6" customFormat="1">
-      <c r="A77" s="16" t="s">
+      <c r="B85" s="83"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="83"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="83"/>
+      <c r="J85" s="84"/>
+    </row>
+    <row r="86" spans="1:10" s="6" customFormat="1">
+      <c r="A86" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B86" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C86" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D86" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E86" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F86" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G86" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H77" s="17" t="s">
+      <c r="H86" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I77" s="17" t="s">
+      <c r="I86" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J77" s="17" t="s">
+      <c r="J86" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A78" s="31"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A79" s="11"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="28"/>
-    </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A80" s="37"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-    </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-    </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A83" s="7"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-    </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A84" s="7"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-    </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A85" s="7"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-    </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A86" s="7"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-    </row>
     <row r="87" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A87" s="7"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A88" s="7"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="28"/>
     </row>
     <row r="89" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A89" s="7"/>
+      <c r="A89" s="37"/>
       <c r="B89" s="38"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A90" s="7"/>
-      <c r="B90" s="38"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -2538,7 +2701,7 @@
     </row>
     <row r="91" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A91" s="7"/>
-      <c r="B91" s="38"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -2564,7 +2727,7 @@
       <c r="A93" s="7"/>
       <c r="B93" s="38"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="41"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
@@ -2576,7 +2739,7 @@
       <c r="A94" s="7"/>
       <c r="B94" s="38"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="41"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -2588,7 +2751,7 @@
       <c r="A95" s="7"/>
       <c r="B95" s="38"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="41"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
@@ -2600,7 +2763,7 @@
       <c r="A96" s="7"/>
       <c r="B96" s="38"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="41"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
@@ -2608,11 +2771,11 @@
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="97" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A97" s="7"/>
-      <c r="B97" s="19"/>
+      <c r="B97" s="38"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="41"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
@@ -2632,21 +2795,21 @@
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+    <row r="99" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A99" s="7"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
-      <c r="J99" s="19"/>
+      <c r="J99" s="8"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
+      <c r="B100" s="38"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -2656,64 +2819,172 @@
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
     </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A101" s="85" t="s">
+    <row r="101" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A101" s="7"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+    </row>
+    <row r="102" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A102" s="7"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+    </row>
+    <row r="103" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A103" s="7"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+    </row>
+    <row r="104" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A104" s="7"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+    </row>
+    <row r="105" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A105" s="7"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+    </row>
+    <row r="106" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A106" s="7"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+    </row>
+    <row r="107" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A107" s="7"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+    </row>
+    <row r="108" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A108" s="7"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="19"/>
+    </row>
+    <row r="109" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A109" s="7"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+    </row>
+    <row r="110" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A110" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="86"/>
-      <c r="C101" s="87"/>
-      <c r="D101" s="30">
-        <f>SUM(D78:D100)</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="30">
-        <f>SUM(E78:E100)</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="30">
-        <f>SUM(F78:F100)</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="30">
-        <f>SUM(G78:G100)</f>
-        <v>0</v>
-      </c>
-      <c r="H101" s="30">
-        <f>SUM(H78:H100)</f>
-        <v>0</v>
-      </c>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
-    </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A102" s="78"/>
-      <c r="B102" s="78"/>
-      <c r="C102" s="78"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="79"/>
-      <c r="H102" s="79"/>
-      <c r="I102" s="79"/>
-      <c r="J102" s="79"/>
+      <c r="B110" s="86"/>
+      <c r="C110" s="87"/>
+      <c r="D110" s="30">
+        <f>SUM(D87:D109)</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="30">
+        <f>SUM(E87:E109)</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="30">
+        <f>SUM(F87:F109)</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="30">
+        <f>SUM(G87:G109)</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="30">
+        <f>SUM(H87:H109)</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+    </row>
+    <row r="111" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A111" s="78"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="79"/>
+      <c r="I111" s="79"/>
+      <c r="J111" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A74:H74"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A71:C71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3121,11 +3392,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -3622,11 +3893,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="98"/>
-      <c r="C65" s="98"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -4034,11 +4305,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="97" t="s">
+      <c r="A94" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="96"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -4064,6 +4335,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -4073,12 +4350,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5491,11 +5762,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -5508,6 +5774,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5914,11 +6185,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -6415,11 +6686,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="98"/>
-      <c r="C65" s="98"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -6827,11 +7098,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="97" t="s">
+      <c r="A94" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="96"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6857,6 +7128,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6866,12 +7143,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="89">
   <si>
     <t>APRIL</t>
   </si>
@@ -229,13 +229,73 @@
   </si>
   <si>
     <t>27AABCM1832E1ZV</t>
+  </si>
+  <si>
+    <t>M/s Bale &amp; Sons</t>
+  </si>
+  <si>
+    <t>30ACBPB6928R1ZI</t>
+  </si>
+  <si>
+    <t>MULRAJ DEVCHAND THAKKAR</t>
+  </si>
+  <si>
+    <t>30ABDPT7716Q1Z6</t>
+  </si>
+  <si>
+    <t>MD/23/24/00990</t>
+  </si>
+  <si>
+    <t>REYNOBOND INDIA</t>
+  </si>
+  <si>
+    <t>29ABCFR3062L1ZW</t>
+  </si>
+  <si>
+    <t>RIBA-2324-142</t>
+  </si>
+  <si>
+    <t>CLICKTECH RETAIL PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>29AAJCC9783E1Z3</t>
+  </si>
+  <si>
+    <t>BLR8-66224</t>
+  </si>
+  <si>
+    <t>Sodiem Village Panchayat</t>
+  </si>
+  <si>
+    <t>b22-23MQ311</t>
+  </si>
+  <si>
+    <t>Nerul Village Panchayat</t>
+  </si>
+  <si>
+    <t>b22-23MQ421</t>
+  </si>
+  <si>
+    <t>VRL LOGISTICS LIMITED, VIJAYANAND TRAVELS, MARUTI PARCEL CARRIERS</t>
+  </si>
+  <si>
+    <t>24AABCV3609C1ZT</t>
+  </si>
+  <si>
+    <t>Max International</t>
+  </si>
+  <si>
+    <t>27AFPPA1991L1Z1</t>
+  </si>
+  <si>
+    <t>19/2023-2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +337,11 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="Calibri  "/>
     </font>
   </fonts>
@@ -453,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,6 +760,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -751,6 +834,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J111"/>
+  <dimension ref="A2:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1045,7 +1137,7 @@
     <col min="3" max="3" width="18.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.88671875" style="1" customWidth="1"/>
@@ -1054,30 +1146,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1110,927 +1202,985 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A5" s="21">
-        <v>44840</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="23">
-        <v>1850</v>
+      <c r="A5" s="7">
+        <v>45020</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8">
+        <v>91479</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8">
-        <v>166.5</v>
+        <v>8233.11</v>
       </c>
       <c r="G5" s="8">
-        <v>166.5</v>
+        <v>8233.11</v>
       </c>
       <c r="H5" s="8">
         <f>D5+E5+F5+G5</f>
-        <v>2183</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>107945.22</v>
+      </c>
+      <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A6" s="21">
-        <v>44841</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="23">
-        <v>55015</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>4951.3500000000004</v>
-      </c>
-      <c r="G6" s="8">
-        <v>4951.3500000000004</v>
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A6" s="11">
+        <v>45020</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="12">
+        <v>246185</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
+        <v>22156.65</v>
+      </c>
+      <c r="G6" s="12">
+        <v>22156.65</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H15" si="0">D6+E6+F6+G6</f>
-        <v>64917.7</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A7" s="21">
-        <v>44932</v>
-      </c>
-      <c r="B7" s="23" t="s">
+        <f t="shared" ref="H6:H11" si="0">D6+E6+F6+G6</f>
+        <v>290498.30000000005</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A7" s="11">
+        <v>45033</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="23">
-        <v>900</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
-        <v>81</v>
-      </c>
-      <c r="G7" s="8">
-        <v>81</v>
+      <c r="C7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4831</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <v>434.8</v>
+      </c>
+      <c r="G7" s="12">
+        <v>434.8</v>
       </c>
       <c r="H7" s="8">
+        <v>5701</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A8" s="11">
+        <v>45033</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="12">
+        <v>249351</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
+        <v>22441.59</v>
+      </c>
+      <c r="G8" s="12">
+        <v>22441.59</v>
+      </c>
+      <c r="H8" s="8">
+        <v>294234.2</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A9" s="11">
+        <v>45033</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="12">
+        <v>132820</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <v>11953.8</v>
+      </c>
+      <c r="G9" s="12">
+        <v>11953.8</v>
+      </c>
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>1062</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A8" s="21">
-        <v>44965</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="23">
-        <v>7200</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
-        <v>648</v>
-      </c>
-      <c r="G8" s="8">
-        <v>648</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>8496</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A9" s="7">
-        <v>45020</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="8">
-        <v>91479</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <v>8233.11</v>
-      </c>
-      <c r="G9" s="8">
-        <v>8233.11</v>
-      </c>
-      <c r="H9" s="8">
-        <f>D9+E9+F9+G9</f>
-        <v>107945.22</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+        <v>156727.59999999998</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="15.6">
       <c r="A10" s="11">
-        <v>45020</v>
+        <v>45038</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D10" s="12">
-        <v>246185</v>
+        <v>128790</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12">
-        <v>22156.65</v>
+        <v>11591</v>
       </c>
       <c r="G10" s="12">
-        <v>22156.65</v>
+        <v>11591</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="0"/>
-        <v>290498.30000000005</v>
+        <v>151972</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="15.6">
       <c r="A11" s="11">
-        <v>45033</v>
+        <v>45043</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D11" s="12">
-        <v>4831</v>
+        <v>196927</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12">
-        <v>434.8</v>
+        <v>17723.400000000001</v>
       </c>
       <c r="G11" s="12">
-        <v>434.8</v>
+        <v>17723.400000000001</v>
       </c>
       <c r="H11" s="8">
-        <v>5701</v>
+        <f t="shared" si="0"/>
+        <v>232373.8</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A12" s="11">
-        <v>45033</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="12">
-        <v>249351</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
-        <v>22441.59</v>
-      </c>
-      <c r="G12" s="12">
-        <v>22441.59</v>
-      </c>
-      <c r="H12" s="8">
-        <v>294234.2</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A13" s="11">
-        <v>45033</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="12">
-        <v>132820</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
-        <v>11953.8</v>
-      </c>
-      <c r="G13" s="12">
-        <v>11953.8</v>
-      </c>
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
-        <v>156727.59999999998</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A14" s="11">
-        <v>45038</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="12">
-        <v>128790</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <v>11591</v>
-      </c>
-      <c r="G14" s="12">
-        <v>11591</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="0"/>
-        <v>151972</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A15" s="11">
-        <v>45043</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="12">
-        <v>196927</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12">
-        <v>17723.400000000001</v>
-      </c>
-      <c r="G15" s="12">
-        <v>17723.400000000001</v>
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
+      <c r="A12" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="15">
+        <f>SUM(D5:D11)</f>
+        <v>1050383</v>
+      </c>
+      <c r="E12" s="15">
+        <f>SUM(E5:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <f>SUM(F5:F11)</f>
+        <v>94534.35</v>
+      </c>
+      <c r="G12" s="15">
+        <f>SUM(G5:G11)</f>
+        <v>94534.35</v>
+      </c>
+      <c r="H12" s="15">
+        <f>SUM(H5:H11)</f>
+        <v>1239452.1199999999</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="21">
+      <c r="A13" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="90"/>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1">
+      <c r="A14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="80" customFormat="1" ht="15.6">
+      <c r="A15" s="18">
+        <v>45019</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="19">
+        <v>105</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G15" s="19">
+        <v>9.4499999999999993</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="0"/>
-        <v>232373.8</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A16" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="15">
-        <f>SUM(D5:D15)</f>
-        <v>1115348</v>
-      </c>
-      <c r="E16" s="15">
-        <f>SUM(E5:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <f>SUM(F5:F15)</f>
-        <v>100381.20000000001</v>
-      </c>
-      <c r="G16" s="15">
-        <f>SUM(G5:G15)</f>
-        <v>100381.20000000001</v>
-      </c>
-      <c r="H16" s="15">
-        <f>SUM(H5:H15)</f>
-        <v>1316110.82</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="84"/>
-    </row>
-    <row r="18" spans="1:10" s="6" customFormat="1">
-      <c r="A18" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="80" customFormat="1" ht="15.6">
+        <f>D15+E15+F15+G15</f>
+        <v>123.9</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A16" s="18">
+        <v>45020</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2245</v>
+      </c>
+      <c r="E16" s="19">
+        <v>404.1</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="8">
+        <f>D16+E16+F16+G16</f>
+        <v>2649.1</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A17" s="18">
+        <v>45022</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="19">
+        <v>5677.14</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19">
+        <v>510.94</v>
+      </c>
+      <c r="G17" s="19">
+        <v>510.94</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" ref="H17:H36" si="1">D17+E17+F17+G17</f>
+        <v>6699.0199999999995</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A18" s="106">
+        <v>45022</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="57">
+        <v>8424</v>
+      </c>
+      <c r="E18" s="57">
+        <v>1516.32</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58">
+        <f t="shared" si="1"/>
+        <v>9940.32</v>
+      </c>
+      <c r="I18" s="58"/>
+      <c r="J18" s="107" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="15.6">
       <c r="A19" s="18">
-        <v>45019</v>
+        <v>45024</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D19" s="19">
-        <v>105</v>
+        <v>1712.01</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19">
-        <v>9.4499999999999993</v>
+        <v>154.08000000000001</v>
       </c>
       <c r="G19" s="19">
-        <v>9.4499999999999993</v>
+        <v>154.08000000000001</v>
       </c>
       <c r="H19" s="8">
-        <f>D19+E19+F19+G19</f>
-        <v>123.9</v>
+        <f t="shared" si="1"/>
+        <v>2020.1699999999998</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A20" s="18">
-        <v>45020</v>
-      </c>
-      <c r="B20" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A20" s="21">
+        <v>45024</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="23">
+        <v>2013</v>
+      </c>
+      <c r="E20" s="23">
+        <v>242</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
+        <v>2255</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A21" s="21">
+        <v>45027</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="23">
+        <v>3368.7</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23">
+        <v>303.18</v>
+      </c>
+      <c r="G21" s="23">
+        <v>303.18</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="1"/>
+        <v>3975.0599999999995</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A22" s="21">
+        <v>45028</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="19">
-        <v>2245</v>
-      </c>
-      <c r="E20" s="19">
-        <v>404.1</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="8">
-        <f>D20+E20+F20+G20</f>
-        <v>2649.1</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A21" s="18">
-        <v>45022</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="19">
-        <v>5677.14</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19">
-        <v>510.94</v>
-      </c>
-      <c r="G21" s="19">
-        <v>510.94</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" ref="H21:H33" si="1">D21+E21+F21+G21</f>
-        <v>6699.0199999999995</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A22" s="18">
-        <v>45024</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="19">
-        <v>1712.01</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19">
-        <v>154.08000000000001</v>
-      </c>
-      <c r="G22" s="19">
-        <v>154.08000000000001</v>
-      </c>
+      <c r="C22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="23">
+        <v>80025</v>
+      </c>
+      <c r="E22" s="23">
+        <v>14404.5</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>2020.1699999999998</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8" t="s">
-        <v>37</v>
+        <v>94430</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A23" s="21">
-        <v>45024</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>38</v>
+        <v>45029</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D23" s="23">
-        <v>2013</v>
-      </c>
-      <c r="E23" s="23">
-        <v>242</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+        <v>1305</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
+        <v>117.45</v>
+      </c>
+      <c r="G23" s="23">
+        <v>117.45</v>
+      </c>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
-        <v>2255</v>
+        <v>1539.9</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A24" s="21">
-        <v>45027</v>
+        <v>45030</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D24" s="23">
-        <v>3368.7</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23">
-        <v>303.18</v>
-      </c>
-      <c r="G24" s="23">
-        <v>303.18</v>
-      </c>
+        <v>22450</v>
+      </c>
+      <c r="E24" s="23">
+        <v>4041</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="8">
         <f t="shared" si="1"/>
-        <v>3975.0599999999995</v>
+        <v>26491</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A25" s="21">
-        <v>45028</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="23">
-        <v>80025</v>
-      </c>
-      <c r="E25" s="23">
-        <v>14404.5</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="8">
-        <v>94430</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A26" s="21">
-        <v>45029</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="23">
-        <v>1305</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23">
-        <v>117.45</v>
-      </c>
-      <c r="G26" s="23">
-        <v>117.45</v>
-      </c>
-      <c r="H26" s="8">
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A25" s="81">
+        <v>45030</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="82">
+        <v>2812.5</v>
+      </c>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82">
+        <v>393.75</v>
+      </c>
+      <c r="G25" s="82">
+        <v>393.75</v>
+      </c>
+      <c r="H25" s="83">
         <f t="shared" si="1"/>
-        <v>1539.9</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A27" s="21">
-        <v>45030</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="23">
-        <v>22450</v>
-      </c>
-      <c r="E27" s="23">
-        <v>4041</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="8">
+        <v>3600</v>
+      </c>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A26" s="106">
+        <v>45033</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="57">
+        <v>2881075833</v>
+      </c>
+      <c r="D26" s="57">
+        <v>1250</v>
+      </c>
+      <c r="E26" s="57">
+        <v>62.5</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="58">
         <f t="shared" si="1"/>
-        <v>26491</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A28" s="21">
+        <v>1312.5</v>
+      </c>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A27" s="106">
         <v>45036</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B27" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C27" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D27" s="57">
         <v>79000</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23">
+      <c r="E27" s="57"/>
+      <c r="F27" s="57">
         <v>7110</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G27" s="57">
         <v>7110</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H27" s="58">
         <f t="shared" si="1"/>
         <v>93220</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23" t="s">
+      <c r="I27" s="57"/>
+      <c r="J27" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A29" s="21">
+    <row r="28" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A28" s="106">
         <v>45036</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B28" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C28" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D28" s="57">
         <v>33000</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E28" s="57">
         <v>5940</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="8">
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58">
         <f t="shared" si="1"/>
         <v>38940</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23" t="s">
+      <c r="I28" s="57"/>
+      <c r="J28" s="57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A30" s="21">
+    <row r="29" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A29" s="106">
+        <v>45040</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="57">
+        <v>6355.08</v>
+      </c>
+      <c r="E29" s="57">
+        <v>1141.9100000000001</v>
+      </c>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58">
+        <f t="shared" si="1"/>
+        <v>7496.99</v>
+      </c>
+      <c r="I29" s="57"/>
+      <c r="J29" s="108" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A30" s="106">
         <v>45041</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="57">
         <v>96050</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="57">
         <v>17289</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="8">
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="58">
         <f t="shared" si="1"/>
         <v>113339</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23" t="s">
+      <c r="I30" s="57"/>
+      <c r="J30" s="57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A31" s="21">
+    <row r="31" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A31" s="106">
         <v>45043</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="57">
         <v>620024</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="57">
         <v>53344</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="57">
         <v>9601.92</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="8">
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="58">
         <f t="shared" si="1"/>
         <v>62945.919999999998</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23" t="s">
+      <c r="I31" s="57"/>
+      <c r="J31" s="57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A32" s="21">
+    <row r="32" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A32" s="106">
+        <v>45043</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="57">
+        <v>453</v>
+      </c>
+      <c r="D32" s="57">
+        <v>2533.9</v>
+      </c>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57">
+        <v>228.05</v>
+      </c>
+      <c r="G32" s="57">
+        <v>228.05</v>
+      </c>
+      <c r="H32" s="58">
+        <f t="shared" si="1"/>
+        <v>2990.0000000000005</v>
+      </c>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A33" s="106">
         <v>45044</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B33" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C33" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D33" s="57">
         <v>65230</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E33" s="57">
         <v>11741</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="8">
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="58">
         <f t="shared" si="1"/>
         <v>76971</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23" t="s">
+      <c r="I33" s="57"/>
+      <c r="J33" s="57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A33" s="21"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="8">
+    <row r="34" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A34" s="106">
+        <v>45044</v>
+      </c>
+      <c r="B34" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="57">
+        <v>9275.0400000000009</v>
+      </c>
+      <c r="E34" s="57">
+        <v>1669.51</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58">
+        <v>10945</v>
+      </c>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A35" s="106">
+        <v>45044</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="57">
+        <v>2881076398</v>
+      </c>
+      <c r="D35" s="57">
+        <v>750</v>
+      </c>
+      <c r="E35" s="57">
+        <v>37.5</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="58">
+        <f>D35+E35+F35+G35</f>
+        <v>787.5</v>
+      </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A36" s="84">
+        <v>45045</v>
+      </c>
+      <c r="B36" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="85">
+        <v>481</v>
+      </c>
+      <c r="D36" s="85">
+        <v>4800.8999999999996</v>
+      </c>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85">
+        <v>432.08</v>
+      </c>
+      <c r="G36" s="85">
+        <v>432.08</v>
+      </c>
+      <c r="H36" s="86">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A34" s="92" t="s">
+        <v>5665.0599999999995</v>
+      </c>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A37" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="29">
-        <f>SUM(D19:D32)</f>
-        <v>445524.85</v>
-      </c>
-      <c r="E34" s="29">
-        <f>SUM(E19:E32)</f>
-        <v>63663.519999999997</v>
-      </c>
-      <c r="F34" s="29">
-        <f>SUM(F19:F30)</f>
-        <v>8205.1</v>
-      </c>
-      <c r="G34" s="29">
-        <f>SUM(G19:G30)</f>
-        <v>8205.1</v>
-      </c>
-      <c r="H34" s="29">
-        <f>SUM(H19:H30)</f>
-        <v>385682.15</v>
-      </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-    </row>
-    <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="88" t="s">
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="29">
+        <f>SUM(D15:D36)</f>
+        <v>481726.27</v>
+      </c>
+      <c r="E37" s="29">
+        <f>SUM(E15:E36)</f>
+        <v>68091.259999999995</v>
+      </c>
+      <c r="F37" s="29">
+        <f>SUM(F15:F36)</f>
+        <v>9258.98</v>
+      </c>
+      <c r="G37" s="29">
+        <f>SUM(G15:G36)</f>
+        <v>9258.98</v>
+      </c>
+      <c r="H37" s="29">
+        <f>SUM(H15:H36)</f>
+        <v>568336.43999999994</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="39" spans="1:10" ht="21">
+      <c r="A39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="90"/>
-    </row>
-    <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="82" t="s">
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="96"/>
+    </row>
+    <row r="40" spans="1:10" ht="21">
+      <c r="A40" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A38" s="3" t="s">
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A39" s="18"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+    <row r="42" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A42" s="18"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A44" s="18"/>
@@ -2044,176 +2194,176 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A45" s="81" t="s">
+    <row r="45" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A48" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="30">
-        <f>SUM(D39:D44)</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="30">
-        <f>SUM(E39:E44)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="30">
-        <f>SUM(F39:F44)</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="30">
-        <f>SUM(G39:G44)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="30">
-        <f>SUM(H39:H44)</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="82" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="30">
+        <f>SUM(D42:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="30">
+        <f>SUM(E42:E47)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="30">
+        <f>SUM(F42:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="30">
+        <f>SUM(G42:G47)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="30">
+        <f>SUM(H42:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" ht="21">
+      <c r="A49" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="84"/>
-    </row>
-    <row r="47" spans="1:10" s="6" customFormat="1">
-      <c r="A47" s="16" t="s">
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="90"/>
+    </row>
+    <row r="50" spans="1:10" s="6" customFormat="1">
+      <c r="A50" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B50" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D50" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G50" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H50" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="17" t="s">
+      <c r="I50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J50" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A48" s="7"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-    </row>
     <row r="51" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A51" s="11"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="28"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A52" s="11"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="22"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
     </row>
     <row r="54" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A54" s="11"/>
       <c r="B54" s="22"/>
-      <c r="C54" s="28"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="22"/>
+      <c r="J54" s="28"/>
     </row>
     <row r="55" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
+      <c r="J55" s="22"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A56" s="11"/>
@@ -2229,27 +2379,27 @@
     </row>
     <row r="57" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="J57" s="22"/>
+    </row>
+    <row r="58" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A58" s="11"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="22"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A59" s="11"/>
@@ -2265,75 +2415,75 @@
     </row>
     <row r="60" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A60" s="11"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="28"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="22"/>
-    </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="34"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A61" s="11"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="22"/>
     </row>
     <row r="62" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="22"/>
     </row>
     <row r="64" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A66" s="7"/>
@@ -2395,124 +2545,124 @@
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
     </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A71" s="85" t="s">
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A74" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="86"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="30">
-        <f>SUM(D48:D70)</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="30">
-        <f>SUM(E48:E70)</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="30">
-        <f>SUM(F48:F70)</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="30">
-        <f>SUM(G48:G70)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="30">
-        <f>SUM(H48:H70)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-    </row>
-    <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="88" t="s">
+      <c r="B74" s="92"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="30">
+        <f>SUM(D51:D73)</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="30">
+        <f>SUM(E51:E73)</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="30">
+        <f>SUM(F51:F73)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="30">
+        <f>SUM(G51:G73)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="30">
+        <f>SUM(H51:H73)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+    </row>
+    <row r="76" spans="1:10" ht="21">
+      <c r="A76" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="89"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="89"/>
-      <c r="I73" s="89"/>
-      <c r="J73" s="90"/>
-    </row>
-    <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="82" t="s">
+      <c r="B76" s="95"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="95"/>
+      <c r="I76" s="95"/>
+      <c r="J76" s="96"/>
+    </row>
+    <row r="77" spans="1:10" ht="21">
+      <c r="A77" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A75" s="3" t="s">
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A77" s="18"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
@@ -2528,9 +2678,9 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="80" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
@@ -2576,156 +2726,156 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A84" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" s="81"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="30">
-        <f>SUM(D76:D83)</f>
-        <v>0</v>
-      </c>
-      <c r="E84" s="30">
-        <f>SUM(E76:E83)</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="30">
-        <f>SUM(F76:F83)</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="30">
-        <f>SUM(G76:G83)</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="30">
-        <f>SUM(H76:H83)</f>
-        <v>0</v>
-      </c>
+    <row r="84" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="82" t="s">
+    <row r="85" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A86" s="18"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A87" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="87"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="30">
+        <f>SUM(D79:D86)</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="30">
+        <f>SUM(E79:E86)</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="30">
+        <f>SUM(F79:F86)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="30">
+        <f>SUM(G79:G86)</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="30">
+        <f>SUM(H79:H86)</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" ht="21">
+      <c r="A88" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="83"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="83"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="83"/>
-      <c r="J85" s="84"/>
-    </row>
-    <row r="86" spans="1:10" s="6" customFormat="1">
-      <c r="A86" s="16" t="s">
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="89"/>
+      <c r="I88" s="89"/>
+      <c r="J88" s="90"/>
+    </row>
+    <row r="89" spans="1:10" s="6" customFormat="1">
+      <c r="A89" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B89" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C89" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D89" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E89" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="F89" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G89" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H86" s="17" t="s">
+      <c r="H89" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I86" s="17" t="s">
+      <c r="I89" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J86" s="17" t="s">
+      <c r="J89" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A87" s="31"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A88" s="11"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="28"/>
-    </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A89" s="37"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-    </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
+      <c r="A90" s="31"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
     </row>
     <row r="91" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="28"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A92" s="7"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="38"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A93" s="7"/>
-      <c r="B93" s="38"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -2737,7 +2887,7 @@
     </row>
     <row r="94" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A94" s="7"/>
-      <c r="B94" s="38"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -2835,7 +2985,7 @@
       <c r="A102" s="7"/>
       <c r="B102" s="38"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="41"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
@@ -2847,7 +2997,7 @@
       <c r="A103" s="7"/>
       <c r="B103" s="38"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="41"/>
+      <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -2859,7 +3009,7 @@
       <c r="A104" s="7"/>
       <c r="B104" s="38"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="41"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -2879,9 +3029,9 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="106" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A106" s="7"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="38"/>
       <c r="C106" s="8"/>
       <c r="D106" s="41"/>
       <c r="E106" s="8"/>
@@ -2895,7 +3045,7 @@
       <c r="A107" s="7"/>
       <c r="B107" s="38"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+      <c r="D107" s="41"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
@@ -2903,23 +3053,23 @@
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
     </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+    <row r="108" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A108" s="7"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="8"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="41"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="19"/>
-    </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="J108" s="8"/>
+    </row>
+    <row r="109" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A109" s="7"/>
-      <c r="B109" s="8"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="D109" s="41"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -2927,64 +3077,266 @@
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A110" s="85" t="s">
+    <row r="110" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A110" s="7"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+    </row>
+    <row r="111" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A111" s="7"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="19"/>
+    </row>
+    <row r="112" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A112" s="7"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+    </row>
+    <row r="113" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A113" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="86"/>
-      <c r="C110" s="87"/>
-      <c r="D110" s="30">
-        <f>SUM(D87:D109)</f>
-        <v>0</v>
-      </c>
-      <c r="E110" s="30">
-        <f>SUM(E87:E109)</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="30">
-        <f>SUM(F87:F109)</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="30">
-        <f>SUM(G87:G109)</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="30">
-        <f>SUM(H87:H109)</f>
-        <v>0</v>
-      </c>
-      <c r="I110" s="30"/>
-      <c r="J110" s="30"/>
-    </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A111" s="78"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="78"/>
-      <c r="D111" s="79"/>
-      <c r="E111" s="79"/>
-      <c r="F111" s="79"/>
-      <c r="G111" s="79"/>
-      <c r="H111" s="79"/>
-      <c r="I111" s="79"/>
-      <c r="J111" s="79"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="30">
+        <f>SUM(D90:D112)</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="30">
+        <f>SUM(E90:E112)</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="30">
+        <f>SUM(F90:F112)</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="30">
+        <f>SUM(G90:G112)</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="30">
+        <f>SUM(H90:H112)</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
+    </row>
+    <row r="114" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A114" s="78"/>
+      <c r="B114" s="78"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="79"/>
+      <c r="H114" s="79"/>
+      <c r="I114" s="79"/>
+      <c r="J114" s="79"/>
+    </row>
+    <row r="117" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A117" s="21">
+        <v>44840</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="23">
+        <v>1850</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="G117" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="H117" s="8">
+        <f>D117+E117+F117+G117</f>
+        <v>2183</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J117" s="9"/>
+    </row>
+    <row r="118" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A118" s="21">
+        <v>44841</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="23">
+        <v>55015</v>
+      </c>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8">
+        <v>4951.3500000000004</v>
+      </c>
+      <c r="G118" s="8">
+        <v>4951.3500000000004</v>
+      </c>
+      <c r="H118" s="8">
+        <f>D118+E118+F118+G118</f>
+        <v>64917.7</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+    </row>
+    <row r="119" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A119" s="21">
+        <v>44875</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D119" s="23">
+        <v>2279250</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8">
+        <v>205132.5</v>
+      </c>
+      <c r="G119" s="8">
+        <v>205132.5</v>
+      </c>
+      <c r="H119" s="8">
+        <f>D119+E119+F119+G119</f>
+        <v>2689515</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+    </row>
+    <row r="120" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A120" s="21">
+        <v>44932</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="23">
+        <v>900</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8">
+        <v>81</v>
+      </c>
+      <c r="G120" s="8">
+        <v>81</v>
+      </c>
+      <c r="H120" s="8">
+        <f>D120+E120+F120+G120</f>
+        <v>1062</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+    </row>
+    <row r="121" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A121" s="21">
+        <v>44965</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="23">
+        <v>7200</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8">
+        <v>648</v>
+      </c>
+      <c r="G121" s="8">
+        <v>648</v>
+      </c>
+      <c r="H121" s="8">
+        <f>D121+E121+F121+G121</f>
+        <v>8496</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A122" s="21">
+        <v>44977</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122" s="23">
+        <v>1819490</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8">
+        <v>163754.1</v>
+      </c>
+      <c r="G122" s="8">
+        <v>163754.1</v>
+      </c>
+      <c r="H122" s="8">
+        <f>D122+E122+F122+G122</f>
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:J85"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:J88"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A77:H77"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A74:C74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3015,30 +3367,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -3173,11 +3525,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -3202,18 +3554,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="90"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -3392,11 +3744,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -3426,30 +3778,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="90"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="96"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -3542,11 +3894,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -3571,18 +3923,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="84"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="90"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -3893,11 +4245,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="97" t="s">
+      <c r="A65" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="97"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -3922,30 +4274,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="88" t="s">
+      <c r="A67" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="90"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="96"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="82" t="s">
+      <c r="A68" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="84"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="90"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -4014,11 +4366,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
+      <c r="B73" s="101"/>
+      <c r="C73" s="101"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -4043,18 +4395,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="84"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="89"/>
+      <c r="J74" s="90"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -4305,11 +4657,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="96" t="s">
+      <c r="A94" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="96"/>
+      <c r="B94" s="102"/>
+      <c r="C94" s="102"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -4379,30 +4731,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -4519,11 +4871,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -4548,18 +4900,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="90"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -4678,11 +5030,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -4707,30 +5059,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="90"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="96"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -4835,11 +5187,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -4864,18 +5216,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="84"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="90"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -5186,11 +5538,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="85" t="s">
+      <c r="A59" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="86"/>
-      <c r="C59" s="87"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -5215,30 +5567,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="88" t="s">
+      <c r="A61" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="90"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="96"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="84"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="90"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -5367,11 +5719,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="81" t="s">
+      <c r="A72" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -5396,18 +5748,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="82" t="s">
+      <c r="A73" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="84"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="89"/>
+      <c r="I73" s="89"/>
+      <c r="J73" s="90"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -5718,11 +6070,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="85" t="s">
+      <c r="A98" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="86"/>
-      <c r="C98" s="87"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="93"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -5747,18 +6099,18 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="99"/>
-      <c r="B100" s="99"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="99"/>
-      <c r="E100" s="99"/>
+      <c r="A100" s="105"/>
+      <c r="B100" s="105"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="99"/>
-      <c r="B108" s="99"/>
-      <c r="C108" s="99"/>
-      <c r="D108" s="99"/>
-      <c r="E108" s="99"/>
+      <c r="A108" s="105"/>
+      <c r="B108" s="105"/>
+      <c r="C108" s="105"/>
+      <c r="D108" s="105"/>
+      <c r="E108" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5808,30 +6160,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5966,11 +6318,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -5995,18 +6347,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="90"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -6185,11 +6537,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -6219,30 +6571,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="90"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="96"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -6335,11 +6687,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -6364,18 +6716,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="84"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="90"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -6686,11 +7038,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="97" t="s">
+      <c r="A65" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="97"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -6715,30 +7067,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="88" t="s">
+      <c r="A67" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="90"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="96"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="82" t="s">
+      <c r="A68" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="84"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="90"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -6807,11 +7159,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
+      <c r="B73" s="101"/>
+      <c r="C73" s="101"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -6836,18 +7188,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="84"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="89"/>
+      <c r="J74" s="90"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -7098,11 +7450,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="96" t="s">
+      <c r="A94" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="96"/>
+      <c r="B94" s="102"/>
+      <c r="C94" s="102"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="129">
   <si>
     <t>APRIL</t>
   </si>
@@ -289,6 +289,126 @@
   </si>
   <si>
     <t>19/2023-2024</t>
+  </si>
+  <si>
+    <t>RAJESH ROADLINES PVT. LTD.</t>
+  </si>
+  <si>
+    <t>27AAACR2504F1ZU</t>
+  </si>
+  <si>
+    <t>KB00-1699554</t>
+  </si>
+  <si>
+    <t>Central Bank of India</t>
+  </si>
+  <si>
+    <t>30AAACC2498P4ZD</t>
+  </si>
+  <si>
+    <t>24301T0000000003</t>
+  </si>
+  <si>
+    <t>MD/23/24/00007</t>
+  </si>
+  <si>
+    <t>MD/23/24/00295</t>
+  </si>
+  <si>
+    <t>GOA HARDWARE STORES</t>
+  </si>
+  <si>
+    <t>30AKZPK4243N1ZO</t>
+  </si>
+  <si>
+    <t>8/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ109</t>
+  </si>
+  <si>
+    <t>b23-24MQ110</t>
+  </si>
+  <si>
+    <t>b23-24MQ111</t>
+  </si>
+  <si>
+    <t>b23-24MQ112</t>
+  </si>
+  <si>
+    <t>b23-24MQ113</t>
+  </si>
+  <si>
+    <t>Namrata Rubber Product Private Limited</t>
+  </si>
+  <si>
+    <t>08/23-24</t>
+  </si>
+  <si>
+    <t>U V Infotech</t>
+  </si>
+  <si>
+    <t>UV/23-24/181</t>
+  </si>
+  <si>
+    <t>27AAFPM0580N1ZE</t>
+  </si>
+  <si>
+    <t>AR Homez Automation</t>
+  </si>
+  <si>
+    <t>AHR/23-24/012</t>
+  </si>
+  <si>
+    <t>06CIYPK3409F1Z1</t>
+  </si>
+  <si>
+    <t>UV/23-24/194</t>
+  </si>
+  <si>
+    <t>125/2023-2024</t>
+  </si>
+  <si>
+    <t>Krishna Paints and Sanitary</t>
+  </si>
+  <si>
+    <t>CA-53</t>
+  </si>
+  <si>
+    <t>CA-54</t>
+  </si>
+  <si>
+    <t>Rashi Peripherals Limited</t>
+  </si>
+  <si>
+    <t>S3000027781</t>
+  </si>
+  <si>
+    <t>30AAACR2162H1ZX</t>
+  </si>
+  <si>
+    <t>Pilz India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>INV-012553</t>
+  </si>
+  <si>
+    <t>27AAFCP8293G1ZZ</t>
+  </si>
+  <si>
+    <t>INV-012554</t>
+  </si>
+  <si>
+    <t>Print House</t>
+  </si>
+  <si>
+    <t>2023-24/1458</t>
+  </si>
+  <si>
+    <t>30AGKPP2021J1ZR</t>
+  </si>
+  <si>
+    <t>11/23-24</t>
   </si>
 </sst>
 </file>
@@ -341,7 +461,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="0.14999847407452621"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Calibri  "/>
     </font>
   </fonts>
@@ -518,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,21 +881,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,26 +940,17 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,52 +1232,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J122"/>
+  <dimension ref="A2:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
+      <c r="A2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1389,11 +1497,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1418,18 +1526,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="89"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -1463,1206 +1571,1552 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="80" customFormat="1" ht="15.6">
-      <c r="A15" s="18">
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A15" s="81">
+        <v>45017</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="82">
+        <v>1525.41</v>
+      </c>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82">
+        <v>137.29</v>
+      </c>
+      <c r="G15" s="82">
+        <v>137.29</v>
+      </c>
+      <c r="H15" s="83">
+        <f>D15+E15+F15+G15</f>
+        <v>1799.99</v>
+      </c>
+      <c r="I15" s="83"/>
+      <c r="J15" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A16" s="81">
+        <v>45017</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="82">
+        <v>627.12</v>
+      </c>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82">
+        <v>56.44</v>
+      </c>
+      <c r="G16" s="82">
+        <v>56.44</v>
+      </c>
+      <c r="H16" s="83">
+        <f>D16+E16+F16+G16</f>
+        <v>740</v>
+      </c>
+      <c r="I16" s="83"/>
+      <c r="J16" s="82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="80" customFormat="1" ht="15">
+      <c r="A17" s="81">
         <v>45019</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B17" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C17" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D17" s="82">
         <v>105</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19">
+      <c r="E17" s="82"/>
+      <c r="F17" s="82">
         <v>9.4499999999999993</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G17" s="82">
         <v>9.4499999999999993</v>
       </c>
-      <c r="H15" s="8">
-        <f>D15+E15+F15+G15</f>
+      <c r="H17" s="83">
+        <f>D17+E17+F17+G17</f>
         <v>123.9</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
+      <c r="I17" s="83"/>
+      <c r="J17" s="83" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A16" s="18">
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A18" s="81">
         <v>45020</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B18" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C18" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D18" s="82">
         <v>2245</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E18" s="82">
         <v>404.1</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="8">
-        <f>D16+E16+F16+G16</f>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83">
+        <f>D18+E18+F18+G18</f>
         <v>2649.1</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8" t="s">
+      <c r="I18" s="83"/>
+      <c r="J18" s="83" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A17" s="18">
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A19" s="81">
         <v>45022</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B19" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C19" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D19" s="82">
         <v>5677.14</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19">
+      <c r="E19" s="82"/>
+      <c r="F19" s="82">
         <v>510.94</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G19" s="82">
         <v>510.94</v>
       </c>
-      <c r="H17" s="8">
-        <f t="shared" ref="H17:H36" si="1">D17+E17+F17+G17</f>
+      <c r="H19" s="83">
+        <f t="shared" ref="H19:H41" si="1">D19+E19+F19+G19</f>
         <v>6699.0199999999995</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8" t="s">
+      <c r="I19" s="83"/>
+      <c r="J19" s="83" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A18" s="106">
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A20" s="81">
         <v>45022</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B20" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C20" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D20" s="82">
         <v>8424</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E20" s="82">
         <v>1516.32</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58">
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="83">
         <f t="shared" si="1"/>
         <v>9940.32</v>
       </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="107" t="s">
+      <c r="I20" s="83"/>
+      <c r="J20" s="82" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A19" s="18">
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A21" s="81">
+        <v>45022</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="82">
+        <v>1562.5</v>
+      </c>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82">
+        <v>218.75</v>
+      </c>
+      <c r="G21" s="82">
+        <v>218.75</v>
+      </c>
+      <c r="H21" s="83">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I21" s="83"/>
+      <c r="J21" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="15.6">
+      <c r="A22" s="81">
         <v>45024</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B22" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C22" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D22" s="82">
         <v>1712.01</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19">
+      <c r="E22" s="82"/>
+      <c r="F22" s="82">
         <v>154.08000000000001</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G22" s="82">
         <v>154.08000000000001</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H22" s="83">
         <f t="shared" si="1"/>
         <v>2020.1699999999998</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8" t="s">
+      <c r="I22" s="83"/>
+      <c r="J22" s="83" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A20" s="21">
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A23" s="81">
         <v>45024</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B23" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C23" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D23" s="82">
         <v>2013</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E23" s="82">
         <v>242</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="8">
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83">
         <f t="shared" si="1"/>
         <v>2255</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23" t="s">
+      <c r="I23" s="82"/>
+      <c r="J23" s="82" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A21" s="21">
+    <row r="24" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A24" s="81">
+        <v>45024</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="82">
+        <v>280</v>
+      </c>
+      <c r="E24" s="82">
+        <v>14</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="I24" s="82"/>
+      <c r="J24" s="85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A25" s="81">
         <v>45027</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B25" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C25" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D25" s="82">
         <v>3368.7</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23">
+      <c r="E25" s="82"/>
+      <c r="F25" s="82">
         <v>303.18</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G25" s="82">
         <v>303.18</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H25" s="83">
         <f t="shared" si="1"/>
         <v>3975.0599999999995</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23" t="s">
+      <c r="I25" s="82"/>
+      <c r="J25" s="82" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A22" s="21">
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A26" s="81">
         <v>45028</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="B26" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D26" s="82">
         <v>80025</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E26" s="82">
         <v>14404.5</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="8">
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83">
         <v>94430</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23" t="s">
+      <c r="I26" s="82"/>
+      <c r="J26" s="82" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A23" s="21">
+    <row r="27" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A27" s="81">
         <v>45029</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B27" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C27" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D27" s="82">
         <v>1305</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23">
+      <c r="E27" s="82"/>
+      <c r="F27" s="82">
         <v>117.45</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G27" s="82">
         <v>117.45</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H27" s="83">
         <f t="shared" si="1"/>
         <v>1539.9</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23" t="s">
+      <c r="I27" s="82"/>
+      <c r="J27" s="82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A24" s="21">
+    <row r="28" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A28" s="81">
         <v>45030</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="B28" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D28" s="82">
         <v>22450</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E28" s="82">
         <v>4041</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="8">
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83">
         <f t="shared" si="1"/>
         <v>26491</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23" t="s">
+      <c r="I28" s="82"/>
+      <c r="J28" s="82" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A25" s="81">
+    <row r="29" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A29" s="81">
         <v>45030</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B29" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C29" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D29" s="82">
         <v>2812.5</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82">
+      <c r="E29" s="82"/>
+      <c r="F29" s="82">
         <v>393.75</v>
       </c>
-      <c r="G25" s="82">
+      <c r="G29" s="82">
         <v>393.75</v>
       </c>
-      <c r="H25" s="83">
+      <c r="H29" s="83">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82" t="s">
+      <c r="I29" s="82"/>
+      <c r="J29" s="82" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A26" s="106">
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A30" s="81">
         <v>45033</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B30" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C30" s="82">
         <v>2881075833</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D30" s="82">
         <v>1250</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E30" s="82">
         <v>62.5</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58">
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83">
         <f t="shared" si="1"/>
         <v>1312.5</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57" t="s">
+      <c r="I30" s="82"/>
+      <c r="J30" s="82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A27" s="106">
+    <row r="31" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A31" s="81">
         <v>45036</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B31" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C31" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D31" s="82">
         <v>79000</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57">
+      <c r="E31" s="82"/>
+      <c r="F31" s="82">
         <v>7110</v>
       </c>
-      <c r="G27" s="57">
+      <c r="G31" s="82">
         <v>7110</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H31" s="83">
         <f t="shared" si="1"/>
         <v>93220</v>
       </c>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57" t="s">
+      <c r="I31" s="82"/>
+      <c r="J31" s="82" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A28" s="106">
+    <row r="32" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A32" s="81">
         <v>45036</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B32" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C32" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D32" s="82">
         <v>33000</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E32" s="82">
         <v>5940</v>
       </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58">
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83">
         <f t="shared" si="1"/>
         <v>38940</v>
       </c>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57" t="s">
+      <c r="I32" s="82"/>
+      <c r="J32" s="82" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A29" s="106">
+    <row r="33" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A33" s="81">
         <v>45040</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B33" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C33" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D33" s="82">
         <v>6355.08</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E33" s="82">
         <v>1141.9100000000001</v>
       </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58">
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="83">
         <f t="shared" si="1"/>
         <v>7496.99</v>
       </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="108" t="s">
+      <c r="I33" s="82"/>
+      <c r="J33" s="85" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A30" s="106">
+    <row r="34" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A34" s="81">
         <v>45041</v>
       </c>
-      <c r="B30" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="57" t="s">
+      <c r="B34" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D34" s="82">
         <v>96050</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E34" s="82">
         <v>17289</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58">
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="83">
         <f t="shared" si="1"/>
         <v>113339</v>
       </c>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57" t="s">
+      <c r="I34" s="82"/>
+      <c r="J34" s="82" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A31" s="106">
+    <row r="35" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A35" s="81">
         <v>45043</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B35" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C35" s="82">
         <v>620024</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D35" s="82">
         <v>53344</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E35" s="82">
         <v>9601.92</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="58">
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="83">
         <f t="shared" si="1"/>
         <v>62945.919999999998</v>
       </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57" t="s">
+      <c r="I35" s="82"/>
+      <c r="J35" s="82" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A32" s="106">
+    <row r="36" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A36" s="81">
         <v>45043</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B36" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C36" s="82">
         <v>453</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D36" s="82">
         <v>2533.9</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57">
+      <c r="E36" s="82"/>
+      <c r="F36" s="82">
         <v>228.05</v>
       </c>
-      <c r="G32" s="57">
+      <c r="G36" s="82">
         <v>228.05</v>
       </c>
-      <c r="H32" s="58">
+      <c r="H36" s="83">
         <f t="shared" si="1"/>
         <v>2990.0000000000005</v>
       </c>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57" t="s">
+      <c r="I36" s="82"/>
+      <c r="J36" s="82" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A33" s="106">
+    <row r="37" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A37" s="81">
         <v>45044</v>
       </c>
-      <c r="B33" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="57" t="s">
+      <c r="B37" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D37" s="82">
         <v>65230</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E37" s="82">
         <v>11741</v>
       </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58">
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="83">
         <f t="shared" si="1"/>
         <v>76971</v>
       </c>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57" t="s">
+      <c r="I37" s="82"/>
+      <c r="J37" s="82" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A34" s="106">
+    <row r="38" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A38" s="81">
         <v>45044</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B38" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C38" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D38" s="82">
         <v>9275.0400000000009</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E38" s="82">
         <v>1669.51</v>
       </c>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="58">
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="83">
         <v>10945</v>
       </c>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57" t="s">
+      <c r="I38" s="82"/>
+      <c r="J38" s="82" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A35" s="106">
+    <row r="39" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A39" s="81">
         <v>45044</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B39" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C39" s="82">
         <v>2881076398</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D39" s="82">
         <v>750</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E39" s="82">
         <v>37.5</v>
       </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="58">
-        <f>D35+E35+F35+G35</f>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="83">
+        <f>D39+E39+F39+G39</f>
         <v>787.5</v>
       </c>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57" t="s">
+      <c r="I39" s="82"/>
+      <c r="J39" s="82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A36" s="84">
+    <row r="40" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A40" s="81">
         <v>45045</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B40" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C40" s="82">
         <v>481</v>
       </c>
-      <c r="D36" s="85">
+      <c r="D40" s="82">
         <v>4800.8999999999996</v>
       </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85">
+      <c r="E40" s="82"/>
+      <c r="F40" s="82">
         <v>432.08</v>
       </c>
-      <c r="G36" s="85">
+      <c r="G40" s="82">
         <v>432.08</v>
       </c>
-      <c r="H36" s="86">
+      <c r="H40" s="83">
         <f t="shared" si="1"/>
         <v>5665.0599999999995</v>
       </c>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85" t="s">
+      <c r="I40" s="82"/>
+      <c r="J40" s="82" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A37" s="98" t="s">
+    <row r="41" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A41" s="81">
+        <v>45046</v>
+      </c>
+      <c r="B41" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="82">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82">
+        <v>90</v>
+      </c>
+      <c r="G41" s="82">
+        <v>90</v>
+      </c>
+      <c r="H41" s="83">
+        <f t="shared" si="1"/>
+        <v>1180</v>
+      </c>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A42" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="29">
-        <f>SUM(D15:D36)</f>
-        <v>481726.27</v>
-      </c>
-      <c r="E37" s="29">
-        <f>SUM(E15:E36)</f>
-        <v>68091.259999999995</v>
-      </c>
-      <c r="F37" s="29">
-        <f>SUM(F15:F36)</f>
-        <v>9258.98</v>
-      </c>
-      <c r="G37" s="29">
-        <f>SUM(G15:G36)</f>
-        <v>9258.98</v>
-      </c>
-      <c r="H37" s="29">
-        <f>SUM(H15:H36)</f>
-        <v>568336.43999999994</v>
-      </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-    </row>
-    <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="94" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="29">
+        <f>SUM(D15:D41)</f>
+        <v>486721.3</v>
+      </c>
+      <c r="E42" s="29">
+        <f>SUM(E15:E41)</f>
+        <v>68105.259999999995</v>
+      </c>
+      <c r="F42" s="29">
+        <f>SUM(F15:F41)</f>
+        <v>9761.4599999999991</v>
+      </c>
+      <c r="G42" s="29">
+        <f>SUM(G15:G41)</f>
+        <v>9761.4599999999991</v>
+      </c>
+      <c r="H42" s="29">
+        <f>SUM(H15:H41)</f>
+        <v>574350.42999999993</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="44" spans="1:10" ht="21">
+      <c r="A44" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="96"/>
-    </row>
-    <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="88" t="s">
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="95"/>
+    </row>
+    <row r="45" spans="1:10" ht="21">
+      <c r="A45" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A41" s="3" t="s">
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A42" s="18"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
+      <c r="A47" s="18">
+        <v>45051</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="19">
+        <v>189083</v>
+      </c>
       <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="F47" s="19">
+        <v>17017.5</v>
+      </c>
+      <c r="G47" s="19">
+        <v>17017.5</v>
+      </c>
+      <c r="H47" s="19">
+        <f>D47+E47+F47+G47</f>
+        <v>223118</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A48" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="30">
-        <f>SUM(D42:D47)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="30">
-        <f>SUM(E42:E47)</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="30">
-        <f>SUM(F42:F47)</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="30">
-        <f>SUM(G42:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="30">
-        <f>SUM(H42:H47)</f>
-        <v>0</v>
+    <row r="48" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A48" s="18">
+        <v>45051</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="19">
+        <v>124900</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19">
+        <v>11241</v>
+      </c>
+      <c r="G48" s="19">
+        <v>11241</v>
+      </c>
+      <c r="H48" s="19">
+        <f t="shared" ref="H48:H51" si="2">D48+E48+F48+G48</f>
+        <v>147382</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="88" t="s">
+    <row r="49" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A49" s="18">
+        <v>45051</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="19">
+        <v>5614</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19">
+        <v>505.26</v>
+      </c>
+      <c r="G49" s="19">
+        <v>505.26</v>
+      </c>
+      <c r="H49" s="19">
+        <f t="shared" si="2"/>
+        <v>6624.52</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A50" s="11">
+        <v>45058</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="12">
+        <v>41212</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12">
+        <v>3709.08</v>
+      </c>
+      <c r="G50" s="12">
+        <v>3709.08</v>
+      </c>
+      <c r="H50" s="19">
+        <f t="shared" si="2"/>
+        <v>48630.16</v>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A51" s="11">
+        <v>45058</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="12">
+        <v>24000</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12">
+        <v>2160</v>
+      </c>
+      <c r="G51" s="12">
+        <v>2160</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" si="2"/>
+        <v>28320</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+    </row>
+    <row r="52" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A52" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="30">
+        <f>SUM(D47:D51)</f>
+        <v>384809</v>
+      </c>
+      <c r="E52" s="30">
+        <f>SUM(E47:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="30">
+        <f>SUM(F47:F51)</f>
+        <v>34632.839999999997</v>
+      </c>
+      <c r="G52" s="30">
+        <f>SUM(G47:G51)</f>
+        <v>34632.839999999997</v>
+      </c>
+      <c r="H52" s="30">
+        <f>SUM(H47:H51)</f>
+        <v>454074.68000000005</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" ht="21">
+      <c r="A53" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="90"/>
-    </row>
-    <row r="50" spans="1:10" s="6" customFormat="1">
-      <c r="A50" s="16" t="s">
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="89"/>
+    </row>
+    <row r="54" spans="1:10" s="6" customFormat="1">
+      <c r="A54" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B54" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D54" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E54" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F54" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G54" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H54" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="I54" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="J54" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A51" s="7"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-    </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A54" s="11"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="28"/>
-    </row>
     <row r="55" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A55" s="11"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="22"/>
+      <c r="A55" s="7">
+        <v>45048</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="8">
+        <v>24695</v>
+      </c>
+      <c r="E55" s="8">
+        <v>4445.1000000000004</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8">
+        <f>D55+E55+F55+G55</f>
+        <v>29140.1</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
+      <c r="A56" s="7">
+        <v>45050</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="8">
+        <v>146900</v>
+      </c>
+      <c r="E56" s="8">
+        <v>26442</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8">
+        <f t="shared" ref="H56:H66" si="3">D56+E56+F56+G56</f>
+        <v>173342</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="57" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A57" s="11"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="22"/>
+      <c r="A57" s="31">
+        <v>45050</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="32">
+        <v>19800</v>
+      </c>
+      <c r="E57" s="32">
+        <v>3564</v>
+      </c>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="8">
+        <f t="shared" si="3"/>
+        <v>23364</v>
+      </c>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="A58" s="11">
+        <v>45052</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="12">
+        <v>16000</v>
+      </c>
+      <c r="E58" s="12">
+        <v>2880</v>
+      </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="H58" s="8">
+        <f t="shared" si="3"/>
+        <v>18880</v>
+      </c>
       <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
+      <c r="J58" s="28" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="A59" s="11">
+        <v>45052</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="12">
+        <v>8424</v>
+      </c>
+      <c r="E59" s="12">
+        <v>1516.32</v>
+      </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="H59" s="8">
+        <f t="shared" si="3"/>
+        <v>9940.32</v>
+      </c>
       <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
+      <c r="J59" s="22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="60" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
+      <c r="A60" s="11">
+        <v>45054</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1026.27</v>
+      </c>
       <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="F60" s="12">
+        <v>92.37</v>
+      </c>
+      <c r="G60" s="12">
+        <v>92.37</v>
+      </c>
+      <c r="H60" s="8">
+        <f t="shared" si="3"/>
+        <v>1211.0099999999998</v>
+      </c>
       <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="12"/>
+      <c r="J60" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A61" s="11">
+        <v>45054</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="12">
+        <v>2987.34</v>
+      </c>
       <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="F61" s="12">
+        <v>268.86</v>
+      </c>
+      <c r="G61" s="12">
+        <v>268.86</v>
+      </c>
+      <c r="H61" s="8">
+        <f t="shared" si="3"/>
+        <v>3525.0600000000004</v>
+      </c>
       <c r="I61" s="12"/>
-      <c r="J61" s="22"/>
+      <c r="J61" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="62" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="A62" s="11">
+        <v>45057</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="12">
+        <v>23760</v>
+      </c>
       <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="F62" s="12">
+        <v>2138.4</v>
+      </c>
+      <c r="G62" s="12">
+        <v>2138.4</v>
+      </c>
+      <c r="H62" s="8">
+        <f t="shared" si="3"/>
+        <v>28036.800000000003</v>
+      </c>
       <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
+      <c r="J62" s="12" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A63" s="11"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+      <c r="A63" s="11">
+        <v>45057</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="12">
+        <v>32650</v>
+      </c>
+      <c r="E63" s="12">
+        <v>5877</v>
+      </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="H63" s="8">
+        <f t="shared" si="3"/>
+        <v>38527</v>
+      </c>
       <c r="I63" s="12"/>
-      <c r="J63" s="22"/>
+      <c r="J63" s="12" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="64" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="34"/>
-    </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A65" s="37"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
+      <c r="A64" s="11">
+        <v>45057</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="12">
+        <v>48975</v>
+      </c>
+      <c r="E64" s="12">
+        <v>8815.5</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="8">
+        <f t="shared" si="3"/>
+        <v>57790.5</v>
+      </c>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A65" s="11">
+        <v>45058</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="12">
+        <v>3375</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12">
+        <v>303.75</v>
+      </c>
+      <c r="G65" s="12">
+        <v>303.75</v>
+      </c>
+      <c r="H65" s="8">
+        <f t="shared" si="3"/>
+        <v>3982.5</v>
+      </c>
+      <c r="I65" s="12"/>
+      <c r="J65" s="22" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="66" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-    </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-    </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-    </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
+      <c r="A66" s="11">
+        <v>45059</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="12">
+        <v>32405</v>
+      </c>
+      <c r="E66" s="12">
+        <v>5832.9</v>
+      </c>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="8">
+        <f t="shared" si="3"/>
+        <v>38237.9</v>
+      </c>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A67" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="91"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="30">
+        <f>SUM(D55:D66)</f>
+        <v>360997.61</v>
+      </c>
+      <c r="E67" s="30">
+        <f>SUM(E55:E66)</f>
+        <v>59372.82</v>
+      </c>
+      <c r="F67" s="30">
+        <f>SUM(F55:F66)</f>
+        <v>2803.38</v>
+      </c>
+      <c r="G67" s="30">
+        <f>SUM(G55:G66)</f>
+        <v>2803.38</v>
+      </c>
+      <c r="H67" s="30">
+        <f>SUM(H55:H66)</f>
+        <v>425977.19000000006</v>
+      </c>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+    </row>
+    <row r="69" spans="1:10" ht="21">
+      <c r="A69" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="94"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="94"/>
+      <c r="H69" s="94"/>
+      <c r="I69" s="94"/>
+      <c r="J69" s="95"/>
+    </row>
+    <row r="70" spans="1:10" ht="21">
+      <c r="A70" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="88"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
+      <c r="A71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A74" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="92"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="30">
-        <f>SUM(D51:D73)</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="30">
-        <f>SUM(E51:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="30">
-        <f>SUM(F51:F73)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="30">
-        <f>SUM(G51:G73)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="30">
-        <f>SUM(H51:H73)</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-    </row>
-    <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="95"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="96"/>
-    </row>
-    <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="90"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="18"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A78" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A78" s="18"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
@@ -2678,204 +3132,204 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A80" s="18"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
+    <row r="80" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A80" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="86"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="30">
+        <f>SUM(D72:D79)</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="30">
+        <f>SUM(E72:E79)</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="30">
+        <f>SUM(F72:F79)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="30">
+        <f>SUM(G72:G79)</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="30">
+        <f>SUM(H72:H79)</f>
+        <v>0</v>
+      </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+    <row r="81" spans="1:10" ht="21">
+      <c r="A81" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="88"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="88"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="88"/>
+      <c r="J81" s="89"/>
+    </row>
+    <row r="82" spans="1:10" s="6" customFormat="1">
+      <c r="A82" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="83" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A83" s="18"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="28"/>
     </row>
     <row r="85" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A87" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="87"/>
-      <c r="C87" s="87"/>
-      <c r="D87" s="30">
-        <f>SUM(D79:D86)</f>
-        <v>0</v>
-      </c>
-      <c r="E87" s="30">
-        <f>SUM(E79:E86)</f>
-        <v>0</v>
-      </c>
-      <c r="F87" s="30">
-        <f>SUM(F79:F86)</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="30">
-        <f>SUM(G79:G86)</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="30">
-        <f>SUM(H79:H86)</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="89"/>
-      <c r="C88" s="89"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="89"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="89"/>
-      <c r="I88" s="89"/>
-      <c r="J88" s="90"/>
-    </row>
-    <row r="89" spans="1:10" s="6" customFormat="1">
-      <c r="A89" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+    </row>
+    <row r="87" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+    </row>
+    <row r="88" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A88" s="7"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+    </row>
+    <row r="89" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A89" s="7"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A90" s="31"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
     </row>
     <row r="91" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A91" s="11"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="28"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A92" s="37"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
     </row>
     <row r="93" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A93" s="7"/>
-      <c r="B93" s="8"/>
+      <c r="B93" s="38"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -2887,7 +3341,7 @@
     </row>
     <row r="94" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
+      <c r="B94" s="38"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -2937,7 +3391,7 @@
       <c r="A98" s="7"/>
       <c r="B98" s="38"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="D98" s="41"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
@@ -2949,7 +3403,7 @@
       <c r="A99" s="7"/>
       <c r="B99" s="38"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="D99" s="41"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
@@ -2961,7 +3415,7 @@
       <c r="A100" s="7"/>
       <c r="B100" s="38"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="D100" s="41"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -2973,7 +3427,7 @@
       <c r="A101" s="7"/>
       <c r="B101" s="38"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+      <c r="D101" s="41"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -2981,11 +3435,11 @@
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
     </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="102" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A102" s="7"/>
-      <c r="B102" s="38"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+      <c r="D102" s="41"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
@@ -3005,23 +3459,23 @@
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="104" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
       <c r="A104" s="7"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="8"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
+      <c r="J104" s="19"/>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A105" s="7"/>
-      <c r="B105" s="38"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="41"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
@@ -3029,314 +3483,230 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A106" s="7"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A107" s="7"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A108" s="7"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A109" s="7"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A110" s="7"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+    <row r="106" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A106" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="91"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="30">
+        <f>SUM(D83:D105)</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="30">
+        <f>SUM(E83:E105)</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="30">
+        <f>SUM(F83:F105)</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="30">
+        <f>SUM(G83:G105)</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="30">
+        <f>SUM(H83:H105)</f>
+        <v>0</v>
+      </c>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+    </row>
+    <row r="107" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A107" s="78"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="79"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="79"/>
+    </row>
+    <row r="110" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A110" s="21">
+        <v>44840</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="23">
+        <v>1850</v>
+      </c>
       <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A111" s="7"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="8"/>
+      <c r="F110" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="G110" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="H110" s="8">
+        <f t="shared" ref="H110:H115" si="4">D110+E110+F110+G110</f>
+        <v>2183</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A111" s="21">
+        <v>44841</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="23">
+        <v>55015</v>
+      </c>
       <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="19"/>
-    </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+      <c r="F111" s="8">
+        <v>4951.3500000000004</v>
+      </c>
+      <c r="G111" s="8">
+        <v>4951.3500000000004</v>
+      </c>
+      <c r="H111" s="8">
+        <f t="shared" si="4"/>
+        <v>64917.7</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="112" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A112" s="21">
+        <v>44875</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" s="23">
+        <v>2279250</v>
+      </c>
       <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-    </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A113" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="92"/>
-      <c r="C113" s="93"/>
-      <c r="D113" s="30">
-        <f>SUM(D90:D112)</f>
-        <v>0</v>
-      </c>
-      <c r="E113" s="30">
-        <f>SUM(E90:E112)</f>
-        <v>0</v>
-      </c>
-      <c r="F113" s="30">
-        <f>SUM(F90:F112)</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="30">
-        <f>SUM(G90:G112)</f>
-        <v>0</v>
-      </c>
-      <c r="H113" s="30">
-        <f>SUM(H90:H112)</f>
-        <v>0</v>
-      </c>
-      <c r="I113" s="30"/>
-      <c r="J113" s="30"/>
-    </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A114" s="78"/>
-      <c r="B114" s="78"/>
-      <c r="C114" s="78"/>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="79"/>
-      <c r="H114" s="79"/>
-      <c r="I114" s="79"/>
-      <c r="J114" s="79"/>
-    </row>
-    <row r="117" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A117" s="21">
-        <v>44840</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D117" s="23">
-        <v>1850</v>
-      </c>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="G117" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="H117" s="8">
-        <f>D117+E117+F117+G117</f>
-        <v>2183</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J117" s="9"/>
-    </row>
-    <row r="118" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A118" s="21">
-        <v>44841</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D118" s="23">
-        <v>55015</v>
-      </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8">
-        <v>4951.3500000000004</v>
-      </c>
-      <c r="G118" s="8">
-        <v>4951.3500000000004</v>
-      </c>
-      <c r="H118" s="8">
-        <f>D118+E118+F118+G118</f>
-        <v>64917.7</v>
-      </c>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-    </row>
-    <row r="119" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A119" s="21">
-        <v>44875</v>
-      </c>
-      <c r="B119" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C119" s="23" t="s">
+      <c r="F112" s="8">
+        <v>205132.5</v>
+      </c>
+      <c r="G112" s="8">
+        <v>205132.5</v>
+      </c>
+      <c r="H112" s="8">
+        <f t="shared" si="4"/>
+        <v>2689515</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+    </row>
+    <row r="113" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A113" s="21">
+        <v>44932</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="23">
+        <v>900</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8">
         <v>81</v>
       </c>
-      <c r="D119" s="23">
-        <v>2279250</v>
-      </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8">
-        <v>205132.5</v>
-      </c>
-      <c r="G119" s="8">
-        <v>205132.5</v>
-      </c>
-      <c r="H119" s="8">
-        <f>D119+E119+F119+G119</f>
-        <v>2689515</v>
-      </c>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-    </row>
-    <row r="120" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A120" s="21">
-        <v>44932</v>
-      </c>
-      <c r="B120" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D120" s="23">
-        <v>900</v>
-      </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8">
+      <c r="G113" s="8">
         <v>81</v>
       </c>
-      <c r="G120" s="8">
-        <v>81</v>
-      </c>
-      <c r="H120" s="8">
-        <f>D120+E120+F120+G120</f>
+      <c r="H113" s="8">
+        <f t="shared" si="4"/>
         <v>1062</v>
       </c>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-    </row>
-    <row r="121" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A121" s="21">
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+    </row>
+    <row r="114" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A114" s="21">
         <v>44965</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="B114" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="C114" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D121" s="23">
+      <c r="D114" s="23">
         <v>7200</v>
       </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8">
+      <c r="E114" s="8"/>
+      <c r="F114" s="8">
         <v>648</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G114" s="8">
         <v>648</v>
       </c>
-      <c r="H121" s="8">
-        <f>D121+E121+F121+G121</f>
+      <c r="H114" s="8">
+        <f t="shared" si="4"/>
         <v>8496</v>
       </c>
-      <c r="I121" s="9" t="s">
+      <c r="I114" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J121" s="9"/>
-    </row>
-    <row r="122" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A122" s="21">
+      <c r="J114" s="9"/>
+    </row>
+    <row r="115" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A115" s="21">
         <v>44977</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B115" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C115" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="23">
+      <c r="D115" s="23">
         <v>1819490</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8">
+      <c r="E115" s="8"/>
+      <c r="F115" s="8">
         <v>163754.1</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G115" s="8">
         <v>163754.1</v>
       </c>
-      <c r="H122" s="8">
-        <f>D122+E122+F122+G122</f>
+      <c r="H115" s="8">
+        <f t="shared" si="4"/>
         <v>2146998.2000000002</v>
       </c>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:J88"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A70:H70"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A67:C67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3367,30 +3737,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -3525,11 +3895,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -3554,18 +3924,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -3744,11 +4114,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -3778,30 +4148,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="96"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="95"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -3894,11 +4264,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -3923,18 +4293,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="90"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="89"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -4274,30 +4644,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="94" t="s">
+      <c r="A67" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="95"/>
-      <c r="I67" s="95"/>
-      <c r="J67" s="96"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="95"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="88" t="s">
+      <c r="A68" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="89"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="90"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="89"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -4366,11 +4736,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="101" t="s">
+      <c r="A73" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="101"/>
-      <c r="C73" s="101"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="100"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -4395,18 +4765,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="88" t="s">
+      <c r="A74" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="89"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="89"/>
-      <c r="J74" s="90"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="89"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -4687,12 +5057,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -4702,6 +5066,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4731,30 +5101,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
+      <c r="A2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -4871,11 +5241,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -4900,18 +5270,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="89"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -5030,11 +5400,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -5059,30 +5429,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="96"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="89"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -5187,11 +5557,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -5216,18 +5586,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="90"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="89"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -5538,11 +5908,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="92"/>
-      <c r="C59" s="93"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -5567,30 +5937,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="95"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="95"/>
-      <c r="I61" s="95"/>
-      <c r="J61" s="96"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="95"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="90"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="89"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -5719,11 +6089,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="87" t="s">
+      <c r="A72" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -5748,18 +6118,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="88" t="s">
+      <c r="A73" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="89"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="89"/>
-      <c r="I73" s="89"/>
-      <c r="J73" s="90"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="89"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -6070,11 +6440,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="91" t="s">
+      <c r="A98" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="92"/>
-      <c r="C98" s="93"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="92"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -6099,21 +6469,26 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="105"/>
-      <c r="B100" s="105"/>
-      <c r="C100" s="105"/>
-      <c r="D100" s="105"/>
-      <c r="E100" s="105"/>
+      <c r="A100" s="104"/>
+      <c r="B100" s="104"/>
+      <c r="C100" s="104"/>
+      <c r="D100" s="104"/>
+      <c r="E100" s="104"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="105"/>
-      <c r="B108" s="105"/>
-      <c r="C108" s="105"/>
-      <c r="D108" s="105"/>
-      <c r="E108" s="105"/>
+      <c r="A108" s="104"/>
+      <c r="B108" s="104"/>
+      <c r="C108" s="104"/>
+      <c r="D108" s="104"/>
+      <c r="E108" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -6126,11 +6501,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6160,30 +6530,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6318,11 +6688,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -6347,18 +6717,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -6537,11 +6907,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -6571,30 +6941,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="96"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="95"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -6687,11 +7057,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -6716,18 +7086,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="90"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="89"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -7067,30 +7437,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="94" t="s">
+      <c r="A67" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="95"/>
-      <c r="I67" s="95"/>
-      <c r="J67" s="96"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="95"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="88" t="s">
+      <c r="A68" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="89"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="90"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="89"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -7159,11 +7529,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="101" t="s">
+      <c r="A73" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="101"/>
-      <c r="C73" s="101"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="100"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -7188,18 +7558,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="88" t="s">
+      <c r="A74" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="89"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="89"/>
-      <c r="J74" s="90"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="89"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -7480,12 +7850,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -7495,6 +7859,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="134">
   <si>
     <t>APRIL</t>
   </si>
@@ -409,13 +409,28 @@
   </si>
   <si>
     <t>11/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ114</t>
+  </si>
+  <si>
+    <t>b23-24MQ115</t>
+  </si>
+  <si>
+    <t>ETHERNETXPRESS INDIA PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>30AADCE0789L1ZL</t>
+  </si>
+  <si>
+    <t>EXPL-153127</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +477,11 @@
     <font>
       <sz val="12"/>
       <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri  "/>
     </font>
   </fonts>
@@ -638,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -895,6 +915,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -940,13 +969,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1232,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J115"/>
+  <dimension ref="A2:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1254,30 +1283,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1497,11 +1526,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1526,18 +1555,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2325,11 +2354,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="102"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2354,30 +2383,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="95"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="98"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="89"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="92"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2457,7 +2486,7 @@
         <v>11241</v>
       </c>
       <c r="H48" s="19">
-        <f t="shared" ref="H48:H51" si="2">D48+E48+F48+G48</f>
+        <f t="shared" ref="H48:H55" si="2">D48+E48+F48+G48</f>
         <v>147382</v>
       </c>
       <c r="I48" s="5"/>
@@ -2544,555 +2573,608 @@
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
     </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A52" s="86" t="s">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A52" s="11">
+        <v>45063</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="12">
+        <v>313513</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12">
+        <v>28216.2</v>
+      </c>
+      <c r="G52" s="12">
+        <v>28216.2</v>
+      </c>
+      <c r="H52" s="19">
+        <f t="shared" si="2"/>
+        <v>369945.4</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A53" s="11">
+        <v>45063</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="12">
+        <v>73450</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12">
+        <v>6610.5</v>
+      </c>
+      <c r="G53" s="12">
+        <v>6610.5</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" si="2"/>
+        <v>86671</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+    </row>
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="15.6">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A56" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="30">
-        <f>SUM(D47:D51)</f>
-        <v>384809</v>
-      </c>
-      <c r="E52" s="30">
-        <f>SUM(E47:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="30">
-        <f>SUM(F47:F51)</f>
-        <v>34632.839999999997</v>
-      </c>
-      <c r="G52" s="30">
-        <f>SUM(G47:G51)</f>
-        <v>34632.839999999997</v>
-      </c>
-      <c r="H52" s="30">
-        <f>SUM(H47:H51)</f>
-        <v>454074.68000000005</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="87" t="s">
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="30">
+        <f>SUM(D47:D53)</f>
+        <v>771772</v>
+      </c>
+      <c r="E56" s="30">
+        <f>SUM(E47:E53)</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="30">
+        <f>SUM(F47:F53)</f>
+        <v>69459.539999999994</v>
+      </c>
+      <c r="G56" s="30">
+        <f>SUM(G47:G53)</f>
+        <v>69459.539999999994</v>
+      </c>
+      <c r="H56" s="30">
+        <f>SUM(H47:H53)</f>
+        <v>910691.08000000007</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" ht="21">
+      <c r="A57" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="89"/>
-    </row>
-    <row r="54" spans="1:10" s="6" customFormat="1">
-      <c r="A54" s="16" t="s">
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="92"/>
+    </row>
+    <row r="58" spans="1:10" s="6" customFormat="1">
+      <c r="A58" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B58" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C58" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D58" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E58" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F58" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G58" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="17" t="s">
+      <c r="H58" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="17" t="s">
+      <c r="I58" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J58" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A55" s="7">
+    <row r="59" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A59" s="7">
         <v>45048</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B59" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D59" s="8">
         <v>24695</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E59" s="8">
         <v>4445.1000000000004</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8">
-        <f>D55+E55+F55+G55</f>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8">
+        <f>D59+E59+F59+G59</f>
         <v>29140.1</v>
       </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8" t="s">
+      <c r="I59" s="8"/>
+      <c r="J59" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A56" s="7">
+    <row r="60" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A60" s="7">
         <v>45050</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D60" s="8">
         <v>146900</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E60" s="8">
         <v>26442</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8">
-        <f t="shared" ref="H56:H66" si="3">D56+E56+F56+G56</f>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8">
+        <f t="shared" ref="H60:H71" si="3">D60+E60+F60+G60</f>
         <v>173342</v>
       </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8" t="s">
+      <c r="I60" s="8"/>
+      <c r="J60" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A57" s="31">
+    <row r="61" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A61" s="31">
         <v>45050</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B61" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C61" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D61" s="32">
         <v>19800</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E61" s="32">
         <v>3564</v>
       </c>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="8">
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="8">
         <f t="shared" si="3"/>
         <v>23364</v>
       </c>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32" t="s">
+      <c r="I61" s="32"/>
+      <c r="J61" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A58" s="11">
+    <row r="62" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A62" s="11">
         <v>45052</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B62" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C62" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D62" s="12">
         <v>16000</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E62" s="12">
         <v>2880</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="8">
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="8">
         <f t="shared" si="3"/>
         <v>18880</v>
       </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="28" t="s">
+      <c r="I62" s="12"/>
+      <c r="J62" s="28" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A59" s="11">
-        <v>45052</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="12">
-        <v>8424</v>
-      </c>
-      <c r="E59" s="12">
-        <v>1516.32</v>
-      </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="8">
-        <f t="shared" si="3"/>
-        <v>9940.32</v>
-      </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A60" s="11">
-        <v>45054</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D60" s="12">
-        <v>1026.27</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12">
-        <v>92.37</v>
-      </c>
-      <c r="G60" s="12">
-        <v>92.37</v>
-      </c>
-      <c r="H60" s="8">
-        <f t="shared" si="3"/>
-        <v>1211.0099999999998</v>
-      </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A61" s="11">
-        <v>45054</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="12">
-        <v>2987.34</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12">
-        <v>268.86</v>
-      </c>
-      <c r="G61" s="12">
-        <v>268.86</v>
-      </c>
-      <c r="H61" s="8">
-        <f t="shared" si="3"/>
-        <v>3525.0600000000004</v>
-      </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A62" s="11">
-        <v>45057</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="12">
-        <v>23760</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12">
-        <v>2138.4</v>
-      </c>
-      <c r="G62" s="12">
-        <v>2138.4</v>
-      </c>
-      <c r="H62" s="8">
-        <f t="shared" si="3"/>
-        <v>28036.800000000003</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A63" s="11">
-        <v>45057</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>122</v>
+        <v>45052</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="D63" s="12">
-        <v>32650</v>
+        <v>8424</v>
       </c>
       <c r="E63" s="12">
-        <v>5877</v>
+        <v>1516.32</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="8">
         <f t="shared" si="3"/>
-        <v>38527</v>
+        <v>9940.32</v>
       </c>
       <c r="I63" s="12"/>
-      <c r="J63" s="12" t="s">
-        <v>123</v>
+      <c r="J63" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A64" s="11">
-        <v>45057</v>
+        <v>45054</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D64" s="12">
-        <v>48975</v>
-      </c>
-      <c r="E64" s="12">
-        <v>8815.5</v>
-      </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+        <v>1026.27</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12">
+        <v>92.37</v>
+      </c>
+      <c r="G64" s="12">
+        <v>92.37</v>
+      </c>
       <c r="H64" s="8">
         <f t="shared" si="3"/>
-        <v>57790.5</v>
+        <v>1211.0099999999998</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A65" s="11">
-        <v>45058</v>
+        <v>45054</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="D65" s="12">
-        <v>3375</v>
+        <v>2987.34</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12">
-        <v>303.75</v>
+        <v>268.86</v>
       </c>
       <c r="G65" s="12">
-        <v>303.75</v>
+        <v>268.86</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="3"/>
-        <v>3982.5</v>
+        <v>3525.0600000000004</v>
       </c>
       <c r="I65" s="12"/>
-      <c r="J65" s="22" t="s">
-        <v>127</v>
+      <c r="J65" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A66" s="11">
-        <v>45059</v>
+        <v>45057</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D66" s="12">
-        <v>32405</v>
-      </c>
-      <c r="E66" s="12">
-        <v>5832.9</v>
-      </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+        <v>23760</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12">
+        <v>2138.4</v>
+      </c>
+      <c r="G66" s="12">
+        <v>2138.4</v>
+      </c>
       <c r="H66" s="8">
         <f t="shared" si="3"/>
-        <v>38237.9</v>
+        <v>28036.800000000003</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A67" s="11">
+        <v>45057</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="12">
+        <v>32650</v>
+      </c>
+      <c r="E67" s="12">
+        <v>5877</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="8">
+        <f t="shared" si="3"/>
+        <v>38527</v>
+      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A68" s="11">
+        <v>45057</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="12">
+        <v>48975</v>
+      </c>
+      <c r="E68" s="12">
+        <v>8815.5</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="8">
+        <f t="shared" si="3"/>
+        <v>57790.5</v>
+      </c>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A69" s="11">
+        <v>45058</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="12">
+        <v>3375</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12">
+        <v>303.75</v>
+      </c>
+      <c r="G69" s="12">
+        <v>303.75</v>
+      </c>
+      <c r="H69" s="8">
+        <f t="shared" si="3"/>
+        <v>3982.5</v>
+      </c>
+      <c r="I69" s="12"/>
+      <c r="J69" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A70" s="11">
+        <v>45059</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="12">
+        <v>32405</v>
+      </c>
+      <c r="E70" s="12">
+        <v>5832.9</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="8">
+        <f t="shared" si="3"/>
+        <v>38237.9</v>
+      </c>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A67" s="90" t="s">
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A71" s="86">
+        <v>45062</v>
+      </c>
+      <c r="B71" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="87">
+        <v>2300</v>
+      </c>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87">
+        <v>207</v>
+      </c>
+      <c r="G71" s="87">
+        <v>207</v>
+      </c>
+      <c r="H71" s="87">
+        <f t="shared" si="3"/>
+        <v>2714</v>
+      </c>
+      <c r="I71" s="87"/>
+      <c r="J71" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A72" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="91"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="30">
-        <f>SUM(D55:D66)</f>
-        <v>360997.61</v>
-      </c>
-      <c r="E67" s="30">
-        <f>SUM(E55:E66)</f>
+      <c r="B72" s="94"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="30">
+        <f>SUM(D59:D71)</f>
+        <v>363297.61</v>
+      </c>
+      <c r="E72" s="30">
+        <f>SUM(E59:E70)</f>
         <v>59372.82</v>
       </c>
-      <c r="F67" s="30">
-        <f>SUM(F55:F66)</f>
+      <c r="F72" s="30">
+        <f>SUM(F59:F70)</f>
         <v>2803.38</v>
       </c>
-      <c r="G67" s="30">
-        <f>SUM(G55:G66)</f>
+      <c r="G72" s="30">
+        <f>SUM(G59:G70)</f>
         <v>2803.38</v>
       </c>
-      <c r="H67" s="30">
-        <f>SUM(H55:H66)</f>
+      <c r="H72" s="30">
+        <f>SUM(H59:H70)</f>
         <v>425977.19000000006</v>
       </c>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-    </row>
-    <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="93" t="s">
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+    </row>
+    <row r="74" spans="1:10" ht="21">
+      <c r="A74" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="95"/>
-    </row>
-    <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="87" t="s">
+      <c r="B74" s="97"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="98"/>
+    </row>
+    <row r="75" spans="1:10" ht="21">
+      <c r="A75" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="88"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="89"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A71" s="3" t="s">
+      <c r="B75" s="91"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="91"/>
+      <c r="F75" s="91"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A73" s="18"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
@@ -3108,9 +3190,9 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="78" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
@@ -3132,180 +3214,180 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A80" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="86"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="30">
-        <f>SUM(D72:D79)</f>
-        <v>0</v>
-      </c>
-      <c r="E80" s="30">
-        <f>SUM(E72:E79)</f>
-        <v>0</v>
-      </c>
-      <c r="F80" s="30">
-        <f>SUM(F72:F79)</f>
-        <v>0</v>
-      </c>
-      <c r="G80" s="30">
-        <f>SUM(G72:G79)</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="30">
-        <f>SUM(H72:H79)</f>
-        <v>0</v>
-      </c>
+    <row r="80" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="87" t="s">
+    <row r="81" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A85" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="89"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="30">
+        <f>SUM(D77:D84)</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="30">
+        <f>SUM(E77:E84)</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="30">
+        <f>SUM(F77:F84)</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="30">
+        <f>SUM(G77:G84)</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="30">
+        <f>SUM(H77:H84)</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" ht="21">
+      <c r="A86" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="88"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="88"/>
-      <c r="F81" s="88"/>
-      <c r="G81" s="88"/>
-      <c r="H81" s="88"/>
-      <c r="I81" s="88"/>
-      <c r="J81" s="89"/>
-    </row>
-    <row r="82" spans="1:10" s="6" customFormat="1">
-      <c r="A82" s="16" t="s">
+      <c r="B86" s="91"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
+      <c r="F86" s="91"/>
+      <c r="G86" s="91"/>
+      <c r="H86" s="91"/>
+      <c r="I86" s="91"/>
+      <c r="J86" s="92"/>
+    </row>
+    <row r="87" spans="1:10" s="6" customFormat="1">
+      <c r="A87" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B87" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C87" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D87" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E87" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="F87" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G87" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="17" t="s">
+      <c r="H87" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I82" s="17" t="s">
+      <c r="I87" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J82" s="17" t="s">
+      <c r="J87" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A83" s="31"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A84" s="11"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="28"/>
-    </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A85" s="37"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-    </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-    </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-    </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A88" s="7"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A89" s="7"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="28"/>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A90" s="7"/>
+      <c r="A90" s="37"/>
       <c r="B90" s="38"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
     </row>
     <row r="91" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A91" s="7"/>
-      <c r="B91" s="38"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -3317,7 +3399,7 @@
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A92" s="7"/>
-      <c r="B92" s="38"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -3391,7 +3473,7 @@
       <c r="A98" s="7"/>
       <c r="B98" s="38"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="41"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
@@ -3403,7 +3485,7 @@
       <c r="A99" s="7"/>
       <c r="B99" s="38"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="41"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
@@ -3415,7 +3497,7 @@
       <c r="A100" s="7"/>
       <c r="B100" s="38"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="41"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -3427,7 +3509,7 @@
       <c r="A101" s="7"/>
       <c r="B101" s="38"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="41"/>
+      <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -3435,11 +3517,11 @@
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
     </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="102" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A102" s="7"/>
-      <c r="B102" s="19"/>
+      <c r="B102" s="38"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="41"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
@@ -3451,7 +3533,7 @@
       <c r="A103" s="7"/>
       <c r="B103" s="38"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+      <c r="D103" s="41"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -3459,23 +3541,23 @@
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+    <row r="104" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A104" s="7"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="8"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="41"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="19"/>
+      <c r="J104" s="8"/>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
+      <c r="B105" s="38"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="D105" s="41"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
@@ -3483,230 +3565,290 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A106" s="90" t="s">
+    <row r="106" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A106" s="7"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+    </row>
+    <row r="107" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A107" s="7"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+    </row>
+    <row r="108" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A108" s="7"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+    </row>
+    <row r="109" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A109" s="7"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="19"/>
+    </row>
+    <row r="110" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A110" s="7"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+    </row>
+    <row r="111" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A111" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="91"/>
-      <c r="C106" s="92"/>
-      <c r="D106" s="30">
-        <f>SUM(D83:D105)</f>
-        <v>0</v>
-      </c>
-      <c r="E106" s="30">
-        <f>SUM(E83:E105)</f>
-        <v>0</v>
-      </c>
-      <c r="F106" s="30">
-        <f>SUM(F83:F105)</f>
-        <v>0</v>
-      </c>
-      <c r="G106" s="30">
-        <f>SUM(G83:G105)</f>
-        <v>0</v>
-      </c>
-      <c r="H106" s="30">
-        <f>SUM(H83:H105)</f>
-        <v>0</v>
-      </c>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-    </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A107" s="78"/>
-      <c r="B107" s="78"/>
-      <c r="C107" s="78"/>
-      <c r="D107" s="79"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="79"/>
-      <c r="G107" s="79"/>
-      <c r="H107" s="79"/>
-      <c r="I107" s="79"/>
-      <c r="J107" s="79"/>
-    </row>
-    <row r="110" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A110" s="21">
+      <c r="B111" s="94"/>
+      <c r="C111" s="95"/>
+      <c r="D111" s="30">
+        <f>SUM(D88:D110)</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="30">
+        <f>SUM(E88:E110)</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="30">
+        <f>SUM(F88:F110)</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="30">
+        <f>SUM(G88:G110)</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="30">
+        <f>SUM(H88:H110)</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
+    </row>
+    <row r="112" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A112" s="78"/>
+      <c r="B112" s="78"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="79"/>
+      <c r="H112" s="79"/>
+      <c r="I112" s="79"/>
+      <c r="J112" s="79"/>
+    </row>
+    <row r="115" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A115" s="21">
         <v>44840</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B115" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C115" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D110" s="23">
+      <c r="D115" s="23">
         <v>1850</v>
       </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8">
+      <c r="E115" s="8"/>
+      <c r="F115" s="8">
         <v>166.5</v>
       </c>
-      <c r="G110" s="8">
+      <c r="G115" s="8">
         <v>166.5</v>
       </c>
-      <c r="H110" s="8">
-        <f t="shared" ref="H110:H115" si="4">D110+E110+F110+G110</f>
+      <c r="H115" s="8">
+        <f t="shared" ref="H115:H120" si="4">D115+E115+F115+G115</f>
         <v>2183</v>
       </c>
-      <c r="I110" s="9" t="s">
+      <c r="I115" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J110" s="9"/>
-    </row>
-    <row r="111" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A111" s="21">
+      <c r="J115" s="9"/>
+    </row>
+    <row r="116" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A116" s="21">
         <v>44841</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="B116" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="23" t="s">
+      <c r="C116" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D111" s="23">
+      <c r="D116" s="23">
         <v>55015</v>
       </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8">
+      <c r="E116" s="8"/>
+      <c r="F116" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G116" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H111" s="8">
+      <c r="H116" s="8">
         <f t="shared" si="4"/>
         <v>64917.7</v>
       </c>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-    </row>
-    <row r="112" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A112" s="21">
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A117" s="21">
         <v>44875</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="B117" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C112" s="23" t="s">
+      <c r="C117" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D112" s="23">
+      <c r="D117" s="23">
         <v>2279250</v>
       </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8">
+      <c r="E117" s="8"/>
+      <c r="F117" s="8">
         <v>205132.5</v>
       </c>
-      <c r="G112" s="8">
+      <c r="G117" s="8">
         <v>205132.5</v>
       </c>
-      <c r="H112" s="8">
+      <c r="H117" s="8">
         <f t="shared" si="4"/>
         <v>2689515</v>
       </c>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-    </row>
-    <row r="113" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A113" s="21">
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+    </row>
+    <row r="118" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A118" s="21">
         <v>44932</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B118" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C118" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D113" s="23">
+      <c r="D118" s="23">
         <v>900</v>
       </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8">
+      <c r="E118" s="8"/>
+      <c r="F118" s="8">
         <v>81</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G118" s="8">
         <v>81</v>
       </c>
-      <c r="H113" s="8">
+      <c r="H118" s="8">
         <f t="shared" si="4"/>
         <v>1062</v>
       </c>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-    </row>
-    <row r="114" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A114" s="21">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+    </row>
+    <row r="119" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A119" s="21">
         <v>44965</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="B119" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="23" t="s">
+      <c r="C119" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D114" s="23">
+      <c r="D119" s="23">
         <v>7200</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8">
+      <c r="E119" s="8"/>
+      <c r="F119" s="8">
         <v>648</v>
       </c>
-      <c r="G114" s="8">
+      <c r="G119" s="8">
         <v>648</v>
       </c>
-      <c r="H114" s="8">
+      <c r="H119" s="8">
         <f t="shared" si="4"/>
         <v>8496</v>
       </c>
-      <c r="I114" s="9" t="s">
+      <c r="I119" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J114" s="9"/>
-    </row>
-    <row r="115" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A115" s="21">
+      <c r="J119" s="9"/>
+    </row>
+    <row r="120" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A120" s="21">
         <v>44977</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B120" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="C120" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="23">
+      <c r="D120" s="23">
         <v>1819490</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8">
+      <c r="E120" s="8"/>
+      <c r="F120" s="8">
         <v>163754.1</v>
       </c>
-      <c r="G115" s="8">
+      <c r="G120" s="8">
         <v>163754.1</v>
       </c>
-      <c r="H115" s="8">
+      <c r="H120" s="8">
         <f t="shared" si="4"/>
         <v>2146998.2000000002</v>
       </c>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A75:H75"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A74:J74"/>
     <mergeCell ref="A44:J44"/>
     <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A72:C72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3737,30 +3879,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -3895,11 +4037,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -3924,18 +4066,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="89"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="92"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -4114,11 +4256,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -4148,30 +4290,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="95"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="98"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="89"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -4264,11 +4406,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -4293,18 +4435,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="89"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="92"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -4615,11 +4757,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="103" t="s">
+      <c r="A65" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="103"/>
-      <c r="C65" s="103"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -4644,30 +4786,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="95"/>
+      <c r="B67" s="97"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="97"/>
+      <c r="J67" s="98"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="89"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="92"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -4736,11 +4878,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="100" t="s">
+      <c r="A73" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="100"/>
-      <c r="C73" s="100"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="103"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -4765,18 +4907,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="88"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="88"/>
-      <c r="J74" s="89"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="92"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -5027,11 +5169,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="102" t="s">
+      <c r="A94" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="102"/>
-      <c r="C94" s="102"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="104"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -5057,6 +5199,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -5066,12 +5214,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5101,30 +5243,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5241,11 +5383,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -5270,18 +5412,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -5400,11 +5542,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -5429,30 +5571,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="95"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="98"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -5557,11 +5699,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -5586,18 +5728,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="89"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="92"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -5908,11 +6050,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="92"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="95"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -5937,30 +6079,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="93" t="s">
+      <c r="A61" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="94"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="95"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="97"/>
+      <c r="J61" s="98"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="87" t="s">
+      <c r="A62" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="88"/>
-      <c r="H62" s="89"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="92"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -6089,11 +6231,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="86" t="s">
+      <c r="A72" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="86"/>
-      <c r="C72" s="86"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="89"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -6118,18 +6260,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="87" t="s">
+      <c r="A73" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="88"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="89"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="91"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="92"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -6440,11 +6582,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="90" t="s">
+      <c r="A98" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="91"/>
-      <c r="C98" s="92"/>
+      <c r="B98" s="94"/>
+      <c r="C98" s="95"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -6469,26 +6611,21 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="104"/>
-      <c r="B100" s="104"/>
-      <c r="C100" s="104"/>
-      <c r="D100" s="104"/>
-      <c r="E100" s="104"/>
+      <c r="A100" s="107"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="107"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="107"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="104"/>
-      <c r="B108" s="104"/>
-      <c r="C108" s="104"/>
-      <c r="D108" s="104"/>
-      <c r="E108" s="104"/>
+      <c r="A108" s="107"/>
+      <c r="B108" s="107"/>
+      <c r="C108" s="107"/>
+      <c r="D108" s="107"/>
+      <c r="E108" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -6501,6 +6638,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6530,30 +6672,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6688,11 +6830,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -6717,18 +6859,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="89"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="92"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -6907,11 +7049,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -6941,30 +7083,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="95"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="98"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="89"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -7057,11 +7199,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -7086,18 +7228,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="89"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="92"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -7408,11 +7550,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="103" t="s">
+      <c r="A65" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="103"/>
-      <c r="C65" s="103"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -7437,30 +7579,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="95"/>
+      <c r="B67" s="97"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="97"/>
+      <c r="J67" s="98"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="89"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="92"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -7529,11 +7671,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="100" t="s">
+      <c r="A73" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="100"/>
-      <c r="C73" s="100"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="103"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -7558,18 +7700,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="88"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="88"/>
-      <c r="J74" s="89"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="92"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -7820,11 +7962,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="102" t="s">
+      <c r="A94" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="102"/>
-      <c r="C94" s="102"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="104"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -7850,6 +7992,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -7859,12 +8007,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="144">
   <si>
     <t>APRIL</t>
   </si>
@@ -424,6 +424,36 @@
   </si>
   <si>
     <t>EXPL-153127</t>
+  </si>
+  <si>
+    <t>b23-24MQ116</t>
+  </si>
+  <si>
+    <t>b23-24AQ117</t>
+  </si>
+  <si>
+    <t>13/23-24</t>
+  </si>
+  <si>
+    <t>Dell International Services India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>33AAACH1925Q2ZG</t>
+  </si>
+  <si>
+    <t>I-C-1-23-450927</t>
+  </si>
+  <si>
+    <t>Digi.2324/0245</t>
+  </si>
+  <si>
+    <t>V M Traders</t>
+  </si>
+  <si>
+    <t>VM/2548/23-24</t>
+  </si>
+  <si>
+    <t>27AAFPP8584R1ZJ</t>
   </si>
 </sst>
 </file>
@@ -1261,21 +1291,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J120"/>
+  <dimension ref="A2:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
@@ -2628,31 +2658,55 @@
       <c r="J53" s="13"/>
     </row>
     <row r="54" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
+      <c r="A54" s="11">
+        <v>45070</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="12">
+        <v>729990</v>
+      </c>
       <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="F54" s="12">
+        <v>65699.100000000006</v>
+      </c>
+      <c r="G54" s="12">
+        <v>65699.100000000006</v>
+      </c>
       <c r="H54" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>861388.2</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
     </row>
     <row r="55" spans="1:10" s="14" customFormat="1" ht="15.6">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="A55" s="11">
+        <v>45070</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="12">
+        <v>246402</v>
+      </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="F55" s="12">
+        <v>22176.2</v>
+      </c>
+      <c r="G55" s="12">
+        <v>22176.2</v>
+      </c>
       <c r="H55" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>290754.40000000002</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -2664,24 +2718,24 @@
       <c r="B56" s="89"/>
       <c r="C56" s="89"/>
       <c r="D56" s="30">
-        <f>SUM(D47:D53)</f>
-        <v>771772</v>
+        <f>SUM(D47:D55)</f>
+        <v>1748164</v>
       </c>
       <c r="E56" s="30">
-        <f>SUM(E47:E53)</f>
+        <f>SUM(E47:E55)</f>
         <v>0</v>
       </c>
       <c r="F56" s="30">
-        <f>SUM(F47:F53)</f>
-        <v>69459.539999999994</v>
+        <f>SUM(F47:F55)</f>
+        <v>157334.84000000003</v>
       </c>
       <c r="G56" s="30">
-        <f>SUM(G47:G53)</f>
-        <v>69459.539999999994</v>
+        <f>SUM(G47:G55)</f>
+        <v>157334.84000000003</v>
       </c>
       <c r="H56" s="30">
-        <f>SUM(H47:H53)</f>
-        <v>910691.08000000007</v>
+        <f>SUM(H47:H55)</f>
+        <v>2062833.6800000002</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -2778,7 +2832,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8">
-        <f t="shared" ref="H60:H71" si="3">D60+E60+F60+G60</f>
+        <f t="shared" ref="H60:H76" si="3">D60+E60+F60+G60</f>
         <v>173342</v>
       </c>
       <c r="I60" s="8"/>
@@ -3093,148 +3147,225 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="93" t="s">
+    <row r="72" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A72" s="86">
+        <v>45064</v>
+      </c>
+      <c r="B72" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="87">
+        <v>57520</v>
+      </c>
+      <c r="E72" s="87">
+        <v>10353.6</v>
+      </c>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
+      <c r="H72" s="87">
+        <f t="shared" si="3"/>
+        <v>67873.600000000006</v>
+      </c>
+      <c r="I72" s="87"/>
+      <c r="J72" s="88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A73" s="86">
+        <v>45065</v>
+      </c>
+      <c r="B73" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="88">
+        <v>2110731981</v>
+      </c>
+      <c r="D73" s="87">
+        <v>640591.62</v>
+      </c>
+      <c r="E73" s="87">
+        <v>115306.51</v>
+      </c>
+      <c r="F73" s="87"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="87">
+        <f t="shared" si="3"/>
+        <v>755898.13</v>
+      </c>
+      <c r="I73" s="87"/>
+      <c r="J73" s="88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A74" s="86">
+        <v>45065</v>
+      </c>
+      <c r="B74" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="87">
+        <v>31150</v>
+      </c>
+      <c r="E74" s="87">
+        <v>5607</v>
+      </c>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87">
+        <f t="shared" si="3"/>
+        <v>36757</v>
+      </c>
+      <c r="I74" s="87"/>
+      <c r="J74" s="88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A75" s="86">
+        <v>45069</v>
+      </c>
+      <c r="B75" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="87">
+        <v>82200</v>
+      </c>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87">
+        <v>7398</v>
+      </c>
+      <c r="G75" s="87">
+        <v>7398</v>
+      </c>
+      <c r="H75" s="87">
+        <f t="shared" si="3"/>
+        <v>96996</v>
+      </c>
+      <c r="I75" s="87"/>
+      <c r="J75" s="88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A76" s="86">
+        <v>45070</v>
+      </c>
+      <c r="B76" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="87">
+        <v>104350</v>
+      </c>
+      <c r="E76" s="87">
+        <v>18783</v>
+      </c>
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="87">
+        <f t="shared" si="3"/>
+        <v>123133</v>
+      </c>
+      <c r="I76" s="87"/>
+      <c r="J76" s="88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A77" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="94"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="30">
-        <f>SUM(D59:D71)</f>
-        <v>363297.61</v>
-      </c>
-      <c r="E72" s="30">
-        <f>SUM(E59:E70)</f>
-        <v>59372.82</v>
-      </c>
-      <c r="F72" s="30">
-        <f>SUM(F59:F70)</f>
-        <v>2803.38</v>
-      </c>
-      <c r="G72" s="30">
-        <f>SUM(G59:G70)</f>
-        <v>2803.38</v>
-      </c>
-      <c r="H72" s="30">
-        <f>SUM(H59:H70)</f>
-        <v>425977.19000000006</v>
-      </c>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-    </row>
-    <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="96" t="s">
+      <c r="B77" s="94"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="30">
+        <f>SUM(D59:D76)</f>
+        <v>1279109.23</v>
+      </c>
+      <c r="E77" s="30">
+        <f>SUM(E59:E76)</f>
+        <v>209422.93</v>
+      </c>
+      <c r="F77" s="30">
+        <f>SUM(F59:F75)</f>
+        <v>10408.380000000001</v>
+      </c>
+      <c r="G77" s="30">
+        <f>SUM(G59:G75)</f>
+        <v>10408.380000000001</v>
+      </c>
+      <c r="H77" s="30">
+        <f>SUM(H59:H75)</f>
+        <v>1386215.92</v>
+      </c>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+    </row>
+    <row r="79" spans="1:10" ht="21">
+      <c r="A79" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="97"/>
-      <c r="C74" s="97"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="98"/>
-    </row>
-    <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="90" t="s">
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="98"/>
+    </row>
+    <row r="80" spans="1:10" ht="21">
+      <c r="A80" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="91"/>
-      <c r="F75" s="91"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A76" s="3" t="s">
+      <c r="B80" s="91"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="92"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A81" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A78" s="18"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
@@ -3250,9 +3381,9 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="83" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="18"/>
-      <c r="B83" s="19"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
@@ -3274,180 +3405,180 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A85" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="89"/>
-      <c r="C85" s="89"/>
-      <c r="D85" s="30">
-        <f>SUM(D77:D84)</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="30">
-        <f>SUM(E77:E84)</f>
-        <v>0</v>
-      </c>
-      <c r="F85" s="30">
-        <f>SUM(F77:F84)</f>
-        <v>0</v>
-      </c>
-      <c r="G85" s="30">
-        <f>SUM(G77:G84)</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="30">
-        <f>SUM(H77:H84)</f>
-        <v>0</v>
-      </c>
+    <row r="85" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="90" t="s">
+    <row r="86" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A86" s="18"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A88" s="18"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A90" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="89"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="30">
+        <f>SUM(D82:D89)</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="30">
+        <f>SUM(E82:E89)</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="30">
+        <f>SUM(F82:F89)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="30">
+        <f>SUM(G82:G89)</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="30">
+        <f>SUM(H82:H89)</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" ht="21">
+      <c r="A91" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="91"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="92"/>
-    </row>
-    <row r="87" spans="1:10" s="6" customFormat="1">
-      <c r="A87" s="16" t="s">
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="92"/>
+    </row>
+    <row r="92" spans="1:10" s="6" customFormat="1">
+      <c r="A92" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B92" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C92" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D92" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E92" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="F92" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G87" s="16" t="s">
+      <c r="G92" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="17" t="s">
+      <c r="H92" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I87" s="17" t="s">
+      <c r="I92" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J87" s="17" t="s">
+      <c r="J92" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A88" s="31"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A89" s="11"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="28"/>
-    </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A90" s="37"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-    </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-    </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-    </row>
     <row r="93" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A93" s="7"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
     </row>
     <row r="94" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A94" s="7"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="28"/>
     </row>
     <row r="95" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A95" s="7"/>
+      <c r="A95" s="37"/>
       <c r="B95" s="38"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
     </row>
     <row r="96" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A96" s="7"/>
-      <c r="B96" s="38"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -3459,7 +3590,7 @@
     </row>
     <row r="97" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A97" s="7"/>
-      <c r="B97" s="38"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -3533,7 +3664,7 @@
       <c r="A103" s="7"/>
       <c r="B103" s="38"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="41"/>
+      <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -3545,7 +3676,7 @@
       <c r="A104" s="7"/>
       <c r="B104" s="38"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="41"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -3557,7 +3688,7 @@
       <c r="A105" s="7"/>
       <c r="B105" s="38"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="41"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
@@ -3569,7 +3700,7 @@
       <c r="A106" s="7"/>
       <c r="B106" s="38"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="41"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
@@ -3577,11 +3708,11 @@
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
     </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="107" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A107" s="7"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="38"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="41"/>
+      <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
@@ -3593,7 +3724,7 @@
       <c r="A108" s="7"/>
       <c r="B108" s="38"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+      <c r="D108" s="41"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
@@ -3601,23 +3732,23 @@
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
     </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+    <row r="109" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A109" s="7"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="8"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="41"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="19"/>
+      <c r="J109" s="8"/>
     </row>
     <row r="110" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A110" s="7"/>
-      <c r="B110" s="8"/>
+      <c r="B110" s="38"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+      <c r="D110" s="41"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
@@ -3625,230 +3756,290 @@
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
     </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A111" s="93" t="s">
+    <row r="111" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A111" s="7"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+    </row>
+    <row r="112" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A112" s="7"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+    </row>
+    <row r="113" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A113" s="7"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+    </row>
+    <row r="114" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A114" s="7"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="19"/>
+    </row>
+    <row r="115" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A115" s="7"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+    </row>
+    <row r="116" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A116" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B111" s="94"/>
-      <c r="C111" s="95"/>
-      <c r="D111" s="30">
-        <f>SUM(D88:D110)</f>
-        <v>0</v>
-      </c>
-      <c r="E111" s="30">
-        <f>SUM(E88:E110)</f>
-        <v>0</v>
-      </c>
-      <c r="F111" s="30">
-        <f>SUM(F88:F110)</f>
-        <v>0</v>
-      </c>
-      <c r="G111" s="30">
-        <f>SUM(G88:G110)</f>
-        <v>0</v>
-      </c>
-      <c r="H111" s="30">
-        <f>SUM(H88:H110)</f>
-        <v>0</v>
-      </c>
-      <c r="I111" s="30"/>
-      <c r="J111" s="30"/>
-    </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A112" s="78"/>
-      <c r="B112" s="78"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="79"/>
-      <c r="E112" s="79"/>
-      <c r="F112" s="79"/>
-      <c r="G112" s="79"/>
-      <c r="H112" s="79"/>
-      <c r="I112" s="79"/>
-      <c r="J112" s="79"/>
-    </row>
-    <row r="115" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A115" s="21">
+      <c r="B116" s="94"/>
+      <c r="C116" s="95"/>
+      <c r="D116" s="30">
+        <f>SUM(D93:D115)</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="30">
+        <f>SUM(E93:E115)</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="30">
+        <f>SUM(F93:F115)</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="30">
+        <f>SUM(G93:G115)</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="30">
+        <f>SUM(H93:H115)</f>
+        <v>0</v>
+      </c>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
+    </row>
+    <row r="117" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A117" s="78"/>
+      <c r="B117" s="78"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="79"/>
+      <c r="E117" s="79"/>
+      <c r="F117" s="79"/>
+      <c r="G117" s="79"/>
+      <c r="H117" s="79"/>
+      <c r="I117" s="79"/>
+      <c r="J117" s="79"/>
+    </row>
+    <row r="120" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A120" s="21">
         <v>44840</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B120" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="C120" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D115" s="23">
+      <c r="D120" s="23">
         <v>1850</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8">
+      <c r="E120" s="8"/>
+      <c r="F120" s="8">
         <v>166.5</v>
       </c>
-      <c r="G115" s="8">
+      <c r="G120" s="8">
         <v>166.5</v>
       </c>
-      <c r="H115" s="8">
-        <f t="shared" ref="H115:H120" si="4">D115+E115+F115+G115</f>
+      <c r="H120" s="8">
+        <f t="shared" ref="H120:H125" si="4">D120+E120+F120+G120</f>
         <v>2183</v>
       </c>
-      <c r="I115" s="9" t="s">
+      <c r="I120" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J115" s="9"/>
-    </row>
-    <row r="116" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A116" s="21">
+      <c r="J120" s="9"/>
+    </row>
+    <row r="121" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A121" s="21">
         <v>44841</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B121" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C121" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="23">
+      <c r="D121" s="23">
         <v>55015</v>
       </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8">
+      <c r="E121" s="8"/>
+      <c r="F121" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G116" s="8">
+      <c r="G121" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H116" s="8">
+      <c r="H121" s="8">
         <f t="shared" si="4"/>
         <v>64917.7</v>
       </c>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-    </row>
-    <row r="117" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A117" s="21">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A122" s="21">
         <v>44875</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B122" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C122" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D117" s="23">
+      <c r="D122" s="23">
         <v>2279250</v>
       </c>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8">
+      <c r="E122" s="8"/>
+      <c r="F122" s="8">
         <v>205132.5</v>
       </c>
-      <c r="G117" s="8">
+      <c r="G122" s="8">
         <v>205132.5</v>
       </c>
-      <c r="H117" s="8">
+      <c r="H122" s="8">
         <f t="shared" si="4"/>
         <v>2689515</v>
       </c>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-    </row>
-    <row r="118" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A118" s="21">
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="123" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A123" s="21">
         <v>44932</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B123" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C123" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D118" s="23">
+      <c r="D123" s="23">
         <v>900</v>
       </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8">
+      <c r="E123" s="8"/>
+      <c r="F123" s="8">
         <v>81</v>
       </c>
-      <c r="G118" s="8">
+      <c r="G123" s="8">
         <v>81</v>
       </c>
-      <c r="H118" s="8">
+      <c r="H123" s="8">
         <f t="shared" si="4"/>
         <v>1062</v>
       </c>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-    </row>
-    <row r="119" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A119" s="21">
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A124" s="21">
         <v>44965</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="B124" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C124" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="23">
+      <c r="D124" s="23">
         <v>7200</v>
       </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8">
+      <c r="E124" s="8"/>
+      <c r="F124" s="8">
         <v>648</v>
       </c>
-      <c r="G119" s="8">
+      <c r="G124" s="8">
         <v>648</v>
       </c>
-      <c r="H119" s="8">
+      <c r="H124" s="8">
         <f t="shared" si="4"/>
         <v>8496</v>
       </c>
-      <c r="I119" s="9" t="s">
+      <c r="I124" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J119" s="9"/>
-    </row>
-    <row r="120" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A120" s="21">
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A125" s="21">
         <v>44977</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B125" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C120" s="23" t="s">
+      <c r="C125" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D120" s="23">
+      <c r="D125" s="23">
         <v>1819490</v>
       </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8">
+      <c r="E125" s="8"/>
+      <c r="F125" s="8">
         <v>163754.1</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G125" s="8">
         <v>163754.1</v>
       </c>
-      <c r="H120" s="8">
+      <c r="H125" s="8">
         <f t="shared" si="4"/>
         <v>2146998.2000000002</v>
       </c>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:J86"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A80:H80"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A79:J79"/>
     <mergeCell ref="A44:J44"/>
     <mergeCell ref="A45:H45"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="148">
   <si>
     <t>APRIL</t>
   </si>
@@ -454,6 +454,18 @@
   </si>
   <si>
     <t>27AAFPP8584R1ZJ</t>
+  </si>
+  <si>
+    <t>VM/2575/23-24</t>
+  </si>
+  <si>
+    <t>MD/23/24/03608</t>
+  </si>
+  <si>
+    <t>MD/23/24/03743</t>
+  </si>
+  <si>
+    <t>UV/23-24/182</t>
   </si>
 </sst>
 </file>
@@ -688,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,6 +1022,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,17 +1327,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J125"/>
+  <dimension ref="A2:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:C77"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.21875" style="1" customWidth="1"/>
@@ -2832,7 +2868,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8">
-        <f t="shared" ref="H60:H76" si="3">D60+E60+F60+G60</f>
+        <f t="shared" ref="H60:H80" si="3">D60+E60+F60+G60</f>
         <v>173342</v>
       </c>
       <c r="I60" s="8"/>
@@ -2868,29 +2904,29 @@
       </c>
     </row>
     <row r="62" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A62" s="11">
-        <v>45052</v>
-      </c>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="31">
+        <v>45051</v>
+      </c>
+      <c r="B62" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="12">
-        <v>16000</v>
-      </c>
-      <c r="E62" s="12">
-        <v>2880</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="C62" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="32">
+        <v>8000</v>
+      </c>
+      <c r="E62" s="32">
+        <v>1440</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="8">
         <f t="shared" si="3"/>
-        <v>18880</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="28" t="s">
+        <v>9440</v>
+      </c>
+      <c r="I62" s="32"/>
+      <c r="J62" s="8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2899,80 +2935,78 @@
         <v>45052</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D63" s="12">
-        <v>8424</v>
+        <v>16000</v>
       </c>
       <c r="E63" s="12">
-        <v>1516.32</v>
+        <v>2880</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="8">
         <f t="shared" si="3"/>
-        <v>9940.32</v>
+        <v>18880</v>
       </c>
       <c r="I63" s="12"/>
-      <c r="J63" s="22" t="s">
-        <v>87</v>
+      <c r="J63" s="28" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A64" s="11">
-        <v>45054</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>116</v>
+        <v>45052</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="D64" s="12">
-        <v>1026.27</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12">
-        <v>92.37</v>
-      </c>
-      <c r="G64" s="12">
-        <v>92.37</v>
-      </c>
+        <v>8424</v>
+      </c>
+      <c r="E64" s="12">
+        <v>1516.32</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="8">
         <f t="shared" si="3"/>
-        <v>1211.0099999999998</v>
+        <v>9940.32</v>
       </c>
       <c r="I64" s="12"/>
-      <c r="J64" s="12" t="s">
-        <v>37</v>
+      <c r="J64" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A65" s="11">
         <v>45054</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="12" t="s">
         <v>115</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" s="12">
-        <v>2987.34</v>
+        <v>1026.27</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12">
-        <v>268.86</v>
+        <v>92.37</v>
       </c>
       <c r="G65" s="12">
-        <v>268.86</v>
+        <v>92.37</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="3"/>
-        <v>3525.0600000000004</v>
+        <v>1211.0099999999998</v>
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12" t="s">
@@ -2981,31 +3015,31 @@
     </row>
     <row r="66" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A66" s="11">
-        <v>45057</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>118</v>
+        <v>45054</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D66" s="12">
-        <v>23760</v>
+        <v>2987.34</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12">
-        <v>2138.4</v>
+        <v>268.86</v>
       </c>
       <c r="G66" s="12">
-        <v>2138.4</v>
+        <v>268.86</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="3"/>
-        <v>28036.800000000003</v>
+        <v>3525.0600000000004</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="6" customFormat="1" ht="15.6">
@@ -3013,26 +3047,28 @@
         <v>45057</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D67" s="12">
-        <v>32650</v>
-      </c>
-      <c r="E67" s="12">
-        <v>5877</v>
-      </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+        <v>23760</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12">
+        <v>2138.4</v>
+      </c>
+      <c r="G67" s="12">
+        <v>2138.4</v>
+      </c>
       <c r="H67" s="8">
         <f t="shared" si="3"/>
-        <v>38527</v>
+        <v>28036.800000000003</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="6" customFormat="1" ht="15.6">
@@ -3043,162 +3079,162 @@
         <v>121</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D68" s="12">
-        <v>48975</v>
+        <v>32650</v>
       </c>
       <c r="E68" s="12">
-        <v>8815.5</v>
+        <v>5877</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="8">
         <f t="shared" si="3"/>
-        <v>57790.5</v>
+        <v>38527</v>
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+    <row r="69" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A69" s="11">
-        <v>45058</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>126</v>
+        <v>45057</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="D69" s="12">
-        <v>3375</v>
-      </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12">
-        <v>303.75</v>
-      </c>
-      <c r="G69" s="12">
-        <v>303.75</v>
-      </c>
+        <v>48975</v>
+      </c>
+      <c r="E69" s="12">
+        <v>8815.5</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
       <c r="H69" s="8">
         <f t="shared" si="3"/>
-        <v>3982.5</v>
+        <v>57790.5</v>
       </c>
       <c r="I69" s="12"/>
-      <c r="J69" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="J69" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
       <c r="A70" s="11">
-        <v>45059</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>128</v>
+        <v>45058</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="D70" s="12">
-        <v>32405</v>
-      </c>
-      <c r="E70" s="12">
-        <v>5832.9</v>
-      </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+        <v>3375</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12">
+        <v>303.75</v>
+      </c>
+      <c r="G70" s="12">
+        <v>303.75</v>
+      </c>
       <c r="H70" s="8">
         <f t="shared" si="3"/>
+        <v>3982.5</v>
+      </c>
+      <c r="I70" s="12"/>
+      <c r="J70" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A71" s="11">
+        <v>45059</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="12">
+        <v>32405</v>
+      </c>
+      <c r="E71" s="12">
+        <v>5832.9</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="8">
+        <f t="shared" si="3"/>
         <v>38237.9</v>
       </c>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12" t="s">
+      <c r="I71" s="12"/>
+      <c r="J71" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A71" s="86">
+    <row r="72" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A72" s="86">
         <v>45062</v>
       </c>
-      <c r="B71" s="88" t="s">
+      <c r="B72" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="88" t="s">
+      <c r="C72" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="87">
+      <c r="D72" s="87">
         <v>2300</v>
       </c>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87">
+      <c r="E72" s="87"/>
+      <c r="F72" s="87">
         <v>207</v>
       </c>
-      <c r="G71" s="87">
+      <c r="G72" s="87">
         <v>207</v>
       </c>
-      <c r="H71" s="87">
+      <c r="H72" s="87">
         <f t="shared" si="3"/>
         <v>2714</v>
       </c>
-      <c r="I71" s="87"/>
-      <c r="J71" s="88" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A72" s="86">
-        <v>45064</v>
-      </c>
-      <c r="B72" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="87">
-        <v>57520</v>
-      </c>
-      <c r="E72" s="87">
-        <v>10353.6</v>
-      </c>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87">
-        <f t="shared" si="3"/>
-        <v>67873.600000000006</v>
-      </c>
       <c r="I72" s="87"/>
       <c r="J72" s="88" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A73" s="86">
-        <v>45065</v>
+        <v>45064</v>
       </c>
       <c r="B73" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="88">
-        <v>2110731981</v>
+        <v>105</v>
+      </c>
+      <c r="C73" s="88" t="s">
+        <v>136</v>
       </c>
       <c r="D73" s="87">
-        <v>640591.62</v>
+        <v>57520</v>
       </c>
       <c r="E73" s="87">
-        <v>115306.51</v>
+        <v>10353.6</v>
       </c>
       <c r="F73" s="87"/>
       <c r="G73" s="87"/>
       <c r="H73" s="87">
         <f t="shared" si="3"/>
-        <v>755898.13</v>
+        <v>67873.600000000006</v>
       </c>
       <c r="I73" s="87"/>
       <c r="J73" s="88" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1" ht="15">
@@ -3206,214 +3242,278 @@
         <v>45065</v>
       </c>
       <c r="B74" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" s="88" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="C74" s="88">
+        <v>2110731981</v>
       </c>
       <c r="D74" s="87">
-        <v>31150</v>
+        <v>640591.62</v>
       </c>
       <c r="E74" s="87">
-        <v>5607</v>
+        <v>115306.51</v>
       </c>
       <c r="F74" s="87"/>
       <c r="G74" s="87"/>
       <c r="H74" s="87">
         <f t="shared" si="3"/>
-        <v>36757</v>
+        <v>755898.13</v>
       </c>
       <c r="I74" s="87"/>
       <c r="J74" s="88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A75" s="109">
+        <v>45065</v>
+      </c>
+      <c r="B75" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="111">
+        <v>31150</v>
+      </c>
+      <c r="E75" s="111">
+        <v>5607</v>
+      </c>
+      <c r="F75" s="111"/>
+      <c r="G75" s="111"/>
+      <c r="H75" s="111">
+        <f t="shared" si="3"/>
+        <v>36757</v>
+      </c>
+      <c r="I75" s="111"/>
+      <c r="J75" s="110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A75" s="86">
+    <row r="76" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A76" s="108">
+        <v>45065</v>
+      </c>
+      <c r="B76" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="58">
+        <v>2425.85</v>
+      </c>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58">
+        <v>312.08</v>
+      </c>
+      <c r="G76" s="58">
+        <v>312.08</v>
+      </c>
+      <c r="H76" s="58">
+        <f t="shared" si="3"/>
+        <v>3050.0099999999998</v>
+      </c>
+      <c r="I76" s="58"/>
+      <c r="J76" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A77" s="108">
+        <v>45067</v>
+      </c>
+      <c r="B77" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="58">
+        <v>2425.85</v>
+      </c>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58">
+        <v>312.08</v>
+      </c>
+      <c r="G77" s="58">
+        <v>312.08</v>
+      </c>
+      <c r="H77" s="58">
+        <f t="shared" si="3"/>
+        <v>3050.0099999999998</v>
+      </c>
+      <c r="I77" s="58"/>
+      <c r="J77" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A78" s="112">
         <v>45069</v>
       </c>
-      <c r="B75" s="88" t="s">
+      <c r="B78" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="88" t="s">
+      <c r="C78" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="87">
+      <c r="D78" s="114">
         <v>82200</v>
       </c>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87">
+      <c r="E78" s="114"/>
+      <c r="F78" s="114">
         <v>7398</v>
       </c>
-      <c r="G75" s="87">
+      <c r="G78" s="114">
         <v>7398</v>
       </c>
-      <c r="H75" s="87">
+      <c r="H78" s="114">
         <f t="shared" si="3"/>
         <v>96996</v>
       </c>
-      <c r="I75" s="87"/>
-      <c r="J75" s="88" t="s">
+      <c r="I78" s="114"/>
+      <c r="J78" s="113" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A76" s="86">
+    <row r="79" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A79" s="86">
         <v>45070</v>
       </c>
-      <c r="B76" s="88" t="s">
+      <c r="B79" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="88" t="s">
+      <c r="C79" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="D76" s="87">
+      <c r="D79" s="87">
         <v>104350</v>
       </c>
-      <c r="E76" s="87">
+      <c r="E79" s="87">
         <v>18783</v>
       </c>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87">
+      <c r="F79" s="87"/>
+      <c r="G79" s="87"/>
+      <c r="H79" s="87">
         <f t="shared" si="3"/>
         <v>123133</v>
       </c>
-      <c r="I76" s="87"/>
-      <c r="J76" s="88" t="s">
+      <c r="I79" s="87"/>
+      <c r="J79" s="88" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A77" s="93" t="s">
+    <row r="80" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A80" s="86">
+        <v>45071</v>
+      </c>
+      <c r="B80" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="87">
+        <v>31200</v>
+      </c>
+      <c r="E80" s="87">
+        <v>5616</v>
+      </c>
+      <c r="F80" s="87"/>
+      <c r="G80" s="87"/>
+      <c r="H80" s="87">
+        <f t="shared" si="3"/>
+        <v>36816</v>
+      </c>
+      <c r="I80" s="87"/>
+      <c r="J80" s="88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A81" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="94"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="30">
-        <f>SUM(D59:D76)</f>
-        <v>1279109.23</v>
-      </c>
-      <c r="E77" s="30">
-        <f>SUM(E59:E76)</f>
-        <v>209422.93</v>
-      </c>
-      <c r="F77" s="30">
-        <f>SUM(F59:F75)</f>
-        <v>10408.380000000001</v>
-      </c>
-      <c r="G77" s="30">
-        <f>SUM(G59:G75)</f>
-        <v>10408.380000000001</v>
-      </c>
-      <c r="H77" s="30">
-        <f>SUM(H59:H75)</f>
-        <v>1386215.92</v>
-      </c>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-    </row>
-    <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="96" t="s">
+      <c r="B81" s="94"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="30">
+        <f>SUM(D59:D80)</f>
+        <v>1323160.9300000002</v>
+      </c>
+      <c r="E81" s="30">
+        <f>SUM(E59:E80)</f>
+        <v>216478.93</v>
+      </c>
+      <c r="F81" s="30">
+        <f>SUM(F59:F80)</f>
+        <v>11032.54</v>
+      </c>
+      <c r="G81" s="30">
+        <f>SUM(G59:G78)</f>
+        <v>11032.54</v>
+      </c>
+      <c r="H81" s="30">
+        <f>SUM(H59:H78)</f>
+        <v>1401755.94</v>
+      </c>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+    </row>
+    <row r="83" spans="1:10" ht="21">
+      <c r="A83" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="98"/>
-    </row>
-    <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="90" t="s">
+      <c r="B83" s="97"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="97"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="97"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="97"/>
+      <c r="I83" s="97"/>
+      <c r="J83" s="98"/>
+    </row>
+    <row r="84" spans="1:10" ht="21">
+      <c r="A84" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="91"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="92"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A81" s="3" t="s">
+      <c r="B84" s="91"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="92"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A83" s="18"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
@@ -3429,9 +3529,9 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="87" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -3465,168 +3565,168 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A90" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="89"/>
-      <c r="C90" s="89"/>
-      <c r="D90" s="30">
-        <f>SUM(D82:D89)</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="30">
-        <f>SUM(E82:E89)</f>
-        <v>0</v>
-      </c>
-      <c r="F90" s="30">
-        <f>SUM(F82:F89)</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="30">
-        <f>SUM(G82:G89)</f>
-        <v>0</v>
-      </c>
-      <c r="H90" s="30">
-        <f>SUM(H82:H89)</f>
-        <v>0</v>
-      </c>
+    <row r="90" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A90" s="18"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="90" t="s">
+    <row r="91" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A94" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="89"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="30">
+        <f>SUM(D86:D93)</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="30">
+        <f>SUM(E86:E93)</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="30">
+        <f>SUM(F86:F93)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="30">
+        <f>SUM(G86:G93)</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="30">
+        <f>SUM(H86:H93)</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:10" ht="21">
+      <c r="A95" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="91"/>
-      <c r="J91" s="92"/>
-    </row>
-    <row r="92" spans="1:10" s="6" customFormat="1">
-      <c r="A92" s="16" t="s">
+      <c r="B95" s="91"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="91"/>
+      <c r="I95" s="91"/>
+      <c r="J95" s="92"/>
+    </row>
+    <row r="96" spans="1:10" s="6" customFormat="1">
+      <c r="A96" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B96" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C96" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D96" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E96" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="F96" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="16" t="s">
+      <c r="G96" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H92" s="17" t="s">
+      <c r="H96" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I92" s="17" t="s">
+      <c r="I96" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J92" s="17" t="s">
+      <c r="J96" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A93" s="31"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-    </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A94" s="11"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="28"/>
-    </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A95" s="37"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-    </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-    </row>
     <row r="97" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A98" s="7"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="28"/>
     </row>
     <row r="99" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A99" s="7"/>
+      <c r="A99" s="37"/>
       <c r="B99" s="38"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="38"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A100" s="7"/>
-      <c r="B100" s="38"/>
+      <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -3638,7 +3738,7 @@
     </row>
     <row r="101" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A101" s="7"/>
-      <c r="B101" s="38"/>
+      <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -3724,7 +3824,7 @@
       <c r="A108" s="7"/>
       <c r="B108" s="38"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="41"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
@@ -3736,7 +3836,7 @@
       <c r="A109" s="7"/>
       <c r="B109" s="38"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="41"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -3748,7 +3848,7 @@
       <c r="A110" s="7"/>
       <c r="B110" s="38"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="41"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
@@ -3760,7 +3860,7 @@
       <c r="A111" s="7"/>
       <c r="B111" s="38"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="41"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
@@ -3768,9 +3868,9 @@
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="112" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A112" s="7"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="38"/>
       <c r="C112" s="8"/>
       <c r="D112" s="41"/>
       <c r="E112" s="8"/>
@@ -3784,7 +3884,7 @@
       <c r="A113" s="7"/>
       <c r="B113" s="38"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="D113" s="41"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
@@ -3792,23 +3892,23 @@
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
     </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+    <row r="114" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A114" s="7"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="8"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="41"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
-      <c r="J114" s="19"/>
+      <c r="J114" s="8"/>
     </row>
     <row r="115" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A115" s="7"/>
-      <c r="B115" s="8"/>
+      <c r="B115" s="38"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="D115" s="41"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
@@ -3816,230 +3916,278 @@
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
     </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A116" s="93" t="s">
+    <row r="116" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A116" s="7"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+    </row>
+    <row r="117" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A117" s="7"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+    </row>
+    <row r="118" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A118" s="7"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="19"/>
+    </row>
+    <row r="119" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A119" s="7"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+    </row>
+    <row r="120" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A120" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="94"/>
-      <c r="C116" s="95"/>
-      <c r="D116" s="30">
-        <f>SUM(D93:D115)</f>
-        <v>0</v>
-      </c>
-      <c r="E116" s="30">
-        <f>SUM(E93:E115)</f>
-        <v>0</v>
-      </c>
-      <c r="F116" s="30">
-        <f>SUM(F93:F115)</f>
-        <v>0</v>
-      </c>
-      <c r="G116" s="30">
-        <f>SUM(G93:G115)</f>
-        <v>0</v>
-      </c>
-      <c r="H116" s="30">
-        <f>SUM(H93:H115)</f>
-        <v>0</v>
-      </c>
-      <c r="I116" s="30"/>
-      <c r="J116" s="30"/>
-    </row>
-    <row r="117" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A117" s="78"/>
-      <c r="B117" s="78"/>
-      <c r="C117" s="78"/>
-      <c r="D117" s="79"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="79"/>
-      <c r="G117" s="79"/>
-      <c r="H117" s="79"/>
-      <c r="I117" s="79"/>
-      <c r="J117" s="79"/>
-    </row>
-    <row r="120" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A120" s="21">
+      <c r="B120" s="94"/>
+      <c r="C120" s="95"/>
+      <c r="D120" s="30">
+        <f>SUM(D97:D119)</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="30">
+        <f>SUM(E97:E119)</f>
+        <v>0</v>
+      </c>
+      <c r="F120" s="30">
+        <f>SUM(F97:F119)</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="30">
+        <f>SUM(G97:G119)</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="30">
+        <f>SUM(H97:H119)</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
+    </row>
+    <row r="121" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A121" s="78"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="79"/>
+      <c r="I121" s="79"/>
+      <c r="J121" s="79"/>
+    </row>
+    <row r="124" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A124" s="21">
         <v>44840</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B124" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C120" s="23" t="s">
+      <c r="C124" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D120" s="23">
+      <c r="D124" s="23">
         <v>1850</v>
       </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8">
+      <c r="E124" s="8"/>
+      <c r="F124" s="8">
         <v>166.5</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G124" s="8">
         <v>166.5</v>
       </c>
-      <c r="H120" s="8">
-        <f t="shared" ref="H120:H125" si="4">D120+E120+F120+G120</f>
+      <c r="H124" s="8">
+        <f t="shared" ref="H124:H129" si="4">D124+E124+F124+G124</f>
         <v>2183</v>
       </c>
-      <c r="I120" s="9" t="s">
+      <c r="I124" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J120" s="9"/>
-    </row>
-    <row r="121" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A121" s="21">
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A125" s="21">
         <v>44841</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="B125" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="C125" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D121" s="23">
+      <c r="D125" s="23">
         <v>55015</v>
       </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8">
+      <c r="E125" s="8"/>
+      <c r="F125" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G125" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H121" s="8">
+      <c r="H125" s="8">
         <f t="shared" si="4"/>
         <v>64917.7</v>
       </c>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-    </row>
-    <row r="122" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A122" s="21">
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A126" s="21">
         <v>44875</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B126" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C126" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D122" s="23">
+      <c r="D126" s="23">
         <v>2279250</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8">
+      <c r="E126" s="8"/>
+      <c r="F126" s="8">
         <v>205132.5</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G126" s="8">
         <v>205132.5</v>
       </c>
-      <c r="H122" s="8">
+      <c r="H126" s="8">
         <f t="shared" si="4"/>
         <v>2689515</v>
       </c>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-    </row>
-    <row r="123" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A123" s="21">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A127" s="21">
         <v>44932</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="B127" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C127" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D123" s="23">
+      <c r="D127" s="23">
         <v>900</v>
       </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8">
         <v>81</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G127" s="8">
         <v>81</v>
       </c>
-      <c r="H123" s="8">
+      <c r="H127" s="8">
         <f t="shared" si="4"/>
         <v>1062</v>
       </c>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-    </row>
-    <row r="124" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A124" s="21">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A128" s="21">
         <v>44965</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B128" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C128" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D124" s="23">
+      <c r="D128" s="23">
         <v>7200</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8">
+      <c r="E128" s="8"/>
+      <c r="F128" s="8">
         <v>648</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G128" s="8">
         <v>648</v>
       </c>
-      <c r="H124" s="8">
+      <c r="H128" s="8">
         <f t="shared" si="4"/>
         <v>8496</v>
       </c>
-      <c r="I124" s="9" t="s">
+      <c r="I128" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J124" s="9"/>
-    </row>
-    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A125" s="21">
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A129" s="21">
         <v>44977</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B129" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C129" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D125" s="23">
+      <c r="D129" s="23">
         <v>1819490</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8">
+      <c r="E129" s="8"/>
+      <c r="F129" s="8">
         <v>163754.1</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G129" s="8">
         <v>163754.1</v>
       </c>
-      <c r="H125" s="8">
+      <c r="H129" s="8">
         <f t="shared" si="4"/>
         <v>2146998.2000000002</v>
       </c>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:J95"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A84:H84"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A83:J83"/>
     <mergeCell ref="A44:J44"/>
     <mergeCell ref="A45:H45"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A81:C81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -966,6 +966,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1011,41 +1035,17 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -1343,36 +1343,36 @@
     <col min="6" max="6" width="14.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="A2" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1592,11 +1592,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1621,18 +1621,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2420,11 +2420,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="101"/>
-      <c r="C42" s="102"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="110"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2449,30 +2449,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="98"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="106"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="92"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="100"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2748,11 +2748,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="89" t="s">
+      <c r="A56" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -2777,18 +2777,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="90" t="s">
+      <c r="A57" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="92"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="100"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3265,37 +3265,37 @@
       </c>
     </row>
     <row r="75" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A75" s="109">
+      <c r="A75" s="90">
         <v>45065</v>
       </c>
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="110" t="s">
+      <c r="C75" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="D75" s="111">
+      <c r="D75" s="92">
         <v>31150</v>
       </c>
-      <c r="E75" s="111">
+      <c r="E75" s="92">
         <v>5607</v>
       </c>
-      <c r="F75" s="111"/>
-      <c r="G75" s="111"/>
-      <c r="H75" s="111">
+      <c r="F75" s="92"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="92">
         <f t="shared" si="3"/>
         <v>36757</v>
       </c>
-      <c r="I75" s="111"/>
-      <c r="J75" s="110" t="s">
+      <c r="I75" s="92"/>
+      <c r="J75" s="91" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A76" s="108">
+      <c r="A76" s="89">
         <v>45065</v>
       </c>
-      <c r="B76" s="115" t="s">
+      <c r="B76" s="96" t="s">
         <v>71</v>
       </c>
       <c r="C76" s="57" t="s">
@@ -3321,10 +3321,10 @@
       </c>
     </row>
     <row r="77" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A77" s="108">
+      <c r="A77" s="89">
         <v>45067</v>
       </c>
-      <c r="B77" s="115" t="s">
+      <c r="B77" s="96" t="s">
         <v>71</v>
       </c>
       <c r="C77" s="57" t="s">
@@ -3350,31 +3350,31 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A78" s="112">
+      <c r="A78" s="93">
         <v>45069</v>
       </c>
-      <c r="B78" s="113" t="s">
+      <c r="B78" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="113" t="s">
+      <c r="C78" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="D78" s="114">
+      <c r="D78" s="95">
         <v>82200</v>
       </c>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114">
+      <c r="E78" s="95"/>
+      <c r="F78" s="95">
         <v>7398</v>
       </c>
-      <c r="G78" s="114">
+      <c r="G78" s="95">
         <v>7398</v>
       </c>
-      <c r="H78" s="114">
+      <c r="H78" s="95">
         <f t="shared" si="3"/>
         <v>96996</v>
       </c>
-      <c r="I78" s="114"/>
-      <c r="J78" s="113" t="s">
+      <c r="I78" s="95"/>
+      <c r="J78" s="94" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3433,11 +3433,11 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="93" t="s">
+      <c r="A81" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="94"/>
-      <c r="C81" s="95"/>
+      <c r="B81" s="102"/>
+      <c r="C81" s="103"/>
       <c r="D81" s="30">
         <f>SUM(D59:D80)</f>
         <v>1323160.9300000002</v>
@@ -3462,30 +3462,30 @@
       <c r="J81" s="30"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="96" t="s">
+      <c r="A83" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="97"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="97"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="97"/>
-      <c r="G83" s="97"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="97"/>
-      <c r="J83" s="98"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="106"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="91"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="92"/>
+      <c r="B84" s="99"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="99"/>
+      <c r="H84" s="100"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
@@ -3614,11 +3614,11 @@
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A94" s="89" t="s">
+      <c r="A94" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="89"/>
-      <c r="C94" s="89"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="97"/>
       <c r="D94" s="30">
         <f>SUM(D86:D93)</f>
         <v>0</v>
@@ -3643,18 +3643,18 @@
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="90" t="s">
+      <c r="A95" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="91"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="91"/>
-      <c r="E95" s="91"/>
-      <c r="F95" s="91"/>
-      <c r="G95" s="91"/>
-      <c r="H95" s="91"/>
-      <c r="I95" s="91"/>
-      <c r="J95" s="92"/>
+      <c r="B95" s="99"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
+      <c r="H95" s="99"/>
+      <c r="I95" s="99"/>
+      <c r="J95" s="100"/>
     </row>
     <row r="96" spans="1:10" s="6" customFormat="1">
       <c r="A96" s="16" t="s">
@@ -3965,11 +3965,11 @@
       <c r="J119" s="8"/>
     </row>
     <row r="120" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A120" s="93" t="s">
+      <c r="A120" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B120" s="94"/>
-      <c r="C120" s="95"/>
+      <c r="B120" s="102"/>
+      <c r="C120" s="103"/>
       <c r="D120" s="30">
         <f>SUM(D97:D119)</f>
         <v>0</v>
@@ -4218,30 +4218,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -4376,11 +4376,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -4405,18 +4405,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -4595,11 +4595,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -4629,30 +4629,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="98"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="106"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="100"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -4745,11 +4745,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -4774,18 +4774,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="92"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -5096,11 +5096,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="105" t="s">
+      <c r="A65" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -5125,30 +5125,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="96" t="s">
+      <c r="A67" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="97"/>
-      <c r="J67" s="98"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="106"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="90" t="s">
+      <c r="A68" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="92"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="100"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -5217,11 +5217,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="103" t="s">
+      <c r="A73" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="103"/>
-      <c r="C73" s="103"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="111"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -5246,18 +5246,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="90" t="s">
+      <c r="A74" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="91"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
-      <c r="J74" s="92"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="100"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -5508,11 +5508,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="104" t="s">
+      <c r="A94" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="104"/>
-      <c r="C94" s="104"/>
+      <c r="B94" s="113"/>
+      <c r="C94" s="113"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -5538,12 +5538,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -5553,6 +5547,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5582,30 +5582,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="A2" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5722,11 +5722,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -5751,18 +5751,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -5881,11 +5881,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -5910,30 +5910,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="98"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="100"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -6038,11 +6038,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -6067,18 +6067,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="92"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="100"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -6389,11 +6389,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="93" t="s">
+      <c r="A59" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="94"/>
-      <c r="C59" s="95"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -6418,30 +6418,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="96" t="s">
+      <c r="A61" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="98"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="106"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="92"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="100"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -6570,11 +6570,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="89" t="s">
+      <c r="A72" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="89"/>
-      <c r="C72" s="89"/>
+      <c r="B72" s="97"/>
+      <c r="C72" s="97"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -6599,18 +6599,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="90" t="s">
+      <c r="A73" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="91"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="91"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
-      <c r="J73" s="92"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="99"/>
+      <c r="J73" s="100"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -6921,11 +6921,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="93" t="s">
+      <c r="A98" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="94"/>
-      <c r="C98" s="95"/>
+      <c r="B98" s="102"/>
+      <c r="C98" s="103"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -6950,21 +6950,26 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="107"/>
-      <c r="B100" s="107"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="107"/>
-      <c r="E100" s="107"/>
+      <c r="A100" s="115"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="115"/>
+      <c r="E100" s="115"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="107"/>
-      <c r="B108" s="107"/>
-      <c r="C108" s="107"/>
-      <c r="D108" s="107"/>
-      <c r="E108" s="107"/>
+      <c r="A108" s="115"/>
+      <c r="B108" s="115"/>
+      <c r="C108" s="115"/>
+      <c r="D108" s="115"/>
+      <c r="E108" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -6977,11 +6982,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7011,30 +7011,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -7169,11 +7169,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -7198,18 +7198,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -7388,11 +7388,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -7422,30 +7422,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="98"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="106"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="100"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -7538,11 +7538,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -7567,18 +7567,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="92"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -7889,11 +7889,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="105" t="s">
+      <c r="A65" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -7918,30 +7918,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="96" t="s">
+      <c r="A67" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="97"/>
-      <c r="J67" s="98"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="106"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="90" t="s">
+      <c r="A68" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="92"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="100"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8010,11 +8010,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="103" t="s">
+      <c r="A73" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="103"/>
-      <c r="C73" s="103"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="111"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -8039,18 +8039,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="90" t="s">
+      <c r="A74" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="91"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
-      <c r="J74" s="92"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="100"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -8301,11 +8301,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="104" t="s">
+      <c r="A94" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="104"/>
-      <c r="C94" s="104"/>
+      <c r="B94" s="113"/>
+      <c r="C94" s="113"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -8331,12 +8331,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -8346,6 +8340,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="150">
   <si>
     <t>APRIL</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>UV/23-24/182</t>
+  </si>
+  <si>
+    <t>17/23-24</t>
+  </si>
+  <si>
+    <t>I-C-1-23-451040</t>
   </si>
 </sst>
 </file>
@@ -1035,13 +1041,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1327,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J129"/>
+  <dimension ref="A2:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2868,7 +2874,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8">
-        <f t="shared" ref="H60:H80" si="3">D60+E60+F60+G60</f>
+        <f t="shared" ref="H60:H82" si="3">D60+E60+F60+G60</f>
         <v>173342</v>
       </c>
       <c r="I60" s="8"/>
@@ -3432,112 +3438,142 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A81" s="101" t="s">
+    <row r="81" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A81" s="86">
+        <v>45072</v>
+      </c>
+      <c r="B81" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D81" s="87">
+        <v>55000</v>
+      </c>
+      <c r="E81" s="87">
+        <v>9900</v>
+      </c>
+      <c r="F81" s="87"/>
+      <c r="G81" s="87"/>
+      <c r="H81" s="87">
+        <f t="shared" si="3"/>
+        <v>64900</v>
+      </c>
+      <c r="I81" s="87"/>
+      <c r="J81" s="88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A82" s="86">
+        <v>45075</v>
+      </c>
+      <c r="B82" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="87">
+        <v>104125</v>
+      </c>
+      <c r="E82" s="87">
+        <v>18742.5</v>
+      </c>
+      <c r="F82" s="87"/>
+      <c r="G82" s="87"/>
+      <c r="H82" s="87">
+        <f t="shared" si="3"/>
+        <v>122867.5</v>
+      </c>
+      <c r="I82" s="87"/>
+      <c r="J82" s="88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A83" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="102"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="30">
-        <f>SUM(D59:D80)</f>
-        <v>1323160.9300000002</v>
-      </c>
-      <c r="E81" s="30">
-        <f>SUM(E59:E80)</f>
-        <v>216478.93</v>
-      </c>
-      <c r="F81" s="30">
-        <f>SUM(F59:F80)</f>
+      <c r="B83" s="102"/>
+      <c r="C83" s="103"/>
+      <c r="D83" s="30">
+        <f>SUM(D59:D82)</f>
+        <v>1482285.9300000002</v>
+      </c>
+      <c r="E83" s="30">
+        <f>SUM(E59:E82)</f>
+        <v>245121.43</v>
+      </c>
+      <c r="F83" s="30">
+        <f>SUM(F59:F82)</f>
         <v>11032.54</v>
       </c>
-      <c r="G81" s="30">
-        <f>SUM(G59:G78)</f>
+      <c r="G83" s="30">
+        <f>SUM(G59:G82)</f>
         <v>11032.54</v>
       </c>
-      <c r="H81" s="30">
-        <f>SUM(H59:H78)</f>
-        <v>1401755.94</v>
-      </c>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-    </row>
-    <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="104" t="s">
+      <c r="H83" s="30">
+        <f>SUM(H59:H82)</f>
+        <v>1749472.44</v>
+      </c>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+    </row>
+    <row r="85" spans="1:10" ht="21">
+      <c r="A85" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="105"/>
-      <c r="J83" s="106"/>
-    </row>
-    <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="98" t="s">
+      <c r="B85" s="105"/>
+      <c r="C85" s="105"/>
+      <c r="D85" s="105"/>
+      <c r="E85" s="105"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="106"/>
+    </row>
+    <row r="86" spans="1:10" ht="21">
+      <c r="A86" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="99"/>
-      <c r="C84" s="99"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="99"/>
-      <c r="F84" s="99"/>
-      <c r="G84" s="99"/>
-      <c r="H84" s="100"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A85" s="3" t="s">
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
+      <c r="G86" s="99"/>
+      <c r="H86" s="100"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A87" s="18"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
@@ -3553,9 +3589,9 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" ht="15.6">
+    <row r="89" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -3613,144 +3649,144 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A94" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="30">
-        <f>SUM(D86:D93)</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="30">
-        <f>SUM(E86:E93)</f>
-        <v>0</v>
-      </c>
-      <c r="F94" s="30">
-        <f>SUM(F86:F93)</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="30">
-        <f>SUM(G86:G93)</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="30">
-        <f>SUM(H86:H93)</f>
-        <v>0</v>
-      </c>
+    <row r="94" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A94" s="18"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="98" t="s">
+    <row r="95" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A96" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="97"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="30">
+        <f>SUM(D88:D95)</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="30">
+        <f>SUM(E88:E95)</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="30">
+        <f>SUM(F88:F95)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="30">
+        <f>SUM(G88:G95)</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="30">
+        <f>SUM(H88:H95)</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="1:10" ht="21">
+      <c r="A97" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="99"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="99"/>
-      <c r="E95" s="99"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="99"/>
-      <c r="H95" s="99"/>
-      <c r="I95" s="99"/>
-      <c r="J95" s="100"/>
-    </row>
-    <row r="96" spans="1:10" s="6" customFormat="1">
-      <c r="A96" s="16" t="s">
+      <c r="B97" s="99"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99"/>
+      <c r="H97" s="99"/>
+      <c r="I97" s="99"/>
+      <c r="J97" s="100"/>
+    </row>
+    <row r="98" spans="1:10" s="6" customFormat="1">
+      <c r="A98" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B98" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C98" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="D98" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E98" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="F98" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G98" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H96" s="17" t="s">
+      <c r="H98" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="17" t="s">
+      <c r="I98" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J96" s="17" t="s">
+      <c r="J98" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A97" s="31"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A98" s="11"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="28"/>
-    </row>
     <row r="99" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A99" s="37"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="28"/>
     </row>
     <row r="101" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="38"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A102" s="7"/>
-      <c r="B102" s="38"/>
+      <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -3762,7 +3798,7 @@
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A103" s="7"/>
-      <c r="B103" s="38"/>
+      <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -3872,7 +3908,7 @@
       <c r="A112" s="7"/>
       <c r="B112" s="38"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="41"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
@@ -3884,7 +3920,7 @@
       <c r="A113" s="7"/>
       <c r="B113" s="38"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="41"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
@@ -3916,9 +3952,9 @@
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
     </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="116" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A116" s="7"/>
-      <c r="B116" s="19"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="8"/>
       <c r="D116" s="41"/>
       <c r="E116" s="8"/>
@@ -3932,7 +3968,7 @@
       <c r="A117" s="7"/>
       <c r="B117" s="38"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
+      <c r="D117" s="41"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
@@ -3940,21 +3976,21 @@
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
     </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+    <row r="118" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A118" s="7"/>
       <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="41"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="19"/>
+      <c r="J118" s="8"/>
     </row>
     <row r="119" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A119" s="7"/>
-      <c r="B119" s="8"/>
+      <c r="B119" s="38"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -3964,230 +4000,254 @@
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A120" s="101" t="s">
+    <row r="120" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A120" s="7"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="19"/>
+    </row>
+    <row r="121" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+    </row>
+    <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A122" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B120" s="102"/>
-      <c r="C120" s="103"/>
-      <c r="D120" s="30">
-        <f>SUM(D97:D119)</f>
-        <v>0</v>
-      </c>
-      <c r="E120" s="30">
-        <f>SUM(E97:E119)</f>
-        <v>0</v>
-      </c>
-      <c r="F120" s="30">
-        <f>SUM(F97:F119)</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="30">
-        <f>SUM(G97:G119)</f>
-        <v>0</v>
-      </c>
-      <c r="H120" s="30">
-        <f>SUM(H97:H119)</f>
-        <v>0</v>
-      </c>
-      <c r="I120" s="30"/>
-      <c r="J120" s="30"/>
-    </row>
-    <row r="121" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A121" s="78"/>
-      <c r="B121" s="78"/>
-      <c r="C121" s="78"/>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="79"/>
-      <c r="H121" s="79"/>
-      <c r="I121" s="79"/>
-      <c r="J121" s="79"/>
-    </row>
-    <row r="124" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A124" s="21">
+      <c r="B122" s="102"/>
+      <c r="C122" s="103"/>
+      <c r="D122" s="30">
+        <f>SUM(D99:D121)</f>
+        <v>0</v>
+      </c>
+      <c r="E122" s="30">
+        <f>SUM(E99:E121)</f>
+        <v>0</v>
+      </c>
+      <c r="F122" s="30">
+        <f>SUM(F99:F121)</f>
+        <v>0</v>
+      </c>
+      <c r="G122" s="30">
+        <f>SUM(G99:G121)</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="30">
+        <f>SUM(H99:H121)</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
+    </row>
+    <row r="123" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A123" s="78"/>
+      <c r="B123" s="78"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="79"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="79"/>
+      <c r="I123" s="79"/>
+      <c r="J123" s="79"/>
+    </row>
+    <row r="126" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A126" s="21">
         <v>44840</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B126" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C126" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="23">
+      <c r="D126" s="23">
         <v>1850</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8">
+      <c r="E126" s="8"/>
+      <c r="F126" s="8">
         <v>166.5</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G126" s="8">
         <v>166.5</v>
       </c>
-      <c r="H124" s="8">
-        <f t="shared" ref="H124:H129" si="4">D124+E124+F124+G124</f>
+      <c r="H126" s="8">
+        <f t="shared" ref="H126:H131" si="4">D126+E126+F126+G126</f>
         <v>2183</v>
       </c>
-      <c r="I124" s="9" t="s">
+      <c r="I126" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J124" s="9"/>
-    </row>
-    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A125" s="21">
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A127" s="21">
         <v>44841</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B127" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C127" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D125" s="23">
+      <c r="D127" s="23">
         <v>55015</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G127" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H125" s="8">
+      <c r="H127" s="8">
         <f t="shared" si="4"/>
         <v>64917.7</v>
       </c>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-    </row>
-    <row r="126" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A126" s="21">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A128" s="21">
         <v>44875</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B128" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C128" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D128" s="23">
         <v>2279250</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8">
+      <c r="E128" s="8"/>
+      <c r="F128" s="8">
         <v>205132.5</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G128" s="8">
         <v>205132.5</v>
       </c>
-      <c r="H126" s="8">
+      <c r="H128" s="8">
         <f t="shared" si="4"/>
         <v>2689515</v>
       </c>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-    </row>
-    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A127" s="21">
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A129" s="21">
         <v>44932</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B129" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C129" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D127" s="23">
+      <c r="D129" s="23">
         <v>900</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8">
+      <c r="E129" s="8"/>
+      <c r="F129" s="8">
         <v>81</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G129" s="8">
         <v>81</v>
       </c>
-      <c r="H127" s="8">
+      <c r="H129" s="8">
         <f t="shared" si="4"/>
         <v>1062</v>
       </c>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-    </row>
-    <row r="128" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A128" s="21">
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A130" s="21">
         <v>44965</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B130" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C130" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D128" s="23">
+      <c r="D130" s="23">
         <v>7200</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8">
+      <c r="E130" s="8"/>
+      <c r="F130" s="8">
         <v>648</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G130" s="8">
         <v>648</v>
       </c>
-      <c r="H128" s="8">
+      <c r="H130" s="8">
         <f t="shared" si="4"/>
         <v>8496</v>
       </c>
-      <c r="I128" s="9" t="s">
+      <c r="I130" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J128" s="9"/>
-    </row>
-    <row r="129" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A129" s="21">
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A131" s="21">
         <v>44977</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B131" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C131" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D129" s="23">
+      <c r="D131" s="23">
         <v>1819490</v>
       </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8">
+      <c r="E131" s="8"/>
+      <c r="F131" s="8">
         <v>163754.1</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G131" s="8">
         <v>163754.1</v>
       </c>
-      <c r="H129" s="8">
+      <c r="H131" s="8">
         <f t="shared" si="4"/>
         <v>2146998.2000000002</v>
       </c>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:J95"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A86:H86"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A85:J85"/>
     <mergeCell ref="A44:J44"/>
     <mergeCell ref="A45:H45"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A83:C83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4595,11 +4655,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5096,11 +5156,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="114" t="s">
+      <c r="A65" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="114"/>
-      <c r="C65" s="114"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -5508,11 +5568,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="113"/>
-      <c r="C94" s="113"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="112"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -5538,6 +5598,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -5547,12 +5613,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6965,11 +7025,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -6982,6 +7037,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7388,11 +7448,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -7889,11 +7949,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="114" t="s">
+      <c r="A65" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="114"/>
-      <c r="C65" s="114"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8301,11 +8361,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="113"/>
-      <c r="C94" s="113"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="112"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -8331,6 +8391,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -8340,12 +8406,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="159">
   <si>
     <t>APRIL</t>
   </si>
@@ -472,6 +472,33 @@
   </si>
   <si>
     <t>I-C-1-23-451040</t>
+  </si>
+  <si>
+    <t>b23-24MQ118</t>
+  </si>
+  <si>
+    <t>b23-24AQ119</t>
+  </si>
+  <si>
+    <t>b23-24MQ120</t>
+  </si>
+  <si>
+    <t>b23-24AQ121</t>
+  </si>
+  <si>
+    <t>BLR7-159098</t>
+  </si>
+  <si>
+    <t>CA-57</t>
+  </si>
+  <si>
+    <t>DECENT COURIERS</t>
+  </si>
+  <si>
+    <t>30BPUPK7174R1ZY</t>
+  </si>
+  <si>
+    <t>CN332171</t>
   </si>
 </sst>
 </file>
@@ -706,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -972,28 +999,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1333,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J131"/>
+  <dimension ref="A2:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:G56"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1355,30 +1361,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
+      <c r="A2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1598,11 +1604,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1627,18 +1633,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2426,11 +2432,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="109"/>
-      <c r="C42" s="110"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2455,30 +2461,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="106"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="99"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="100"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="93"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2754,11 +2760,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -2783,18 +2789,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="98" t="s">
+      <c r="A57" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="100"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="93"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -2828,1019 +2834,1193 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A59" s="7">
+    <row r="59" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A59" s="86">
         <v>45048</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="87">
         <v>24695</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="87">
         <v>4445.1000000000004</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8">
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87">
         <f>D59+E59+F59+G59</f>
         <v>29140.1</v>
       </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8" t="s">
+      <c r="I59" s="87"/>
+      <c r="J59" s="87" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A60" s="7">
+    <row r="60" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A60" s="86">
         <v>45050</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="87">
         <v>146900</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="87">
         <v>26442</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8">
-        <f t="shared" ref="H60:H82" si="3">D60+E60+F60+G60</f>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87">
+        <f t="shared" ref="H60:H87" si="3">D60+E60+F60+G60</f>
         <v>173342</v>
       </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8" t="s">
+      <c r="I60" s="87"/>
+      <c r="J60" s="87" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A61" s="31">
+    <row r="61" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A61" s="86">
         <v>45050</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="32">
+      <c r="D61" s="87">
         <v>19800</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="87">
         <v>3564</v>
       </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="8">
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="87">
         <f t="shared" si="3"/>
         <v>23364</v>
       </c>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32" t="s">
+      <c r="I61" s="87"/>
+      <c r="J61" s="87" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A62" s="31">
+    <row r="62" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A62" s="86">
         <v>45051</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="87">
         <v>8000</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="87">
         <v>1440</v>
       </c>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="8">
+      <c r="F62" s="87"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="87">
         <f t="shared" si="3"/>
         <v>9440</v>
       </c>
-      <c r="I62" s="32"/>
-      <c r="J62" s="8" t="s">
+      <c r="I62" s="87"/>
+      <c r="J62" s="87" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A63" s="11">
+    <row r="63" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A63" s="86">
+        <v>45051</v>
+      </c>
+      <c r="B63" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="87">
+        <v>1300</v>
+      </c>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87">
+        <v>117</v>
+      </c>
+      <c r="G63" s="87">
+        <v>117</v>
+      </c>
+      <c r="H63" s="87">
+        <f t="shared" si="3"/>
+        <v>1534</v>
+      </c>
+      <c r="I63" s="87"/>
+      <c r="J63" s="88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A64" s="86">
         <v>45052</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B64" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C64" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="87">
         <v>16000</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="87">
         <v>2880</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="8">
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="87">
         <f t="shared" si="3"/>
         <v>18880</v>
       </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="28" t="s">
+      <c r="I64" s="87"/>
+      <c r="J64" s="89" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A64" s="11">
+    <row r="65" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A65" s="86">
         <v>45052</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B65" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C65" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="87">
         <v>8424</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="87">
         <v>1516.32</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="8">
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87">
         <f t="shared" si="3"/>
         <v>9940.32</v>
       </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="22" t="s">
+      <c r="I65" s="87"/>
+      <c r="J65" s="88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A65" s="11">
+    <row r="66" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A66" s="86">
         <v>45054</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B66" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D66" s="87">
         <v>1026.27</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12">
+      <c r="E66" s="87"/>
+      <c r="F66" s="87">
         <v>92.37</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G66" s="87">
         <v>92.37</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H66" s="87">
         <f t="shared" si="3"/>
         <v>1211.0099999999998</v>
       </c>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12" t="s">
+      <c r="I66" s="87"/>
+      <c r="J66" s="87" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A66" s="11">
+    <row r="67" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A67" s="86">
         <v>45054</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B67" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="87">
         <v>2987.34</v>
       </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12">
+      <c r="E67" s="87"/>
+      <c r="F67" s="87">
         <v>268.86</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G67" s="87">
         <v>268.86</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H67" s="87">
         <f t="shared" si="3"/>
         <v>3525.0600000000004</v>
       </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12" t="s">
+      <c r="I67" s="87"/>
+      <c r="J67" s="87" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A67" s="11">
+    <row r="68" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A68" s="86">
+        <v>45054</v>
+      </c>
+      <c r="B68" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="87">
+        <v>338.98</v>
+      </c>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87">
+        <v>30.51</v>
+      </c>
+      <c r="G68" s="87">
+        <v>30.51</v>
+      </c>
+      <c r="H68" s="87">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="I68" s="87"/>
+      <c r="J68" s="87" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A69" s="86">
         <v>45057</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B69" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C69" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D69" s="87">
         <v>23760</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12">
+      <c r="E69" s="87"/>
+      <c r="F69" s="87">
         <v>2138.4</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G69" s="87">
         <v>2138.4</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H69" s="87">
         <f t="shared" si="3"/>
         <v>28036.800000000003</v>
       </c>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12" t="s">
+      <c r="I69" s="87"/>
+      <c r="J69" s="87" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A68" s="11">
+    <row r="70" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A70" s="86">
         <v>45057</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B70" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C70" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D70" s="87">
         <v>32650</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E70" s="87">
         <v>5877</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="8">
+      <c r="F70" s="87"/>
+      <c r="G70" s="87"/>
+      <c r="H70" s="87">
         <f t="shared" si="3"/>
         <v>38527</v>
       </c>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12" t="s">
+      <c r="I70" s="87"/>
+      <c r="J70" s="87" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A69" s="11">
+    <row r="71" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A71" s="86">
         <v>45057</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B71" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C71" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D71" s="87">
         <v>48975</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E71" s="87">
         <v>8815.5</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="8">
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87">
         <f t="shared" si="3"/>
         <v>57790.5</v>
       </c>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12" t="s">
+      <c r="I71" s="87"/>
+      <c r="J71" s="87" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A70" s="11">
+    <row r="72" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A72" s="86">
         <v>45058</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B72" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C72" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D72" s="87">
         <v>3375</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12">
+      <c r="E72" s="87"/>
+      <c r="F72" s="87">
         <v>303.75</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G72" s="87">
         <v>303.75</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H72" s="87">
         <f t="shared" si="3"/>
         <v>3982.5</v>
       </c>
-      <c r="I70" s="12"/>
-      <c r="J70" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A71" s="11">
-        <v>45059</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="12">
-        <v>32405</v>
-      </c>
-      <c r="E71" s="12">
-        <v>5832.9</v>
-      </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="8">
-        <f t="shared" si="3"/>
-        <v>38237.9</v>
-      </c>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A72" s="86">
-        <v>45062</v>
-      </c>
-      <c r="B72" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="87">
-        <v>2300</v>
-      </c>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87">
-        <v>207</v>
-      </c>
-      <c r="G72" s="87">
-        <v>207</v>
-      </c>
-      <c r="H72" s="87">
-        <f t="shared" si="3"/>
-        <v>2714</v>
-      </c>
       <c r="I72" s="87"/>
       <c r="J72" s="88" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A73" s="86">
-        <v>45064</v>
-      </c>
-      <c r="B73" s="88" t="s">
+        <v>45059</v>
+      </c>
+      <c r="B73" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="88" t="s">
-        <v>136</v>
+      <c r="C73" s="87" t="s">
+        <v>128</v>
       </c>
       <c r="D73" s="87">
-        <v>57520</v>
+        <v>32405</v>
       </c>
       <c r="E73" s="87">
-        <v>10353.6</v>
+        <v>5832.9</v>
       </c>
       <c r="F73" s="87"/>
       <c r="G73" s="87"/>
       <c r="H73" s="87">
         <f t="shared" si="3"/>
-        <v>67873.600000000006</v>
+        <v>38237.9</v>
       </c>
       <c r="I73" s="87"/>
-      <c r="J73" s="88" t="s">
+      <c r="J73" s="87" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" ht="15">
+    <row r="74" spans="1:10" s="6" customFormat="1" ht="30">
       <c r="A74" s="86">
-        <v>45065</v>
+        <v>45062</v>
       </c>
       <c r="B74" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="88">
-        <v>2110731981</v>
+        <v>131</v>
+      </c>
+      <c r="C74" s="88" t="s">
+        <v>133</v>
       </c>
       <c r="D74" s="87">
-        <v>640591.62</v>
-      </c>
-      <c r="E74" s="87">
-        <v>115306.51</v>
-      </c>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
+        <v>2300</v>
+      </c>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87">
+        <v>207</v>
+      </c>
+      <c r="G74" s="87">
+        <v>207</v>
+      </c>
       <c r="H74" s="87">
         <f t="shared" si="3"/>
-        <v>755898.13</v>
+        <v>2714</v>
       </c>
       <c r="I74" s="87"/>
       <c r="J74" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A75" s="86">
+        <v>45063</v>
+      </c>
+      <c r="B75" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="88">
+        <v>2881077278</v>
+      </c>
+      <c r="D75" s="87">
+        <v>520</v>
+      </c>
+      <c r="E75" s="87">
+        <v>26</v>
+      </c>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87">
+        <f t="shared" si="3"/>
+        <v>546</v>
+      </c>
+      <c r="I75" s="87"/>
+      <c r="J75" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A76" s="86">
+        <v>45064</v>
+      </c>
+      <c r="B76" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="87">
+        <v>57520</v>
+      </c>
+      <c r="E76" s="87">
+        <v>10353.6</v>
+      </c>
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="87">
+        <f t="shared" si="3"/>
+        <v>67873.600000000006</v>
+      </c>
+      <c r="I76" s="87"/>
+      <c r="J76" s="88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A77" s="86">
+        <v>45065</v>
+      </c>
+      <c r="B77" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="88">
+        <v>2110731981</v>
+      </c>
+      <c r="D77" s="87">
+        <v>640591.62</v>
+      </c>
+      <c r="E77" s="87">
+        <v>115306.51</v>
+      </c>
+      <c r="F77" s="87"/>
+      <c r="G77" s="87"/>
+      <c r="H77" s="87">
+        <f t="shared" si="3"/>
+        <v>755898.13</v>
+      </c>
+      <c r="I77" s="87"/>
+      <c r="J77" s="88" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A75" s="90">
+    <row r="78" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A78" s="86">
         <v>45065</v>
       </c>
-      <c r="B75" s="91" t="s">
+      <c r="B78" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="91" t="s">
+      <c r="C78" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="D75" s="92">
+      <c r="D78" s="87">
         <v>31150</v>
       </c>
-      <c r="E75" s="92">
+      <c r="E78" s="87">
         <v>5607</v>
       </c>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="92">
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
+      <c r="H78" s="87">
         <f t="shared" si="3"/>
         <v>36757</v>
       </c>
-      <c r="I75" s="92"/>
-      <c r="J75" s="91" t="s">
+      <c r="I78" s="87"/>
+      <c r="J78" s="88" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A76" s="89">
+    <row r="79" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A79" s="86">
         <v>45065</v>
       </c>
-      <c r="B76" s="96" t="s">
+      <c r="B79" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="57" t="s">
+      <c r="C79" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="58">
+      <c r="D79" s="87">
         <v>2425.85</v>
       </c>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58">
+      <c r="E79" s="87"/>
+      <c r="F79" s="87">
         <v>312.08</v>
       </c>
-      <c r="G76" s="58">
+      <c r="G79" s="87">
         <v>312.08</v>
       </c>
-      <c r="H76" s="58">
+      <c r="H79" s="87">
         <f t="shared" si="3"/>
         <v>3050.0099999999998</v>
       </c>
-      <c r="I76" s="58"/>
-      <c r="J76" s="57" t="s">
+      <c r="I79" s="87"/>
+      <c r="J79" s="88" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A77" s="89">
+    <row r="80" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A80" s="86">
         <v>45067</v>
       </c>
-      <c r="B77" s="96" t="s">
+      <c r="B80" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="57" t="s">
+      <c r="C80" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="D77" s="58">
+      <c r="D80" s="87">
         <v>2425.85</v>
       </c>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58">
+      <c r="E80" s="87"/>
+      <c r="F80" s="87">
         <v>312.08</v>
       </c>
-      <c r="G77" s="58">
+      <c r="G80" s="87">
         <v>312.08</v>
       </c>
-      <c r="H77" s="58">
+      <c r="H80" s="87">
         <f t="shared" si="3"/>
         <v>3050.0099999999998</v>
       </c>
-      <c r="I77" s="58"/>
-      <c r="J77" s="57" t="s">
+      <c r="I80" s="87"/>
+      <c r="J80" s="88" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A78" s="93">
+    <row r="81" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A81" s="86">
         <v>45069</v>
       </c>
-      <c r="B78" s="94" t="s">
+      <c r="B81" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="94" t="s">
+      <c r="C81" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="D78" s="95">
+      <c r="D81" s="87">
         <v>82200</v>
       </c>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95">
+      <c r="E81" s="87"/>
+      <c r="F81" s="87">
         <v>7398</v>
       </c>
-      <c r="G78" s="95">
+      <c r="G81" s="87">
         <v>7398</v>
       </c>
-      <c r="H78" s="95">
+      <c r="H81" s="87">
         <f t="shared" si="3"/>
         <v>96996</v>
       </c>
-      <c r="I78" s="95"/>
-      <c r="J78" s="94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A79" s="86">
-        <v>45070</v>
-      </c>
-      <c r="B79" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="87">
-        <v>104350</v>
-      </c>
-      <c r="E79" s="87">
-        <v>18783</v>
-      </c>
-      <c r="F79" s="87"/>
-      <c r="G79" s="87"/>
-      <c r="H79" s="87">
-        <f t="shared" si="3"/>
-        <v>123133</v>
-      </c>
-      <c r="I79" s="87"/>
-      <c r="J79" s="88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A80" s="86">
-        <v>45071</v>
-      </c>
-      <c r="B80" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="87">
-        <v>31200</v>
-      </c>
-      <c r="E80" s="87">
-        <v>5616</v>
-      </c>
-      <c r="F80" s="87"/>
-      <c r="G80" s="87"/>
-      <c r="H80" s="87">
-        <f t="shared" si="3"/>
-        <v>36816</v>
-      </c>
-      <c r="I80" s="87"/>
-      <c r="J80" s="88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A81" s="86">
-        <v>45072</v>
-      </c>
-      <c r="B81" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" s="87">
-        <v>55000</v>
-      </c>
-      <c r="E81" s="87">
-        <v>9900</v>
-      </c>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="87">
-        <f t="shared" si="3"/>
-        <v>64900</v>
-      </c>
       <c r="I81" s="87"/>
       <c r="J81" s="88" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A82" s="86">
-        <v>45075</v>
+        <v>45070</v>
       </c>
       <c r="B82" s="88" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C82" s="88" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D82" s="87">
-        <v>104125</v>
+        <v>104350</v>
       </c>
       <c r="E82" s="87">
-        <v>18742.5</v>
+        <v>18783</v>
       </c>
       <c r="F82" s="87"/>
       <c r="G82" s="87"/>
       <c r="H82" s="87">
         <f t="shared" si="3"/>
-        <v>122867.5</v>
+        <v>123133</v>
       </c>
       <c r="I82" s="87"/>
       <c r="J82" s="88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A83" s="86">
+        <v>45071</v>
+      </c>
+      <c r="B83" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="87">
+        <v>31200</v>
+      </c>
+      <c r="E83" s="87">
+        <v>5616</v>
+      </c>
+      <c r="F83" s="87"/>
+      <c r="G83" s="87"/>
+      <c r="H83" s="87">
+        <f t="shared" si="3"/>
+        <v>36816</v>
+      </c>
+      <c r="I83" s="87"/>
+      <c r="J83" s="88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A84" s="86">
+        <v>45071</v>
+      </c>
+      <c r="B84" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="88">
+        <v>2881077629</v>
+      </c>
+      <c r="D84" s="87">
+        <v>470</v>
+      </c>
+      <c r="E84" s="87">
+        <v>23.5</v>
+      </c>
+      <c r="F84" s="87"/>
+      <c r="G84" s="87"/>
+      <c r="H84" s="87">
+        <f t="shared" si="3"/>
+        <v>493.5</v>
+      </c>
+      <c r="I84" s="87"/>
+      <c r="J84" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A85" s="86">
+        <v>45072</v>
+      </c>
+      <c r="B85" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="87">
+        <v>55000</v>
+      </c>
+      <c r="E85" s="87">
+        <v>9900</v>
+      </c>
+      <c r="F85" s="87"/>
+      <c r="G85" s="87"/>
+      <c r="H85" s="87">
+        <f t="shared" si="3"/>
+        <v>64900</v>
+      </c>
+      <c r="I85" s="87"/>
+      <c r="J85" s="88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A86" s="86">
+        <v>45074</v>
+      </c>
+      <c r="B86" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86" s="87">
+        <v>7041.5</v>
+      </c>
+      <c r="E86" s="87">
+        <v>1267.47</v>
+      </c>
+      <c r="F86" s="87"/>
+      <c r="G86" s="87"/>
+      <c r="H86" s="87">
+        <f t="shared" si="3"/>
+        <v>8308.9699999999993</v>
+      </c>
+      <c r="I86" s="87"/>
+      <c r="J86" s="88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A87" s="86">
+        <v>45075</v>
+      </c>
+      <c r="B87" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="87">
+        <v>104125</v>
+      </c>
+      <c r="E87" s="87">
+        <v>18742.5</v>
+      </c>
+      <c r="F87" s="87"/>
+      <c r="G87" s="87"/>
+      <c r="H87" s="87">
+        <f t="shared" si="3"/>
+        <v>122867.5</v>
+      </c>
+      <c r="I87" s="87"/>
+      <c r="J87" s="88" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A83" s="101" t="s">
+    <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A88" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="102"/>
-      <c r="C83" s="103"/>
-      <c r="D83" s="30">
-        <f>SUM(D59:D82)</f>
-        <v>1482285.9300000002</v>
-      </c>
-      <c r="E83" s="30">
-        <f>SUM(E59:E82)</f>
-        <v>245121.43</v>
-      </c>
-      <c r="F83" s="30">
-        <f>SUM(F59:F82)</f>
-        <v>11032.54</v>
-      </c>
-      <c r="G83" s="30">
-        <f>SUM(G59:G82)</f>
-        <v>11032.54</v>
-      </c>
-      <c r="H83" s="30">
-        <f>SUM(H59:H82)</f>
-        <v>1749472.44</v>
-      </c>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-    </row>
-    <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="104" t="s">
+      <c r="B88" s="95"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="30">
+        <f>SUM(D59:D87)</f>
+        <v>1491956.4100000001</v>
+      </c>
+      <c r="E88" s="30">
+        <f>SUM(E59:E87)</f>
+        <v>246438.39999999999</v>
+      </c>
+      <c r="F88" s="30">
+        <f>SUM(F59:F87)</f>
+        <v>11180.05</v>
+      </c>
+      <c r="G88" s="30">
+        <f>SUM(G59:G87)</f>
+        <v>11180.05</v>
+      </c>
+      <c r="H88" s="30">
+        <f>SUM(H59:H87)</f>
+        <v>1760754.91</v>
+      </c>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="E89" s="1">
+        <f>E88+F88+G88</f>
+        <v>268798.5</v>
+      </c>
+      <c r="F89" s="1">
+        <f>F56+G56</f>
+        <v>314669.68000000005</v>
+      </c>
+      <c r="G89" s="1">
+        <f>F89-E89</f>
+        <v>45871.180000000051</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="21">
+      <c r="A90" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="105"/>
-      <c r="C85" s="105"/>
-      <c r="D85" s="105"/>
-      <c r="E85" s="105"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="105"/>
-      <c r="I85" s="105"/>
-      <c r="J85" s="106"/>
-    </row>
-    <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="98" t="s">
+      <c r="B90" s="98"/>
+      <c r="C90" s="98"/>
+      <c r="D90" s="98"/>
+      <c r="E90" s="98"/>
+      <c r="F90" s="98"/>
+      <c r="G90" s="98"/>
+      <c r="H90" s="98"/>
+      <c r="I90" s="98"/>
+      <c r="J90" s="99"/>
+    </row>
+    <row r="91" spans="1:10" ht="21">
+      <c r="A91" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="99"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="99"/>
-      <c r="E86" s="99"/>
-      <c r="F86" s="99"/>
-      <c r="G86" s="99"/>
-      <c r="H86" s="100"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A87" s="3" t="s">
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="93"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A92" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G92" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H92" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-    </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
+      <c r="A93" s="18">
+        <v>45080</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" s="19">
+        <v>734495</v>
+      </c>
       <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
+      <c r="F93" s="19">
+        <v>66104.600000000006</v>
+      </c>
+      <c r="G93" s="19">
+        <v>66104.600000000006</v>
+      </c>
+      <c r="H93" s="19">
+        <f>D93+E93+F93+G93</f>
+        <v>866704.2</v>
+      </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
+    <row r="94" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A94" s="18">
+        <v>45080</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="19">
+        <v>70904</v>
+      </c>
       <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
+      <c r="F94" s="19">
+        <v>6381</v>
+      </c>
+      <c r="G94" s="19">
+        <v>6381</v>
+      </c>
+      <c r="H94" s="19">
+        <f t="shared" ref="H94:H100" si="4">D94+E94+F94+G94</f>
+        <v>83666</v>
+      </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="A95" s="18">
+        <v>45090</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D95" s="19">
+        <v>262240</v>
+      </c>
       <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
+      <c r="F95" s="19">
+        <v>23601.599999999999</v>
+      </c>
+      <c r="G95" s="19">
+        <v>23601.599999999999</v>
+      </c>
+      <c r="H95" s="19">
+        <f t="shared" si="4"/>
+        <v>309443.19999999995</v>
+      </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A96" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" s="97"/>
-      <c r="C96" s="97"/>
-      <c r="D96" s="30">
-        <f>SUM(D88:D95)</f>
-        <v>0</v>
-      </c>
-      <c r="E96" s="30">
-        <f>SUM(E88:E95)</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="30">
-        <f>SUM(F88:F95)</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="30">
-        <f>SUM(G88:G95)</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="30">
-        <f>SUM(H88:H95)</f>
-        <v>0</v>
+    <row r="96" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A96" s="18">
+        <v>45090</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96" s="19">
+        <v>322872</v>
+      </c>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19">
+        <v>29058.5</v>
+      </c>
+      <c r="G96" s="19">
+        <v>29058.5</v>
+      </c>
+      <c r="H96" s="19">
+        <f t="shared" si="4"/>
+        <v>380989</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="98" t="s">
+    <row r="97" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A101" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="90"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="30">
+        <f>SUM(D93:D100)</f>
+        <v>1390511</v>
+      </c>
+      <c r="E101" s="30">
+        <f>SUM(E93:E100)</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="30">
+        <f>SUM(F93:F100)</f>
+        <v>125145.70000000001</v>
+      </c>
+      <c r="G101" s="30">
+        <f>SUM(G93:G100)</f>
+        <v>125145.70000000001</v>
+      </c>
+      <c r="H101" s="30">
+        <f>SUM(H93:H100)</f>
+        <v>1640802.4</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="1:10" ht="21">
+      <c r="A102" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="99"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="99"/>
-      <c r="E97" s="99"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="99"/>
-      <c r="H97" s="99"/>
-      <c r="I97" s="99"/>
-      <c r="J97" s="100"/>
-    </row>
-    <row r="98" spans="1:10" s="6" customFormat="1">
-      <c r="A98" s="16" t="s">
+      <c r="B102" s="92"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="92"/>
+      <c r="J102" s="93"/>
+    </row>
+    <row r="103" spans="1:10" s="6" customFormat="1">
+      <c r="A103" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B103" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C103" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="D103" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E103" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="16" t="s">
+      <c r="F103" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="16" t="s">
+      <c r="G103" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H98" s="17" t="s">
+      <c r="H103" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I98" s="17" t="s">
+      <c r="I103" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J98" s="17" t="s">
+      <c r="J103" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A99" s="31"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
-    </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A100" s="11"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="28"/>
-    </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A101" s="37"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
-    </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-    </row>
-    <row r="103" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A103" s="7"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-    </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A104" s="7"/>
+      <c r="A104" s="37"/>
       <c r="B104" s="38"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="32">
+        <f t="shared" ref="H104:H124" si="5">D104+E104+F104+G104</f>
+        <v>0</v>
+      </c>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A105" s="7"/>
-      <c r="B105" s="38"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
+      <c r="H105" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
     </row>
     <row r="106" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A106" s="7"/>
-      <c r="B106" s="38"/>
+      <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
+      <c r="H106" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
     </row>
@@ -3852,7 +4032,10 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
+      <c r="H107" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
     </row>
@@ -3864,7 +4047,10 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
     </row>
@@ -3876,7 +4062,10 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
+      <c r="H109" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
     </row>
@@ -3888,7 +4077,10 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
+      <c r="H110" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
     </row>
@@ -3900,7 +4092,10 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
+      <c r="H111" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
     </row>
@@ -3912,7 +4107,10 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
+      <c r="H112" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
     </row>
@@ -3924,7 +4122,10 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
+      <c r="H113" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
     </row>
@@ -3932,11 +4133,14 @@
       <c r="A114" s="7"/>
       <c r="B114" s="38"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="41"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
+      <c r="H114" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
     </row>
@@ -3944,11 +4148,14 @@
       <c r="A115" s="7"/>
       <c r="B115" s="38"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="41"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
+      <c r="H115" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
     </row>
@@ -3956,11 +4163,14 @@
       <c r="A116" s="7"/>
       <c r="B116" s="38"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="41"/>
+      <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
+      <c r="H116" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
     </row>
@@ -3972,19 +4182,25 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
+      <c r="H117" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
     </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="118" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A118" s="7"/>
-      <c r="B118" s="19"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="8"/>
       <c r="D118" s="41"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
+      <c r="H118" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
     </row>
@@ -3992,262 +4208,316 @@
       <c r="A119" s="7"/>
       <c r="B119" s="38"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
+      <c r="D119" s="41"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
+      <c r="H119" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+    <row r="120" spans="1:10" s="6" customFormat="1" ht="15.6">
       <c r="A120" s="7"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="8"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="41"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
+      <c r="H120" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I120" s="8"/>
-      <c r="J120" s="19"/>
-    </row>
-    <row r="121" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="J120" s="8"/>
+    </row>
+    <row r="121" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A121" s="7"/>
-      <c r="B121" s="8"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="D121" s="41"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
+      <c r="H121" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
     </row>
-    <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="101" t="s">
+    <row r="122" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A122" s="7"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+    </row>
+    <row r="123" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A123" s="7"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="8"/>
+      <c r="J123" s="19"/>
+    </row>
+    <row r="124" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A124" s="7"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A125" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="102"/>
-      <c r="C122" s="103"/>
-      <c r="D122" s="30">
-        <f>SUM(D99:D121)</f>
-        <v>0</v>
-      </c>
-      <c r="E122" s="30">
-        <f>SUM(E99:E121)</f>
-        <v>0</v>
-      </c>
-      <c r="F122" s="30">
-        <f>SUM(F99:F121)</f>
-        <v>0</v>
-      </c>
-      <c r="G122" s="30">
-        <f>SUM(G99:G121)</f>
-        <v>0</v>
-      </c>
-      <c r="H122" s="30">
-        <f>SUM(H99:H121)</f>
-        <v>0</v>
-      </c>
-      <c r="I122" s="30"/>
-      <c r="J122" s="30"/>
-    </row>
-    <row r="123" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A123" s="78"/>
-      <c r="B123" s="78"/>
-      <c r="C123" s="78"/>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="79"/>
-      <c r="I123" s="79"/>
-      <c r="J123" s="79"/>
-    </row>
-    <row r="126" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A126" s="21">
+      <c r="B125" s="95"/>
+      <c r="C125" s="96"/>
+      <c r="D125" s="30">
+        <f>SUM(D104:D124)</f>
+        <v>0</v>
+      </c>
+      <c r="E125" s="30">
+        <f>SUM(E104:E124)</f>
+        <v>0</v>
+      </c>
+      <c r="F125" s="30">
+        <f>SUM(F104:F124)</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="30">
+        <f>SUM(G104:G124)</f>
+        <v>0</v>
+      </c>
+      <c r="H125" s="30">
+        <f>SUM(H104:H124)</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
+    </row>
+    <row r="126" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A126" s="78"/>
+      <c r="B126" s="78"/>
+      <c r="C126" s="78"/>
+      <c r="D126" s="79"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="79"/>
+      <c r="G126" s="79"/>
+      <c r="H126" s="79"/>
+      <c r="I126" s="79"/>
+      <c r="J126" s="79"/>
+    </row>
+    <row r="129" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A129" s="21">
         <v>44840</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B129" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C129" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D129" s="23">
         <v>1850</v>
-      </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="G126" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="H126" s="8">
-        <f t="shared" ref="H126:H131" si="4">D126+E126+F126+G126</f>
-        <v>2183</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J126" s="9"/>
-    </row>
-    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A127" s="21">
-        <v>44841</v>
-      </c>
-      <c r="B127" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="23">
-        <v>55015</v>
-      </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8">
-        <v>4951.3500000000004</v>
-      </c>
-      <c r="G127" s="8">
-        <v>4951.3500000000004</v>
-      </c>
-      <c r="H127" s="8">
-        <f t="shared" si="4"/>
-        <v>64917.7</v>
-      </c>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-    </row>
-    <row r="128" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A128" s="21">
-        <v>44875</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D128" s="23">
-        <v>2279250</v>
-      </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8">
-        <v>205132.5</v>
-      </c>
-      <c r="G128" s="8">
-        <v>205132.5</v>
-      </c>
-      <c r="H128" s="8">
-        <f t="shared" si="4"/>
-        <v>2689515</v>
-      </c>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-    </row>
-    <row r="129" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A129" s="21">
-        <v>44932</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D129" s="23">
-        <v>900</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8">
-        <v>81</v>
+        <v>166.5</v>
       </c>
       <c r="G129" s="8">
-        <v>81</v>
+        <v>166.5</v>
       </c>
       <c r="H129" s="8">
-        <f t="shared" si="4"/>
-        <v>1062</v>
-      </c>
-      <c r="I129" s="9"/>
+        <f t="shared" ref="H129:H134" si="6">D129+E129+F129+G129</f>
+        <v>2183</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="130" spans="1:10" s="10" customFormat="1" ht="15.6">
       <c r="A130" s="21">
-        <v>44965</v>
+        <v>44841</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D130" s="23">
-        <v>7200</v>
+        <v>55015</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8">
-        <v>648</v>
+        <v>4951.3500000000004</v>
       </c>
       <c r="G130" s="8">
-        <v>648</v>
+        <v>4951.3500000000004</v>
       </c>
       <c r="H130" s="8">
-        <f t="shared" si="4"/>
-        <v>8496</v>
-      </c>
-      <c r="I130" s="9" t="s">
-        <v>45</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>64917.7</v>
+      </c>
+      <c r="I130" s="9"/>
       <c r="J130" s="9"/>
     </row>
     <row r="131" spans="1:10" s="10" customFormat="1" ht="15.6">
       <c r="A131" s="21">
-        <v>44977</v>
+        <v>44875</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D131" s="23">
-        <v>1819490</v>
+        <v>2279250</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8">
-        <v>163754.1</v>
+        <v>205132.5</v>
       </c>
       <c r="G131" s="8">
-        <v>163754.1</v>
+        <v>205132.5</v>
       </c>
       <c r="H131" s="8">
-        <f t="shared" si="4"/>
-        <v>2146998.2000000002</v>
+        <f t="shared" si="6"/>
+        <v>2689515</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
     </row>
+    <row r="132" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A132" s="21">
+        <v>44932</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="23">
+        <v>900</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8">
+        <v>81</v>
+      </c>
+      <c r="G132" s="8">
+        <v>81</v>
+      </c>
+      <c r="H132" s="8">
+        <f t="shared" si="6"/>
+        <v>1062</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+    </row>
+    <row r="133" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A133" s="21">
+        <v>44965</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" s="23">
+        <v>7200</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8">
+        <v>648</v>
+      </c>
+      <c r="G133" s="8">
+        <v>648</v>
+      </c>
+      <c r="H133" s="8">
+        <f t="shared" si="6"/>
+        <v>8496</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J133" s="9"/>
+    </row>
+    <row r="134" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A134" s="21">
+        <v>44977</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" s="23">
+        <v>1819490</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8">
+        <v>163754.1</v>
+      </c>
+      <c r="G134" s="8">
+        <v>163754.1</v>
+      </c>
+      <c r="H134" s="8">
+        <f t="shared" si="6"/>
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A91:H91"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A90:J90"/>
     <mergeCell ref="A44:J44"/>
     <mergeCell ref="A45:H45"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A88:C88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4278,30 +4548,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -4436,11 +4706,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -4465,18 +4735,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="93"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -4655,11 +4925,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="114" t="s">
+      <c r="A29" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -4689,30 +4959,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="106"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="99"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="93"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -4805,11 +5075,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="111" t="s">
+      <c r="A39" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -4834,18 +5104,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="93"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -5156,11 +5426,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="113" t="s">
+      <c r="A65" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -5185,30 +5455,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="104" t="s">
+      <c r="A67" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="106"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="98"/>
+      <c r="I67" s="98"/>
+      <c r="J67" s="99"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="98" t="s">
+      <c r="A68" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="100"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="93"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -5277,11 +5547,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="111"/>
-      <c r="C73" s="111"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="104"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -5306,18 +5576,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="98" t="s">
+      <c r="A74" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="100"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="93"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -5568,11 +5838,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="112" t="s">
+      <c r="A94" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="112"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="105"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -5642,30 +5912,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
+      <c r="A2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5782,11 +6052,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -5811,18 +6081,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -5941,11 +6211,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -5970,30 +6240,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="106"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="99"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="100"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -6098,11 +6368,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -6127,18 +6397,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="98" t="s">
+      <c r="A34" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="100"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="93"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -6449,11 +6719,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="102"/>
-      <c r="C59" s="103"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="96"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -6478,30 +6748,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="104" t="s">
+      <c r="A61" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="105"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="106"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="99"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="100"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="93"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -6630,11 +6900,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="97" t="s">
+      <c r="A72" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="97"/>
-      <c r="C72" s="97"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -6659,18 +6929,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="98" t="s">
+      <c r="A73" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="99"/>
-      <c r="J73" s="100"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="93"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -6981,11 +7251,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="101" t="s">
+      <c r="A98" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="102"/>
-      <c r="C98" s="103"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="96"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7010,18 +7280,18 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="115"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="115"/>
-      <c r="E100" s="115"/>
+      <c r="A100" s="108"/>
+      <c r="B100" s="108"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="108"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="115"/>
-      <c r="B108" s="115"/>
-      <c r="C108" s="115"/>
-      <c r="D108" s="115"/>
-      <c r="E108" s="115"/>
+      <c r="A108" s="108"/>
+      <c r="B108" s="108"/>
+      <c r="C108" s="108"/>
+      <c r="D108" s="108"/>
+      <c r="E108" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -7071,30 +7341,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -7229,11 +7499,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -7258,18 +7528,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="93"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -7448,11 +7718,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="114" t="s">
+      <c r="A29" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -7482,30 +7752,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="106"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="99"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="93"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -7598,11 +7868,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="111" t="s">
+      <c r="A39" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -7627,18 +7897,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="93"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -7949,11 +8219,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="113" t="s">
+      <c r="A65" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -7978,30 +8248,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="104" t="s">
+      <c r="A67" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="106"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="98"/>
+      <c r="I67" s="98"/>
+      <c r="J67" s="99"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="98" t="s">
+      <c r="A68" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="100"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="93"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8070,11 +8340,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="111"/>
-      <c r="C73" s="111"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="104"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -8099,18 +8369,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="98" t="s">
+      <c r="A74" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="100"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="93"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -8361,11 +8631,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="112" t="s">
+      <c r="A94" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="112"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="105"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="186">
   <si>
     <t>APRIL</t>
   </si>
@@ -499,6 +499,87 @@
   </si>
   <si>
     <t>CN332171</t>
+  </si>
+  <si>
+    <t>b23-24AQ122</t>
+  </si>
+  <si>
+    <t>b23-24MQ123</t>
+  </si>
+  <si>
+    <t>30AAYFS1024J1Z6</t>
+  </si>
+  <si>
+    <t>Sanyo &amp; Sanyo</t>
+  </si>
+  <si>
+    <t>CA-101</t>
+  </si>
+  <si>
+    <t>CA-103</t>
+  </si>
+  <si>
+    <t>230/2023-2024</t>
+  </si>
+  <si>
+    <t>Microciti</t>
+  </si>
+  <si>
+    <t>PAN2666/23-24</t>
+  </si>
+  <si>
+    <t>30AEGPJ8013C1Z8</t>
+  </si>
+  <si>
+    <t>20/23-24</t>
+  </si>
+  <si>
+    <t>CA-117</t>
+  </si>
+  <si>
+    <t>Silicon Computers</t>
+  </si>
+  <si>
+    <t>PNJ232401640</t>
+  </si>
+  <si>
+    <t>30AFNPN3468B1ZO</t>
+  </si>
+  <si>
+    <t>Finishing Touch</t>
+  </si>
+  <si>
+    <t>G/0110/23-24</t>
+  </si>
+  <si>
+    <t>30ACTPN4448E1ZK</t>
+  </si>
+  <si>
+    <t>G/0115/23-24</t>
+  </si>
+  <si>
+    <t>21/23-24</t>
+  </si>
+  <si>
+    <t>PNJ232401692</t>
+  </si>
+  <si>
+    <t>23/23-24</t>
+  </si>
+  <si>
+    <t>RETAILEZ PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>29AALCR3173P1ZJ</t>
+  </si>
+  <si>
+    <t>BLR7-533558</t>
+  </si>
+  <si>
+    <t>MD/23/24/04826</t>
+  </si>
+  <si>
+    <t>MD/23/24/05050</t>
   </si>
 </sst>
 </file>
@@ -1339,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J134"/>
+  <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3666,20 +3747,6 @@
       <c r="I88" s="30"/>
       <c r="J88" s="30"/>
     </row>
-    <row r="89" spans="1:10">
-      <c r="E89" s="1">
-        <f>E88+F88+G88</f>
-        <v>268798.5</v>
-      </c>
-      <c r="F89" s="1">
-        <f>F56+G56</f>
-        <v>314669.68000000005</v>
-      </c>
-      <c r="G89" s="1">
-        <f>F89-E89</f>
-        <v>45871.180000000051</v>
-      </c>
-    </row>
     <row r="90" spans="1:10" ht="21">
       <c r="A90" s="97" t="s">
         <v>17</v>
@@ -3784,7 +3851,7 @@
         <v>6381</v>
       </c>
       <c r="H94" s="19">
-        <f t="shared" ref="H94:H100" si="4">D94+E94+F94+G94</f>
+        <f t="shared" ref="H94:H98" si="4">D94+E94+F94+G94</f>
         <v>83666</v>
       </c>
       <c r="I94" s="5"/>
@@ -3845,667 +3912,800 @@
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="A97" s="18">
+        <v>45097</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" s="19">
+        <v>161752</v>
+      </c>
       <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
+      <c r="F97" s="19">
+        <v>14557.7</v>
+      </c>
+      <c r="G97" s="19">
+        <v>14557.7</v>
+      </c>
       <c r="H97" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>190867.40000000002</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
+      <c r="A98" s="18">
+        <v>45097</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" s="19">
+        <v>18960</v>
+      </c>
       <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
+      <c r="F98" s="19">
+        <v>1706.4</v>
+      </c>
+      <c r="G98" s="19">
+        <v>1706.4</v>
+      </c>
       <c r="H98" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>22372.800000000003</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
+    <row r="99" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A99" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="90"/>
+      <c r="C99" s="90"/>
+      <c r="D99" s="30">
+        <f>SUM(D93:D98)</f>
+        <v>1571223</v>
+      </c>
+      <c r="E99" s="30">
+        <f>SUM(E93:E98)</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="30">
+        <f>SUM(F93:F98)</f>
+        <v>141409.80000000002</v>
+      </c>
+      <c r="G99" s="30">
+        <f>SUM(G93:G98)</f>
+        <v>141409.80000000002</v>
+      </c>
+      <c r="H99" s="30">
+        <f>SUM(H93:H98)</f>
+        <v>1854042.5999999999</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-    </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A101" s="90" t="s">
+    <row r="100" spans="1:10" ht="21">
+      <c r="A100" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="92"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92"/>
+      <c r="J100" s="93"/>
+    </row>
+    <row r="101" spans="1:10" s="6" customFormat="1">
+      <c r="A101" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A102" s="86">
+        <v>45079</v>
+      </c>
+      <c r="B102" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" s="87">
+        <v>276</v>
+      </c>
+      <c r="D102" s="87">
+        <v>8985</v>
+      </c>
+      <c r="E102" s="87"/>
+      <c r="F102" s="87">
+        <v>1257.5</v>
+      </c>
+      <c r="G102" s="87">
+        <v>1257.5</v>
+      </c>
+      <c r="H102" s="87">
+        <f t="shared" ref="H102:H117" si="5">D102+E102+F102+G102</f>
+        <v>11500</v>
+      </c>
+      <c r="I102" s="87"/>
+      <c r="J102" s="87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A103" s="86">
+        <v>45080</v>
+      </c>
+      <c r="B103" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103" s="87">
+        <v>1232.2</v>
+      </c>
+      <c r="E103" s="87"/>
+      <c r="F103" s="87">
+        <v>110.9</v>
+      </c>
+      <c r="G103" s="87">
+        <v>110.9</v>
+      </c>
+      <c r="H103" s="87">
+        <f t="shared" si="5"/>
+        <v>1454.0000000000002</v>
+      </c>
+      <c r="I103" s="87"/>
+      <c r="J103" s="87" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A104" s="86">
+        <v>45080</v>
+      </c>
+      <c r="B104" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="D104" s="87">
+        <v>296.61</v>
+      </c>
+      <c r="E104" s="87"/>
+      <c r="F104" s="87">
+        <v>26.69</v>
+      </c>
+      <c r="G104" s="87">
+        <v>26.69</v>
+      </c>
+      <c r="H104" s="87">
+        <f t="shared" si="5"/>
+        <v>349.99</v>
+      </c>
+      <c r="I104" s="87"/>
+      <c r="J104" s="87" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A105" s="86">
+        <v>45080</v>
+      </c>
+      <c r="B105" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C105" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D105" s="87">
+        <v>1100.8499999999999</v>
+      </c>
+      <c r="E105" s="87">
+        <v>198.15</v>
+      </c>
+      <c r="F105" s="87"/>
+      <c r="G105" s="87"/>
+      <c r="H105" s="87">
+        <f t="shared" si="5"/>
+        <v>1299</v>
+      </c>
+      <c r="I105" s="87"/>
+      <c r="J105" s="88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A106" s="86">
+        <v>45080</v>
+      </c>
+      <c r="B106" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D106" s="87">
+        <v>2812.5</v>
+      </c>
+      <c r="E106" s="87"/>
+      <c r="F106" s="87">
+        <v>393.75</v>
+      </c>
+      <c r="G106" s="87">
+        <v>393.75</v>
+      </c>
+      <c r="H106" s="87">
+        <f t="shared" si="5"/>
+        <v>3600</v>
+      </c>
+      <c r="I106" s="87"/>
+      <c r="J106" s="89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A107" s="86">
+        <v>45082</v>
+      </c>
+      <c r="B107" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" s="87">
+        <v>11232</v>
+      </c>
+      <c r="E107" s="87">
+        <v>2021.76</v>
+      </c>
+      <c r="F107" s="87"/>
+      <c r="G107" s="87"/>
+      <c r="H107" s="87">
+        <f t="shared" si="5"/>
+        <v>13253.76</v>
+      </c>
+      <c r="I107" s="87"/>
+      <c r="J107" s="87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A108" s="86">
+        <v>45083</v>
+      </c>
+      <c r="B108" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" s="87">
+        <v>275</v>
+      </c>
+      <c r="E108" s="87"/>
+      <c r="F108" s="87">
+        <v>24.75</v>
+      </c>
+      <c r="G108" s="87">
+        <v>24.75</v>
+      </c>
+      <c r="H108" s="87">
+        <f t="shared" si="5"/>
+        <v>324.5</v>
+      </c>
+      <c r="I108" s="87"/>
+      <c r="J108" s="87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A109" s="86">
+        <v>45083</v>
+      </c>
+      <c r="B109" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="87">
+        <v>142775</v>
+      </c>
+      <c r="E109" s="87">
+        <v>25699.5</v>
+      </c>
+      <c r="F109" s="87"/>
+      <c r="G109" s="87"/>
+      <c r="H109" s="87">
+        <f t="shared" si="5"/>
+        <v>168474.5</v>
+      </c>
+      <c r="I109" s="87"/>
+      <c r="J109" s="87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A110" s="86">
+        <v>45083</v>
+      </c>
+      <c r="B110" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" s="87">
+        <v>1875</v>
+      </c>
+      <c r="E110" s="87"/>
+      <c r="F110" s="87">
+        <v>262.5</v>
+      </c>
+      <c r="G110" s="87">
+        <v>262.5</v>
+      </c>
+      <c r="H110" s="87">
+        <f t="shared" si="5"/>
+        <v>2400</v>
+      </c>
+      <c r="I110" s="87"/>
+      <c r="J110" s="89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A111" s="86">
+        <v>45086</v>
+      </c>
+      <c r="B111" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111" s="87">
+        <v>677.96</v>
+      </c>
+      <c r="E111" s="87"/>
+      <c r="F111" s="87">
+        <v>61.02</v>
+      </c>
+      <c r="G111" s="87">
+        <v>61.02</v>
+      </c>
+      <c r="H111" s="87">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="I111" s="87"/>
+      <c r="J111" s="87" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A112" s="86">
+        <v>45086</v>
+      </c>
+      <c r="B112" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D112" s="87">
+        <v>1175</v>
+      </c>
+      <c r="E112" s="87"/>
+      <c r="F112" s="87">
+        <v>105.75</v>
+      </c>
+      <c r="G112" s="87">
+        <v>105.75</v>
+      </c>
+      <c r="H112" s="87">
+        <f t="shared" si="5"/>
+        <v>1386.5</v>
+      </c>
+      <c r="I112" s="87"/>
+      <c r="J112" s="87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A113" s="86">
+        <v>45087</v>
+      </c>
+      <c r="B113" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C113" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D113" s="87">
+        <v>9400</v>
+      </c>
+      <c r="E113" s="87"/>
+      <c r="F113" s="87">
+        <v>846</v>
+      </c>
+      <c r="G113" s="87">
+        <v>846</v>
+      </c>
+      <c r="H113" s="87">
+        <f t="shared" si="5"/>
+        <v>11092</v>
+      </c>
+      <c r="I113" s="87"/>
+      <c r="J113" s="87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A114" s="86">
+        <v>45087</v>
+      </c>
+      <c r="B114" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C114" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D114" s="87">
+        <v>82250</v>
+      </c>
+      <c r="E114" s="87">
+        <v>14805</v>
+      </c>
+      <c r="F114" s="87"/>
+      <c r="G114" s="87"/>
+      <c r="H114" s="87">
+        <f t="shared" si="5"/>
+        <v>97055</v>
+      </c>
+      <c r="I114" s="87"/>
+      <c r="J114" s="87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A115" s="86">
+        <v>45089</v>
+      </c>
+      <c r="B115" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D115" s="87">
+        <v>300</v>
+      </c>
+      <c r="E115" s="87"/>
+      <c r="F115" s="87">
+        <v>27</v>
+      </c>
+      <c r="G115" s="87">
+        <v>27</v>
+      </c>
+      <c r="H115" s="87">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+      <c r="I115" s="87"/>
+      <c r="J115" s="87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A116" s="86">
+        <v>45090</v>
+      </c>
+      <c r="B116" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C116" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="D116" s="87">
+        <v>4700</v>
+      </c>
+      <c r="E116" s="87"/>
+      <c r="F116" s="87">
+        <v>423</v>
+      </c>
+      <c r="G116" s="87">
+        <v>423</v>
+      </c>
+      <c r="H116" s="87">
+        <f t="shared" si="5"/>
+        <v>5546</v>
+      </c>
+      <c r="I116" s="87"/>
+      <c r="J116" s="87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A117" s="86">
+        <v>45093</v>
+      </c>
+      <c r="B117" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D117" s="87">
+        <v>74200</v>
+      </c>
+      <c r="E117" s="87">
+        <v>13356</v>
+      </c>
+      <c r="F117" s="87"/>
+      <c r="G117" s="87"/>
+      <c r="H117" s="87">
+        <f t="shared" si="5"/>
+        <v>87556</v>
+      </c>
+      <c r="I117" s="87"/>
+      <c r="J117" s="87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A118" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="90"/>
-      <c r="C101" s="90"/>
-      <c r="D101" s="30">
-        <f>SUM(D93:D100)</f>
-        <v>1390511</v>
-      </c>
-      <c r="E101" s="30">
-        <f>SUM(E93:E100)</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="30">
-        <f>SUM(F93:F100)</f>
-        <v>125145.70000000001</v>
-      </c>
-      <c r="G101" s="30">
-        <f>SUM(G93:G100)</f>
-        <v>125145.70000000001</v>
-      </c>
-      <c r="H101" s="30">
-        <f>SUM(H93:H100)</f>
-        <v>1640802.4</v>
-      </c>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-    </row>
-    <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" s="92"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="92"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="92"/>
-      <c r="J102" s="93"/>
-    </row>
-    <row r="103" spans="1:10" s="6" customFormat="1">
-      <c r="A103" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I103" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J103" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A104" s="37"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="32">
-        <f t="shared" ref="H104:H124" si="5">D104+E104+F104+G104</f>
-        <v>0</v>
-      </c>
-      <c r="I104" s="38"/>
-      <c r="J104" s="38"/>
-    </row>
-    <row r="105" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A107" s="7"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A108" s="7"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A109" s="7"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A110" s="7"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A111" s="7"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A112" s="7"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-    </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A113" s="7"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A114" s="7"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-    </row>
-    <row r="115" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A115" s="7"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-    </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A116" s="7"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-    </row>
-    <row r="117" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A117" s="7"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-    </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A118" s="7"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-    </row>
-    <row r="119" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A119" s="7"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-    </row>
-    <row r="120" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A120" s="7"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-    </row>
-    <row r="121" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A121" s="7"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-    </row>
-    <row r="122" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A122" s="7"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
+      <c r="B118" s="95"/>
+      <c r="C118" s="96"/>
+      <c r="D118" s="30">
+        <f>SUM(D102:D117)</f>
+        <v>343287.12</v>
+      </c>
+      <c r="E118" s="30">
+        <f>SUM(E102:E117)</f>
+        <v>56080.41</v>
+      </c>
+      <c r="F118" s="30">
+        <f>SUM(F102:F117)</f>
+        <v>3538.86</v>
+      </c>
+      <c r="G118" s="30">
+        <f>SUM(G102:G117)</f>
+        <v>3538.86</v>
+      </c>
+      <c r="H118" s="30">
+        <f>SUM(H102:H117)</f>
+        <v>406445.25</v>
+      </c>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
+    </row>
+    <row r="119" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A119" s="78"/>
+      <c r="B119" s="78"/>
+      <c r="C119" s="78"/>
+      <c r="D119" s="79"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="79"/>
+      <c r="H119" s="79"/>
+      <c r="I119" s="79"/>
+      <c r="J119" s="79"/>
+    </row>
+    <row r="122" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A122" s="21">
+        <v>44840</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="23">
+        <v>1850</v>
+      </c>
       <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-    </row>
-    <row r="123" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A123" s="7"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="8"/>
+      <c r="F122" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="G122" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="H122" s="8">
+        <f t="shared" ref="H122:H127" si="6">D122+E122+F122+G122</f>
+        <v>2183</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="123" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A123" s="21">
+        <v>44841</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="23">
+        <v>55015</v>
+      </c>
       <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I123" s="8"/>
-      <c r="J123" s="19"/>
-    </row>
-    <row r="124" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A124" s="7"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-    </row>
-    <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" s="95"/>
-      <c r="C125" s="96"/>
-      <c r="D125" s="30">
-        <f>SUM(D104:D124)</f>
-        <v>0</v>
-      </c>
-      <c r="E125" s="30">
-        <f>SUM(E104:E124)</f>
-        <v>0</v>
-      </c>
-      <c r="F125" s="30">
-        <f>SUM(F104:F124)</f>
-        <v>0</v>
-      </c>
-      <c r="G125" s="30">
-        <f>SUM(G104:G124)</f>
-        <v>0</v>
-      </c>
-      <c r="H125" s="30">
-        <f>SUM(H104:H124)</f>
-        <v>0</v>
-      </c>
-      <c r="I125" s="30"/>
-      <c r="J125" s="30"/>
-    </row>
-    <row r="126" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A126" s="78"/>
-      <c r="B126" s="78"/>
-      <c r="C126" s="78"/>
-      <c r="D126" s="79"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="79"/>
-      <c r="G126" s="79"/>
-      <c r="H126" s="79"/>
-      <c r="I126" s="79"/>
-      <c r="J126" s="79"/>
-    </row>
-    <row r="129" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A129" s="21">
-        <v>44840</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D129" s="23">
-        <v>1850</v>
-      </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="G129" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="H129" s="8">
-        <f t="shared" ref="H129:H134" si="6">D129+E129+F129+G129</f>
-        <v>2183</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J129" s="9"/>
-    </row>
-    <row r="130" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A130" s="21">
-        <v>44841</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D130" s="23">
-        <v>55015</v>
-      </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8">
+      <c r="F123" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G130" s="8">
+      <c r="G123" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H130" s="8">
+      <c r="H123" s="8">
         <f t="shared" si="6"/>
         <v>64917.7</v>
       </c>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-    </row>
-    <row r="131" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A131" s="21">
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A124" s="21">
         <v>44875</v>
       </c>
-      <c r="B131" s="23" t="s">
+      <c r="B124" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C131" s="23" t="s">
+      <c r="C124" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D131" s="23">
+      <c r="D124" s="23">
         <v>2279250</v>
       </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8">
+      <c r="E124" s="8"/>
+      <c r="F124" s="8">
         <v>205132.5</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G124" s="8">
         <v>205132.5</v>
       </c>
-      <c r="H131" s="8">
+      <c r="H124" s="8">
         <f t="shared" si="6"/>
         <v>2689515</v>
       </c>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-    </row>
-    <row r="132" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A132" s="21">
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A125" s="21">
         <v>44932</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B125" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C125" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D132" s="23">
+      <c r="D125" s="23">
         <v>900</v>
       </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8">
+      <c r="E125" s="8"/>
+      <c r="F125" s="8">
         <v>81</v>
       </c>
-      <c r="G132" s="8">
+      <c r="G125" s="8">
         <v>81</v>
       </c>
-      <c r="H132" s="8">
+      <c r="H125" s="8">
         <f t="shared" si="6"/>
         <v>1062</v>
       </c>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-    </row>
-    <row r="133" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A133" s="21">
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A126" s="21">
         <v>44965</v>
       </c>
-      <c r="B133" s="23" t="s">
+      <c r="B126" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="23" t="s">
+      <c r="C126" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D133" s="23">
+      <c r="D126" s="23">
         <v>7200</v>
       </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8">
+      <c r="E126" s="8"/>
+      <c r="F126" s="8">
         <v>648</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G126" s="8">
         <v>648</v>
       </c>
-      <c r="H133" s="8">
+      <c r="H126" s="8">
         <f t="shared" si="6"/>
         <v>8496</v>
       </c>
-      <c r="I133" s="9" t="s">
+      <c r="I126" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J133" s="9"/>
-    </row>
-    <row r="134" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A134" s="21">
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A127" s="21">
         <v>44977</v>
       </c>
-      <c r="B134" s="23" t="s">
+      <c r="B127" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C127" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D134" s="23">
+      <c r="D127" s="23">
         <v>1819490</v>
       </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8">
         <v>163754.1</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G127" s="8">
         <v>163754.1</v>
       </c>
-      <c r="H134" s="8">
+      <c r="H127" s="8">
         <f t="shared" si="6"/>
         <v>2146998.2000000002</v>
       </c>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="A118:C118"/>
     <mergeCell ref="A91:H91"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="187">
   <si>
     <t>APRIL</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>MD/23/24/05050</t>
+  </si>
+  <si>
+    <t>25/23-24</t>
   </si>
 </sst>
 </file>
@@ -1422,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -4061,7 +4064,7 @@
         <v>1257.5</v>
       </c>
       <c r="H102" s="87">
-        <f t="shared" ref="H102:H117" si="5">D102+E102+F102+G102</f>
+        <f t="shared" ref="H102:H118" si="5">D102+E102+F102+G102</f>
         <v>11500</v>
       </c>
       <c r="I102" s="87"/>
@@ -4494,46 +4497,73 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A118" s="94" t="s">
+    <row r="118" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A118" s="86">
+        <v>45099</v>
+      </c>
+      <c r="B118" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D118" s="87">
+        <v>34050</v>
+      </c>
+      <c r="E118" s="87">
+        <v>6129</v>
+      </c>
+      <c r="F118" s="87"/>
+      <c r="G118" s="87"/>
+      <c r="H118" s="87">
+        <f t="shared" si="5"/>
+        <v>40179</v>
+      </c>
+      <c r="I118" s="87"/>
+      <c r="J118" s="87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A119" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="95"/>
-      <c r="C118" s="96"/>
-      <c r="D118" s="30">
-        <f>SUM(D102:D117)</f>
-        <v>343287.12</v>
-      </c>
-      <c r="E118" s="30">
+      <c r="B119" s="95"/>
+      <c r="C119" s="96"/>
+      <c r="D119" s="30">
+        <f>SUM(D102:D118)</f>
+        <v>377337.12</v>
+      </c>
+      <c r="E119" s="30">
         <f>SUM(E102:E117)</f>
         <v>56080.41</v>
       </c>
-      <c r="F118" s="30">
+      <c r="F119" s="30">
         <f>SUM(F102:F117)</f>
         <v>3538.86</v>
       </c>
-      <c r="G118" s="30">
+      <c r="G119" s="30">
         <f>SUM(G102:G117)</f>
         <v>3538.86</v>
       </c>
-      <c r="H118" s="30">
+      <c r="H119" s="30">
         <f>SUM(H102:H117)</f>
         <v>406445.25</v>
       </c>
-      <c r="I118" s="30"/>
-      <c r="J118" s="30"/>
-    </row>
-    <row r="119" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A119" s="78"/>
-      <c r="B119" s="78"/>
-      <c r="C119" s="78"/>
-      <c r="D119" s="79"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="79"/>
-      <c r="G119" s="79"/>
-      <c r="H119" s="79"/>
-      <c r="I119" s="79"/>
-      <c r="J119" s="79"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+    </row>
+    <row r="120" spans="1:10" s="6" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A120" s="78"/>
+      <c r="B120" s="78"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="79"/>
+      <c r="F120" s="79"/>
+      <c r="G120" s="79"/>
+      <c r="H120" s="79"/>
+      <c r="I120" s="79"/>
+      <c r="J120" s="79"/>
     </row>
     <row r="122" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A122" s="21">
@@ -4705,7 +4735,7 @@
   <mergeCells count="15">
     <mergeCell ref="A99:C99"/>
     <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
     <mergeCell ref="A91:H91"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -1131,13 +1131,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1425,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5155,11 +5155,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5656,11 +5656,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -6068,11 +6068,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="105" t="s">
+      <c r="A94" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="105"/>
-      <c r="C94" s="105"/>
+      <c r="B94" s="106"/>
+      <c r="C94" s="106"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6098,12 +6098,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6113,6 +6107,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7525,6 +7525,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7537,11 +7542,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7948,11 +7948,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8449,11 +8449,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8861,11 +8861,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="105" t="s">
+      <c r="A94" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="105"/>
-      <c r="C94" s="105"/>
+      <c r="B94" s="106"/>
+      <c r="C94" s="106"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -8891,12 +8891,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -8906,6 +8900,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="188">
   <si>
     <t>APRIL</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>25/23-24</t>
+  </si>
+  <si>
+    <t>b23-24AQ124</t>
   </si>
 </sst>
 </file>
@@ -1131,13 +1134,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1423,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J127"/>
+  <dimension ref="A2:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3854,7 +3857,7 @@
         <v>6381</v>
       </c>
       <c r="H94" s="19">
-        <f t="shared" ref="H94:H98" si="4">D94+E94+F94+G94</f>
+        <f t="shared" ref="H94:H99" si="4">D94+E94+F94+G94</f>
         <v>83666</v>
       </c>
       <c r="I94" s="5"/>
@@ -3968,137 +3971,135 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A99" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" s="90"/>
-      <c r="C99" s="90"/>
-      <c r="D99" s="30">
-        <f>SUM(D93:D98)</f>
-        <v>1571223</v>
-      </c>
-      <c r="E99" s="30">
-        <f>SUM(E93:E98)</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="30">
-        <f>SUM(F93:F98)</f>
-        <v>141409.80000000002</v>
-      </c>
-      <c r="G99" s="30">
-        <f>SUM(G93:G98)</f>
-        <v>141409.80000000002</v>
-      </c>
-      <c r="H99" s="30">
-        <f>SUM(H93:H98)</f>
-        <v>1854042.5999999999</v>
+    <row r="99" spans="1:10" s="6" customFormat="1" ht="15.6">
+      <c r="A99" s="18">
+        <v>45101</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" s="19">
+        <v>86070</v>
+      </c>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19">
+        <v>7746.3</v>
+      </c>
+      <c r="G99" s="19">
+        <v>7746.3</v>
+      </c>
+      <c r="H99" s="19">
+        <f t="shared" si="4"/>
+        <v>101562.6</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="91" t="s">
+    <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A100" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="90"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="30">
+        <f>SUM(D93:D99)</f>
+        <v>1657293</v>
+      </c>
+      <c r="E100" s="30">
+        <f>SUM(E93:E99)</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="30">
+        <f>SUM(F93:F99)</f>
+        <v>149156.1</v>
+      </c>
+      <c r="G100" s="30">
+        <f>SUM(G93:G99)</f>
+        <v>149156.1</v>
+      </c>
+      <c r="H100" s="30">
+        <f>SUM(H93:H99)</f>
+        <v>1955605.2</v>
+      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="1:10" ht="21">
+      <c r="A101" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="92"/>
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="92"/>
-      <c r="J100" s="93"/>
-    </row>
-    <row r="101" spans="1:10" s="6" customFormat="1">
-      <c r="A101" s="16" t="s">
+      <c r="B101" s="92"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="92"/>
+      <c r="I101" s="92"/>
+      <c r="J101" s="93"/>
+    </row>
+    <row r="102" spans="1:10" s="6" customFormat="1">
+      <c r="A102" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B102" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C102" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="D102" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E102" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="16" t="s">
+      <c r="F102" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="16" t="s">
+      <c r="G102" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="17" t="s">
+      <c r="H102" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I101" s="17" t="s">
+      <c r="I102" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J101" s="17" t="s">
+      <c r="J102" s="17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A102" s="86">
-        <v>45079</v>
-      </c>
-      <c r="B102" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="C102" s="87">
-        <v>276</v>
-      </c>
-      <c r="D102" s="87">
-        <v>8985</v>
-      </c>
-      <c r="E102" s="87"/>
-      <c r="F102" s="87">
-        <v>1257.5</v>
-      </c>
-      <c r="G102" s="87">
-        <v>1257.5</v>
-      </c>
-      <c r="H102" s="87">
-        <f t="shared" ref="H102:H118" si="5">D102+E102+F102+G102</f>
-        <v>11500</v>
-      </c>
-      <c r="I102" s="87"/>
-      <c r="J102" s="87" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A103" s="86">
-        <v>45080</v>
+        <v>45079</v>
       </c>
       <c r="B103" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" s="87" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="C103" s="87">
+        <v>276</v>
       </c>
       <c r="D103" s="87">
-        <v>1232.2</v>
+        <v>8985</v>
       </c>
       <c r="E103" s="87"/>
       <c r="F103" s="87">
-        <v>110.9</v>
+        <v>1257.5</v>
       </c>
       <c r="G103" s="87">
-        <v>110.9</v>
+        <v>1257.5</v>
       </c>
       <c r="H103" s="87">
-        <f t="shared" si="5"/>
-        <v>1454.0000000000002</v>
+        <f t="shared" ref="H103:H119" si="5">D103+E103+F103+G103</f>
+        <v>11500</v>
       </c>
       <c r="I103" s="87"/>
       <c r="J103" s="87" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
@@ -4109,21 +4110,21 @@
         <v>115</v>
       </c>
       <c r="C104" s="87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D104" s="87">
-        <v>296.61</v>
+        <v>1232.2</v>
       </c>
       <c r="E104" s="87"/>
       <c r="F104" s="87">
-        <v>26.69</v>
+        <v>110.9</v>
       </c>
       <c r="G104" s="87">
-        <v>26.69</v>
+        <v>110.9</v>
       </c>
       <c r="H104" s="87">
         <f t="shared" si="5"/>
-        <v>349.99</v>
+        <v>1454.0000000000002</v>
       </c>
       <c r="I104" s="87"/>
       <c r="J104" s="87" t="s">
@@ -4134,27 +4135,29 @@
       <c r="A105" s="86">
         <v>45080</v>
       </c>
-      <c r="B105" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="C105" s="88" t="s">
-        <v>183</v>
+      <c r="B105" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="87" t="s">
+        <v>164</v>
       </c>
       <c r="D105" s="87">
-        <v>1100.8499999999999</v>
-      </c>
-      <c r="E105" s="87">
-        <v>198.15</v>
-      </c>
-      <c r="F105" s="87"/>
-      <c r="G105" s="87"/>
+        <v>296.61</v>
+      </c>
+      <c r="E105" s="87"/>
+      <c r="F105" s="87">
+        <v>26.69</v>
+      </c>
+      <c r="G105" s="87">
+        <v>26.69</v>
+      </c>
       <c r="H105" s="87">
         <f t="shared" si="5"/>
-        <v>1299</v>
+        <v>349.99</v>
       </c>
       <c r="I105" s="87"/>
-      <c r="J105" s="88" t="s">
-        <v>182</v>
+      <c r="J105" s="87" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="6" customFormat="1" ht="15">
@@ -4162,84 +4165,82 @@
         <v>45080</v>
       </c>
       <c r="B106" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="C106" s="89" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="C106" s="88" t="s">
+        <v>183</v>
       </c>
       <c r="D106" s="87">
-        <v>2812.5</v>
-      </c>
-      <c r="E106" s="87"/>
-      <c r="F106" s="87">
-        <v>393.75</v>
-      </c>
-      <c r="G106" s="87">
-        <v>393.75</v>
-      </c>
+        <v>1100.8499999999999</v>
+      </c>
+      <c r="E106" s="87">
+        <v>198.15</v>
+      </c>
+      <c r="F106" s="87"/>
+      <c r="G106" s="87"/>
       <c r="H106" s="87">
         <f t="shared" si="5"/>
-        <v>3600</v>
+        <v>1299</v>
       </c>
       <c r="I106" s="87"/>
-      <c r="J106" s="89" t="s">
-        <v>72</v>
+      <c r="J106" s="88" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A107" s="86">
-        <v>45082</v>
-      </c>
-      <c r="B107" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C107" s="87" t="s">
-        <v>165</v>
+        <v>45080</v>
+      </c>
+      <c r="B107" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="89" t="s">
+        <v>184</v>
       </c>
       <c r="D107" s="87">
-        <v>11232</v>
-      </c>
-      <c r="E107" s="87">
-        <v>2021.76</v>
-      </c>
-      <c r="F107" s="87"/>
-      <c r="G107" s="87"/>
+        <v>2812.5</v>
+      </c>
+      <c r="E107" s="87"/>
+      <c r="F107" s="87">
+        <v>393.75</v>
+      </c>
+      <c r="G107" s="87">
+        <v>393.75</v>
+      </c>
       <c r="H107" s="87">
         <f t="shared" si="5"/>
-        <v>13253.76</v>
+        <v>3600</v>
       </c>
       <c r="I107" s="87"/>
-      <c r="J107" s="87" t="s">
-        <v>87</v>
+      <c r="J107" s="89" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A108" s="86">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="B108" s="87" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="C108" s="87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D108" s="87">
-        <v>275</v>
-      </c>
-      <c r="E108" s="87"/>
-      <c r="F108" s="87">
-        <v>24.75</v>
-      </c>
-      <c r="G108" s="87">
-        <v>24.75</v>
-      </c>
+        <v>11232</v>
+      </c>
+      <c r="E108" s="87">
+        <v>2021.76</v>
+      </c>
+      <c r="F108" s="87"/>
+      <c r="G108" s="87"/>
       <c r="H108" s="87">
         <f t="shared" si="5"/>
-        <v>324.5</v>
+        <v>13253.76</v>
       </c>
       <c r="I108" s="87"/>
       <c r="J108" s="87" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="6" customFormat="1" ht="15">
@@ -4247,84 +4248,84 @@
         <v>45083</v>
       </c>
       <c r="B109" s="87" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C109" s="87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D109" s="87">
-        <v>142775</v>
-      </c>
-      <c r="E109" s="87">
-        <v>25699.5</v>
-      </c>
-      <c r="F109" s="87"/>
-      <c r="G109" s="87"/>
+        <v>275</v>
+      </c>
+      <c r="E109" s="87"/>
+      <c r="F109" s="87">
+        <v>24.75</v>
+      </c>
+      <c r="G109" s="87">
+        <v>24.75</v>
+      </c>
       <c r="H109" s="87">
         <f t="shared" si="5"/>
-        <v>168474.5</v>
+        <v>324.5</v>
       </c>
       <c r="I109" s="87"/>
       <c r="J109" s="87" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A110" s="86">
         <v>45083</v>
       </c>
-      <c r="B110" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="C110" s="88" t="s">
-        <v>185</v>
+      <c r="B110" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" s="87" t="s">
+        <v>169</v>
       </c>
       <c r="D110" s="87">
-        <v>1875</v>
-      </c>
-      <c r="E110" s="87"/>
-      <c r="F110" s="87">
-        <v>262.5</v>
-      </c>
-      <c r="G110" s="87">
-        <v>262.5</v>
-      </c>
+        <v>142775</v>
+      </c>
+      <c r="E110" s="87">
+        <v>25699.5</v>
+      </c>
+      <c r="F110" s="87"/>
+      <c r="G110" s="87"/>
       <c r="H110" s="87">
         <f t="shared" si="5"/>
-        <v>2400</v>
+        <v>168474.5</v>
       </c>
       <c r="I110" s="87"/>
-      <c r="J110" s="89" t="s">
-        <v>72</v>
+      <c r="J110" s="87" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A111" s="86">
-        <v>45086</v>
-      </c>
-      <c r="B111" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" s="87" t="s">
-        <v>170</v>
+        <v>45083</v>
+      </c>
+      <c r="B111" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C111" s="88" t="s">
+        <v>185</v>
       </c>
       <c r="D111" s="87">
-        <v>677.96</v>
+        <v>1875</v>
       </c>
       <c r="E111" s="87"/>
       <c r="F111" s="87">
-        <v>61.02</v>
+        <v>262.5</v>
       </c>
       <c r="G111" s="87">
-        <v>61.02</v>
+        <v>262.5</v>
       </c>
       <c r="H111" s="87">
         <f t="shared" si="5"/>
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="I111" s="87"/>
-      <c r="J111" s="87" t="s">
-        <v>37</v>
+      <c r="J111" s="89" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="6" customFormat="1" ht="15">
@@ -4332,57 +4333,57 @@
         <v>45086</v>
       </c>
       <c r="B112" s="87" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="C112" s="87" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D112" s="87">
-        <v>1175</v>
+        <v>677.96</v>
       </c>
       <c r="E112" s="87"/>
       <c r="F112" s="87">
-        <v>105.75</v>
+        <v>61.02</v>
       </c>
       <c r="G112" s="87">
-        <v>105.75</v>
+        <v>61.02</v>
       </c>
       <c r="H112" s="87">
         <f t="shared" si="5"/>
-        <v>1386.5</v>
+        <v>800</v>
       </c>
       <c r="I112" s="87"/>
       <c r="J112" s="87" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A113" s="86">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="B113" s="87" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C113" s="87" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D113" s="87">
-        <v>9400</v>
+        <v>1175</v>
       </c>
       <c r="E113" s="87"/>
       <c r="F113" s="87">
-        <v>846</v>
+        <v>105.75</v>
       </c>
       <c r="G113" s="87">
-        <v>846</v>
+        <v>105.75</v>
       </c>
       <c r="H113" s="87">
         <f t="shared" si="5"/>
-        <v>11092</v>
+        <v>1386.5</v>
       </c>
       <c r="I113" s="87"/>
       <c r="J113" s="87" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="6" customFormat="1" ht="15">
@@ -4390,352 +4391,381 @@
         <v>45087</v>
       </c>
       <c r="B114" s="87" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="C114" s="87" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D114" s="87">
-        <v>82250</v>
-      </c>
-      <c r="E114" s="87">
-        <v>14805</v>
-      </c>
-      <c r="F114" s="87"/>
-      <c r="G114" s="87"/>
+        <v>9400</v>
+      </c>
+      <c r="E114" s="87"/>
+      <c r="F114" s="87">
+        <v>846</v>
+      </c>
+      <c r="G114" s="87">
+        <v>846</v>
+      </c>
       <c r="H114" s="87">
         <f t="shared" si="5"/>
-        <v>97055</v>
+        <v>11092</v>
       </c>
       <c r="I114" s="87"/>
       <c r="J114" s="87" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A115" s="86">
-        <v>45089</v>
+        <v>45087</v>
       </c>
       <c r="B115" s="87" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="C115" s="87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D115" s="87">
-        <v>300</v>
-      </c>
-      <c r="E115" s="87"/>
-      <c r="F115" s="87">
-        <v>27</v>
-      </c>
-      <c r="G115" s="87">
-        <v>27</v>
-      </c>
+        <v>82250</v>
+      </c>
+      <c r="E115" s="87">
+        <v>14805</v>
+      </c>
+      <c r="F115" s="87"/>
+      <c r="G115" s="87"/>
       <c r="H115" s="87">
         <f t="shared" si="5"/>
-        <v>354</v>
+        <v>97055</v>
       </c>
       <c r="I115" s="87"/>
       <c r="J115" s="87" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A116" s="86">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="B116" s="87" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C116" s="87" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D116" s="87">
-        <v>4700</v>
+        <v>300</v>
       </c>
       <c r="E116" s="87"/>
       <c r="F116" s="87">
-        <v>423</v>
+        <v>27</v>
       </c>
       <c r="G116" s="87">
-        <v>423</v>
+        <v>27</v>
       </c>
       <c r="H116" s="87">
         <f t="shared" si="5"/>
-        <v>5546</v>
+        <v>354</v>
       </c>
       <c r="I116" s="87"/>
       <c r="J116" s="87" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A117" s="86">
-        <v>45093</v>
+        <v>45090</v>
       </c>
       <c r="B117" s="87" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="C117" s="87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D117" s="87">
-        <v>74200</v>
-      </c>
-      <c r="E117" s="87">
-        <v>13356</v>
-      </c>
-      <c r="F117" s="87"/>
-      <c r="G117" s="87"/>
+        <v>4700</v>
+      </c>
+      <c r="E117" s="87"/>
+      <c r="F117" s="87">
+        <v>423</v>
+      </c>
+      <c r="G117" s="87">
+        <v>423</v>
+      </c>
       <c r="H117" s="87">
         <f t="shared" si="5"/>
-        <v>87556</v>
+        <v>5546</v>
       </c>
       <c r="I117" s="87"/>
       <c r="J117" s="87" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A118" s="86">
-        <v>45099</v>
+        <v>45093</v>
       </c>
       <c r="B118" s="87" t="s">
         <v>105</v>
       </c>
       <c r="C118" s="87" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D118" s="87">
-        <v>34050</v>
+        <v>74200</v>
       </c>
       <c r="E118" s="87">
-        <v>6129</v>
+        <v>13356</v>
       </c>
       <c r="F118" s="87"/>
       <c r="G118" s="87"/>
       <c r="H118" s="87">
         <f t="shared" si="5"/>
-        <v>40179</v>
+        <v>87556</v>
       </c>
       <c r="I118" s="87"/>
       <c r="J118" s="87" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A119" s="94" t="s">
+    <row r="119" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A119" s="86">
+        <v>45099</v>
+      </c>
+      <c r="B119" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C119" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D119" s="87">
+        <v>34050</v>
+      </c>
+      <c r="E119" s="87">
+        <v>6129</v>
+      </c>
+      <c r="F119" s="87"/>
+      <c r="G119" s="87"/>
+      <c r="H119" s="87">
+        <f t="shared" si="5"/>
+        <v>40179</v>
+      </c>
+      <c r="I119" s="87"/>
+      <c r="J119" s="87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A120" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="95"/>
-      <c r="C119" s="96"/>
-      <c r="D119" s="30">
-        <f>SUM(D102:D118)</f>
+      <c r="B120" s="95"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="30">
+        <f>SUM(D103:D119)</f>
         <v>377337.12</v>
       </c>
-      <c r="E119" s="30">
-        <f>SUM(E102:E117)</f>
+      <c r="E120" s="30">
+        <f>SUM(E103:E118)</f>
         <v>56080.41</v>
       </c>
-      <c r="F119" s="30">
-        <f>SUM(F102:F117)</f>
+      <c r="F120" s="30">
+        <f>SUM(F103:F118)</f>
         <v>3538.86</v>
       </c>
-      <c r="G119" s="30">
-        <f>SUM(G102:G117)</f>
+      <c r="G120" s="30">
+        <f>SUM(G103:G118)</f>
         <v>3538.86</v>
       </c>
-      <c r="H119" s="30">
-        <f>SUM(H102:H117)</f>
+      <c r="H120" s="30">
+        <f>SUM(H103:H118)</f>
         <v>406445.25</v>
       </c>
-      <c r="I119" s="30"/>
-      <c r="J119" s="30"/>
-    </row>
-    <row r="120" spans="1:10" s="6" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A120" s="78"/>
-      <c r="B120" s="78"/>
-      <c r="C120" s="78"/>
-      <c r="D120" s="79"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="79"/>
-      <c r="G120" s="79"/>
-      <c r="H120" s="79"/>
-      <c r="I120" s="79"/>
-      <c r="J120" s="79"/>
-    </row>
-    <row r="122" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A122" s="21">
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
+    </row>
+    <row r="121" spans="1:10" s="6" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A121" s="78"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="79"/>
+      <c r="I121" s="79"/>
+      <c r="J121" s="79"/>
+    </row>
+    <row r="123" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A123" s="21">
         <v>44840</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B123" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C123" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D122" s="23">
+      <c r="D123" s="23">
         <v>1850</v>
-      </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="G122" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="H122" s="8">
-        <f t="shared" ref="H122:H127" si="6">D122+E122+F122+G122</f>
-        <v>2183</v>
-      </c>
-      <c r="I122" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J122" s="9"/>
-    </row>
-    <row r="123" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A123" s="21">
-        <v>44841</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D123" s="23">
-        <v>55015</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="G123" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="H123" s="8">
+        <f t="shared" ref="H123:H128" si="6">D123+E123+F123+G123</f>
+        <v>2183</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A124" s="21">
+        <v>44841</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" s="23">
+        <v>55015</v>
+      </c>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G124" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H123" s="8">
+      <c r="H124" s="8">
         <f t="shared" si="6"/>
         <v>64917.7</v>
       </c>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-    </row>
-    <row r="124" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A124" s="21">
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A125" s="21">
         <v>44875</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B125" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C125" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D124" s="23">
+      <c r="D125" s="23">
         <v>2279250</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8">
+      <c r="E125" s="8"/>
+      <c r="F125" s="8">
         <v>205132.5</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G125" s="8">
         <v>205132.5</v>
       </c>
-      <c r="H124" s="8">
+      <c r="H125" s="8">
         <f t="shared" si="6"/>
         <v>2689515</v>
       </c>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-    </row>
-    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A125" s="21">
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A126" s="21">
         <v>44932</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B126" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C126" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D125" s="23">
+      <c r="D126" s="23">
         <v>900</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8">
+      <c r="E126" s="8"/>
+      <c r="F126" s="8">
         <v>81</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G126" s="8">
         <v>81</v>
       </c>
-      <c r="H125" s="8">
+      <c r="H126" s="8">
         <f t="shared" si="6"/>
         <v>1062</v>
       </c>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-    </row>
-    <row r="126" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A126" s="21">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A127" s="21">
         <v>44965</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B127" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C127" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D127" s="23">
         <v>7200</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8">
         <v>648</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G127" s="8">
         <v>648</v>
       </c>
-      <c r="H126" s="8">
+      <c r="H127" s="8">
         <f t="shared" si="6"/>
         <v>8496</v>
       </c>
-      <c r="I126" s="9" t="s">
+      <c r="I127" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J126" s="9"/>
-    </row>
-    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A127" s="21">
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A128" s="21">
         <v>44977</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B128" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C128" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D127" s="23">
+      <c r="D128" s="23">
         <v>1819490</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8">
+      <c r="E128" s="8"/>
+      <c r="F128" s="8">
         <v>163754.1</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G128" s="8">
         <v>163754.1</v>
       </c>
-      <c r="H127" s="8">
+      <c r="H128" s="8">
         <f t="shared" si="6"/>
         <v>2146998.2000000002</v>
       </c>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:J101"/>
+    <mergeCell ref="A120:C120"/>
     <mergeCell ref="A91:H91"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -5155,11 +5185,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5656,11 +5686,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="107" t="s">
+      <c r="A65" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -6068,11 +6098,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="106" t="s">
+      <c r="A94" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="106"/>
-      <c r="C94" s="106"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="105"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6098,6 +6128,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6107,12 +6143,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7525,11 +7555,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7542,6 +7567,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7948,11 +7978,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8449,11 +8479,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="107" t="s">
+      <c r="A65" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8861,11 +8891,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="106" t="s">
+      <c r="A94" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="106"/>
-      <c r="C94" s="106"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="105"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -8891,6 +8921,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -8900,12 +8936,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="191">
   <si>
     <t>APRIL</t>
   </si>
@@ -586,13 +586,22 @@
   </si>
   <si>
     <t>b23-24AQ124</t>
+  </si>
+  <si>
+    <t>KONVIO RO SYSTEMS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>29AAHCK2505Q1Z2</t>
+  </si>
+  <si>
+    <t>BLR8-2645</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +654,20 @@
       <sz val="12"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -820,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1053,12 +1076,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1134,17 +1151,35 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J128"/>
+  <dimension ref="A2:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1448,30 +1483,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
+      <c r="A2" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1691,11 +1726,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1720,18 +1755,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="93"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -1766,764 +1801,764 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A15" s="81">
+      <c r="A15" s="79">
         <v>45017</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>1525.41</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82">
+      <c r="E15" s="80"/>
+      <c r="F15" s="80">
         <v>137.29</v>
       </c>
-      <c r="G15" s="82">
+      <c r="G15" s="80">
         <v>137.29</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="81">
         <f>D15+E15+F15+G15</f>
         <v>1799.99</v>
       </c>
-      <c r="I15" s="83"/>
-      <c r="J15" s="82" t="s">
+      <c r="I15" s="81"/>
+      <c r="J15" s="80" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A16" s="81">
+      <c r="A16" s="79">
         <v>45017</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>627.12</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82">
+      <c r="E16" s="80"/>
+      <c r="F16" s="80">
         <v>56.44</v>
       </c>
-      <c r="G16" s="82">
+      <c r="G16" s="80">
         <v>56.44</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="81">
         <f>D16+E16+F16+G16</f>
         <v>740</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="82" t="s">
+      <c r="I16" s="81"/>
+      <c r="J16" s="80" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="80" customFormat="1" ht="15">
-      <c r="A17" s="81">
+    <row r="17" spans="1:10" s="78" customFormat="1" ht="15">
+      <c r="A17" s="79">
         <v>45019</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>105</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82">
+      <c r="E17" s="80"/>
+      <c r="F17" s="80">
         <v>9.4499999999999993</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="80">
         <v>9.4499999999999993</v>
       </c>
-      <c r="H17" s="83">
+      <c r="H17" s="81">
         <f>D17+E17+F17+G17</f>
         <v>123.9</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83" t="s">
+      <c r="I17" s="81"/>
+      <c r="J17" s="81" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A18" s="81">
+      <c r="A18" s="79">
         <v>45020</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>2245</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="80">
         <v>404.1</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83">
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81">
         <f>D18+E18+F18+G18</f>
         <v>2649.1</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83" t="s">
+      <c r="I18" s="81"/>
+      <c r="J18" s="81" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A19" s="81">
+      <c r="A19" s="79">
         <v>45022</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="80">
         <v>5677.14</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82">
+      <c r="E19" s="80"/>
+      <c r="F19" s="80">
         <v>510.94</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G19" s="80">
         <v>510.94</v>
       </c>
-      <c r="H19" s="83">
+      <c r="H19" s="81">
         <f t="shared" ref="H19:H41" si="1">D19+E19+F19+G19</f>
         <v>6699.0199999999995</v>
       </c>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83" t="s">
+      <c r="I19" s="81"/>
+      <c r="J19" s="81" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A20" s="81">
+      <c r="A20" s="79">
         <v>45022</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="80">
         <v>8424</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="80">
         <v>1516.32</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83">
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81">
         <f t="shared" si="1"/>
         <v>9940.32</v>
       </c>
-      <c r="I20" s="83"/>
-      <c r="J20" s="82" t="s">
+      <c r="I20" s="81"/>
+      <c r="J20" s="80" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A21" s="81">
+      <c r="A21" s="79">
         <v>45022</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>1562.5</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82">
+      <c r="E21" s="80"/>
+      <c r="F21" s="80">
         <v>218.75</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="80">
         <v>218.75</v>
       </c>
-      <c r="H21" s="83">
+      <c r="H21" s="81">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="I21" s="83"/>
-      <c r="J21" s="82" t="s">
+      <c r="I21" s="81"/>
+      <c r="J21" s="80" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="5" customFormat="1" ht="15.6">
-      <c r="A22" s="81">
+      <c r="A22" s="79">
         <v>45024</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <v>1712.01</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82">
+      <c r="E22" s="80"/>
+      <c r="F22" s="80">
         <v>154.08000000000001</v>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="80">
         <v>154.08000000000001</v>
       </c>
-      <c r="H22" s="83">
+      <c r="H22" s="81">
         <f t="shared" si="1"/>
         <v>2020.1699999999998</v>
       </c>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83" t="s">
+      <c r="I22" s="81"/>
+      <c r="J22" s="81" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A23" s="81">
+      <c r="A23" s="79">
         <v>45024</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>2013</v>
       </c>
-      <c r="E23" s="82">
+      <c r="E23" s="80">
         <v>242</v>
       </c>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83">
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81">
         <f t="shared" si="1"/>
         <v>2255</v>
       </c>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82" t="s">
+      <c r="I23" s="80"/>
+      <c r="J23" s="80" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A24" s="81">
+      <c r="A24" s="79">
         <v>45024</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="80">
         <v>280</v>
       </c>
-      <c r="E24" s="82">
+      <c r="E24" s="80">
         <v>14</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="83">
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="I24" s="82"/>
-      <c r="J24" s="85" t="s">
+      <c r="I24" s="80"/>
+      <c r="J24" s="83" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A25" s="81">
+      <c r="A25" s="79">
         <v>45027</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="80">
         <v>3368.7</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82">
+      <c r="E25" s="80"/>
+      <c r="F25" s="80">
         <v>303.18</v>
       </c>
-      <c r="G25" s="82">
+      <c r="G25" s="80">
         <v>303.18</v>
       </c>
-      <c r="H25" s="83">
+      <c r="H25" s="81">
         <f t="shared" si="1"/>
         <v>3975.0599999999995</v>
       </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82" t="s">
+      <c r="I25" s="80"/>
+      <c r="J25" s="80" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A26" s="81">
+      <c r="A26" s="79">
         <v>45028</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <v>80025</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="80">
         <v>14404.5</v>
       </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="83">
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81">
         <v>94430</v>
       </c>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82" t="s">
+      <c r="I26" s="80"/>
+      <c r="J26" s="80" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A27" s="81">
+      <c r="A27" s="79">
         <v>45029</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="80">
         <v>1305</v>
       </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82">
+      <c r="E27" s="80"/>
+      <c r="F27" s="80">
         <v>117.45</v>
       </c>
-      <c r="G27" s="82">
+      <c r="G27" s="80">
         <v>117.45</v>
       </c>
-      <c r="H27" s="83">
+      <c r="H27" s="81">
         <f t="shared" si="1"/>
         <v>1539.9</v>
       </c>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82" t="s">
+      <c r="I27" s="80"/>
+      <c r="J27" s="80" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A28" s="81">
+      <c r="A28" s="79">
         <v>45030</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <v>22450</v>
       </c>
-      <c r="E28" s="82">
+      <c r="E28" s="80">
         <v>4041</v>
       </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="83">
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="81">
         <f t="shared" si="1"/>
         <v>26491</v>
       </c>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82" t="s">
+      <c r="I28" s="80"/>
+      <c r="J28" s="80" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A29" s="81">
+      <c r="A29" s="79">
         <v>45030</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="80">
         <v>2812.5</v>
       </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82">
+      <c r="E29" s="80"/>
+      <c r="F29" s="80">
         <v>393.75</v>
       </c>
-      <c r="G29" s="82">
+      <c r="G29" s="80">
         <v>393.75</v>
       </c>
-      <c r="H29" s="83">
+      <c r="H29" s="81">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82" t="s">
+      <c r="I29" s="80"/>
+      <c r="J29" s="80" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A30" s="81">
+      <c r="A30" s="79">
         <v>45033</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="82">
+      <c r="C30" s="80">
         <v>2881075833</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="80">
         <v>1250</v>
       </c>
-      <c r="E30" s="82">
+      <c r="E30" s="80">
         <v>62.5</v>
       </c>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83">
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="81">
         <f t="shared" si="1"/>
         <v>1312.5</v>
       </c>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82" t="s">
+      <c r="I30" s="80"/>
+      <c r="J30" s="80" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A31" s="81">
+      <c r="A31" s="79">
         <v>45036</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="80">
         <v>79000</v>
       </c>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82">
+      <c r="E31" s="80"/>
+      <c r="F31" s="80">
         <v>7110</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="80">
         <v>7110</v>
       </c>
-      <c r="H31" s="83">
+      <c r="H31" s="81">
         <f t="shared" si="1"/>
         <v>93220</v>
       </c>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82" t="s">
+      <c r="I31" s="80"/>
+      <c r="J31" s="80" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A32" s="81">
+      <c r="A32" s="79">
         <v>45036</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="82">
+      <c r="D32" s="80">
         <v>33000</v>
       </c>
-      <c r="E32" s="82">
+      <c r="E32" s="80">
         <v>5940</v>
       </c>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83">
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="81">
         <f t="shared" si="1"/>
         <v>38940</v>
       </c>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82" t="s">
+      <c r="I32" s="80"/>
+      <c r="J32" s="80" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A33" s="81">
+      <c r="A33" s="79">
         <v>45040</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="82" t="s">
+      <c r="C33" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="80">
         <v>6355.08</v>
       </c>
-      <c r="E33" s="82">
+      <c r="E33" s="80">
         <v>1141.9100000000001</v>
       </c>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83">
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="81">
         <f t="shared" si="1"/>
         <v>7496.99</v>
       </c>
-      <c r="I33" s="82"/>
-      <c r="J33" s="85" t="s">
+      <c r="I33" s="80"/>
+      <c r="J33" s="83" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A34" s="81">
+      <c r="A34" s="79">
         <v>45041</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="80">
         <v>96050</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="80">
         <v>17289</v>
       </c>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="83">
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="81">
         <f t="shared" si="1"/>
         <v>113339</v>
       </c>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82" t="s">
+      <c r="I34" s="80"/>
+      <c r="J34" s="80" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A35" s="81">
+      <c r="A35" s="79">
         <v>45043</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="80">
         <v>620024</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="80">
         <v>53344</v>
       </c>
-      <c r="E35" s="82">
+      <c r="E35" s="80">
         <v>9601.92</v>
       </c>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83">
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="81">
         <f t="shared" si="1"/>
         <v>62945.919999999998</v>
       </c>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82" t="s">
+      <c r="I35" s="80"/>
+      <c r="J35" s="80" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A36" s="81">
+      <c r="A36" s="79">
         <v>45043</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="82">
+      <c r="C36" s="80">
         <v>453</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="80">
         <v>2533.9</v>
       </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82">
+      <c r="E36" s="80"/>
+      <c r="F36" s="80">
         <v>228.05</v>
       </c>
-      <c r="G36" s="82">
+      <c r="G36" s="80">
         <v>228.05</v>
       </c>
-      <c r="H36" s="83">
+      <c r="H36" s="81">
         <f t="shared" si="1"/>
         <v>2990.0000000000005</v>
       </c>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82" t="s">
+      <c r="I36" s="80"/>
+      <c r="J36" s="80" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A37" s="81">
+      <c r="A37" s="79">
         <v>45044</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="82">
+      <c r="D37" s="80">
         <v>65230</v>
       </c>
-      <c r="E37" s="82">
+      <c r="E37" s="80">
         <v>11741</v>
       </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83">
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="81">
         <f t="shared" si="1"/>
         <v>76971</v>
       </c>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82" t="s">
+      <c r="I37" s="80"/>
+      <c r="J37" s="80" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A38" s="81">
+      <c r="A38" s="79">
         <v>45044</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="82">
+      <c r="D38" s="80">
         <v>9275.0400000000009</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="80">
         <v>1669.51</v>
       </c>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="83">
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="81">
         <v>10945</v>
       </c>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82" t="s">
+      <c r="I38" s="80"/>
+      <c r="J38" s="80" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A39" s="81">
+      <c r="A39" s="79">
         <v>45044</v>
       </c>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="82">
+      <c r="C39" s="80">
         <v>2881076398</v>
       </c>
-      <c r="D39" s="82">
+      <c r="D39" s="80">
         <v>750</v>
       </c>
-      <c r="E39" s="82">
+      <c r="E39" s="80">
         <v>37.5</v>
       </c>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83">
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="81">
         <f>D39+E39+F39+G39</f>
         <v>787.5</v>
       </c>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82" t="s">
+      <c r="I39" s="80"/>
+      <c r="J39" s="80" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A40" s="81">
+      <c r="A40" s="79">
         <v>45045</v>
       </c>
-      <c r="B40" s="82" t="s">
+      <c r="B40" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="82">
+      <c r="C40" s="80">
         <v>481</v>
       </c>
-      <c r="D40" s="82">
+      <c r="D40" s="80">
         <v>4800.8999999999996</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82">
+      <c r="E40" s="80"/>
+      <c r="F40" s="80">
         <v>432.08</v>
       </c>
-      <c r="G40" s="82">
+      <c r="G40" s="80">
         <v>432.08</v>
       </c>
-      <c r="H40" s="83">
+      <c r="H40" s="81">
         <f t="shared" si="1"/>
         <v>5665.0599999999995</v>
       </c>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82" t="s">
+      <c r="I40" s="80"/>
+      <c r="J40" s="80" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="81">
+      <c r="A41" s="79">
         <v>45046</v>
       </c>
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="82" t="s">
+      <c r="C41" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="82">
+      <c r="D41" s="80">
         <v>1000</v>
       </c>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82">
+      <c r="E41" s="80"/>
+      <c r="F41" s="80">
         <v>90</v>
       </c>
-      <c r="G41" s="82">
+      <c r="G41" s="80">
         <v>90</v>
       </c>
-      <c r="H41" s="83">
+      <c r="H41" s="81">
         <f t="shared" si="1"/>
         <v>1180</v>
       </c>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82" t="s">
+      <c r="I41" s="80"/>
+      <c r="J41" s="80" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="102"/>
-      <c r="C42" s="103"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="101"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2548,30 +2583,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="99"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="97"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="93"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="91"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2847,11 +2882,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="90" t="s">
+      <c r="A56" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -2876,18 +2911,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="91" t="s">
+      <c r="A57" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="93"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="91"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -2922,814 +2957,814 @@
       </c>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A59" s="86">
+      <c r="A59" s="84">
         <v>45048</v>
       </c>
-      <c r="B59" s="88" t="s">
+      <c r="B59" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="87" t="s">
+      <c r="C59" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="87">
+      <c r="D59" s="85">
         <v>24695</v>
       </c>
-      <c r="E59" s="87">
+      <c r="E59" s="85">
         <v>4445.1000000000004</v>
       </c>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87">
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85">
         <f>D59+E59+F59+G59</f>
         <v>29140.1</v>
       </c>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87" t="s">
+      <c r="I59" s="85"/>
+      <c r="J59" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A60" s="86">
+      <c r="A60" s="84">
         <v>45050</v>
       </c>
-      <c r="B60" s="87" t="s">
+      <c r="B60" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="87" t="s">
+      <c r="C60" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="87">
+      <c r="D60" s="85">
         <v>146900</v>
       </c>
-      <c r="E60" s="87">
+      <c r="E60" s="85">
         <v>26442</v>
       </c>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87">
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85">
         <f t="shared" ref="H60:H87" si="3">D60+E60+F60+G60</f>
         <v>173342</v>
       </c>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87" t="s">
+      <c r="I60" s="85"/>
+      <c r="J60" s="85" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A61" s="86">
+      <c r="A61" s="84">
         <v>45050</v>
       </c>
-      <c r="B61" s="87" t="s">
+      <c r="B61" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="87" t="s">
+      <c r="C61" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="87">
+      <c r="D61" s="85">
         <v>19800</v>
       </c>
-      <c r="E61" s="87">
+      <c r="E61" s="85">
         <v>3564</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87">
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85">
         <f t="shared" si="3"/>
         <v>23364</v>
       </c>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87" t="s">
+      <c r="I61" s="85"/>
+      <c r="J61" s="85" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A62" s="86">
+      <c r="A62" s="84">
         <v>45051</v>
       </c>
-      <c r="B62" s="87" t="s">
+      <c r="B62" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="87" t="s">
+      <c r="C62" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="D62" s="87">
+      <c r="D62" s="85">
         <v>8000</v>
       </c>
-      <c r="E62" s="87">
+      <c r="E62" s="85">
         <v>1440</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87">
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85">
         <f t="shared" si="3"/>
         <v>9440</v>
       </c>
-      <c r="I62" s="87"/>
-      <c r="J62" s="87" t="s">
+      <c r="I62" s="85"/>
+      <c r="J62" s="85" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A63" s="86">
+      <c r="A63" s="84">
         <v>45051</v>
       </c>
-      <c r="B63" s="88" t="s">
+      <c r="B63" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="89" t="s">
+      <c r="C63" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="87">
+      <c r="D63" s="85">
         <v>1300</v>
       </c>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87">
+      <c r="E63" s="85"/>
+      <c r="F63" s="85">
         <v>117</v>
       </c>
-      <c r="G63" s="87">
+      <c r="G63" s="85">
         <v>117</v>
       </c>
-      <c r="H63" s="87">
+      <c r="H63" s="85">
         <f t="shared" si="3"/>
         <v>1534</v>
       </c>
-      <c r="I63" s="87"/>
-      <c r="J63" s="88" t="s">
+      <c r="I63" s="85"/>
+      <c r="J63" s="86" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A64" s="86">
+      <c r="A64" s="84">
         <v>45052</v>
       </c>
-      <c r="B64" s="88" t="s">
+      <c r="B64" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="88" t="s">
+      <c r="C64" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="87">
+      <c r="D64" s="85">
         <v>16000</v>
       </c>
-      <c r="E64" s="87">
+      <c r="E64" s="85">
         <v>2880</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87">
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85">
         <f t="shared" si="3"/>
         <v>18880</v>
       </c>
-      <c r="I64" s="87"/>
-      <c r="J64" s="89" t="s">
+      <c r="I64" s="85"/>
+      <c r="J64" s="87" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A65" s="86">
+      <c r="A65" s="84">
         <v>45052</v>
       </c>
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="88" t="s">
+      <c r="C65" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="87">
+      <c r="D65" s="85">
         <v>8424</v>
       </c>
-      <c r="E65" s="87">
+      <c r="E65" s="85">
         <v>1516.32</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87">
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85">
         <f t="shared" si="3"/>
         <v>9940.32</v>
       </c>
-      <c r="I65" s="87"/>
-      <c r="J65" s="88" t="s">
+      <c r="I65" s="85"/>
+      <c r="J65" s="86" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A66" s="86">
+      <c r="A66" s="84">
         <v>45054</v>
       </c>
-      <c r="B66" s="87" t="s">
+      <c r="B66" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="87" t="s">
+      <c r="C66" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="87">
+      <c r="D66" s="85">
         <v>1026.27</v>
       </c>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87">
+      <c r="E66" s="85"/>
+      <c r="F66" s="85">
         <v>92.37</v>
       </c>
-      <c r="G66" s="87">
+      <c r="G66" s="85">
         <v>92.37</v>
       </c>
-      <c r="H66" s="87">
+      <c r="H66" s="85">
         <f t="shared" si="3"/>
         <v>1211.0099999999998</v>
       </c>
-      <c r="I66" s="87"/>
-      <c r="J66" s="87" t="s">
+      <c r="I66" s="85"/>
+      <c r="J66" s="85" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A67" s="86">
+      <c r="A67" s="84">
         <v>45054</v>
       </c>
-      <c r="B67" s="88" t="s">
+      <c r="B67" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="87" t="s">
+      <c r="C67" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="87">
+      <c r="D67" s="85">
         <v>2987.34</v>
       </c>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87">
+      <c r="E67" s="85"/>
+      <c r="F67" s="85">
         <v>268.86</v>
       </c>
-      <c r="G67" s="87">
+      <c r="G67" s="85">
         <v>268.86</v>
       </c>
-      <c r="H67" s="87">
+      <c r="H67" s="85">
         <f t="shared" si="3"/>
         <v>3525.0600000000004</v>
       </c>
-      <c r="I67" s="87"/>
-      <c r="J67" s="87" t="s">
+      <c r="I67" s="85"/>
+      <c r="J67" s="85" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A68" s="86">
+      <c r="A68" s="84">
         <v>45054</v>
       </c>
-      <c r="B68" s="88" t="s">
+      <c r="B68" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="88" t="s">
+      <c r="C68" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="D68" s="87">
+      <c r="D68" s="85">
         <v>338.98</v>
       </c>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87">
+      <c r="E68" s="85"/>
+      <c r="F68" s="85">
         <v>30.51</v>
       </c>
-      <c r="G68" s="87">
+      <c r="G68" s="85">
         <v>30.51</v>
       </c>
-      <c r="H68" s="87">
+      <c r="H68" s="85">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="I68" s="87"/>
-      <c r="J68" s="87" t="s">
+      <c r="I68" s="85"/>
+      <c r="J68" s="85" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A69" s="86">
+      <c r="A69" s="84">
         <v>45057</v>
       </c>
-      <c r="B69" s="87" t="s">
+      <c r="B69" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="87" t="s">
+      <c r="C69" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="87">
+      <c r="D69" s="85">
         <v>23760</v>
       </c>
-      <c r="E69" s="87"/>
-      <c r="F69" s="87">
+      <c r="E69" s="85"/>
+      <c r="F69" s="85">
         <v>2138.4</v>
       </c>
-      <c r="G69" s="87">
+      <c r="G69" s="85">
         <v>2138.4</v>
       </c>
-      <c r="H69" s="87">
+      <c r="H69" s="85">
         <f t="shared" si="3"/>
         <v>28036.800000000003</v>
       </c>
-      <c r="I69" s="87"/>
-      <c r="J69" s="87" t="s">
+      <c r="I69" s="85"/>
+      <c r="J69" s="85" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A70" s="86">
+      <c r="A70" s="84">
         <v>45057</v>
       </c>
-      <c r="B70" s="87" t="s">
+      <c r="B70" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="87" t="s">
+      <c r="C70" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="87">
+      <c r="D70" s="85">
         <v>32650</v>
       </c>
-      <c r="E70" s="87">
+      <c r="E70" s="85">
         <v>5877</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="87">
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85">
         <f t="shared" si="3"/>
         <v>38527</v>
       </c>
-      <c r="I70" s="87"/>
-      <c r="J70" s="87" t="s">
+      <c r="I70" s="85"/>
+      <c r="J70" s="85" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A71" s="86">
+      <c r="A71" s="84">
         <v>45057</v>
       </c>
-      <c r="B71" s="87" t="s">
+      <c r="B71" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="87" t="s">
+      <c r="C71" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="87">
+      <c r="D71" s="85">
         <v>48975</v>
       </c>
-      <c r="E71" s="87">
+      <c r="E71" s="85">
         <v>8815.5</v>
       </c>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87">
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85">
         <f t="shared" si="3"/>
         <v>57790.5</v>
       </c>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87" t="s">
+      <c r="I71" s="85"/>
+      <c r="J71" s="85" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A72" s="86">
+      <c r="A72" s="84">
         <v>45058</v>
       </c>
-      <c r="B72" s="88" t="s">
+      <c r="B72" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="88" t="s">
+      <c r="C72" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="D72" s="87">
+      <c r="D72" s="85">
         <v>3375</v>
       </c>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87">
+      <c r="E72" s="85"/>
+      <c r="F72" s="85">
         <v>303.75</v>
       </c>
-      <c r="G72" s="87">
+      <c r="G72" s="85">
         <v>303.75</v>
       </c>
-      <c r="H72" s="87">
+      <c r="H72" s="85">
         <f t="shared" si="3"/>
         <v>3982.5</v>
       </c>
-      <c r="I72" s="87"/>
-      <c r="J72" s="88" t="s">
+      <c r="I72" s="85"/>
+      <c r="J72" s="86" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A73" s="86">
+      <c r="A73" s="84">
         <v>45059</v>
       </c>
-      <c r="B73" s="87" t="s">
+      <c r="B73" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="87" t="s">
+      <c r="C73" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="D73" s="87">
+      <c r="D73" s="85">
         <v>32405</v>
       </c>
-      <c r="E73" s="87">
+      <c r="E73" s="85">
         <v>5832.9</v>
       </c>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87">
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85">
         <f t="shared" si="3"/>
         <v>38237.9</v>
       </c>
-      <c r="I73" s="87"/>
-      <c r="J73" s="87" t="s">
+      <c r="I73" s="85"/>
+      <c r="J73" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A74" s="86">
+      <c r="A74" s="84">
         <v>45062</v>
       </c>
-      <c r="B74" s="88" t="s">
+      <c r="B74" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="88" t="s">
+      <c r="C74" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="D74" s="87">
+      <c r="D74" s="85">
         <v>2300</v>
       </c>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87">
+      <c r="E74" s="85"/>
+      <c r="F74" s="85">
         <v>207</v>
       </c>
-      <c r="G74" s="87">
+      <c r="G74" s="85">
         <v>207</v>
       </c>
-      <c r="H74" s="87">
+      <c r="H74" s="85">
         <f t="shared" si="3"/>
         <v>2714</v>
       </c>
-      <c r="I74" s="87"/>
-      <c r="J74" s="88" t="s">
+      <c r="I74" s="85"/>
+      <c r="J74" s="86" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A75" s="86">
+      <c r="A75" s="84">
         <v>45063</v>
       </c>
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="88">
+      <c r="C75" s="86">
         <v>2881077278</v>
       </c>
-      <c r="D75" s="87">
+      <c r="D75" s="85">
         <v>520</v>
       </c>
-      <c r="E75" s="87">
+      <c r="E75" s="85">
         <v>26</v>
       </c>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87">
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85">
         <f t="shared" si="3"/>
         <v>546</v>
       </c>
-      <c r="I75" s="87"/>
-      <c r="J75" s="88" t="s">
+      <c r="I75" s="85"/>
+      <c r="J75" s="86" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A76" s="86">
+      <c r="A76" s="84">
         <v>45064</v>
       </c>
-      <c r="B76" s="88" t="s">
+      <c r="B76" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="88" t="s">
+      <c r="C76" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="D76" s="87">
+      <c r="D76" s="85">
         <v>57520</v>
       </c>
-      <c r="E76" s="87">
+      <c r="E76" s="85">
         <v>10353.6</v>
       </c>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87">
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85">
         <f t="shared" si="3"/>
         <v>67873.600000000006</v>
       </c>
-      <c r="I76" s="87"/>
-      <c r="J76" s="88" t="s">
+      <c r="I76" s="85"/>
+      <c r="J76" s="86" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A77" s="86">
+      <c r="A77" s="84">
         <v>45065</v>
       </c>
-      <c r="B77" s="88" t="s">
+      <c r="B77" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="88">
+      <c r="C77" s="86">
         <v>2110731981</v>
       </c>
-      <c r="D77" s="87">
+      <c r="D77" s="85">
         <v>640591.62</v>
       </c>
-      <c r="E77" s="87">
+      <c r="E77" s="85">
         <v>115306.51</v>
       </c>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87">
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85">
         <f t="shared" si="3"/>
         <v>755898.13</v>
       </c>
-      <c r="I77" s="87"/>
-      <c r="J77" s="88" t="s">
+      <c r="I77" s="85"/>
+      <c r="J77" s="86" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A78" s="86">
+      <c r="A78" s="84">
         <v>45065</v>
       </c>
-      <c r="B78" s="88" t="s">
+      <c r="B78" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="88" t="s">
+      <c r="C78" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="D78" s="87">
+      <c r="D78" s="85">
         <v>31150</v>
       </c>
-      <c r="E78" s="87">
+      <c r="E78" s="85">
         <v>5607</v>
       </c>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87">
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85">
         <f t="shared" si="3"/>
         <v>36757</v>
       </c>
-      <c r="I78" s="87"/>
-      <c r="J78" s="88" t="s">
+      <c r="I78" s="85"/>
+      <c r="J78" s="86" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A79" s="86">
+      <c r="A79" s="84">
         <v>45065</v>
       </c>
-      <c r="B79" s="89" t="s">
+      <c r="B79" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="C79" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="D79" s="87">
+      <c r="D79" s="85">
         <v>2425.85</v>
       </c>
-      <c r="E79" s="87"/>
-      <c r="F79" s="87">
+      <c r="E79" s="85"/>
+      <c r="F79" s="85">
         <v>312.08</v>
       </c>
-      <c r="G79" s="87">
+      <c r="G79" s="85">
         <v>312.08</v>
       </c>
-      <c r="H79" s="87">
+      <c r="H79" s="85">
         <f t="shared" si="3"/>
         <v>3050.0099999999998</v>
       </c>
-      <c r="I79" s="87"/>
-      <c r="J79" s="88" t="s">
+      <c r="I79" s="85"/>
+      <c r="J79" s="86" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A80" s="86">
+      <c r="A80" s="84">
         <v>45067</v>
       </c>
-      <c r="B80" s="89" t="s">
+      <c r="B80" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="88" t="s">
+      <c r="C80" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="D80" s="87">
+      <c r="D80" s="85">
         <v>2425.85</v>
       </c>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87">
+      <c r="E80" s="85"/>
+      <c r="F80" s="85">
         <v>312.08</v>
       </c>
-      <c r="G80" s="87">
+      <c r="G80" s="85">
         <v>312.08</v>
       </c>
-      <c r="H80" s="87">
+      <c r="H80" s="85">
         <f t="shared" si="3"/>
         <v>3050.0099999999998</v>
       </c>
-      <c r="I80" s="87"/>
-      <c r="J80" s="88" t="s">
+      <c r="I80" s="85"/>
+      <c r="J80" s="86" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A81" s="86">
+      <c r="A81" s="84">
         <v>45069</v>
       </c>
-      <c r="B81" s="88" t="s">
+      <c r="B81" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="88" t="s">
+      <c r="C81" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="87">
+      <c r="D81" s="85">
         <v>82200</v>
       </c>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87">
+      <c r="E81" s="85"/>
+      <c r="F81" s="85">
         <v>7398</v>
       </c>
-      <c r="G81" s="87">
+      <c r="G81" s="85">
         <v>7398</v>
       </c>
-      <c r="H81" s="87">
+      <c r="H81" s="85">
         <f t="shared" si="3"/>
         <v>96996</v>
       </c>
-      <c r="I81" s="87"/>
-      <c r="J81" s="88" t="s">
+      <c r="I81" s="85"/>
+      <c r="J81" s="86" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A82" s="86">
+      <c r="A82" s="84">
         <v>45070</v>
       </c>
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="C82" s="88" t="s">
+      <c r="C82" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="D82" s="87">
+      <c r="D82" s="85">
         <v>104350</v>
       </c>
-      <c r="E82" s="87">
+      <c r="E82" s="85">
         <v>18783</v>
       </c>
-      <c r="F82" s="87"/>
-      <c r="G82" s="87"/>
-      <c r="H82" s="87">
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85">
         <f t="shared" si="3"/>
         <v>123133</v>
       </c>
-      <c r="I82" s="87"/>
-      <c r="J82" s="88" t="s">
+      <c r="I82" s="85"/>
+      <c r="J82" s="86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A83" s="86">
+      <c r="A83" s="84">
         <v>45071</v>
       </c>
-      <c r="B83" s="88" t="s">
+      <c r="B83" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="D83" s="87">
+      <c r="D83" s="85">
         <v>31200</v>
       </c>
-      <c r="E83" s="87">
+      <c r="E83" s="85">
         <v>5616</v>
       </c>
-      <c r="F83" s="87"/>
-      <c r="G83" s="87"/>
-      <c r="H83" s="87">
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85">
         <f t="shared" si="3"/>
         <v>36816</v>
       </c>
-      <c r="I83" s="87"/>
-      <c r="J83" s="88" t="s">
+      <c r="I83" s="85"/>
+      <c r="J83" s="86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A84" s="86">
+      <c r="A84" s="84">
         <v>45071</v>
       </c>
-      <c r="B84" s="88" t="s">
+      <c r="B84" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="88">
+      <c r="C84" s="86">
         <v>2881077629</v>
       </c>
-      <c r="D84" s="87">
+      <c r="D84" s="85">
         <v>470</v>
       </c>
-      <c r="E84" s="87">
+      <c r="E84" s="85">
         <v>23.5</v>
       </c>
-      <c r="F84" s="87"/>
-      <c r="G84" s="87"/>
-      <c r="H84" s="87">
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85">
         <f t="shared" si="3"/>
         <v>493.5</v>
       </c>
-      <c r="I84" s="87"/>
-      <c r="J84" s="88" t="s">
+      <c r="I84" s="85"/>
+      <c r="J84" s="86" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A85" s="86">
+      <c r="A85" s="84">
         <v>45072</v>
       </c>
-      <c r="B85" s="88" t="s">
+      <c r="B85" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C85" s="88" t="s">
+      <c r="C85" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="D85" s="87">
+      <c r="D85" s="85">
         <v>55000</v>
       </c>
-      <c r="E85" s="87">
+      <c r="E85" s="85">
         <v>9900</v>
       </c>
-      <c r="F85" s="87"/>
-      <c r="G85" s="87"/>
-      <c r="H85" s="87">
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85">
         <f t="shared" si="3"/>
         <v>64900</v>
       </c>
-      <c r="I85" s="87"/>
-      <c r="J85" s="88" t="s">
+      <c r="I85" s="85"/>
+      <c r="J85" s="86" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A86" s="86">
+      <c r="A86" s="84">
         <v>45074</v>
       </c>
-      <c r="B86" s="88" t="s">
+      <c r="B86" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="88" t="s">
+      <c r="C86" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="D86" s="87">
+      <c r="D86" s="85">
         <v>7041.5</v>
       </c>
-      <c r="E86" s="87">
+      <c r="E86" s="85">
         <v>1267.47</v>
       </c>
-      <c r="F86" s="87"/>
-      <c r="G86" s="87"/>
-      <c r="H86" s="87">
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85">
         <f t="shared" si="3"/>
         <v>8308.9699999999993</v>
       </c>
-      <c r="I86" s="87"/>
-      <c r="J86" s="88" t="s">
+      <c r="I86" s="85"/>
+      <c r="J86" s="86" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A87" s="86">
+      <c r="A87" s="84">
         <v>45075</v>
       </c>
-      <c r="B87" s="88" t="s">
+      <c r="B87" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="88" t="s">
+      <c r="C87" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="D87" s="87">
+      <c r="D87" s="85">
         <v>104125</v>
       </c>
-      <c r="E87" s="87">
+      <c r="E87" s="85">
         <v>18742.5</v>
       </c>
-      <c r="F87" s="87"/>
-      <c r="G87" s="87"/>
-      <c r="H87" s="87">
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85">
         <f t="shared" si="3"/>
         <v>122867.5</v>
       </c>
-      <c r="I87" s="87"/>
-      <c r="J87" s="88" t="s">
+      <c r="I87" s="85"/>
+      <c r="J87" s="86" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="94" t="s">
+      <c r="A88" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="95"/>
-      <c r="C88" s="96"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="94"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3754,30 +3789,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="97" t="s">
+      <c r="A90" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="98"/>
-      <c r="C90" s="98"/>
-      <c r="D90" s="98"/>
-      <c r="E90" s="98"/>
-      <c r="F90" s="98"/>
-      <c r="G90" s="98"/>
-      <c r="H90" s="98"/>
-      <c r="I90" s="98"/>
-      <c r="J90" s="99"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="96"/>
+      <c r="G90" s="96"/>
+      <c r="H90" s="96"/>
+      <c r="I90" s="96"/>
+      <c r="J90" s="97"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="91" t="s">
+      <c r="A91" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="92"/>
-      <c r="G91" s="92"/>
-      <c r="H91" s="93"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="91"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -3999,11 +4034,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="90" t="s">
+      <c r="A100" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="90"/>
-      <c r="C100" s="90"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="88"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4028,18 +4063,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="91" t="s">
+      <c r="A101" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="92"/>
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
-      <c r="H101" s="92"/>
-      <c r="I101" s="92"/>
-      <c r="J101" s="93"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="90"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="90"/>
+      <c r="H101" s="90"/>
+      <c r="I101" s="90"/>
+      <c r="J101" s="91"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4074,698 +4109,734 @@
       </c>
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A103" s="86">
+      <c r="A103" s="84">
         <v>45079</v>
       </c>
-      <c r="B103" s="87" t="s">
+      <c r="B103" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="C103" s="87">
+      <c r="C103" s="85">
         <v>276</v>
       </c>
-      <c r="D103" s="87">
+      <c r="D103" s="85">
         <v>8985</v>
       </c>
-      <c r="E103" s="87"/>
-      <c r="F103" s="87">
+      <c r="E103" s="85"/>
+      <c r="F103" s="85">
         <v>1257.5</v>
       </c>
-      <c r="G103" s="87">
+      <c r="G103" s="85">
         <v>1257.5</v>
       </c>
-      <c r="H103" s="87">
-        <f t="shared" ref="H103:H119" si="5">D103+E103+F103+G103</f>
+      <c r="H103" s="85">
+        <f t="shared" ref="H103:H120" si="5">D103+E103+F103+G103</f>
         <v>11500</v>
       </c>
-      <c r="I103" s="87"/>
-      <c r="J103" s="87" t="s">
+      <c r="I103" s="85"/>
+      <c r="J103" s="85" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A104" s="86">
+      <c r="A104" s="84">
         <v>45080</v>
       </c>
-      <c r="B104" s="87" t="s">
+      <c r="B104" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="C104" s="87" t="s">
+      <c r="C104" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D104" s="87">
+      <c r="D104" s="85">
         <v>1232.2</v>
       </c>
-      <c r="E104" s="87"/>
-      <c r="F104" s="87">
+      <c r="E104" s="85"/>
+      <c r="F104" s="85">
         <v>110.9</v>
       </c>
-      <c r="G104" s="87">
+      <c r="G104" s="85">
         <v>110.9</v>
       </c>
-      <c r="H104" s="87">
+      <c r="H104" s="85">
         <f t="shared" si="5"/>
         <v>1454.0000000000002</v>
       </c>
-      <c r="I104" s="87"/>
-      <c r="J104" s="87" t="s">
+      <c r="I104" s="85"/>
+      <c r="J104" s="85" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A105" s="86">
+      <c r="A105" s="84">
         <v>45080</v>
       </c>
-      <c r="B105" s="87" t="s">
+      <c r="B105" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="C105" s="87" t="s">
+      <c r="C105" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="D105" s="87">
+      <c r="D105" s="85">
         <v>296.61</v>
       </c>
-      <c r="E105" s="87"/>
-      <c r="F105" s="87">
+      <c r="E105" s="85"/>
+      <c r="F105" s="85">
         <v>26.69</v>
       </c>
-      <c r="G105" s="87">
+      <c r="G105" s="85">
         <v>26.69</v>
       </c>
-      <c r="H105" s="87">
+      <c r="H105" s="85">
         <f t="shared" si="5"/>
         <v>349.99</v>
       </c>
-      <c r="I105" s="87"/>
-      <c r="J105" s="87" t="s">
+      <c r="I105" s="85"/>
+      <c r="J105" s="85" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A106" s="86">
+      <c r="A106" s="84">
         <v>45080</v>
       </c>
-      <c r="B106" s="88" t="s">
+      <c r="B106" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="C106" s="88" t="s">
+      <c r="C106" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="D106" s="87">
+      <c r="D106" s="85">
         <v>1100.8499999999999</v>
       </c>
-      <c r="E106" s="87">
+      <c r="E106" s="85">
         <v>198.15</v>
       </c>
-      <c r="F106" s="87"/>
-      <c r="G106" s="87"/>
-      <c r="H106" s="87">
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="85">
         <f t="shared" si="5"/>
         <v>1299</v>
       </c>
-      <c r="I106" s="87"/>
-      <c r="J106" s="88" t="s">
+      <c r="I106" s="85"/>
+      <c r="J106" s="86" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A107" s="86">
+      <c r="A107" s="84">
         <v>45080</v>
       </c>
-      <c r="B107" s="88" t="s">
+      <c r="B107" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="C107" s="89" t="s">
+      <c r="C107" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="D107" s="87">
+      <c r="D107" s="85">
         <v>2812.5</v>
       </c>
-      <c r="E107" s="87"/>
-      <c r="F107" s="87">
+      <c r="E107" s="85"/>
+      <c r="F107" s="85">
         <v>393.75</v>
       </c>
-      <c r="G107" s="87">
+      <c r="G107" s="85">
         <v>393.75</v>
       </c>
-      <c r="H107" s="87">
+      <c r="H107" s="85">
         <f t="shared" si="5"/>
         <v>3600</v>
       </c>
-      <c r="I107" s="87"/>
-      <c r="J107" s="89" t="s">
+      <c r="I107" s="85"/>
+      <c r="J107" s="87" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A108" s="86">
+      <c r="A108" s="84">
         <v>45082</v>
       </c>
-      <c r="B108" s="87" t="s">
+      <c r="B108" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C108" s="87" t="s">
+      <c r="C108" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D108" s="87">
+      <c r="D108" s="85">
         <v>11232</v>
       </c>
-      <c r="E108" s="87">
+      <c r="E108" s="85">
         <v>2021.76</v>
       </c>
-      <c r="F108" s="87"/>
-      <c r="G108" s="87"/>
-      <c r="H108" s="87">
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85">
         <f t="shared" si="5"/>
         <v>13253.76</v>
       </c>
-      <c r="I108" s="87"/>
-      <c r="J108" s="87" t="s">
+      <c r="I108" s="85"/>
+      <c r="J108" s="85" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A109" s="86">
+      <c r="A109" s="84">
         <v>45083</v>
       </c>
-      <c r="B109" s="87" t="s">
+      <c r="B109" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="C109" s="87" t="s">
+      <c r="C109" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="D109" s="87">
+      <c r="D109" s="85">
         <v>275</v>
       </c>
-      <c r="E109" s="87"/>
-      <c r="F109" s="87">
+      <c r="E109" s="85"/>
+      <c r="F109" s="85">
         <v>24.75</v>
       </c>
-      <c r="G109" s="87">
+      <c r="G109" s="85">
         <v>24.75</v>
       </c>
-      <c r="H109" s="87">
+      <c r="H109" s="85">
         <f t="shared" si="5"/>
         <v>324.5</v>
       </c>
-      <c r="I109" s="87"/>
-      <c r="J109" s="87" t="s">
+      <c r="I109" s="85"/>
+      <c r="J109" s="85" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A110" s="86">
+      <c r="A110" s="84">
         <v>45083</v>
       </c>
-      <c r="B110" s="87" t="s">
+      <c r="B110" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="C110" s="87" t="s">
+      <c r="C110" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="D110" s="87">
+      <c r="D110" s="85">
         <v>142775</v>
       </c>
-      <c r="E110" s="87">
+      <c r="E110" s="85">
         <v>25699.5</v>
       </c>
-      <c r="F110" s="87"/>
-      <c r="G110" s="87"/>
-      <c r="H110" s="87">
+      <c r="F110" s="85"/>
+      <c r="G110" s="85"/>
+      <c r="H110" s="85">
         <f t="shared" si="5"/>
         <v>168474.5</v>
       </c>
-      <c r="I110" s="87"/>
-      <c r="J110" s="87" t="s">
+      <c r="I110" s="85"/>
+      <c r="J110" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A111" s="86">
+      <c r="A111" s="84">
         <v>45083</v>
       </c>
-      <c r="B111" s="88" t="s">
+      <c r="B111" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="C111" s="88" t="s">
+      <c r="C111" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="D111" s="87">
+      <c r="D111" s="85">
         <v>1875</v>
       </c>
-      <c r="E111" s="87"/>
-      <c r="F111" s="87">
+      <c r="E111" s="85"/>
+      <c r="F111" s="85">
         <v>262.5</v>
       </c>
-      <c r="G111" s="87">
+      <c r="G111" s="85">
         <v>262.5</v>
       </c>
-      <c r="H111" s="87">
+      <c r="H111" s="85">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
-      <c r="I111" s="87"/>
-      <c r="J111" s="89" t="s">
+      <c r="I111" s="85"/>
+      <c r="J111" s="87" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A112" s="86">
+      <c r="A112" s="84">
         <v>45086</v>
       </c>
-      <c r="B112" s="87" t="s">
+      <c r="B112" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="87" t="s">
+      <c r="C112" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="D112" s="87">
+      <c r="D112" s="85">
         <v>677.96</v>
       </c>
-      <c r="E112" s="87"/>
-      <c r="F112" s="87">
+      <c r="E112" s="85"/>
+      <c r="F112" s="85">
         <v>61.02</v>
       </c>
-      <c r="G112" s="87">
+      <c r="G112" s="85">
         <v>61.02</v>
       </c>
-      <c r="H112" s="87">
+      <c r="H112" s="85">
         <f t="shared" si="5"/>
         <v>800</v>
       </c>
-      <c r="I112" s="87"/>
-      <c r="J112" s="87" t="s">
+      <c r="I112" s="85"/>
+      <c r="J112" s="85" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A113" s="86">
+      <c r="A113" s="84">
         <v>45086</v>
       </c>
-      <c r="B113" s="87" t="s">
+      <c r="B113" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="C113" s="87" t="s">
+      <c r="C113" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="D113" s="87">
+      <c r="D113" s="85">
         <v>1175</v>
       </c>
-      <c r="E113" s="87"/>
-      <c r="F113" s="87">
+      <c r="E113" s="85"/>
+      <c r="F113" s="85">
         <v>105.75</v>
       </c>
-      <c r="G113" s="87">
+      <c r="G113" s="85">
         <v>105.75</v>
       </c>
-      <c r="H113" s="87">
+      <c r="H113" s="85">
         <f t="shared" si="5"/>
         <v>1386.5</v>
       </c>
-      <c r="I113" s="87"/>
-      <c r="J113" s="87" t="s">
+      <c r="I113" s="85"/>
+      <c r="J113" s="85" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A114" s="86">
+      <c r="A114" s="84">
         <v>45087</v>
       </c>
-      <c r="B114" s="87" t="s">
+      <c r="B114" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="C114" s="87" t="s">
+      <c r="C114" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="D114" s="87">
+      <c r="D114" s="85">
         <v>9400</v>
       </c>
-      <c r="E114" s="87"/>
-      <c r="F114" s="87">
+      <c r="E114" s="85"/>
+      <c r="F114" s="85">
         <v>846</v>
       </c>
-      <c r="G114" s="87">
+      <c r="G114" s="85">
         <v>846</v>
       </c>
-      <c r="H114" s="87">
+      <c r="H114" s="85">
         <f t="shared" si="5"/>
         <v>11092</v>
       </c>
-      <c r="I114" s="87"/>
-      <c r="J114" s="87" t="s">
+      <c r="I114" s="85"/>
+      <c r="J114" s="85" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A115" s="86">
+      <c r="A115" s="84">
         <v>45087</v>
       </c>
-      <c r="B115" s="87" t="s">
+      <c r="B115" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="C115" s="87" t="s">
+      <c r="C115" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="D115" s="87">
+      <c r="D115" s="85">
         <v>82250</v>
       </c>
-      <c r="E115" s="87">
+      <c r="E115" s="85">
         <v>14805</v>
       </c>
-      <c r="F115" s="87"/>
-      <c r="G115" s="87"/>
-      <c r="H115" s="87">
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85">
         <f t="shared" si="5"/>
         <v>97055</v>
       </c>
-      <c r="I115" s="87"/>
-      <c r="J115" s="87" t="s">
+      <c r="I115" s="85"/>
+      <c r="J115" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A116" s="86">
+      <c r="A116" s="84">
         <v>45089</v>
       </c>
-      <c r="B116" s="87" t="s">
+      <c r="B116" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="C116" s="87" t="s">
+      <c r="C116" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="D116" s="87">
+      <c r="D116" s="85">
         <v>300</v>
       </c>
-      <c r="E116" s="87"/>
-      <c r="F116" s="87">
+      <c r="E116" s="85"/>
+      <c r="F116" s="85">
         <v>27</v>
       </c>
-      <c r="G116" s="87">
+      <c r="G116" s="85">
         <v>27</v>
       </c>
-      <c r="H116" s="87">
+      <c r="H116" s="85">
         <f t="shared" si="5"/>
         <v>354</v>
       </c>
-      <c r="I116" s="87"/>
-      <c r="J116" s="87" t="s">
+      <c r="I116" s="85"/>
+      <c r="J116" s="85" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A117" s="86">
+      <c r="A117" s="84">
         <v>45090</v>
       </c>
-      <c r="B117" s="87" t="s">
+      <c r="B117" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="C117" s="87" t="s">
+      <c r="C117" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="D117" s="87">
+      <c r="D117" s="85">
         <v>4700</v>
       </c>
-      <c r="E117" s="87"/>
-      <c r="F117" s="87">
+      <c r="E117" s="85"/>
+      <c r="F117" s="85">
         <v>423</v>
       </c>
-      <c r="G117" s="87">
+      <c r="G117" s="85">
         <v>423</v>
       </c>
-      <c r="H117" s="87">
+      <c r="H117" s="85">
         <f t="shared" si="5"/>
         <v>5546</v>
       </c>
-      <c r="I117" s="87"/>
-      <c r="J117" s="87" t="s">
+      <c r="I117" s="85"/>
+      <c r="J117" s="85" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A118" s="86">
+      <c r="A118" s="84">
         <v>45093</v>
       </c>
-      <c r="B118" s="87" t="s">
+      <c r="B118" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="C118" s="87" t="s">
+      <c r="C118" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="D118" s="87">
+      <c r="D118" s="85">
         <v>74200</v>
       </c>
-      <c r="E118" s="87">
+      <c r="E118" s="85">
         <v>13356</v>
       </c>
-      <c r="F118" s="87"/>
-      <c r="G118" s="87"/>
-      <c r="H118" s="87">
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85">
         <f t="shared" si="5"/>
         <v>87556</v>
       </c>
-      <c r="I118" s="87"/>
-      <c r="J118" s="87" t="s">
+      <c r="I118" s="85"/>
+      <c r="J118" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A119" s="86">
+      <c r="A119" s="84">
         <v>45099</v>
       </c>
-      <c r="B119" s="87" t="s">
+      <c r="B119" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="87" t="s">
+      <c r="C119" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="D119" s="87">
+      <c r="D119" s="85">
         <v>34050</v>
       </c>
-      <c r="E119" s="87">
+      <c r="E119" s="85">
         <v>6129</v>
       </c>
-      <c r="F119" s="87"/>
-      <c r="G119" s="87"/>
-      <c r="H119" s="87">
+      <c r="F119" s="85"/>
+      <c r="G119" s="85"/>
+      <c r="H119" s="85">
         <f t="shared" si="5"/>
         <v>40179</v>
       </c>
-      <c r="I119" s="87"/>
-      <c r="J119" s="87" t="s">
+      <c r="I119" s="85"/>
+      <c r="J119" s="85" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A120" s="94" t="s">
+    <row r="120" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A120" s="107">
+        <v>45105</v>
+      </c>
+      <c r="B120" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D120" s="109">
+        <v>592.37</v>
+      </c>
+      <c r="E120" s="109">
+        <v>106.62</v>
+      </c>
+      <c r="F120" s="109"/>
+      <c r="G120" s="109"/>
+      <c r="H120" s="109">
+        <f t="shared" si="5"/>
+        <v>698.99</v>
+      </c>
+      <c r="I120" s="109"/>
+      <c r="J120" s="108" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A121" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B120" s="95"/>
-      <c r="C120" s="96"/>
-      <c r="D120" s="30">
-        <f>SUM(D103:D119)</f>
-        <v>377337.12</v>
-      </c>
-      <c r="E120" s="30">
-        <f>SUM(E103:E118)</f>
-        <v>56080.41</v>
-      </c>
-      <c r="F120" s="30">
-        <f>SUM(F103:F118)</f>
+      <c r="B121" s="93"/>
+      <c r="C121" s="94"/>
+      <c r="D121" s="30">
+        <f>SUM(D103:D120)</f>
+        <v>377929.49</v>
+      </c>
+      <c r="E121" s="30">
+        <f>SUM(E103:E120)</f>
+        <v>62316.030000000006</v>
+      </c>
+      <c r="F121" s="30">
+        <f>SUM(F103:F120)</f>
         <v>3538.86</v>
       </c>
-      <c r="G120" s="30">
-        <f>SUM(G103:G118)</f>
+      <c r="G121" s="30">
+        <f>SUM(G103:G120)</f>
         <v>3538.86</v>
       </c>
-      <c r="H120" s="30">
-        <f>SUM(H103:H118)</f>
-        <v>406445.25</v>
-      </c>
-      <c r="I120" s="30"/>
-      <c r="J120" s="30"/>
-    </row>
-    <row r="121" spans="1:10" s="6" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A121" s="78"/>
-      <c r="B121" s="78"/>
-      <c r="C121" s="78"/>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="79"/>
-      <c r="H121" s="79"/>
-      <c r="I121" s="79"/>
-      <c r="J121" s="79"/>
-    </row>
-    <row r="123" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A123" s="21">
+      <c r="H121" s="30">
+        <f>SUM(H103:H120)</f>
+        <v>447323.24</v>
+      </c>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
+    </row>
+    <row r="122" spans="1:10" s="78" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A122" s="110"/>
+      <c r="B122" s="110"/>
+      <c r="C122" s="110"/>
+      <c r="D122" s="111"/>
+      <c r="E122" s="112">
+        <f>F100+G100</f>
+        <v>298312.2</v>
+      </c>
+      <c r="F122" s="112">
+        <f>E121+F121+G121</f>
+        <v>69393.75</v>
+      </c>
+      <c r="G122" s="112">
+        <f>E122-F122</f>
+        <v>228918.45</v>
+      </c>
+      <c r="H122" s="111"/>
+      <c r="I122" s="111"/>
+      <c r="J122" s="111"/>
+    </row>
+    <row r="124" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A124" s="21">
         <v>44840</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="B124" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C124" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D123" s="23">
+      <c r="D124" s="23">
         <v>1850</v>
-      </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="G123" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="H123" s="8">
-        <f t="shared" ref="H123:H128" si="6">D123+E123+F123+G123</f>
-        <v>2183</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J123" s="9"/>
-    </row>
-    <row r="124" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A124" s="21">
-        <v>44841</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D124" s="23">
-        <v>55015</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="G124" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="H124" s="8">
+        <f t="shared" ref="H124:H129" si="6">D124+E124+F124+G124</f>
+        <v>2183</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A125" s="21">
+        <v>44841</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="23">
+        <v>55015</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G125" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H124" s="8">
+      <c r="H125" s="8">
         <f t="shared" si="6"/>
         <v>64917.7</v>
       </c>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-    </row>
-    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A125" s="21">
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A126" s="21">
         <v>44875</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B126" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C126" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D125" s="23">
+      <c r="D126" s="23">
         <v>2279250</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8">
+      <c r="E126" s="8"/>
+      <c r="F126" s="8">
         <v>205132.5</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G126" s="8">
         <v>205132.5</v>
       </c>
-      <c r="H125" s="8">
+      <c r="H126" s="8">
         <f t="shared" si="6"/>
         <v>2689515</v>
       </c>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-    </row>
-    <row r="126" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A126" s="21">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A127" s="21">
         <v>44932</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B127" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C127" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D127" s="23">
         <v>900</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8">
         <v>81</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G127" s="8">
         <v>81</v>
       </c>
-      <c r="H126" s="8">
+      <c r="H127" s="8">
         <f t="shared" si="6"/>
         <v>1062</v>
       </c>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-    </row>
-    <row r="127" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A127" s="21">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A128" s="21">
         <v>44965</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B128" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C128" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="23">
+      <c r="D128" s="23">
         <v>7200</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8">
+      <c r="E128" s="8"/>
+      <c r="F128" s="8">
         <v>648</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G128" s="8">
         <v>648</v>
       </c>
-      <c r="H127" s="8">
+      <c r="H128" s="8">
         <f t="shared" si="6"/>
         <v>8496</v>
       </c>
-      <c r="I127" s="9" t="s">
+      <c r="I128" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J127" s="9"/>
-    </row>
-    <row r="128" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A128" s="21">
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A129" s="21">
         <v>44977</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B129" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C129" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D128" s="23">
+      <c r="D129" s="23">
         <v>1819490</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8">
+      <c r="E129" s="8"/>
+      <c r="F129" s="8">
         <v>163754.1</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G129" s="8">
         <v>163754.1</v>
       </c>
-      <c r="H128" s="8">
+      <c r="H129" s="8">
         <f t="shared" si="6"/>
         <v>2146998.2000000002</v>
       </c>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A121:C121"/>
     <mergeCell ref="A100:C100"/>
     <mergeCell ref="A101:J101"/>
-    <mergeCell ref="A120:C120"/>
     <mergeCell ref="A91:H91"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -4808,30 +4879,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -4966,11 +5037,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -4995,18 +5066,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="93"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -5185,11 +5256,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5219,30 +5290,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="99"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="97"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="93"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -5335,11 +5406,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -5364,18 +5435,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="93"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="91"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -5686,11 +5757,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -5715,30 +5786,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="97" t="s">
+      <c r="A67" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="98"/>
-      <c r="H67" s="98"/>
-      <c r="I67" s="98"/>
-      <c r="J67" s="99"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="97"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="91" t="s">
+      <c r="A68" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="93"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="91"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -5807,11 +5878,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="104" t="s">
+      <c r="A73" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="104"/>
-      <c r="C73" s="104"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="102"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -5836,18 +5907,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="91" t="s">
+      <c r="A74" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="92"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="93"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="91"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -6098,11 +6169,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="105" t="s">
+      <c r="A94" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="105"/>
-      <c r="C94" s="105"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="104"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6128,12 +6199,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6143,6 +6208,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6172,30 +6243,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
+      <c r="A2" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6312,11 +6383,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6341,18 +6412,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="93"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6471,11 +6542,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6500,30 +6571,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="99"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="97"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="91"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -6628,11 +6699,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -6657,18 +6728,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="93"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="91"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -6979,11 +7050,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="94" t="s">
+      <c r="A59" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="95"/>
-      <c r="C59" s="96"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="94"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7008,30 +7079,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="98"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="98"/>
-      <c r="I61" s="98"/>
-      <c r="J61" s="99"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="97"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="91" t="s">
+      <c r="A62" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="93"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="91"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7160,11 +7231,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="90" t="s">
+      <c r="A72" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="90"/>
-      <c r="C72" s="90"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7189,18 +7260,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="91" t="s">
+      <c r="A73" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="93"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="91"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7511,11 +7582,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="94" t="s">
+      <c r="A98" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="95"/>
-      <c r="C98" s="96"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="94"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7540,21 +7611,26 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="108"/>
-      <c r="B100" s="108"/>
-      <c r="C100" s="108"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="108"/>
+      <c r="A100" s="106"/>
+      <c r="B100" s="106"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="108"/>
-      <c r="B108" s="108"/>
-      <c r="C108" s="108"/>
-      <c r="D108" s="108"/>
-      <c r="E108" s="108"/>
+      <c r="A108" s="106"/>
+      <c r="B108" s="106"/>
+      <c r="C108" s="106"/>
+      <c r="D108" s="106"/>
+      <c r="E108" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7567,11 +7643,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7601,30 +7672,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -7759,11 +7830,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -7788,18 +7859,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="93"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -7978,11 +8049,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8012,30 +8083,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="99"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="97"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="93"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8128,11 +8199,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8157,18 +8228,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="93"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="91"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8479,11 +8550,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8508,30 +8579,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="97" t="s">
+      <c r="A67" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="98"/>
-      <c r="H67" s="98"/>
-      <c r="I67" s="98"/>
-      <c r="J67" s="99"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="97"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="91" t="s">
+      <c r="A68" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="93"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="91"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8600,11 +8671,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="104" t="s">
+      <c r="A73" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="104"/>
-      <c r="C73" s="104"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="102"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -8629,18 +8700,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="91" t="s">
+      <c r="A74" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="92"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="93"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="91"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -8891,11 +8962,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="105" t="s">
+      <c r="A94" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="105"/>
-      <c r="C94" s="105"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="104"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -8921,12 +8992,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -8936,6 +9001,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -1106,6 +1106,33 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1118,15 +1145,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1151,35 +1169,17 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,7 +1464,7 @@
   <dimension ref="A2:J129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1483,30 +1483,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1726,11 +1726,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1755,18 +1755,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2554,11 +2554,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="99" t="s">
+      <c r="A42" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2583,30 +2583,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="97"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="103"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="91"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="100"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2882,11 +2882,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="88" t="s">
+      <c r="A56" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -2911,18 +2911,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="89" t="s">
+      <c r="A57" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="91"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="100"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3760,11 +3760,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="92" t="s">
+      <c r="A88" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="93"/>
-      <c r="C88" s="94"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="96"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3789,30 +3789,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="95" t="s">
+      <c r="A90" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="96"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="96"/>
-      <c r="E90" s="96"/>
-      <c r="F90" s="96"/>
-      <c r="G90" s="96"/>
-      <c r="H90" s="96"/>
-      <c r="I90" s="96"/>
-      <c r="J90" s="97"/>
+      <c r="B90" s="102"/>
+      <c r="C90" s="102"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="102"/>
+      <c r="F90" s="102"/>
+      <c r="G90" s="102"/>
+      <c r="H90" s="102"/>
+      <c r="I90" s="102"/>
+      <c r="J90" s="103"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="89" t="s">
+      <c r="A91" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="90"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="91"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="99"/>
+      <c r="H91" s="100"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4034,11 +4034,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="88" t="s">
+      <c r="A100" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="88"/>
-      <c r="C100" s="88"/>
+      <c r="B100" s="97"/>
+      <c r="C100" s="97"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4063,18 +4063,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="89" t="s">
+      <c r="A101" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="90"/>
-      <c r="C101" s="90"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="90"/>
-      <c r="H101" s="90"/>
-      <c r="I101" s="90"/>
-      <c r="J101" s="91"/>
+      <c r="B101" s="99"/>
+      <c r="C101" s="99"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="100"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4590,38 +4590,38 @@
       </c>
     </row>
     <row r="120" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A120" s="107">
+      <c r="A120" s="88">
         <v>45105</v>
       </c>
-      <c r="B120" s="108" t="s">
+      <c r="B120" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="108" t="s">
+      <c r="C120" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="D120" s="109">
+      <c r="D120" s="90">
         <v>592.37</v>
       </c>
-      <c r="E120" s="109">
+      <c r="E120" s="90">
         <v>106.62</v>
       </c>
-      <c r="F120" s="109"/>
-      <c r="G120" s="109"/>
-      <c r="H120" s="109">
+      <c r="F120" s="90"/>
+      <c r="G120" s="90"/>
+      <c r="H120" s="90">
         <f t="shared" si="5"/>
         <v>698.99</v>
       </c>
-      <c r="I120" s="109"/>
-      <c r="J120" s="108" t="s">
+      <c r="I120" s="90"/>
+      <c r="J120" s="89" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A121" s="92" t="s">
+      <c r="A121" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="93"/>
-      <c r="C121" s="94"/>
+      <c r="B121" s="95"/>
+      <c r="C121" s="96"/>
       <c r="D121" s="30">
         <f>SUM(D103:D120)</f>
         <v>377929.49</v>
@@ -4646,25 +4646,25 @@
       <c r="J121" s="30"/>
     </row>
     <row r="122" spans="1:10" s="78" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A122" s="110"/>
-      <c r="B122" s="110"/>
-      <c r="C122" s="110"/>
-      <c r="D122" s="111"/>
-      <c r="E122" s="112">
+      <c r="A122" s="91"/>
+      <c r="B122" s="91"/>
+      <c r="C122" s="91"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="93">
         <f>F100+G100</f>
         <v>298312.2</v>
       </c>
-      <c r="F122" s="112">
+      <c r="F122" s="93">
         <f>E121+F121+G121</f>
         <v>69393.75</v>
       </c>
-      <c r="G122" s="112">
+      <c r="G122" s="93">
         <f>E122-F122</f>
         <v>228918.45</v>
       </c>
-      <c r="H122" s="111"/>
-      <c r="I122" s="111"/>
-      <c r="J122" s="111"/>
+      <c r="H122" s="92"/>
+      <c r="I122" s="92"/>
+      <c r="J122" s="92"/>
     </row>
     <row r="124" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A124" s="21">
@@ -4879,30 +4879,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5037,11 +5037,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -5066,18 +5066,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -5256,11 +5256,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5290,30 +5290,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="97"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="103"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="91"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="100"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -5406,11 +5406,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -5435,18 +5435,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -5757,11 +5757,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="105" t="s">
+      <c r="A65" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -5786,30 +5786,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="95" t="s">
+      <c r="A67" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="96"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="97"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="103"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="91"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="100"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -5878,11 +5878,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="102" t="s">
+      <c r="A73" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="102"/>
-      <c r="C73" s="102"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="108"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -5907,18 +5907,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="90"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="91"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="100"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -6169,11 +6169,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="104" t="s">
+      <c r="A94" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="104"/>
-      <c r="C94" s="104"/>
+      <c r="B94" s="109"/>
+      <c r="C94" s="109"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6199,6 +6199,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6208,12 +6214,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6243,30 +6243,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6383,11 +6383,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6412,18 +6412,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6542,11 +6542,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6571,30 +6571,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="97"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="103"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="100"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -6699,11 +6699,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -6728,18 +6728,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="91"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="100"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7050,11 +7050,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="92" t="s">
+      <c r="A59" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="93"/>
-      <c r="C59" s="94"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="96"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7079,30 +7079,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="95" t="s">
+      <c r="A61" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="96"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="97"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="103"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="91"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="100"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7231,11 +7231,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="88" t="s">
+      <c r="A72" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="88"/>
-      <c r="C72" s="88"/>
+      <c r="B72" s="97"/>
+      <c r="C72" s="97"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7260,18 +7260,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="89" t="s">
+      <c r="A73" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="90"/>
-      <c r="C73" s="90"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="90"/>
-      <c r="I73" s="90"/>
-      <c r="J73" s="91"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="99"/>
+      <c r="J73" s="100"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7582,11 +7582,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="92" t="s">
+      <c r="A98" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="93"/>
-      <c r="C98" s="94"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="96"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7611,26 +7611,21 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="106"/>
-      <c r="B100" s="106"/>
-      <c r="C100" s="106"/>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
+      <c r="A100" s="112"/>
+      <c r="B100" s="112"/>
+      <c r="C100" s="112"/>
+      <c r="D100" s="112"/>
+      <c r="E100" s="112"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="106"/>
-      <c r="B108" s="106"/>
-      <c r="C108" s="106"/>
-      <c r="D108" s="106"/>
-      <c r="E108" s="106"/>
+      <c r="A108" s="112"/>
+      <c r="B108" s="112"/>
+      <c r="C108" s="112"/>
+      <c r="D108" s="112"/>
+      <c r="E108" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7643,6 +7638,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7672,30 +7672,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -7830,11 +7830,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -7859,18 +7859,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8049,11 +8049,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8083,30 +8083,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="97"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="103"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="91"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="100"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8199,11 +8199,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8228,18 +8228,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8550,11 +8550,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="105" t="s">
+      <c r="A65" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8579,30 +8579,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="95" t="s">
+      <c r="A67" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="96"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="97"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="103"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="91"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="100"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8671,11 +8671,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="102" t="s">
+      <c r="A73" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="102"/>
-      <c r="C73" s="102"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="108"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -8700,18 +8700,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="90"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="91"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="100"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -8962,11 +8962,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="104" t="s">
+      <c r="A94" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="104"/>
-      <c r="C94" s="104"/>
+      <c r="B94" s="109"/>
+      <c r="C94" s="109"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -8992,6 +8992,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9001,12 +9007,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="193">
   <si>
     <t>APRIL</t>
   </si>
@@ -595,6 +595,12 @@
   </si>
   <si>
     <t>BLR8-2645</t>
+  </si>
+  <si>
+    <t>26AAACC2498P3Z3</t>
+  </si>
+  <si>
+    <t>ACBOI18687</t>
   </si>
 </sst>
 </file>
@@ -843,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1106,15 +1112,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1169,17 +1166,29 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J129"/>
+  <dimension ref="A2:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1483,30 +1492,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
+      <c r="A2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1726,11 +1735,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1755,18 +1764,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="97"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2554,11 +2563,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="105" t="s">
+      <c r="A42" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="107"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2583,30 +2592,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="103"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="100"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="100"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="97"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2882,11 +2891,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -2911,18 +2920,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="98" t="s">
+      <c r="A57" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="100"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="97"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3760,11 +3769,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="94" t="s">
+      <c r="A88" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="95"/>
-      <c r="C88" s="96"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="93"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3789,30 +3798,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="101" t="s">
+      <c r="A90" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="102"/>
-      <c r="C90" s="102"/>
-      <c r="D90" s="102"/>
-      <c r="E90" s="102"/>
-      <c r="F90" s="102"/>
-      <c r="G90" s="102"/>
-      <c r="H90" s="102"/>
-      <c r="I90" s="102"/>
-      <c r="J90" s="103"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="99"/>
+      <c r="H90" s="99"/>
+      <c r="I90" s="99"/>
+      <c r="J90" s="100"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="98" t="s">
+      <c r="A91" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="99"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="99"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="99"/>
-      <c r="G91" s="99"/>
-      <c r="H91" s="100"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="96"/>
+      <c r="G91" s="96"/>
+      <c r="H91" s="97"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4034,11 +4043,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="97" t="s">
+      <c r="A100" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="97"/>
-      <c r="C100" s="97"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="94"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4063,18 +4072,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="98" t="s">
+      <c r="A101" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="99"/>
-      <c r="C101" s="99"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="99"/>
-      <c r="H101" s="99"/>
-      <c r="I101" s="99"/>
-      <c r="J101" s="100"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="96"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="96"/>
+      <c r="G101" s="96"/>
+      <c r="H101" s="96"/>
+      <c r="I101" s="96"/>
+      <c r="J101" s="97"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4129,7 +4138,7 @@
         <v>1257.5</v>
       </c>
       <c r="H103" s="85">
-        <f t="shared" ref="H103:H120" si="5">D103+E103+F103+G103</f>
+        <f t="shared" ref="H103:H121" si="5">D103+E103+F103+G103</f>
         <v>11500</v>
       </c>
       <c r="I103" s="85"/>
@@ -4590,251 +4599,278 @@
       </c>
     </row>
     <row r="120" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A120" s="88">
+      <c r="A120" s="110">
         <v>45105</v>
       </c>
-      <c r="B120" s="89" t="s">
+      <c r="B120" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="89" t="s">
+      <c r="C120" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="D120" s="90">
+      <c r="D120" s="112">
         <v>592.37</v>
       </c>
-      <c r="E120" s="90">
+      <c r="E120" s="112">
         <v>106.62</v>
       </c>
-      <c r="F120" s="90"/>
-      <c r="G120" s="90"/>
-      <c r="H120" s="90">
+      <c r="F120" s="112"/>
+      <c r="G120" s="112"/>
+      <c r="H120" s="112">
         <f t="shared" si="5"/>
         <v>698.99</v>
       </c>
-      <c r="I120" s="90"/>
-      <c r="J120" s="89" t="s">
+      <c r="I120" s="112"/>
+      <c r="J120" s="111" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A121" s="94" t="s">
+    <row r="121" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A121" s="113">
+        <v>45107</v>
+      </c>
+      <c r="B121" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="D121" s="81">
+        <v>100</v>
+      </c>
+      <c r="E121" s="81">
+        <v>18</v>
+      </c>
+      <c r="F121" s="81"/>
+      <c r="G121" s="81"/>
+      <c r="H121" s="81">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="I121" s="81"/>
+      <c r="J121" s="80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A122" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="95"/>
-      <c r="C121" s="96"/>
-      <c r="D121" s="30">
-        <f>SUM(D103:D120)</f>
-        <v>377929.49</v>
-      </c>
-      <c r="E121" s="30">
-        <f>SUM(E103:E120)</f>
-        <v>62316.030000000006</v>
-      </c>
-      <c r="F121" s="30">
-        <f>SUM(F103:F120)</f>
+      <c r="B122" s="103"/>
+      <c r="C122" s="104"/>
+      <c r="D122" s="29">
+        <f>SUM(D103:D121)</f>
+        <v>378029.49</v>
+      </c>
+      <c r="E122" s="29">
+        <f>SUM(E103:E121)</f>
+        <v>62334.030000000006</v>
+      </c>
+      <c r="F122" s="29">
+        <f>SUM(F103:F121)</f>
         <v>3538.86</v>
       </c>
-      <c r="G121" s="30">
-        <f>SUM(G103:G120)</f>
+      <c r="G122" s="29">
+        <f>SUM(G103:G121)</f>
         <v>3538.86</v>
       </c>
-      <c r="H121" s="30">
-        <f>SUM(H103:H120)</f>
-        <v>447323.24</v>
-      </c>
-      <c r="I121" s="30"/>
-      <c r="J121" s="30"/>
-    </row>
-    <row r="122" spans="1:10" s="78" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A122" s="91"/>
-      <c r="B122" s="91"/>
-      <c r="C122" s="91"/>
-      <c r="D122" s="92"/>
-      <c r="E122" s="93">
+      <c r="H122" s="29">
+        <f>SUM(H103:H121)</f>
+        <v>447441.24</v>
+      </c>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+    </row>
+    <row r="123" spans="1:10" s="78" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A123" s="88"/>
+      <c r="B123" s="88"/>
+      <c r="C123" s="88"/>
+      <c r="D123" s="89"/>
+      <c r="E123" s="90">
         <f>F100+G100</f>
         <v>298312.2</v>
       </c>
-      <c r="F122" s="93">
-        <f>E121+F121+G121</f>
-        <v>69393.75</v>
-      </c>
-      <c r="G122" s="93">
-        <f>E122-F122</f>
-        <v>228918.45</v>
-      </c>
-      <c r="H122" s="92"/>
-      <c r="I122" s="92"/>
-      <c r="J122" s="92"/>
-    </row>
-    <row r="124" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A124" s="21">
+      <c r="F123" s="90">
+        <f>E122+F122+G122</f>
+        <v>69411.75</v>
+      </c>
+      <c r="G123" s="90">
+        <f>E123-F123</f>
+        <v>228900.45</v>
+      </c>
+      <c r="H123" s="89"/>
+      <c r="I123" s="89"/>
+      <c r="J123" s="89"/>
+    </row>
+    <row r="125" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A125" s="21">
         <v>44840</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B125" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C125" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="23">
+      <c r="D125" s="23">
         <v>1850</v>
-      </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="G124" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="H124" s="8">
-        <f t="shared" ref="H124:H129" si="6">D124+E124+F124+G124</f>
-        <v>2183</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J124" s="9"/>
-    </row>
-    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A125" s="21">
-        <v>44841</v>
-      </c>
-      <c r="B125" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D125" s="23">
-        <v>55015</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="G125" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="H125" s="8">
+        <f t="shared" ref="H125:H130" si="6">D125+E125+F125+G125</f>
+        <v>2183</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A126" s="21">
+        <v>44841</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="23">
+        <v>55015</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G126" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H125" s="8">
+      <c r="H126" s="8">
         <f t="shared" si="6"/>
         <v>64917.7</v>
       </c>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-    </row>
-    <row r="126" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A126" s="21">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A127" s="21">
         <v>44875</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B127" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C127" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D127" s="23">
         <v>2279250</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8">
         <v>205132.5</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G127" s="8">
         <v>205132.5</v>
       </c>
-      <c r="H126" s="8">
+      <c r="H127" s="8">
         <f t="shared" si="6"/>
         <v>2689515</v>
       </c>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-    </row>
-    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A127" s="21">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A128" s="21">
         <v>44932</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B128" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C128" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D127" s="23">
+      <c r="D128" s="23">
         <v>900</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8">
+      <c r="E128" s="8"/>
+      <c r="F128" s="8">
         <v>81</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G128" s="8">
         <v>81</v>
       </c>
-      <c r="H127" s="8">
+      <c r="H128" s="8">
         <f t="shared" si="6"/>
         <v>1062</v>
       </c>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-    </row>
-    <row r="128" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A128" s="21">
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A129" s="21">
         <v>44965</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B129" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C129" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D128" s="23">
+      <c r="D129" s="23">
         <v>7200</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8">
+      <c r="E129" s="8"/>
+      <c r="F129" s="8">
         <v>648</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G129" s="8">
         <v>648</v>
       </c>
-      <c r="H128" s="8">
+      <c r="H129" s="8">
         <f t="shared" si="6"/>
         <v>8496</v>
       </c>
-      <c r="I128" s="9" t="s">
+      <c r="I129" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J128" s="9"/>
-    </row>
-    <row r="129" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A129" s="21">
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A130" s="21">
         <v>44977</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B130" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C130" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D129" s="23">
+      <c r="D130" s="23">
         <v>1819490</v>
       </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8">
+      <c r="E130" s="8"/>
+      <c r="F130" s="8">
         <v>163754.1</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G130" s="8">
         <v>163754.1</v>
       </c>
-      <c r="H129" s="8">
+      <c r="H130" s="8">
         <f t="shared" si="6"/>
         <v>2146998.2000000002</v>
       </c>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
     <mergeCell ref="A100:C100"/>
     <mergeCell ref="A101:J101"/>
     <mergeCell ref="A91:H91"/>
@@ -4879,30 +4915,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5037,11 +5073,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -5066,18 +5102,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="97"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -5256,11 +5292,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5290,30 +5326,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="103"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="97"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -5406,11 +5442,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -5435,18 +5471,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="97"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -5757,11 +5793,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="110"/>
-      <c r="C65" s="110"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -5786,30 +5822,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="101" t="s">
+      <c r="A67" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="102"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="102"/>
-      <c r="I67" s="102"/>
-      <c r="J67" s="103"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="100"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="98" t="s">
+      <c r="A68" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="100"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="97"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -5878,11 +5914,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="108"/>
-      <c r="C73" s="108"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -5907,18 +5943,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="98" t="s">
+      <c r="A74" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="100"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="97"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -6169,11 +6205,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="109" t="s">
+      <c r="A94" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="109"/>
-      <c r="C94" s="109"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6199,12 +6235,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6214,6 +6244,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6243,30 +6279,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
+      <c r="A2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6383,11 +6419,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6412,18 +6448,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="97"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6542,11 +6578,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6571,30 +6607,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="100"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="100"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="97"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -6699,11 +6735,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -6728,18 +6764,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="98" t="s">
+      <c r="A34" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="100"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="97"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7050,11 +7086,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="94" t="s">
+      <c r="A59" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="95"/>
-      <c r="C59" s="96"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7079,30 +7115,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="101" t="s">
+      <c r="A61" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="102"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="102"/>
-      <c r="I61" s="102"/>
-      <c r="J61" s="103"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="100"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="100"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="97"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7231,11 +7267,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="97" t="s">
+      <c r="A72" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="97"/>
-      <c r="C72" s="97"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7260,18 +7296,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="98" t="s">
+      <c r="A73" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="99"/>
-      <c r="J73" s="100"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="97"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7582,11 +7618,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="94" t="s">
+      <c r="A98" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="95"/>
-      <c r="C98" s="96"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="93"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7611,21 +7647,26 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="112"/>
-      <c r="B100" s="112"/>
-      <c r="C100" s="112"/>
-      <c r="D100" s="112"/>
-      <c r="E100" s="112"/>
+      <c r="A100" s="109"/>
+      <c r="B100" s="109"/>
+      <c r="C100" s="109"/>
+      <c r="D100" s="109"/>
+      <c r="E100" s="109"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="112"/>
-      <c r="B108" s="112"/>
-      <c r="C108" s="112"/>
-      <c r="D108" s="112"/>
-      <c r="E108" s="112"/>
+      <c r="A108" s="109"/>
+      <c r="B108" s="109"/>
+      <c r="C108" s="109"/>
+      <c r="D108" s="109"/>
+      <c r="E108" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7638,11 +7679,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7672,30 +7708,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -7830,11 +7866,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -7859,18 +7895,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="97"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8049,11 +8085,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8083,30 +8119,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="103"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="97"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8199,11 +8235,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8228,18 +8264,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="97"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8550,11 +8586,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="110"/>
-      <c r="C65" s="110"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8579,30 +8615,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="101" t="s">
+      <c r="A67" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="102"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="102"/>
-      <c r="I67" s="102"/>
-      <c r="J67" s="103"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="100"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="98" t="s">
+      <c r="A68" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="100"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="97"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8671,11 +8707,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="108"/>
-      <c r="C73" s="108"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -8700,18 +8736,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="98" t="s">
+      <c r="A74" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="100"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="97"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -8962,11 +8998,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="109" t="s">
+      <c r="A94" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="109"/>
-      <c r="C94" s="109"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -8992,12 +9028,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9007,6 +9037,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="196">
   <si>
     <t>APRIL</t>
   </si>
@@ -601,6 +601,15 @@
   </si>
   <si>
     <t>ACBOI18687</t>
+  </si>
+  <si>
+    <t>UNIK BRAND</t>
+  </si>
+  <si>
+    <t>24LGSPS1794Q1ZY</t>
+  </si>
+  <si>
+    <t>IN-4750</t>
   </si>
 </sst>
 </file>
@@ -849,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1121,6 +1130,51 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1131,63 +1185,27 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1470,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J130"/>
+  <dimension ref="A2:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1492,30 +1510,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1735,11 +1753,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1764,18 +1782,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2563,11 +2581,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2592,30 +2610,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="100"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="104"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="97"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="101"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2891,11 +2909,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="94" t="s">
+      <c r="A56" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -2920,18 +2938,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="95" t="s">
+      <c r="A57" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="97"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="101"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3769,11 +3787,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="91" t="s">
+      <c r="A88" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="92"/>
-      <c r="C88" s="93"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="108"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3798,30 +3816,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="98" t="s">
+      <c r="A90" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="99"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="99"/>
-      <c r="E90" s="99"/>
-      <c r="F90" s="99"/>
-      <c r="G90" s="99"/>
-      <c r="H90" s="99"/>
-      <c r="I90" s="99"/>
-      <c r="J90" s="100"/>
+      <c r="B90" s="103"/>
+      <c r="C90" s="103"/>
+      <c r="D90" s="103"/>
+      <c r="E90" s="103"/>
+      <c r="F90" s="103"/>
+      <c r="G90" s="103"/>
+      <c r="H90" s="103"/>
+      <c r="I90" s="103"/>
+      <c r="J90" s="104"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="95" t="s">
+      <c r="A91" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="96"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="96"/>
-      <c r="E91" s="96"/>
-      <c r="F91" s="96"/>
-      <c r="G91" s="96"/>
-      <c r="H91" s="97"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="100"/>
+      <c r="D91" s="100"/>
+      <c r="E91" s="100"/>
+      <c r="F91" s="100"/>
+      <c r="G91" s="100"/>
+      <c r="H91" s="101"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4043,11 +4061,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="94" t="s">
+      <c r="A100" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="94"/>
-      <c r="C100" s="94"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="98"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4072,18 +4090,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="95" t="s">
+      <c r="A101" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="96"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="96"/>
-      <c r="F101" s="96"/>
-      <c r="G101" s="96"/>
-      <c r="H101" s="96"/>
-      <c r="I101" s="96"/>
-      <c r="J101" s="97"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="100"/>
+      <c r="E101" s="100"/>
+      <c r="F101" s="100"/>
+      <c r="G101" s="100"/>
+      <c r="H101" s="100"/>
+      <c r="I101" s="100"/>
+      <c r="J101" s="101"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4138,7 +4156,7 @@
         <v>1257.5</v>
       </c>
       <c r="H103" s="85">
-        <f t="shared" ref="H103:H121" si="5">D103+E103+F103+G103</f>
+        <f t="shared" ref="H103:H123" si="5">D103+E103+F103+G103</f>
         <v>11500</v>
       </c>
       <c r="I103" s="85"/>
@@ -4146,33 +4164,31 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A104" s="84">
-        <v>45080</v>
-      </c>
-      <c r="B104" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="C104" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="D104" s="85">
-        <v>1232.2</v>
-      </c>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85">
-        <v>110.9</v>
-      </c>
-      <c r="G104" s="85">
-        <v>110.9</v>
-      </c>
-      <c r="H104" s="85">
+    <row r="104" spans="1:10" s="6" customFormat="1" ht="30">
+      <c r="A104" s="114">
+        <v>45079</v>
+      </c>
+      <c r="B104" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="115">
+        <v>2881078018</v>
+      </c>
+      <c r="D104" s="58">
+        <v>960</v>
+      </c>
+      <c r="E104" s="58">
+        <v>48</v>
+      </c>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58">
         <f t="shared" si="5"/>
-        <v>1454.0000000000002</v>
-      </c>
-      <c r="I104" s="85"/>
-      <c r="J104" s="85" t="s">
-        <v>37</v>
+        <v>1008</v>
+      </c>
+      <c r="I104" s="58"/>
+      <c r="J104" s="115" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="15">
@@ -4183,21 +4199,21 @@
         <v>115</v>
       </c>
       <c r="C105" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D105" s="85">
-        <v>296.61</v>
+        <v>1232.2</v>
       </c>
       <c r="E105" s="85"/>
       <c r="F105" s="85">
-        <v>26.69</v>
+        <v>110.9</v>
       </c>
       <c r="G105" s="85">
-        <v>26.69</v>
+        <v>110.9</v>
       </c>
       <c r="H105" s="85">
         <f t="shared" si="5"/>
-        <v>349.99</v>
+        <v>1454.0000000000002</v>
       </c>
       <c r="I105" s="85"/>
       <c r="J105" s="85" t="s">
@@ -4208,27 +4224,29 @@
       <c r="A106" s="84">
         <v>45080</v>
       </c>
-      <c r="B106" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="C106" s="86" t="s">
-        <v>183</v>
+      <c r="B106" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="85" t="s">
+        <v>164</v>
       </c>
       <c r="D106" s="85">
-        <v>1100.8499999999999</v>
-      </c>
-      <c r="E106" s="85">
-        <v>198.15</v>
-      </c>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
+        <v>296.61</v>
+      </c>
+      <c r="E106" s="85"/>
+      <c r="F106" s="85">
+        <v>26.69</v>
+      </c>
+      <c r="G106" s="85">
+        <v>26.69</v>
+      </c>
       <c r="H106" s="85">
         <f t="shared" si="5"/>
-        <v>1299</v>
+        <v>349.99</v>
       </c>
       <c r="I106" s="85"/>
-      <c r="J106" s="86" t="s">
-        <v>182</v>
+      <c r="J106" s="85" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="6" customFormat="1" ht="15">
@@ -4236,84 +4254,82 @@
         <v>45080</v>
       </c>
       <c r="B107" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="C107" s="87" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="C107" s="86" t="s">
+        <v>183</v>
       </c>
       <c r="D107" s="85">
-        <v>2812.5</v>
-      </c>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85">
-        <v>393.75</v>
-      </c>
-      <c r="G107" s="85">
-        <v>393.75</v>
-      </c>
+        <v>1100.8499999999999</v>
+      </c>
+      <c r="E107" s="85">
+        <v>198.15</v>
+      </c>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
       <c r="H107" s="85">
         <f t="shared" si="5"/>
-        <v>3600</v>
+        <v>1299</v>
       </c>
       <c r="I107" s="85"/>
-      <c r="J107" s="87" t="s">
-        <v>72</v>
+      <c r="J107" s="86" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A108" s="84">
-        <v>45082</v>
-      </c>
-      <c r="B108" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C108" s="85" t="s">
-        <v>165</v>
+        <v>45080</v>
+      </c>
+      <c r="B108" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" s="87" t="s">
+        <v>184</v>
       </c>
       <c r="D108" s="85">
-        <v>11232</v>
-      </c>
-      <c r="E108" s="85">
-        <v>2021.76</v>
-      </c>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
+        <v>2812.5</v>
+      </c>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85">
+        <v>393.75</v>
+      </c>
+      <c r="G108" s="85">
+        <v>393.75</v>
+      </c>
       <c r="H108" s="85">
         <f t="shared" si="5"/>
-        <v>13253.76</v>
+        <v>3600</v>
       </c>
       <c r="I108" s="85"/>
-      <c r="J108" s="85" t="s">
-        <v>87</v>
+      <c r="J108" s="87" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A109" s="84">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="B109" s="85" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="C109" s="85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D109" s="85">
-        <v>275</v>
-      </c>
-      <c r="E109" s="85"/>
-      <c r="F109" s="85">
-        <v>24.75</v>
-      </c>
-      <c r="G109" s="85">
-        <v>24.75</v>
-      </c>
+        <v>11232</v>
+      </c>
+      <c r="E109" s="85">
+        <v>2021.76</v>
+      </c>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
       <c r="H109" s="85">
         <f t="shared" si="5"/>
-        <v>324.5</v>
+        <v>13253.76</v>
       </c>
       <c r="I109" s="85"/>
       <c r="J109" s="85" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="6" customFormat="1" ht="15">
@@ -4321,84 +4337,84 @@
         <v>45083</v>
       </c>
       <c r="B110" s="85" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C110" s="85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D110" s="85">
-        <v>142775</v>
-      </c>
-      <c r="E110" s="85">
-        <v>25699.5</v>
-      </c>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
+        <v>275</v>
+      </c>
+      <c r="E110" s="85"/>
+      <c r="F110" s="85">
+        <v>24.75</v>
+      </c>
+      <c r="G110" s="85">
+        <v>24.75</v>
+      </c>
       <c r="H110" s="85">
         <f t="shared" si="5"/>
-        <v>168474.5</v>
+        <v>324.5</v>
       </c>
       <c r="I110" s="85"/>
       <c r="J110" s="85" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A111" s="84">
         <v>45083</v>
       </c>
-      <c r="B111" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="C111" s="86" t="s">
-        <v>185</v>
+      <c r="B111" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="85" t="s">
+        <v>169</v>
       </c>
       <c r="D111" s="85">
-        <v>1875</v>
-      </c>
-      <c r="E111" s="85"/>
-      <c r="F111" s="85">
-        <v>262.5</v>
-      </c>
-      <c r="G111" s="85">
-        <v>262.5</v>
-      </c>
+        <v>142775</v>
+      </c>
+      <c r="E111" s="85">
+        <v>25699.5</v>
+      </c>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
       <c r="H111" s="85">
         <f t="shared" si="5"/>
-        <v>2400</v>
+        <v>168474.5</v>
       </c>
       <c r="I111" s="85"/>
-      <c r="J111" s="87" t="s">
-        <v>72</v>
+      <c r="J111" s="85" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A112" s="84">
-        <v>45086</v>
-      </c>
-      <c r="B112" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="85" t="s">
-        <v>170</v>
+        <v>45083</v>
+      </c>
+      <c r="B112" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" s="86" t="s">
+        <v>185</v>
       </c>
       <c r="D112" s="85">
-        <v>677.96</v>
+        <v>1875</v>
       </c>
       <c r="E112" s="85"/>
       <c r="F112" s="85">
-        <v>61.02</v>
+        <v>262.5</v>
       </c>
       <c r="G112" s="85">
-        <v>61.02</v>
+        <v>262.5</v>
       </c>
       <c r="H112" s="85">
         <f t="shared" si="5"/>
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="I112" s="85"/>
-      <c r="J112" s="85" t="s">
-        <v>37</v>
+      <c r="J112" s="87" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="6" customFormat="1" ht="15">
@@ -4406,57 +4422,57 @@
         <v>45086</v>
       </c>
       <c r="B113" s="85" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="C113" s="85" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D113" s="85">
-        <v>1175</v>
+        <v>677.96</v>
       </c>
       <c r="E113" s="85"/>
       <c r="F113" s="85">
-        <v>105.75</v>
+        <v>61.02</v>
       </c>
       <c r="G113" s="85">
-        <v>105.75</v>
+        <v>61.02</v>
       </c>
       <c r="H113" s="85">
         <f t="shared" si="5"/>
-        <v>1386.5</v>
+        <v>800</v>
       </c>
       <c r="I113" s="85"/>
       <c r="J113" s="85" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A114" s="84">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="B114" s="85" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C114" s="85" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D114" s="85">
-        <v>9400</v>
+        <v>1175</v>
       </c>
       <c r="E114" s="85"/>
       <c r="F114" s="85">
-        <v>846</v>
+        <v>105.75</v>
       </c>
       <c r="G114" s="85">
-        <v>846</v>
+        <v>105.75</v>
       </c>
       <c r="H114" s="85">
         <f t="shared" si="5"/>
-        <v>11092</v>
+        <v>1386.5</v>
       </c>
       <c r="I114" s="85"/>
       <c r="J114" s="85" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="6" customFormat="1" ht="15">
@@ -4464,413 +4480,469 @@
         <v>45087</v>
       </c>
       <c r="B115" s="85" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="C115" s="85" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D115" s="85">
-        <v>82250</v>
-      </c>
-      <c r="E115" s="85">
-        <v>14805</v>
-      </c>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
+        <v>9400</v>
+      </c>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85">
+        <v>846</v>
+      </c>
+      <c r="G115" s="85">
+        <v>846</v>
+      </c>
       <c r="H115" s="85">
         <f t="shared" si="5"/>
-        <v>97055</v>
+        <v>11092</v>
       </c>
       <c r="I115" s="85"/>
       <c r="J115" s="85" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A116" s="84">
-        <v>45089</v>
+        <v>45087</v>
       </c>
       <c r="B116" s="85" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="C116" s="85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D116" s="85">
-        <v>300</v>
-      </c>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85">
-        <v>27</v>
-      </c>
-      <c r="G116" s="85">
-        <v>27</v>
-      </c>
+        <v>82250</v>
+      </c>
+      <c r="E116" s="85">
+        <v>14805</v>
+      </c>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
       <c r="H116" s="85">
         <f t="shared" si="5"/>
-        <v>354</v>
+        <v>97055</v>
       </c>
       <c r="I116" s="85"/>
       <c r="J116" s="85" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A117" s="84">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="B117" s="85" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C117" s="85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D117" s="85">
-        <v>4700</v>
+        <v>300</v>
       </c>
       <c r="E117" s="85"/>
       <c r="F117" s="85">
-        <v>423</v>
+        <v>27</v>
       </c>
       <c r="G117" s="85">
-        <v>423</v>
+        <v>27</v>
       </c>
       <c r="H117" s="85">
         <f t="shared" si="5"/>
-        <v>5546</v>
+        <v>354</v>
       </c>
       <c r="I117" s="85"/>
       <c r="J117" s="85" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="6" customFormat="1" ht="15">
       <c r="A118" s="84">
-        <v>45093</v>
+        <v>45090</v>
       </c>
       <c r="B118" s="85" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="C118" s="85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D118" s="85">
-        <v>74200</v>
-      </c>
-      <c r="E118" s="85">
-        <v>13356</v>
-      </c>
-      <c r="F118" s="85"/>
-      <c r="G118" s="85"/>
+        <v>4700</v>
+      </c>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85">
+        <v>423</v>
+      </c>
+      <c r="G118" s="85">
+        <v>423</v>
+      </c>
       <c r="H118" s="85">
         <f t="shared" si="5"/>
-        <v>87556</v>
+        <v>5546</v>
       </c>
       <c r="I118" s="85"/>
       <c r="J118" s="85" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="6" customFormat="1" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="6" customFormat="1" ht="15.6" thickBot="1">
       <c r="A119" s="84">
-        <v>45099</v>
+        <v>45093</v>
       </c>
       <c r="B119" s="85" t="s">
         <v>105</v>
       </c>
       <c r="C119" s="85" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D119" s="85">
-        <v>34050</v>
+        <v>74200</v>
       </c>
       <c r="E119" s="85">
-        <v>6129</v>
+        <v>13356</v>
       </c>
       <c r="F119" s="85"/>
       <c r="G119" s="85"/>
       <c r="H119" s="85">
         <f t="shared" si="5"/>
-        <v>40179</v>
+        <v>87556</v>
       </c>
       <c r="I119" s="85"/>
       <c r="J119" s="85" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A120" s="110">
+    <row r="120" spans="1:10" s="6" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A120" s="114">
+        <v>45093</v>
+      </c>
+      <c r="B120" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120" s="116" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" s="58">
+        <v>170.48</v>
+      </c>
+      <c r="E120" s="58">
+        <v>8.52</v>
+      </c>
+      <c r="F120" s="58"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="58">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+      <c r="I120" s="58"/>
+      <c r="J120" s="115" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A121" s="84">
+        <v>45099</v>
+      </c>
+      <c r="B121" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="D121" s="85">
+        <v>34050</v>
+      </c>
+      <c r="E121" s="85">
+        <v>6129</v>
+      </c>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85">
+        <f t="shared" si="5"/>
+        <v>40179</v>
+      </c>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A122" s="91">
         <v>45105</v>
       </c>
-      <c r="B120" s="111" t="s">
+      <c r="B122" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="111" t="s">
+      <c r="C122" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="D120" s="112">
+      <c r="D122" s="93">
         <v>592.37</v>
       </c>
-      <c r="E120" s="112">
+      <c r="E122" s="93">
         <v>106.62</v>
       </c>
-      <c r="F120" s="112"/>
-      <c r="G120" s="112"/>
-      <c r="H120" s="112">
+      <c r="F122" s="93"/>
+      <c r="G122" s="93"/>
+      <c r="H122" s="93">
         <f t="shared" si="5"/>
         <v>698.99</v>
       </c>
-      <c r="I120" s="112"/>
-      <c r="J120" s="111" t="s">
+      <c r="I122" s="93"/>
+      <c r="J122" s="92" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="6" customFormat="1" ht="15">
-      <c r="A121" s="113">
+    <row r="123" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A123" s="94">
         <v>45107</v>
       </c>
-      <c r="B121" s="83" t="s">
+      <c r="B123" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C121" s="80" t="s">
+      <c r="C123" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D121" s="81">
+      <c r="D123" s="81">
         <v>100</v>
       </c>
-      <c r="E121" s="81">
+      <c r="E123" s="81">
         <v>18</v>
       </c>
-      <c r="F121" s="81"/>
-      <c r="G121" s="81"/>
-      <c r="H121" s="81">
+      <c r="F123" s="81"/>
+      <c r="G123" s="81"/>
+      <c r="H123" s="81">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="I121" s="81"/>
-      <c r="J121" s="80" t="s">
+      <c r="I123" s="81"/>
+      <c r="J123" s="80" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A122" s="102" t="s">
+    <row r="124" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A124" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="103"/>
-      <c r="C122" s="104"/>
-      <c r="D122" s="29">
-        <f>SUM(D103:D121)</f>
-        <v>378029.49</v>
-      </c>
-      <c r="E122" s="29">
-        <f>SUM(E103:E121)</f>
-        <v>62334.030000000006</v>
-      </c>
-      <c r="F122" s="29">
-        <f>SUM(F103:F121)</f>
+      <c r="B124" s="96"/>
+      <c r="C124" s="97"/>
+      <c r="D124" s="29">
+        <f>SUM(D103:D123)</f>
+        <v>379159.97</v>
+      </c>
+      <c r="E124" s="29">
+        <f>SUM(E103:E123)</f>
+        <v>62390.55</v>
+      </c>
+      <c r="F124" s="29">
+        <f>SUM(F103:F123)</f>
         <v>3538.86</v>
       </c>
-      <c r="G122" s="29">
-        <f>SUM(G103:G121)</f>
+      <c r="G124" s="29">
+        <f>SUM(G103:G123)</f>
         <v>3538.86</v>
       </c>
-      <c r="H122" s="29">
-        <f>SUM(H103:H121)</f>
-        <v>447441.24</v>
-      </c>
-      <c r="I122" s="29"/>
-      <c r="J122" s="29"/>
-    </row>
-    <row r="123" spans="1:10" s="78" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A123" s="88"/>
-      <c r="B123" s="88"/>
-      <c r="C123" s="88"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="90">
+      <c r="H124" s="29">
+        <f>SUM(H103:H123)</f>
+        <v>448628.24</v>
+      </c>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
+    </row>
+    <row r="125" spans="1:10" s="78" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A125" s="88"/>
+      <c r="B125" s="88"/>
+      <c r="C125" s="88"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="90">
         <f>F100+G100</f>
         <v>298312.2</v>
       </c>
-      <c r="F123" s="90">
-        <f>E122+F122+G122</f>
-        <v>69411.75</v>
-      </c>
-      <c r="G123" s="90">
-        <f>E123-F123</f>
-        <v>228900.45</v>
-      </c>
-      <c r="H123" s="89"/>
-      <c r="I123" s="89"/>
-      <c r="J123" s="89"/>
-    </row>
-    <row r="125" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A125" s="21">
+      <c r="F125" s="90">
+        <f>E124+F124+G124</f>
+        <v>69468.27</v>
+      </c>
+      <c r="G125" s="90">
+        <f>E125-F125</f>
+        <v>228843.93</v>
+      </c>
+      <c r="H125" s="89"/>
+      <c r="I125" s="89"/>
+      <c r="J125" s="89"/>
+    </row>
+    <row r="127" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A127" s="21">
         <v>44840</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B127" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C127" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D125" s="23">
+      <c r="D127" s="23">
         <v>1850</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8">
         <v>166.5</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G127" s="8">
         <v>166.5</v>
       </c>
-      <c r="H125" s="8">
-        <f t="shared" ref="H125:H130" si="6">D125+E125+F125+G125</f>
+      <c r="H127" s="8">
+        <f t="shared" ref="H127:H132" si="6">D127+E127+F127+G127</f>
         <v>2183</v>
       </c>
-      <c r="I125" s="9" t="s">
+      <c r="I127" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J125" s="9"/>
-    </row>
-    <row r="126" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A126" s="21">
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A128" s="21">
         <v>44841</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B128" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C128" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D128" s="23">
         <v>55015</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8">
+      <c r="E128" s="8"/>
+      <c r="F128" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G128" s="8">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H126" s="8">
+      <c r="H128" s="8">
         <f t="shared" si="6"/>
         <v>64917.7</v>
       </c>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-    </row>
-    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A127" s="21">
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A129" s="21">
         <v>44875</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B129" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C129" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D127" s="23">
+      <c r="D129" s="23">
         <v>2279250</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8">
+      <c r="E129" s="8"/>
+      <c r="F129" s="8">
         <v>205132.5</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G129" s="8">
         <v>205132.5</v>
       </c>
-      <c r="H127" s="8">
+      <c r="H129" s="8">
         <f t="shared" si="6"/>
         <v>2689515</v>
       </c>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-    </row>
-    <row r="128" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A128" s="21">
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A130" s="21">
         <v>44932</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B130" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C130" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D128" s="23">
+      <c r="D130" s="23">
         <v>900</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8">
+      <c r="E130" s="8"/>
+      <c r="F130" s="8">
         <v>81</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G130" s="8">
         <v>81</v>
       </c>
-      <c r="H128" s="8">
+      <c r="H130" s="8">
         <f t="shared" si="6"/>
         <v>1062</v>
       </c>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-    </row>
-    <row r="129" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A129" s="21">
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A131" s="21">
         <v>44965</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B131" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C131" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="23">
+      <c r="D131" s="23">
         <v>7200</v>
       </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8">
+      <c r="E131" s="8"/>
+      <c r="F131" s="8">
         <v>648</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G131" s="8">
         <v>648</v>
       </c>
-      <c r="H129" s="8">
+      <c r="H131" s="8">
         <f t="shared" si="6"/>
         <v>8496</v>
       </c>
-      <c r="I129" s="9" t="s">
+      <c r="I131" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J129" s="9"/>
-    </row>
-    <row r="130" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A130" s="21">
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A132" s="21">
         <v>44977</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B132" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C132" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D130" s="23">
+      <c r="D132" s="23">
         <v>1819490</v>
       </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8">
+      <c r="E132" s="8"/>
+      <c r="F132" s="8">
         <v>163754.1</v>
       </c>
-      <c r="G130" s="8">
+      <c r="G132" s="8">
         <v>163754.1</v>
       </c>
-      <c r="H130" s="8">
+      <c r="H132" s="8">
         <f t="shared" si="6"/>
         <v>2146998.2000000002</v>
       </c>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A124:C124"/>
     <mergeCell ref="A100:C100"/>
     <mergeCell ref="A101:J101"/>
     <mergeCell ref="A91:H91"/>
@@ -4915,30 +4987,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5073,11 +5145,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -5102,18 +5174,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="97"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -5292,11 +5364,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5326,30 +5398,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="100"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="104"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="97"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -5442,11 +5514,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -5471,18 +5543,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="97"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -5793,11 +5865,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="111"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -5822,30 +5894,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="98" t="s">
+      <c r="A67" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="100"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="104"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="95" t="s">
+      <c r="A68" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="96"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="97"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="101"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -5914,11 +5986,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="105" t="s">
+      <c r="A73" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="105"/>
-      <c r="C73" s="105"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="109"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -5943,18 +6015,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="95" t="s">
+      <c r="A74" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="96"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="97"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="100"/>
+      <c r="I74" s="100"/>
+      <c r="J74" s="101"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -6205,11 +6277,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="107" t="s">
+      <c r="A94" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="107"/>
-      <c r="C94" s="107"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="110"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6235,6 +6307,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6244,12 +6322,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6279,30 +6351,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6419,11 +6491,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6448,18 +6520,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6578,11 +6650,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="104"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6607,30 +6679,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="100"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="97"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -6735,11 +6807,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -6764,18 +6836,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="97"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="101"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7086,11 +7158,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="92"/>
-      <c r="C59" s="93"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="108"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7115,30 +7187,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="98" t="s">
+      <c r="A61" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="100"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="103"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="104"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="97"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="101"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7267,11 +7339,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="94" t="s">
+      <c r="A72" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7296,18 +7368,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="97"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="100"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="100"/>
+      <c r="G73" s="100"/>
+      <c r="H73" s="100"/>
+      <c r="I73" s="100"/>
+      <c r="J73" s="101"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7618,11 +7690,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="91" t="s">
+      <c r="A98" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="92"/>
-      <c r="C98" s="93"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="108"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7647,26 +7719,21 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="109"/>
-      <c r="B100" s="109"/>
-      <c r="C100" s="109"/>
-      <c r="D100" s="109"/>
-      <c r="E100" s="109"/>
+      <c r="A100" s="113"/>
+      <c r="B100" s="113"/>
+      <c r="C100" s="113"/>
+      <c r="D100" s="113"/>
+      <c r="E100" s="113"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="109"/>
-      <c r="B108" s="109"/>
-      <c r="C108" s="109"/>
-      <c r="D108" s="109"/>
-      <c r="E108" s="109"/>
+      <c r="A108" s="113"/>
+      <c r="B108" s="113"/>
+      <c r="C108" s="113"/>
+      <c r="D108" s="113"/>
+      <c r="E108" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7679,6 +7746,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7708,30 +7780,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -7866,11 +7938,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -7895,18 +7967,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="97"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8085,11 +8157,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8119,30 +8191,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="100"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="104"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="97"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8235,11 +8307,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8264,18 +8336,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="97"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8586,11 +8658,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="111"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8615,30 +8687,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="98" t="s">
+      <c r="A67" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="100"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="104"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="95" t="s">
+      <c r="A68" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="96"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="97"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="101"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8707,11 +8779,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="105" t="s">
+      <c r="A73" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="105"/>
-      <c r="C73" s="105"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="109"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -8736,18 +8808,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="95" t="s">
+      <c r="A74" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="96"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="97"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="100"/>
+      <c r="I74" s="100"/>
+      <c r="J74" s="101"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -8998,11 +9070,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="107" t="s">
+      <c r="A94" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="107"/>
-      <c r="C94" s="107"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="110"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -9028,6 +9100,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9037,12 +9115,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -1142,6 +1142,15 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1187,26 +1196,17 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1510,30 +1510,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
+      <c r="A2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1753,11 +1753,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1782,18 +1782,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2581,11 +2581,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2610,30 +2610,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="104"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="107"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="99" t="s">
+      <c r="A45" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="101"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="104"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2909,11 +2909,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="98" t="s">
+      <c r="A56" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -2938,18 +2938,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="99" t="s">
+      <c r="A57" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="101"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="104"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3787,11 +3787,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="106" t="s">
+      <c r="A88" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="107"/>
-      <c r="C88" s="108"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="111"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3816,30 +3816,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="102" t="s">
+      <c r="A90" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="103"/>
-      <c r="C90" s="103"/>
-      <c r="D90" s="103"/>
-      <c r="E90" s="103"/>
-      <c r="F90" s="103"/>
-      <c r="G90" s="103"/>
-      <c r="H90" s="103"/>
-      <c r="I90" s="103"/>
-      <c r="J90" s="104"/>
+      <c r="B90" s="106"/>
+      <c r="C90" s="106"/>
+      <c r="D90" s="106"/>
+      <c r="E90" s="106"/>
+      <c r="F90" s="106"/>
+      <c r="G90" s="106"/>
+      <c r="H90" s="106"/>
+      <c r="I90" s="106"/>
+      <c r="J90" s="107"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="99" t="s">
+      <c r="A91" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="100"/>
-      <c r="C91" s="100"/>
-      <c r="D91" s="100"/>
-      <c r="E91" s="100"/>
-      <c r="F91" s="100"/>
-      <c r="G91" s="100"/>
-      <c r="H91" s="101"/>
+      <c r="B91" s="103"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="103"/>
+      <c r="E91" s="103"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="103"/>
+      <c r="H91" s="104"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4061,11 +4061,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="98" t="s">
+      <c r="A100" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="98"/>
-      <c r="C100" s="98"/>
+      <c r="B100" s="101"/>
+      <c r="C100" s="101"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4090,18 +4090,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="99" t="s">
+      <c r="A101" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="100"/>
-      <c r="C101" s="100"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="100"/>
-      <c r="G101" s="100"/>
-      <c r="H101" s="100"/>
-      <c r="I101" s="100"/>
-      <c r="J101" s="101"/>
+      <c r="B101" s="103"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="103"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="104"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4165,13 +4165,13 @@
       </c>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A104" s="114">
+      <c r="A104" s="95">
         <v>45079</v>
       </c>
       <c r="B104" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C104" s="115">
+      <c r="C104" s="96">
         <v>2881078018</v>
       </c>
       <c r="D104" s="58">
@@ -4187,7 +4187,7 @@
         <v>1008</v>
       </c>
       <c r="I104" s="58"/>
-      <c r="J104" s="115" t="s">
+      <c r="J104" s="96" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4617,13 +4617,13 @@
       </c>
     </row>
     <row r="120" spans="1:10" s="6" customFormat="1" ht="15.6" thickBot="1">
-      <c r="A120" s="114">
+      <c r="A120" s="95">
         <v>45093</v>
       </c>
-      <c r="B120" s="115" t="s">
+      <c r="B120" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="C120" s="116" t="s">
+      <c r="C120" s="97" t="s">
         <v>195</v>
       </c>
       <c r="D120" s="58">
@@ -4639,7 +4639,7 @@
         <v>179</v>
       </c>
       <c r="I120" s="58"/>
-      <c r="J120" s="115" t="s">
+      <c r="J120" s="96" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4725,11 +4725,11 @@
       </c>
     </row>
     <row r="124" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A124" s="95" t="s">
+      <c r="A124" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B124" s="96"/>
-      <c r="C124" s="97"/>
+      <c r="B124" s="99"/>
+      <c r="C124" s="100"/>
       <c r="D124" s="29">
         <f>SUM(D103:D123)</f>
         <v>379159.97</v>
@@ -4987,30 +4987,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5145,11 +5145,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -5174,18 +5174,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="101"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -5364,11 +5364,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5398,30 +5398,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="104"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="107"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="101"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -5514,11 +5514,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -5543,18 +5543,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="99" t="s">
+      <c r="A40" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="101"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="104"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -5865,11 +5865,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="111" t="s">
+      <c r="A65" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="111"/>
-      <c r="C65" s="111"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -5894,30 +5894,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="103"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="103"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="104"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="106"/>
+      <c r="J67" s="107"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="99" t="s">
+      <c r="A68" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="101"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="104"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -5986,11 +5986,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="109" t="s">
+      <c r="A73" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="109"/>
-      <c r="C73" s="109"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -6015,18 +6015,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="99" t="s">
+      <c r="A74" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="100"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="100"/>
-      <c r="J74" s="101"/>
+      <c r="B74" s="103"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="104"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -6277,11 +6277,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="110" t="s">
+      <c r="A94" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="110"/>
-      <c r="C94" s="110"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6307,12 +6307,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6322,6 +6316,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6351,30 +6351,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
+      <c r="A2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6491,11 +6491,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6520,18 +6520,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6650,11 +6650,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6679,30 +6679,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="104"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -6807,11 +6807,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -6836,18 +6836,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="101"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="104"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7158,11 +7158,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="106" t="s">
+      <c r="A59" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="107"/>
-      <c r="C59" s="108"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="111"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7187,30 +7187,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="103"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="104"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="107"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="99" t="s">
+      <c r="A62" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="101"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="104"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7339,11 +7339,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="98" t="s">
+      <c r="A72" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
+      <c r="B72" s="101"/>
+      <c r="C72" s="101"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7368,18 +7368,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="99" t="s">
+      <c r="A73" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="100"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="100"/>
-      <c r="F73" s="100"/>
-      <c r="G73" s="100"/>
-      <c r="H73" s="100"/>
-      <c r="I73" s="100"/>
-      <c r="J73" s="101"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="103"/>
+      <c r="J73" s="104"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7690,11 +7690,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="106" t="s">
+      <c r="A98" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="107"/>
-      <c r="C98" s="108"/>
+      <c r="B98" s="110"/>
+      <c r="C98" s="111"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7719,21 +7719,26 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="113"/>
-      <c r="B100" s="113"/>
-      <c r="C100" s="113"/>
-      <c r="D100" s="113"/>
-      <c r="E100" s="113"/>
+      <c r="A100" s="116"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="116"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="113"/>
-      <c r="B108" s="113"/>
-      <c r="C108" s="113"/>
-      <c r="D108" s="113"/>
-      <c r="E108" s="113"/>
+      <c r="A108" s="116"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="116"/>
+      <c r="D108" s="116"/>
+      <c r="E108" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7746,11 +7751,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7780,30 +7780,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -7938,11 +7938,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -7967,18 +7967,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="101"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8157,11 +8157,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8191,30 +8191,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="104"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="107"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="101"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8307,11 +8307,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8336,18 +8336,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="99" t="s">
+      <c r="A40" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="101"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="104"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8658,11 +8658,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="111" t="s">
+      <c r="A65" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="111"/>
-      <c r="C65" s="111"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8687,30 +8687,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="103"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="103"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="104"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="106"/>
+      <c r="J67" s="107"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="99" t="s">
+      <c r="A68" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="101"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="104"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8779,11 +8779,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="109" t="s">
+      <c r="A73" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="109"/>
-      <c r="C73" s="109"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -8808,18 +8808,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="99" t="s">
+      <c r="A74" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="100"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="100"/>
-      <c r="J74" s="101"/>
+      <c r="B74" s="103"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="104"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -9070,11 +9070,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="110" t="s">
+      <c r="A94" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="110"/>
-      <c r="C94" s="110"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -9100,12 +9100,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9115,6 +9109,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -1196,13 +1196,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1491,7 +1491,7 @@
   <dimension ref="A2:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5364,11 +5364,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5865,11 +5865,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -6277,11 +6277,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="114" t="s">
+      <c r="A94" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
+      <c r="B94" s="113"/>
+      <c r="C94" s="113"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6307,6 +6307,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6316,12 +6322,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7734,11 +7734,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7751,6 +7746,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8157,11 +8157,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8658,11 +8658,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -9070,11 +9070,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="114" t="s">
+      <c r="A94" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
+      <c r="B94" s="113"/>
+      <c r="C94" s="113"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -9100,6 +9100,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9109,12 +9115,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -1196,13 +1196,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1491,7 +1491,7 @@
   <dimension ref="A2:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5364,11 +5364,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5865,11 +5865,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="114" t="s">
+      <c r="A65" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="114"/>
-      <c r="C65" s="114"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -6277,11 +6277,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="113"/>
-      <c r="C94" s="113"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6307,12 +6307,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6322,6 +6316,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7734,6 +7734,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7746,11 +7751,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8157,11 +8157,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8658,11 +8658,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="114" t="s">
+      <c r="A65" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="114"/>
-      <c r="C65" s="114"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -9070,11 +9070,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="113" t="s">
+      <c r="A94" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="113"/>
-      <c r="C94" s="113"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -9100,12 +9100,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9115,6 +9109,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="196">
   <si>
     <t>APRIL</t>
   </si>
@@ -597,12 +597,6 @@
     <t>BLR8-2645</t>
   </si>
   <si>
-    <t>26AAACC2498P3Z3</t>
-  </si>
-  <si>
-    <t>ACBOI18687</t>
-  </si>
-  <si>
     <t>UNIK BRAND</t>
   </si>
   <si>
@@ -610,6 +604,12 @@
   </si>
   <si>
     <t>IN-4750</t>
+  </si>
+  <si>
+    <t>24301C0000032133</t>
+  </si>
+  <si>
+    <t>24301C0000032316</t>
   </si>
 </sst>
 </file>
@@ -1139,9 +1139,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,17 +1193,20 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1488,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J132"/>
+  <dimension ref="A2:J290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1510,30 +1510,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="A2" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1753,11 +1753,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1782,18 +1782,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="104"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2581,11 +2581,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2610,30 +2610,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="107"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="106"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="104"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="103"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2909,11 +2909,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="101" t="s">
+      <c r="A56" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -2938,18 +2938,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="104"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="102"/>
+      <c r="J57" s="103"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3787,11 +3787,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="109" t="s">
+      <c r="A88" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="110"/>
-      <c r="C88" s="111"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="110"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3816,30 +3816,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="105" t="s">
+      <c r="A90" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="106"/>
-      <c r="C90" s="106"/>
-      <c r="D90" s="106"/>
-      <c r="E90" s="106"/>
-      <c r="F90" s="106"/>
-      <c r="G90" s="106"/>
-      <c r="H90" s="106"/>
-      <c r="I90" s="106"/>
-      <c r="J90" s="107"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="105"/>
+      <c r="G90" s="105"/>
+      <c r="H90" s="105"/>
+      <c r="I90" s="105"/>
+      <c r="J90" s="106"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="102" t="s">
+      <c r="A91" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="103"/>
-      <c r="C91" s="103"/>
-      <c r="D91" s="103"/>
-      <c r="E91" s="103"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="104"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="102"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="102"/>
+      <c r="F91" s="102"/>
+      <c r="G91" s="102"/>
+      <c r="H91" s="103"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4061,11 +4061,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="101" t="s">
+      <c r="A100" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="101"/>
-      <c r="C100" s="101"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="100"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4090,18 +4090,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="102" t="s">
+      <c r="A101" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="103"/>
-      <c r="C101" s="103"/>
-      <c r="D101" s="103"/>
-      <c r="E101" s="103"/>
-      <c r="F101" s="103"/>
-      <c r="G101" s="103"/>
-      <c r="H101" s="103"/>
-      <c r="I101" s="103"/>
-      <c r="J101" s="104"/>
+      <c r="B101" s="102"/>
+      <c r="C101" s="102"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="102"/>
+      <c r="H101" s="102"/>
+      <c r="I101" s="102"/>
+      <c r="J101" s="103"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4156,7 +4156,7 @@
         <v>1257.5</v>
       </c>
       <c r="H103" s="85">
-        <f t="shared" ref="H103:H123" si="5">D103+E103+F103+G103</f>
+        <f t="shared" ref="H103:H124" si="5">D103+E103+F103+G103</f>
         <v>11500</v>
       </c>
       <c r="I103" s="85"/>
@@ -4165,13 +4165,13 @@
       </c>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="30">
-      <c r="A104" s="95">
+      <c r="A104" s="94">
         <v>45079</v>
       </c>
       <c r="B104" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C104" s="96">
+      <c r="C104" s="95">
         <v>2881078018</v>
       </c>
       <c r="D104" s="58">
@@ -4187,7 +4187,7 @@
         <v>1008</v>
       </c>
       <c r="I104" s="58"/>
-      <c r="J104" s="96" t="s">
+      <c r="J104" s="95" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4617,14 +4617,14 @@
       </c>
     </row>
     <row r="120" spans="1:10" s="6" customFormat="1" ht="15.6" thickBot="1">
-      <c r="A120" s="95">
+      <c r="A120" s="94">
         <v>45093</v>
       </c>
-      <c r="B120" s="96" t="s">
+      <c r="B120" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" s="96" t="s">
         <v>193</v>
-      </c>
-      <c r="C120" s="97" t="s">
-        <v>195</v>
       </c>
       <c r="D120" s="58">
         <v>170.48</v>
@@ -4639,8 +4639,8 @@
         <v>179</v>
       </c>
       <c r="I120" s="58"/>
-      <c r="J120" s="96" t="s">
-        <v>194</v>
+      <c r="J120" s="95" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="6" customFormat="1" ht="15">
@@ -4701,248 +4701,279 @@
       <c r="A123" s="94">
         <v>45107</v>
       </c>
-      <c r="B123" s="83" t="s">
+      <c r="B123" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="C123" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="D123" s="81">
-        <v>100</v>
-      </c>
-      <c r="E123" s="81">
-        <v>18</v>
-      </c>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
-      <c r="H123" s="81">
+      <c r="C123" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D123" s="58">
+        <v>300</v>
+      </c>
+      <c r="E123" s="58"/>
+      <c r="F123" s="58">
+        <v>27</v>
+      </c>
+      <c r="G123" s="58">
+        <v>27</v>
+      </c>
+      <c r="H123" s="58">
         <f t="shared" si="5"/>
-        <v>118</v>
-      </c>
-      <c r="I123" s="81"/>
-      <c r="J123" s="80" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A124" s="98" t="s">
+        <v>354</v>
+      </c>
+      <c r="I123" s="58"/>
+      <c r="J123" s="57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="6" customFormat="1" ht="15">
+      <c r="A124" s="94">
+        <v>45107</v>
+      </c>
+      <c r="B124" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" s="116" t="s">
+        <v>195</v>
+      </c>
+      <c r="D124" s="116">
+        <v>1767</v>
+      </c>
+      <c r="E124" s="58"/>
+      <c r="F124" s="58">
+        <v>159.03</v>
+      </c>
+      <c r="G124" s="58">
+        <v>159.03</v>
+      </c>
+      <c r="H124" s="58">
+        <f t="shared" si="5"/>
+        <v>2085.06</v>
+      </c>
+      <c r="I124" s="58"/>
+      <c r="J124" s="57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
+      <c r="A125" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B124" s="99"/>
-      <c r="C124" s="100"/>
-      <c r="D124" s="29">
-        <f>SUM(D103:D123)</f>
-        <v>379159.97</v>
-      </c>
-      <c r="E124" s="29">
-        <f>SUM(E103:E123)</f>
-        <v>62390.55</v>
-      </c>
-      <c r="F124" s="29">
-        <f>SUM(F103:F123)</f>
-        <v>3538.86</v>
-      </c>
-      <c r="G124" s="29">
-        <f>SUM(G103:G123)</f>
-        <v>3538.86</v>
-      </c>
-      <c r="H124" s="29">
-        <f>SUM(H103:H123)</f>
-        <v>448628.24</v>
-      </c>
-      <c r="I124" s="29"/>
-      <c r="J124" s="29"/>
-    </row>
-    <row r="125" spans="1:10" s="78" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A125" s="88"/>
-      <c r="B125" s="88"/>
-      <c r="C125" s="88"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="90">
+      <c r="B125" s="98"/>
+      <c r="C125" s="99"/>
+      <c r="D125" s="29">
+        <f>SUM(D103:D124)</f>
+        <v>381126.97</v>
+      </c>
+      <c r="E125" s="29">
+        <f>SUM(E103:E124)</f>
+        <v>62372.55</v>
+      </c>
+      <c r="F125" s="29">
+        <f>SUM(F103:F124)</f>
+        <v>3724.8900000000003</v>
+      </c>
+      <c r="G125" s="29">
+        <f>SUM(G103:G124)</f>
+        <v>3724.8900000000003</v>
+      </c>
+      <c r="H125" s="29">
+        <f>SUM(H103:H124)</f>
+        <v>450949.3</v>
+      </c>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+    </row>
+    <row r="128" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A128" s="21">
+        <v>44840</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="23">
+        <v>1850</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="G128" s="8">
+        <v>166.5</v>
+      </c>
+      <c r="H128" s="8">
+        <f t="shared" ref="H128:H133" si="6">D128+E128+F128+G128</f>
+        <v>2183</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A129" s="21">
+        <v>44841</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" s="23">
+        <v>55015</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8">
+        <v>4951.3500000000004</v>
+      </c>
+      <c r="G129" s="8">
+        <v>4951.3500000000004</v>
+      </c>
+      <c r="H129" s="8">
+        <f t="shared" si="6"/>
+        <v>64917.7</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A130" s="21">
+        <v>44875</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D130" s="23">
+        <v>2279250</v>
+      </c>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8">
+        <v>205132.5</v>
+      </c>
+      <c r="G130" s="8">
+        <v>205132.5</v>
+      </c>
+      <c r="H130" s="8">
+        <f t="shared" si="6"/>
+        <v>2689515</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A131" s="21">
+        <v>44932</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" s="23">
+        <v>900</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8">
+        <v>81</v>
+      </c>
+      <c r="G131" s="8">
+        <v>81</v>
+      </c>
+      <c r="H131" s="8">
+        <f t="shared" si="6"/>
+        <v>1062</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A132" s="21">
+        <v>44965</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="23">
+        <v>7200</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8">
+        <v>648</v>
+      </c>
+      <c r="G132" s="8">
+        <v>648</v>
+      </c>
+      <c r="H132" s="8">
+        <f t="shared" si="6"/>
+        <v>8496</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J132" s="9"/>
+    </row>
+    <row r="133" spans="1:10" s="10" customFormat="1" ht="15.6">
+      <c r="A133" s="21">
+        <v>44977</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D133" s="23">
+        <v>1819490</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8">
+        <v>163754.1</v>
+      </c>
+      <c r="G133" s="8">
+        <v>163754.1</v>
+      </c>
+      <c r="H133" s="8">
+        <f t="shared" si="6"/>
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+    </row>
+    <row r="290" spans="1:10" s="78" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A290" s="88"/>
+      <c r="B290" s="88"/>
+      <c r="C290" s="88"/>
+      <c r="D290" s="89"/>
+      <c r="E290" s="90">
         <f>F100+G100</f>
         <v>298312.2</v>
       </c>
-      <c r="F125" s="90">
-        <f>E124+F124+G124</f>
-        <v>69468.27</v>
-      </c>
-      <c r="G125" s="90">
-        <f>E125-F125</f>
-        <v>228843.93</v>
-      </c>
-      <c r="H125" s="89"/>
-      <c r="I125" s="89"/>
-      <c r="J125" s="89"/>
-    </row>
-    <row r="127" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A127" s="21">
-        <v>44840</v>
-      </c>
-      <c r="B127" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D127" s="23">
-        <v>1850</v>
-      </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="G127" s="8">
-        <v>166.5</v>
-      </c>
-      <c r="H127" s="8">
-        <f t="shared" ref="H127:H132" si="6">D127+E127+F127+G127</f>
-        <v>2183</v>
-      </c>
-      <c r="I127" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J127" s="9"/>
-    </row>
-    <row r="128" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A128" s="21">
-        <v>44841</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D128" s="23">
-        <v>55015</v>
-      </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8">
-        <v>4951.3500000000004</v>
-      </c>
-      <c r="G128" s="8">
-        <v>4951.3500000000004</v>
-      </c>
-      <c r="H128" s="8">
-        <f t="shared" si="6"/>
-        <v>64917.7</v>
-      </c>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-    </row>
-    <row r="129" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A129" s="21">
-        <v>44875</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D129" s="23">
-        <v>2279250</v>
-      </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8">
-        <v>205132.5</v>
-      </c>
-      <c r="G129" s="8">
-        <v>205132.5</v>
-      </c>
-      <c r="H129" s="8">
-        <f t="shared" si="6"/>
-        <v>2689515</v>
-      </c>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-    </row>
-    <row r="130" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A130" s="21">
-        <v>44932</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D130" s="23">
-        <v>900</v>
-      </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8">
-        <v>81</v>
-      </c>
-      <c r="G130" s="8">
-        <v>81</v>
-      </c>
-      <c r="H130" s="8">
-        <f t="shared" si="6"/>
-        <v>1062</v>
-      </c>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-    </row>
-    <row r="131" spans="1:10" s="10" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A131" s="21">
-        <v>44965</v>
-      </c>
-      <c r="B131" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131" s="23">
-        <v>7200</v>
-      </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8">
-        <v>648</v>
-      </c>
-      <c r="G131" s="8">
-        <v>648</v>
-      </c>
-      <c r="H131" s="8">
-        <f t="shared" si="6"/>
-        <v>8496</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J131" s="9"/>
-    </row>
-    <row r="132" spans="1:10" s="10" customFormat="1" ht="15.6">
-      <c r="A132" s="21">
-        <v>44977</v>
-      </c>
-      <c r="B132" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D132" s="23">
-        <v>1819490</v>
-      </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8">
-        <v>163754.1</v>
-      </c>
-      <c r="G132" s="8">
-        <v>163754.1</v>
-      </c>
-      <c r="H132" s="8">
-        <f t="shared" si="6"/>
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
+      <c r="F290" s="90">
+        <f>E125+F125+G125</f>
+        <v>69822.33</v>
+      </c>
+      <c r="G290" s="90">
+        <f>E290-F290</f>
+        <v>228489.87</v>
+      </c>
+      <c r="H290" s="89"/>
+      <c r="I290" s="89"/>
+      <c r="J290" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
     <mergeCell ref="A100:C100"/>
     <mergeCell ref="A101:J101"/>
     <mergeCell ref="A91:H91"/>
@@ -4987,30 +5018,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5145,11 +5176,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -5174,18 +5205,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="103"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -5364,11 +5395,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5398,30 +5429,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="107"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="106"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -5514,11 +5545,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -5543,18 +5574,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="104"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="103"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -5865,11 +5896,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -5894,30 +5925,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="105" t="s">
+      <c r="A67" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="106"/>
-      <c r="J67" s="107"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="106"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="103"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="104"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="103"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -5986,11 +6017,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="112" t="s">
+      <c r="A73" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="112"/>
-      <c r="C73" s="112"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="111"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -6015,18 +6046,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="102" t="s">
+      <c r="A74" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="103"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="104"/>
+      <c r="B74" s="102"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="103"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -6277,11 +6308,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="114" t="s">
+      <c r="A94" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="112"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6307,6 +6338,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6316,12 +6353,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6351,30 +6382,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="A2" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6491,11 +6522,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6520,18 +6551,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="104"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6650,11 +6681,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6679,30 +6710,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="107"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="103"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -6807,11 +6838,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -6836,18 +6867,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="104"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="103"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7158,11 +7189,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="109" t="s">
+      <c r="A59" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="110"/>
-      <c r="C59" s="111"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="110"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7187,30 +7218,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="105" t="s">
+      <c r="A61" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="106"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="107"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="106"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="102" t="s">
+      <c r="A62" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="104"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="103"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7339,11 +7370,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="101" t="s">
+      <c r="A72" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="101"/>
-      <c r="C72" s="101"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="100"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7368,18 +7399,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="102" t="s">
+      <c r="A73" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="103"/>
-      <c r="C73" s="103"/>
-      <c r="D73" s="103"/>
-      <c r="E73" s="103"/>
-      <c r="F73" s="103"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="103"/>
-      <c r="I73" s="103"/>
-      <c r="J73" s="104"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="102"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="102"/>
+      <c r="I73" s="102"/>
+      <c r="J73" s="103"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7690,11 +7721,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="109" t="s">
+      <c r="A98" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="110"/>
-      <c r="C98" s="111"/>
+      <c r="B98" s="109"/>
+      <c r="C98" s="110"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7719,26 +7750,21 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="116"/>
-      <c r="B100" s="116"/>
-      <c r="C100" s="116"/>
-      <c r="D100" s="116"/>
-      <c r="E100" s="116"/>
+      <c r="A100" s="115"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="115"/>
+      <c r="E100" s="115"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="116"/>
-      <c r="B108" s="116"/>
-      <c r="C108" s="116"/>
-      <c r="D108" s="116"/>
-      <c r="E108" s="116"/>
+      <c r="A108" s="115"/>
+      <c r="B108" s="115"/>
+      <c r="C108" s="115"/>
+      <c r="D108" s="115"/>
+      <c r="E108" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7751,6 +7777,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7780,30 +7811,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -7938,11 +7969,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -7967,18 +7998,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="103"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8157,11 +8188,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8191,30 +8222,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="107"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="106"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8307,11 +8338,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8336,18 +8367,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="104"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="103"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8658,11 +8689,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8687,30 +8718,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="105" t="s">
+      <c r="A67" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="106"/>
-      <c r="J67" s="107"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="106"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="103"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="104"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="103"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8779,11 +8810,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="112" t="s">
+      <c r="A73" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="112"/>
-      <c r="C73" s="112"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="111"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -8808,18 +8839,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="102" t="s">
+      <c r="A74" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="103"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="104"/>
+      <c r="B74" s="102"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="103"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -9070,11 +9101,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="114" t="s">
+      <c r="A94" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="112"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -9100,6 +9131,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9109,12 +9146,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Apr-23 to Jun-23" sheetId="1" r:id="rId1"/>
@@ -1148,6 +1148,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1193,20 +1196,17 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1510,30 +1510,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
+      <c r="A2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1753,11 +1753,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1782,18 +1782,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2581,11 +2581,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2610,30 +2610,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="106"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="107"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="103"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="104"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2909,11 +2909,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="100" t="s">
+      <c r="A56" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -2938,18 +2938,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="101" t="s">
+      <c r="A57" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="102"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="102"/>
-      <c r="J57" s="103"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="104"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3787,11 +3787,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="108" t="s">
+      <c r="A88" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="109"/>
-      <c r="C88" s="110"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="111"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3816,30 +3816,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="104" t="s">
+      <c r="A90" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="105"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="105"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="105"/>
-      <c r="I90" s="105"/>
-      <c r="J90" s="106"/>
+      <c r="B90" s="106"/>
+      <c r="C90" s="106"/>
+      <c r="D90" s="106"/>
+      <c r="E90" s="106"/>
+      <c r="F90" s="106"/>
+      <c r="G90" s="106"/>
+      <c r="H90" s="106"/>
+      <c r="I90" s="106"/>
+      <c r="J90" s="107"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="101" t="s">
+      <c r="A91" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="102"/>
-      <c r="C91" s="102"/>
-      <c r="D91" s="102"/>
-      <c r="E91" s="102"/>
-      <c r="F91" s="102"/>
-      <c r="G91" s="102"/>
-      <c r="H91" s="103"/>
+      <c r="B91" s="103"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="103"/>
+      <c r="E91" s="103"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="103"/>
+      <c r="H91" s="104"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4061,11 +4061,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="100" t="s">
+      <c r="A100" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="100"/>
-      <c r="C100" s="100"/>
+      <c r="B100" s="101"/>
+      <c r="C100" s="101"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4090,18 +4090,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="101" t="s">
+      <c r="A101" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="102"/>
-      <c r="C101" s="102"/>
-      <c r="D101" s="102"/>
-      <c r="E101" s="102"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="102"/>
-      <c r="H101" s="102"/>
-      <c r="I101" s="102"/>
-      <c r="J101" s="103"/>
+      <c r="B101" s="103"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="103"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="104"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4701,7 +4701,7 @@
       <c r="A123" s="94">
         <v>45107</v>
       </c>
-      <c r="B123" s="116" t="s">
+      <c r="B123" s="97" t="s">
         <v>92</v>
       </c>
       <c r="C123" s="57" t="s">
@@ -4730,13 +4730,13 @@
       <c r="A124" s="94">
         <v>45107</v>
       </c>
-      <c r="B124" s="116" t="s">
+      <c r="B124" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="C124" s="116" t="s">
+      <c r="C124" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="D124" s="116">
+      <c r="D124" s="97">
         <v>1767</v>
       </c>
       <c r="E124" s="58"/>
@@ -4756,11 +4756,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="97" t="s">
+      <c r="A125" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="98"/>
-      <c r="C125" s="99"/>
+      <c r="B125" s="99"/>
+      <c r="C125" s="100"/>
       <c r="D125" s="29">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -4998,7 +4998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
@@ -5018,30 +5018,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5176,11 +5176,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -5205,18 +5205,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -5395,11 +5395,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="114" t="s">
+      <c r="A29" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -5429,30 +5429,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="107"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -5545,11 +5545,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="111" t="s">
+      <c r="A39" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -5574,18 +5574,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="104"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -5896,11 +5896,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="113" t="s">
+      <c r="A65" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -5925,30 +5925,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="104" t="s">
+      <c r="A67" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="106"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="106"/>
+      <c r="J67" s="107"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="101" t="s">
+      <c r="A68" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="102"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="103"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="104"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -6017,11 +6017,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="111"/>
-      <c r="C73" s="111"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -6046,18 +6046,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="101" t="s">
+      <c r="A74" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="102"/>
-      <c r="C74" s="102"/>
-      <c r="D74" s="102"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="102"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="102"/>
-      <c r="I74" s="102"/>
-      <c r="J74" s="103"/>
+      <c r="B74" s="103"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="104"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -6308,11 +6308,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="112" t="s">
+      <c r="A94" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="112"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -6338,12 +6338,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -6353,6 +6347,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6382,30 +6382,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
+      <c r="A2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6522,11 +6522,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6551,18 +6551,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6681,11 +6681,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6710,30 +6710,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="106"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="103"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="104"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -6838,11 +6838,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="100" t="s">
+      <c r="A33" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -6867,18 +6867,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="103"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="104"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7189,11 +7189,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="108" t="s">
+      <c r="A59" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="109"/>
-      <c r="C59" s="110"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="111"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7218,30 +7218,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="104" t="s">
+      <c r="A61" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="105"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="106"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="107"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="101" t="s">
+      <c r="A62" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="103"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="104"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7370,11 +7370,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="100" t="s">
+      <c r="A72" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="100"/>
-      <c r="C72" s="100"/>
+      <c r="B72" s="101"/>
+      <c r="C72" s="101"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7399,18 +7399,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="101" t="s">
+      <c r="A73" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="102"/>
-      <c r="C73" s="102"/>
-      <c r="D73" s="102"/>
-      <c r="E73" s="102"/>
-      <c r="F73" s="102"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="102"/>
-      <c r="I73" s="102"/>
-      <c r="J73" s="103"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="103"/>
+      <c r="J73" s="104"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7721,11 +7721,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="108" t="s">
+      <c r="A98" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="109"/>
-      <c r="C98" s="110"/>
+      <c r="B98" s="110"/>
+      <c r="C98" s="111"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7750,21 +7750,26 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="115"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="115"/>
-      <c r="E100" s="115"/>
+      <c r="A100" s="116"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="116"/>
+      <c r="E100" s="116"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="115"/>
-      <c r="B108" s="115"/>
-      <c r="C108" s="115"/>
-      <c r="D108" s="115"/>
-      <c r="E108" s="115"/>
+      <c r="A108" s="116"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="116"/>
+      <c r="D108" s="116"/>
+      <c r="E108" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7777,11 +7782,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7811,30 +7811,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -7969,11 +7969,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -7998,18 +7998,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8188,11 +8188,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="114" t="s">
+      <c r="A29" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8222,30 +8222,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="107"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8338,11 +8338,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="111" t="s">
+      <c r="A39" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8367,18 +8367,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="104"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8689,11 +8689,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="113" t="s">
+      <c r="A65" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8718,30 +8718,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="104" t="s">
+      <c r="A67" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="106"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="106"/>
+      <c r="J67" s="107"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="101" t="s">
+      <c r="A68" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="102"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="103"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="104"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8810,11 +8810,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="111"/>
-      <c r="C73" s="111"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -8839,18 +8839,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="101" t="s">
+      <c r="A74" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="102"/>
-      <c r="C74" s="102"/>
-      <c r="D74" s="102"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="102"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="102"/>
-      <c r="I74" s="102"/>
-      <c r="J74" s="103"/>
+      <c r="B74" s="103"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="104"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -9101,11 +9101,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="112" t="s">
+      <c r="A94" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="112"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -9131,12 +9131,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9146,6 +9140,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="215">
   <si>
     <t>APRIL</t>
   </si>
@@ -610,6 +610,63 @@
   </si>
   <si>
     <t>24301C0000032316</t>
+  </si>
+  <si>
+    <t>b23-24MQ201</t>
+  </si>
+  <si>
+    <t>b23-24AQ202</t>
+  </si>
+  <si>
+    <t>Jaylacxmi Electricals</t>
+  </si>
+  <si>
+    <t>JLE/23-24/1926</t>
+  </si>
+  <si>
+    <t>30ALDPC9122D1ZX</t>
+  </si>
+  <si>
+    <t>2023-24/3566</t>
+  </si>
+  <si>
+    <t>30/23-24</t>
+  </si>
+  <si>
+    <t>Mags Cement</t>
+  </si>
+  <si>
+    <t>30AALPF8531G1Z0</t>
+  </si>
+  <si>
+    <t>Alegra Communications Pvt Ltd</t>
+  </si>
+  <si>
+    <t>AJ313226</t>
+  </si>
+  <si>
+    <t>30AANCA4942MIZI</t>
+  </si>
+  <si>
+    <t>Silicon Comoputes</t>
+  </si>
+  <si>
+    <t>PNJ232402480</t>
+  </si>
+  <si>
+    <t>32/23-24</t>
+  </si>
+  <si>
+    <t>MD/23/24/07319</t>
+  </si>
+  <si>
+    <t>Acura Engineering</t>
+  </si>
+  <si>
+    <t>IN-2</t>
+  </si>
+  <si>
+    <t>09afapm2472f1zl</t>
   </si>
 </sst>
 </file>
@@ -858,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1149,6 +1206,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1490,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J290"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1510,30 +1588,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1753,11 +1831,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1782,18 +1860,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="104"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2581,11 +2659,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2610,30 +2688,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="107"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="114"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="104"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="111"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2909,11 +2987,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="101" t="s">
+      <c r="A56" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -2938,18 +3016,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="104"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="111"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3787,11 +3865,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="109" t="s">
+      <c r="A88" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="110"/>
-      <c r="C88" s="111"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="118"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3816,30 +3894,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="105" t="s">
+      <c r="A90" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="106"/>
-      <c r="C90" s="106"/>
-      <c r="D90" s="106"/>
-      <c r="E90" s="106"/>
-      <c r="F90" s="106"/>
-      <c r="G90" s="106"/>
-      <c r="H90" s="106"/>
-      <c r="I90" s="106"/>
-      <c r="J90" s="107"/>
+      <c r="B90" s="113"/>
+      <c r="C90" s="113"/>
+      <c r="D90" s="113"/>
+      <c r="E90" s="113"/>
+      <c r="F90" s="113"/>
+      <c r="G90" s="113"/>
+      <c r="H90" s="113"/>
+      <c r="I90" s="113"/>
+      <c r="J90" s="114"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="102" t="s">
+      <c r="A91" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="103"/>
-      <c r="C91" s="103"/>
-      <c r="D91" s="103"/>
-      <c r="E91" s="103"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="104"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="110"/>
+      <c r="H91" s="111"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4061,11 +4139,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="101" t="s">
+      <c r="A100" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="101"/>
-      <c r="C100" s="101"/>
+      <c r="B100" s="108"/>
+      <c r="C100" s="108"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4090,18 +4168,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="102" t="s">
+      <c r="A101" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="103"/>
-      <c r="C101" s="103"/>
-      <c r="D101" s="103"/>
-      <c r="E101" s="103"/>
-      <c r="F101" s="103"/>
-      <c r="G101" s="103"/>
-      <c r="H101" s="103"/>
-      <c r="I101" s="103"/>
-      <c r="J101" s="104"/>
+      <c r="B101" s="110"/>
+      <c r="C101" s="110"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="110"/>
+      <c r="F101" s="110"/>
+      <c r="G101" s="110"/>
+      <c r="H101" s="110"/>
+      <c r="I101" s="110"/>
+      <c r="J101" s="111"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4756,11 +4834,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="98" t="s">
+      <c r="A125" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="99"/>
-      <c r="C125" s="100"/>
+      <c r="B125" s="106"/>
+      <c r="C125" s="107"/>
       <c r="D125" s="29">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -4996,10 +5074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J94"/>
+  <dimension ref="A2:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5012,36 +5090,36 @@
     <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.33203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5074,565 +5152,748 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="27"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="27">
+        <v>45122</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="22">
+        <v>113520</v>
+      </c>
       <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="19"/>
+      <c r="F5" s="22">
+        <v>10217</v>
+      </c>
+      <c r="G5" s="22">
+        <v>10217</v>
+      </c>
+      <c r="H5" s="19">
+        <f>D5+E5+F5+G5</f>
+        <v>133954</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A6" s="27"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="27">
+        <v>45122</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="12">
+        <v>19406</v>
+      </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="19"/>
+      <c r="F6" s="12">
+        <v>1746.5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1746.5</v>
+      </c>
+      <c r="H6" s="19">
+        <f t="shared" ref="H6" si="0">D6+E6+F6+G6</f>
+        <v>22899</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="21"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="112" t="s">
+    <row r="7" spans="1:10" ht="21">
+      <c r="A7" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="42">
-        <f>SUM(D5:D13)</f>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="42">
+        <f>SUM(D5:D6)</f>
+        <v>132926</v>
+      </c>
+      <c r="E7" s="42">
+        <f>SUM(E5:E6)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="42">
-        <f>SUM(E5:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="42">
-        <f>SUM(F5:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="42">
-        <f>SUM(G5:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="42">
-        <f>SUM(H5:H13)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="102" t="s">
+      <c r="F7" s="42">
+        <f>SUM(F5:F6)</f>
+        <v>11963.5</v>
+      </c>
+      <c r="G7" s="42">
+        <f>SUM(G5:G6)</f>
+        <v>11963.5</v>
+      </c>
+      <c r="H7" s="42">
+        <f>SUM(H5:H6)</f>
+        <v>156853</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="21">
+      <c r="A8" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="111"/>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A9" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A10" s="11">
+        <v>45110</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="12">
+        <v>962.5</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
+        <v>86.63</v>
+      </c>
+      <c r="G10" s="12">
+        <v>86.63</v>
+      </c>
+      <c r="H10" s="12">
+        <f>D10+E10+F10+G10</f>
+        <v>1135.7600000000002</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1">
+      <c r="A11" s="11">
+        <v>45113</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="12">
+        <v>900</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <v>81</v>
+      </c>
+      <c r="G11" s="12">
+        <v>81</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" ref="H11:H18" si="1">D11+E11+F11+G11</f>
+        <v>1062</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="99" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A12" s="45">
+        <v>45117</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="46">
+        <v>42881.36</v>
+      </c>
+      <c r="E12" s="46">
+        <v>7718.64</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
+        <v>50600</v>
+      </c>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A13" s="45">
+        <v>45118</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="46">
+        <v>27040</v>
+      </c>
+      <c r="E13" s="46">
+        <v>4867.2</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46">
+        <f t="shared" si="1"/>
+        <v>31907.200000000001</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="98" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="104">
+        <v>45118</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="81">
+        <v>3750</v>
+      </c>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81">
+        <v>525</v>
+      </c>
+      <c r="G14" s="81">
+        <v>525</v>
+      </c>
+      <c r="H14" s="81">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="I14" s="81"/>
+      <c r="J14" s="80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A15" s="100">
+        <v>45119</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="102">
+        <v>436</v>
+      </c>
+      <c r="D15" s="103">
+        <v>9200.01</v>
+      </c>
       <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
+      <c r="F15" s="103">
+        <v>200</v>
+      </c>
+      <c r="G15" s="103">
+        <v>200</v>
+      </c>
+      <c r="H15" s="36">
+        <f t="shared" si="1"/>
+        <v>9600.01</v>
+      </c>
       <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
-    </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A16" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="J15" s="102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A16" s="33">
+        <v>45121</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="36">
+        <v>3250</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36">
+        <v>292.5</v>
+      </c>
+      <c r="G16" s="36">
+        <v>292.5</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="1"/>
+        <v>3835</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A17" s="33">
+        <v>45121</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="12">
+        <v>10750</v>
+      </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="12">
+        <v>967.5</v>
+      </c>
+      <c r="G17" s="12">
+        <v>967.5</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="1"/>
+        <v>12685</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A18" s="11">
+        <v>45121</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="12">
+        <v>13620</v>
+      </c>
+      <c r="E18" s="12">
+        <v>2451.6</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>16071.6</v>
+      </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="49"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21">
+      <c r="A19" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="51">
+        <f>SUM(D10:D18)</f>
+        <v>112353.87</v>
+      </c>
+      <c r="E19" s="51">
+        <f>SUM(E10:E18)</f>
+        <v>15037.44</v>
+      </c>
+      <c r="F19" s="51">
+        <f>SUM(F10:F18)</f>
+        <v>2152.63</v>
+      </c>
+      <c r="G19" s="51">
+        <f>SUM(G10:G18)</f>
+        <v>2152.63</v>
+      </c>
+      <c r="H19" s="52">
+        <f>SUM(H10:H18)</f>
+        <v>131696.57</v>
+      </c>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" ht="21">
+      <c r="A21" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
+    </row>
+    <row r="22" spans="1:10" ht="21">
+      <c r="A22" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="31.2">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.6">
+      <c r="A24" s="27"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6">
+      <c r="A25" s="27"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.6">
+      <c r="A26" s="27"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6">
+      <c r="A27" s="27"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="11"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="51">
-        <f>SUM(D17:D28)</f>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="42">
+        <f>SUM(D24:D28)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="51">
-        <f>SUM(E17:E28)</f>
+      <c r="E29" s="42">
+        <f>SUM(E24:E28)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="51">
-        <f>SUM(F17:F28)</f>
+      <c r="F29" s="42">
+        <f>SUM(F24:F28)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="51">
-        <f>SUM(G17:G28)</f>
+      <c r="G29" s="42">
+        <f>SUM(G24:G28)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="52">
-        <f>SUM(H17:H28)</f>
+      <c r="H29" s="42">
+        <f>SUM(H24:H28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-    </row>
-    <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="107"/>
-    </row>
-    <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="31.2">
-      <c r="A33" s="3" t="s">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="21">
+      <c r="A30" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="111"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B31" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C31" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E31" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G31" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H31" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.6">
+      <c r="I31" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6">
+      <c r="A32" s="27"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.6">
+      <c r="A33" s="27"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" ht="19.8" customHeight="1">
       <c r="A34" s="27"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.6">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="57"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1">
       <c r="A35" s="27"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.6">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="57"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" customHeight="1">
       <c r="A36" s="27"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="2"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="15.6">
       <c r="A37" s="27"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="2"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" ht="15.6">
       <c r="A38" s="27"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="42">
-        <f>SUM(D34:D38)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="42">
-        <f>SUM(E34:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="42">
-        <f>SUM(F34:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="42">
-        <f>SUM(G34:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="42">
-        <f>SUM(H34:H38)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="102" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="104"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="44" t="s">
-        <v>15</v>
-      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.6">
+      <c r="A39" s="27"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="57"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.6">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.6">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="27"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="56"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="22"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="27"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -5643,77 +5904,77 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A44" s="27"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="57"/>
-    </row>
-    <row r="45" spans="1:10" ht="18" customHeight="1">
-      <c r="A45" s="27"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="57"/>
-    </row>
-    <row r="46" spans="1:10" ht="18" customHeight="1">
-      <c r="A46" s="27"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
+    <row r="44" spans="1:10" ht="15.6">
+      <c r="A44" s="11"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="54"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.6">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.6">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="56"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="54"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
-      <c r="A47" s="27"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="56"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
-      <c r="A48" s="27"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="56"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
+      <c r="J48" s="22"/>
     </row>
     <row r="49" spans="1:10" ht="15.6">
-      <c r="A49" s="27"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="57"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="11"/>
@@ -5753,405 +6014,405 @@
     </row>
     <row r="53" spans="1:10" ht="15.6">
       <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="56"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
+      <c r="J53" s="22"/>
     </row>
     <row r="54" spans="1:10" ht="15.6">
-      <c r="A54" s="11"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="54"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.6">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.6">
-      <c r="A57" s="11"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="22"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.6">
-      <c r="A58" s="11"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="22"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.6">
-      <c r="A59" s="11"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="54"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="34"/>
+    </row>
+    <row r="55" spans="1:10" ht="21">
+      <c r="A55" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="60">
+        <f>SUM(D32:D54)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="60">
+        <f>SUM(E32:E54)</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="60">
+        <f>SUM(F32:F54)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="60">
+        <f>SUM(G32:G54)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="61">
+        <f>SUM(H32:H54)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+    </row>
+    <row r="57" spans="1:10" ht="21">
+      <c r="A57" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="113"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="114"/>
+    </row>
+    <row r="58" spans="1:10" ht="21">
+      <c r="A58" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="110"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="31.2">
+      <c r="A59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="15.6">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="15.6">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="11"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="22"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="33"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="34"/>
-    </row>
-    <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="115" t="s">
+      <c r="A62" s="21"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="21">
+      <c r="A63" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="60">
-        <f>SUM(D42:D64)</f>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="42">
+        <f>SUM(D60:D62)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="60">
-        <f>SUM(E42:E64)</f>
+      <c r="E63" s="42">
+        <f>SUM(E60:E62)</f>
         <v>0</v>
       </c>
-      <c r="F65" s="60">
-        <f>SUM(F42:F64)</f>
+      <c r="F63" s="42">
+        <f>SUM(F60:F62)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="60">
-        <f>SUM(G42:G64)</f>
+      <c r="G63" s="42">
+        <f>SUM(G60:G62)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="61">
-        <f>SUM(H42:H64)</f>
+      <c r="H63" s="42">
+        <f>SUM(H60:H62)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-    </row>
-    <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="106"/>
-      <c r="J67" s="107"/>
-    </row>
-    <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="103"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" ht="31.2">
-      <c r="A69" s="3" t="s">
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="21">
+      <c r="A64" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="110"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="110"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="111"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B65" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="C65" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="3" t="s">
+      <c r="E65" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G65" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H65" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
+      <c r="I65" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.6">
+      <c r="A66" s="64"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.6">
+      <c r="A67" s="64"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.6">
+      <c r="A68" s="66"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.6">
+      <c r="A69" s="66"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
     </row>
     <row r="70" spans="1:10" ht="15.6">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="21"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+    </row>
+    <row r="71" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A71" s="11"/>
       <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="21"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="112"/>
-      <c r="C73" s="112"/>
-      <c r="D73" s="42">
-        <f>SUM(D70:D72)</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="42">
-        <f>SUM(E70:E72)</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="42">
-        <f>SUM(F70:F72)</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="42">
-        <f>SUM(G70:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="42">
-        <f>SUM(H70:H72)</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="102" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="103"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="104"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="G75" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" s="63" t="s">
-        <v>15</v>
-      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="22"/>
+    </row>
+    <row r="72" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A72" s="11"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="68"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.6">
+      <c r="A73" s="66"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.6">
+      <c r="A74" s="66"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.6">
+      <c r="A75" s="66"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
     </row>
     <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="64"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
+      <c r="A76" s="66"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
     </row>
     <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="64"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="22"/>
     </row>
     <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="66"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="35"/>
     </row>
     <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="66"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="70"/>
+      <c r="J79" s="70"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="66"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
       <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
-    </row>
-    <row r="81" spans="1:10" ht="16.2" thickBot="1">
+      <c r="I80" s="46"/>
+      <c r="J80" s="72"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.6">
       <c r="A81" s="11"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -6163,198 +6424,79 @@
       <c r="I81" s="12"/>
       <c r="J81" s="22"/>
     </row>
-    <row r="82" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="68"/>
+    <row r="82" spans="1:10" ht="15.6">
+      <c r="A82" s="45"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="72"/>
       <c r="D82" s="46"/>
       <c r="E82" s="46"/>
       <c r="F82" s="46"/>
       <c r="G82" s="46"/>
-      <c r="H82" s="12"/>
+      <c r="H82" s="46"/>
       <c r="I82" s="46"/>
-      <c r="J82" s="68"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="66"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="66"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="66"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="66"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="67"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="11"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="22"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="33"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="35"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="69"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="70"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="45"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="72"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="11"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="22"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="45"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="71"/>
-    </row>
-    <row r="93" spans="1:10" ht="15">
-      <c r="A93" s="73"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="76"/>
-      <c r="H93" s="76"/>
-      <c r="I93" s="76"/>
-      <c r="J93" s="75"/>
-    </row>
-    <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="114" t="s">
+      <c r="J82" s="71"/>
+    </row>
+    <row r="83" spans="1:10" ht="15">
+      <c r="A83" s="73"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="76"/>
+      <c r="I83" s="76"/>
+      <c r="J83" s="75"/>
+    </row>
+    <row r="84" spans="1:10" ht="21">
+      <c r="A84" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
-      <c r="D94" s="77">
-        <f>SUM(D76:D93)</f>
+      <c r="B84" s="121"/>
+      <c r="C84" s="121"/>
+      <c r="D84" s="77">
+        <f>SUM(D66:D83)</f>
         <v>0</v>
       </c>
-      <c r="E94" s="77">
-        <f>SUM(E76:E93)</f>
+      <c r="E84" s="77">
+        <f>SUM(E66:E83)</f>
         <v>0</v>
       </c>
-      <c r="F94" s="77">
-        <f>SUM(F76:F93)</f>
+      <c r="F84" s="77">
+        <f>SUM(F66:F83)</f>
         <v>0</v>
       </c>
-      <c r="G94" s="77">
-        <f>SUM(G76:G93)</f>
+      <c r="G84" s="77">
+        <f>SUM(G66:G83)</f>
         <v>0</v>
       </c>
-      <c r="H94" s="77">
-        <f>SUM(H76:H93)</f>
+      <c r="H84" s="77">
+        <f>SUM(H66:H83)</f>
         <v>0</v>
       </c>
-      <c r="I94" s="77"/>
-      <c r="J94" s="77"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6382,30 +6524,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6522,11 +6664,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6551,18 +6693,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="104"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6681,11 +6823,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6710,30 +6852,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="107"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -6838,11 +6980,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -6867,18 +7009,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="104"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="111"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7189,11 +7331,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="109" t="s">
+      <c r="A59" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="110"/>
-      <c r="C59" s="111"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7218,30 +7360,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="105" t="s">
+      <c r="A61" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="106"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="107"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="114"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="102" t="s">
+      <c r="A62" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="104"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="111"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7370,11 +7512,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="101" t="s">
+      <c r="A72" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="101"/>
-      <c r="C72" s="101"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="108"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7399,18 +7541,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="102" t="s">
+      <c r="A73" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="103"/>
-      <c r="C73" s="103"/>
-      <c r="D73" s="103"/>
-      <c r="E73" s="103"/>
-      <c r="F73" s="103"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="103"/>
-      <c r="I73" s="103"/>
-      <c r="J73" s="104"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="110"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="110"/>
+      <c r="I73" s="110"/>
+      <c r="J73" s="111"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7721,11 +7863,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="109" t="s">
+      <c r="A98" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="110"/>
-      <c r="C98" s="111"/>
+      <c r="B98" s="117"/>
+      <c r="C98" s="118"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7750,18 +7892,18 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="116"/>
-      <c r="B100" s="116"/>
-      <c r="C100" s="116"/>
-      <c r="D100" s="116"/>
-      <c r="E100" s="116"/>
+      <c r="A100" s="123"/>
+      <c r="B100" s="123"/>
+      <c r="C100" s="123"/>
+      <c r="D100" s="123"/>
+      <c r="E100" s="123"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="116"/>
-      <c r="B108" s="116"/>
-      <c r="C108" s="116"/>
-      <c r="D108" s="116"/>
-      <c r="E108" s="116"/>
+      <c r="A108" s="123"/>
+      <c r="B108" s="123"/>
+      <c r="C108" s="123"/>
+      <c r="D108" s="123"/>
+      <c r="E108" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -7811,30 +7953,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -7969,11 +8111,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -7998,18 +8140,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="111"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8188,11 +8330,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8222,30 +8364,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="107"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="114"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="111"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8338,11 +8480,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8367,18 +8509,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="104"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="111"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8689,11 +8831,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8718,30 +8860,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="105" t="s">
+      <c r="A67" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="106"/>
-      <c r="J67" s="107"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="113"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="114"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="103"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="104"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="111"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8810,11 +8952,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="112" t="s">
+      <c r="A73" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="112"/>
-      <c r="C73" s="112"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="119"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -8839,18 +8981,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="102" t="s">
+      <c r="A74" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="103"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="104"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="110"/>
+      <c r="H74" s="110"/>
+      <c r="I74" s="110"/>
+      <c r="J74" s="111"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -9101,11 +9243,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="114" t="s">
+      <c r="A94" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
+      <c r="B94" s="121"/>
+      <c r="C94" s="121"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="215">
   <si>
     <t>APRIL</t>
   </si>
@@ -915,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1229,6 +1229,9 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1274,13 +1277,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1588,30 +1591,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="112"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1831,11 +1834,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1860,18 +1863,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2659,11 +2662,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="105" t="s">
+      <c r="A42" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="107"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2688,30 +2691,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="114"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="115"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="111"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="112"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2987,11 +2990,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="108" t="s">
+      <c r="A56" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="108"/>
-      <c r="C56" s="108"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="109"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -3016,18 +3019,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="109" t="s">
+      <c r="A57" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="110"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="110"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="111"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="112"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3865,11 +3868,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="117"/>
-      <c r="C88" s="118"/>
+      <c r="B88" s="118"/>
+      <c r="C88" s="119"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3894,30 +3897,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="112" t="s">
+      <c r="A90" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="113"/>
-      <c r="C90" s="113"/>
-      <c r="D90" s="113"/>
-      <c r="E90" s="113"/>
-      <c r="F90" s="113"/>
-      <c r="G90" s="113"/>
-      <c r="H90" s="113"/>
-      <c r="I90" s="113"/>
-      <c r="J90" s="114"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="114"/>
+      <c r="F90" s="114"/>
+      <c r="G90" s="114"/>
+      <c r="H90" s="114"/>
+      <c r="I90" s="114"/>
+      <c r="J90" s="115"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="110"/>
-      <c r="C91" s="110"/>
-      <c r="D91" s="110"/>
-      <c r="E91" s="110"/>
-      <c r="F91" s="110"/>
-      <c r="G91" s="110"/>
-      <c r="H91" s="111"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
+      <c r="G91" s="111"/>
+      <c r="H91" s="112"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4139,11 +4142,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="108" t="s">
+      <c r="A100" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="108"/>
-      <c r="C100" s="108"/>
+      <c r="B100" s="109"/>
+      <c r="C100" s="109"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4168,18 +4171,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="109" t="s">
+      <c r="A101" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="110"/>
-      <c r="C101" s="110"/>
-      <c r="D101" s="110"/>
-      <c r="E101" s="110"/>
-      <c r="F101" s="110"/>
-      <c r="G101" s="110"/>
-      <c r="H101" s="110"/>
-      <c r="I101" s="110"/>
-      <c r="J101" s="111"/>
+      <c r="B101" s="111"/>
+      <c r="C101" s="111"/>
+      <c r="D101" s="111"/>
+      <c r="E101" s="111"/>
+      <c r="F101" s="111"/>
+      <c r="G101" s="111"/>
+      <c r="H101" s="111"/>
+      <c r="I101" s="111"/>
+      <c r="J101" s="112"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4834,11 +4837,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="105" t="s">
+      <c r="A125" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="106"/>
-      <c r="C125" s="107"/>
+      <c r="B125" s="107"/>
+      <c r="C125" s="108"/>
       <c r="D125" s="29">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -5074,10 +5077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J84"/>
+  <dimension ref="A2:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5096,30 +5099,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="112"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5206,11 +5209,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="42">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -5235,18 +5238,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="43" t="s">
@@ -5330,7 +5333,7 @@
         <v>81</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" ref="H11:H18" si="1">D11+E11+F11+G11</f>
+        <f t="shared" ref="H11:H19" si="1">D11+E11+F11+G11</f>
         <v>1062</v>
       </c>
       <c r="I11" s="12"/>
@@ -5535,106 +5538,123 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="120" t="s">
+    <row r="19" spans="1:10" s="105" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A19" s="11">
+        <v>45131</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="12">
+        <v>476</v>
+      </c>
+      <c r="D19" s="12">
+        <v>4600.01</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <v>100</v>
+      </c>
+      <c r="G19" s="12">
+        <v>100</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="1"/>
+        <v>4800.01</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21">
+      <c r="A20" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="51">
-        <f>SUM(D10:D18)</f>
-        <v>112353.87</v>
-      </c>
-      <c r="E19" s="51">
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="51">
+        <f>SUM(D10:D19)</f>
+        <v>116953.87999999999</v>
+      </c>
+      <c r="E20" s="51">
         <f>SUM(E10:E18)</f>
         <v>15037.44</v>
       </c>
-      <c r="F19" s="51">
-        <f>SUM(F10:F18)</f>
-        <v>2152.63</v>
-      </c>
-      <c r="G19" s="51">
-        <f>SUM(G10:G18)</f>
-        <v>2152.63</v>
-      </c>
-      <c r="H19" s="52">
+      <c r="F20" s="51">
+        <f>SUM(F10:F19)</f>
+        <v>2252.63</v>
+      </c>
+      <c r="G20" s="51">
+        <f>SUM(G10:G19)</f>
+        <v>2252.63</v>
+      </c>
+      <c r="H20" s="52">
         <f>SUM(H10:H18)</f>
         <v>131696.57</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-    </row>
-    <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="112" t="s">
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+    </row>
+    <row r="22" spans="1:10" ht="21">
+      <c r="A22" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
-    </row>
-    <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="109" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="115"/>
+    </row>
+    <row r="23" spans="1:10" ht="21">
+      <c r="A23" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="31.2">
-      <c r="A23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="112"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6">
-      <c r="A24" s="27"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="54"/>
+    <row r="24" spans="1:10" ht="31.2">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="15.6">
@@ -5685,118 +5705,118 @@
       <c r="I28" s="54"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="119" t="s">
+    <row r="29" spans="1:10" ht="15.6">
+      <c r="A29" s="27"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="21">
+      <c r="A30" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="42">
-        <f>SUM(D24:D28)</f>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="42">
+        <f>SUM(D25:D29)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="42">
-        <f>SUM(E24:E28)</f>
+      <c r="E30" s="42">
+        <f>SUM(E25:E29)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="42">
-        <f>SUM(F24:F28)</f>
+      <c r="F30" s="42">
+        <f>SUM(F25:F29)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="42">
-        <f>SUM(G24:G28)</f>
+      <c r="G30" s="42">
+        <f>SUM(G25:G29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="42">
-        <f>SUM(H24:H28)</f>
+      <c r="H30" s="42">
+        <f>SUM(H25:H29)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="109" t="s">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="21">
+      <c r="A31" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="111"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="43" t="s">
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="112"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B32" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C32" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D32" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E32" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F32" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G32" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H32" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="44" t="s">
+      <c r="I32" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="44" t="s">
+      <c r="J32" s="44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="27"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
       <c r="A33" s="27"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="56"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" ht="19.8" customHeight="1">
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.6">
       <c r="A34" s="27"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="57"/>
-    </row>
-    <row r="35" spans="1:10" ht="18" customHeight="1">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" ht="19.8" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="57"/>
       <c r="C35" s="57"/>
@@ -5810,27 +5830,27 @@
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
       <c r="A36" s="27"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="54"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.6">
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="57"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" customHeight="1">
       <c r="A37" s="27"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="56"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="15.6">
       <c r="A38" s="27"/>
@@ -5846,27 +5866,27 @@
     </row>
     <row r="39" spans="1:10" ht="15.6">
       <c r="A39" s="27"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="57"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="57"/>
     </row>
     <row r="41" spans="1:10" ht="15.6">
       <c r="A41" s="11"/>
@@ -5906,27 +5926,27 @@
     </row>
     <row r="44" spans="1:10" ht="15.6">
       <c r="A44" s="11"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="56"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="54"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
       <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="56"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="15.6">
       <c r="A46" s="11"/>
@@ -5942,15 +5962,15 @@
     </row>
     <row r="47" spans="1:10" ht="15.6">
       <c r="A47" s="11"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="56"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="22"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="11"/>
@@ -5974,19 +5994,19 @@
       <c r="G49" s="12"/>
       <c r="H49" s="56"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="54"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="56"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="11"/>
@@ -6014,122 +6034,122 @@
     </row>
     <row r="53" spans="1:10" ht="15.6">
       <c r="A53" s="11"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="56"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="22"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" ht="15.6">
-      <c r="A54" s="33"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="34"/>
-    </row>
-    <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="122" t="s">
+      <c r="I54" s="12"/>
+      <c r="J54" s="22"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.6">
+      <c r="A55" s="33"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="34"/>
+    </row>
+    <row r="56" spans="1:10" ht="21">
+      <c r="A56" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="122"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="60">
-        <f>SUM(D32:D54)</f>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="60">
+        <f>SUM(D33:D55)</f>
         <v>0</v>
       </c>
-      <c r="E55" s="60">
-        <f>SUM(E32:E54)</f>
+      <c r="E56" s="60">
+        <f>SUM(E33:E55)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="60">
-        <f>SUM(F32:F54)</f>
+      <c r="F56" s="60">
+        <f>SUM(F33:F55)</f>
         <v>0</v>
       </c>
-      <c r="G55" s="60">
-        <f>SUM(G32:G54)</f>
+      <c r="G56" s="60">
+        <f>SUM(G33:G55)</f>
         <v>0</v>
       </c>
-      <c r="H55" s="61">
-        <f>SUM(H32:H54)</f>
+      <c r="H56" s="61">
+        <f>SUM(H33:H55)</f>
         <v>0</v>
       </c>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-    </row>
-    <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="112" t="s">
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+    </row>
+    <row r="58" spans="1:10" ht="21">
+      <c r="A58" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="113"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="113"/>
-      <c r="J57" s="114"/>
-    </row>
-    <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="109" t="s">
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="115"/>
+    </row>
+    <row r="59" spans="1:10" ht="21">
+      <c r="A59" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="110"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" ht="31.2">
-      <c r="A59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B59" s="111"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="112"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="15.6">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
+    <row r="60" spans="1:10" ht="31.2">
+      <c r="A60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
@@ -6147,7 +6167,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.6">
       <c r="A62" s="21"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
@@ -6157,96 +6177,96 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="42">
-        <f>SUM(D60:D62)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="42">
-        <f>SUM(E60:E62)</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="42">
-        <f>SUM(F60:F62)</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="42">
-        <f>SUM(G60:G62)</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="42">
-        <f>SUM(H60:H62)</f>
-        <v>0</v>
-      </c>
+    <row r="63" spans="1:10" ht="15.6">
+      <c r="A63" s="21"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="109" t="s">
+      <c r="A64" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="120"/>
+      <c r="C64" s="120"/>
+      <c r="D64" s="42">
+        <f>SUM(D61:D63)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="42">
+        <f>SUM(E61:E63)</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="42">
+        <f>SUM(F61:F63)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="42">
+        <f>SUM(G61:G63)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="42">
+        <f>SUM(H61:H63)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="21">
+      <c r="A65" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="110"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="110"/>
-      <c r="I64" s="110"/>
-      <c r="J64" s="111"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="62" t="s">
+      <c r="B65" s="111"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="111"/>
+      <c r="J65" s="112"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B66" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C66" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="62" t="s">
+      <c r="D66" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="62" t="s">
+      <c r="E66" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="62" t="s">
+      <c r="F66" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="62" t="s">
+      <c r="G66" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="63" t="s">
+      <c r="H66" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I65" s="63" t="s">
+      <c r="I66" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="63" t="s">
+      <c r="J66" s="63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.6">
-      <c r="A66" s="64"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
     </row>
     <row r="67" spans="1:10" ht="15.6">
       <c r="A67" s="64"/>
-      <c r="B67" s="12"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="65"/>
       <c r="D67" s="65"/>
       <c r="E67" s="65"/>
@@ -6257,16 +6277,16 @@
       <c r="J67" s="65"/>
     </row>
     <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="66"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
       <c r="H68" s="65"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
     </row>
     <row r="69" spans="1:10" ht="15.6">
       <c r="A69" s="66"/>
@@ -6276,7 +6296,7 @@
       <c r="E69" s="67"/>
       <c r="F69" s="67"/>
       <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
+      <c r="H69" s="65"/>
       <c r="I69" s="67"/>
       <c r="J69" s="67"/>
     </row>
@@ -6292,41 +6312,41 @@
       <c r="I70" s="67"/>
       <c r="J70" s="67"/>
     </row>
-    <row r="71" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="22"/>
+    <row r="71" spans="1:10" ht="15.6">
+      <c r="A71" s="66"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:10" ht="16.2" thickBot="1">
       <c r="A72" s="11"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
       <c r="H72" s="12"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="68"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="66"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="22"/>
+    </row>
+    <row r="73" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A73" s="11"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="68"/>
     </row>
     <row r="74" spans="1:10" ht="15.6">
       <c r="A74" s="66"/>
@@ -6365,135 +6385,147 @@
       <c r="J76" s="67"/>
     </row>
     <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="11"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="22"/>
+      <c r="A77" s="66"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
     </row>
     <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="33"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="35"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="22"/>
     </row>
     <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="69"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="35"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="45"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="72"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="11"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="22"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="72"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="45"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="71"/>
-    </row>
-    <row r="83" spans="1:10" ht="15">
-      <c r="A83" s="73"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="75"/>
-    </row>
-    <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="121" t="s">
+      <c r="A82" s="11"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="22"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.6">
+      <c r="A83" s="45"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="71"/>
+    </row>
+    <row r="84" spans="1:10" ht="15">
+      <c r="A84" s="73"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="75"/>
+    </row>
+    <row r="85" spans="1:10" ht="21">
+      <c r="A85" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="121"/>
-      <c r="C84" s="121"/>
-      <c r="D84" s="77">
-        <f>SUM(D66:D83)</f>
+      <c r="B85" s="121"/>
+      <c r="C85" s="121"/>
+      <c r="D85" s="77">
+        <f>SUM(D67:D84)</f>
         <v>0</v>
       </c>
-      <c r="E84" s="77">
-        <f>SUM(E66:E83)</f>
+      <c r="E85" s="77">
+        <f>SUM(E67:E84)</f>
         <v>0</v>
       </c>
-      <c r="F84" s="77">
-        <f>SUM(F66:F83)</f>
+      <c r="F85" s="77">
+        <f>SUM(F67:F84)</f>
         <v>0</v>
       </c>
-      <c r="G84" s="77">
-        <f>SUM(G66:G83)</f>
+      <c r="G85" s="77">
+        <f>SUM(G67:G84)</f>
         <v>0</v>
       </c>
-      <c r="H84" s="77">
-        <f>SUM(H66:H83)</f>
+      <c r="H85" s="77">
+        <f>SUM(H67:H84)</f>
         <v>0</v>
       </c>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:H59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6524,30 +6556,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="112"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6664,11 +6696,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6693,18 +6725,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6823,11 +6855,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6852,30 +6884,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="115"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="109" t="s">
+      <c r="A25" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="112"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -6980,11 +7012,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -7009,18 +7041,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="112"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7331,11 +7363,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="116" t="s">
+      <c r="A59" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="117"/>
-      <c r="C59" s="118"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="119"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7360,30 +7392,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="112" t="s">
+      <c r="A61" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="113"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="113"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="113"/>
-      <c r="J61" s="114"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="115"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="109" t="s">
+      <c r="A62" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="110"/>
-      <c r="C62" s="110"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="110"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="110"/>
-      <c r="H62" s="111"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="111"/>
+      <c r="H62" s="112"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7512,11 +7544,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="108" t="s">
+      <c r="A72" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="108"/>
-      <c r="C72" s="108"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="109"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7541,18 +7573,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="109" t="s">
+      <c r="A73" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="110"/>
-      <c r="C73" s="110"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="110"/>
-      <c r="F73" s="110"/>
-      <c r="G73" s="110"/>
-      <c r="H73" s="110"/>
-      <c r="I73" s="110"/>
-      <c r="J73" s="111"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="111"/>
+      <c r="J73" s="112"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7863,11 +7895,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="116" t="s">
+      <c r="A98" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="117"/>
-      <c r="C98" s="118"/>
+      <c r="B98" s="118"/>
+      <c r="C98" s="119"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7892,26 +7924,21 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="123"/>
-      <c r="B100" s="123"/>
-      <c r="C100" s="123"/>
-      <c r="D100" s="123"/>
-      <c r="E100" s="123"/>
+      <c r="A100" s="124"/>
+      <c r="B100" s="124"/>
+      <c r="C100" s="124"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="124"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="123"/>
-      <c r="B108" s="123"/>
-      <c r="C108" s="123"/>
-      <c r="D108" s="123"/>
-      <c r="E108" s="123"/>
+      <c r="A108" s="124"/>
+      <c r="B108" s="124"/>
+      <c r="C108" s="124"/>
+      <c r="D108" s="124"/>
+      <c r="E108" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7924,6 +7951,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7953,30 +7985,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="112"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -8111,11 +8143,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -8140,18 +8172,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="112"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8330,11 +8362,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8364,30 +8396,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="114"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="115"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="112"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8480,11 +8512,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8509,18 +8541,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="109" t="s">
+      <c r="A40" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="112"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8860,30 +8892,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="112" t="s">
+      <c r="A67" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="113"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="113"/>
-      <c r="H67" s="113"/>
-      <c r="I67" s="113"/>
-      <c r="J67" s="114"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="115"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="109" t="s">
+      <c r="A68" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="110"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="110"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="111"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="111"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="111"/>
+      <c r="F68" s="111"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="112"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8952,11 +8984,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="119" t="s">
+      <c r="A73" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="119"/>
-      <c r="C73" s="119"/>
+      <c r="B73" s="120"/>
+      <c r="C73" s="120"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -8981,18 +9013,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="109" t="s">
+      <c r="A74" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="110"/>
-      <c r="C74" s="110"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="110"/>
-      <c r="F74" s="110"/>
-      <c r="G74" s="110"/>
-      <c r="H74" s="110"/>
-      <c r="I74" s="110"/>
-      <c r="J74" s="111"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="111"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="112"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -9273,6 +9305,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9282,12 +9320,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -1277,13 +1277,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5080,7 +5080,7 @@
   <dimension ref="A2:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5568,11 +5568,11 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="51">
         <f>SUM(D10:D19)</f>
         <v>116953.87999999999</v>
@@ -6069,11 +6069,11 @@
       <c r="J55" s="34"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="122" t="s">
+      <c r="A56" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="122"/>
-      <c r="C56" s="122"/>
+      <c r="B56" s="123"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="60">
         <f>SUM(D33:D55)</f>
         <v>0</v>
@@ -6481,11 +6481,11 @@
       <c r="J84" s="75"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="121" t="s">
+      <c r="A85" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="121"/>
-      <c r="C85" s="121"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="122"/>
       <c r="D85" s="77">
         <f>SUM(D67:D84)</f>
         <v>0</v>
@@ -6511,12 +6511,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A65:J65"/>
     <mergeCell ref="A85:C85"/>
@@ -6526,6 +6520,12 @@
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="A58:J58"/>
     <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7939,6 +7939,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7951,11 +7956,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8362,11 +8362,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8863,11 +8863,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="122" t="s">
+      <c r="A65" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="122"/>
-      <c r="C65" s="122"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -9275,11 +9275,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="121" t="s">
+      <c r="A94" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="121"/>
-      <c r="C94" s="121"/>
+      <c r="B94" s="122"/>
+      <c r="C94" s="122"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -9305,12 +9305,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9320,6 +9314,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="219">
   <si>
     <t>APRIL</t>
   </si>
@@ -618,9 +618,6 @@
     <t>b23-24AQ202</t>
   </si>
   <si>
-    <t>Jaylacxmi Electricals</t>
-  </si>
-  <si>
     <t>JLE/23-24/1926</t>
   </si>
   <si>
@@ -667,6 +664,21 @@
   </si>
   <si>
     <t>09afapm2472f1zl</t>
+  </si>
+  <si>
+    <t>33/23-24</t>
+  </si>
+  <si>
+    <t>Jaylaxmi Electricals</t>
+  </si>
+  <si>
+    <t>navind Times &amp; Production</t>
+  </si>
+  <si>
+    <t>PNJ-GC23016578</t>
+  </si>
+  <si>
+    <t>30AAACUI705FIZ3</t>
   </si>
 </sst>
 </file>
@@ -915,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1232,6 +1244,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1277,13 +1295,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1591,30 +1609,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1834,11 +1852,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1863,18 +1881,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2662,11 +2680,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="106" t="s">
+      <c r="A42" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="107"/>
-      <c r="C42" s="108"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="110"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2691,30 +2709,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="117"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="112"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="114"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -2990,11 +3008,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="109" t="s">
+      <c r="A56" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="109"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="111"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -3019,18 +3037,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="110" t="s">
+      <c r="A57" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="111"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="111"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="112"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="114"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3868,11 +3886,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="118"/>
-      <c r="C88" s="119"/>
+      <c r="B88" s="120"/>
+      <c r="C88" s="121"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3897,30 +3915,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="113" t="s">
+      <c r="A90" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="114"/>
-      <c r="C90" s="114"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="114"/>
-      <c r="G90" s="114"/>
-      <c r="H90" s="114"/>
-      <c r="I90" s="114"/>
-      <c r="J90" s="115"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="116"/>
+      <c r="H90" s="116"/>
+      <c r="I90" s="116"/>
+      <c r="J90" s="117"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="110" t="s">
+      <c r="A91" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="111"/>
-      <c r="C91" s="111"/>
-      <c r="D91" s="111"/>
-      <c r="E91" s="111"/>
-      <c r="F91" s="111"/>
-      <c r="G91" s="111"/>
-      <c r="H91" s="112"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
+      <c r="G91" s="113"/>
+      <c r="H91" s="114"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4142,11 +4160,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="109" t="s">
+      <c r="A100" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="109"/>
-      <c r="C100" s="109"/>
+      <c r="B100" s="111"/>
+      <c r="C100" s="111"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4171,18 +4189,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="110" t="s">
+      <c r="A101" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="111"/>
-      <c r="C101" s="111"/>
-      <c r="D101" s="111"/>
-      <c r="E101" s="111"/>
-      <c r="F101" s="111"/>
-      <c r="G101" s="111"/>
-      <c r="H101" s="111"/>
-      <c r="I101" s="111"/>
-      <c r="J101" s="112"/>
+      <c r="B101" s="113"/>
+      <c r="C101" s="113"/>
+      <c r="D101" s="113"/>
+      <c r="E101" s="113"/>
+      <c r="F101" s="113"/>
+      <c r="G101" s="113"/>
+      <c r="H101" s="113"/>
+      <c r="I101" s="113"/>
+      <c r="J101" s="114"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4837,11 +4855,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="106" t="s">
+      <c r="A125" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="107"/>
-      <c r="C125" s="108"/>
+      <c r="B125" s="109"/>
+      <c r="C125" s="110"/>
       <c r="D125" s="29">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -5080,7 +5098,7 @@
   <dimension ref="A2:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5099,30 +5117,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5209,11 +5227,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="42">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -5238,18 +5256,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="43" t="s">
@@ -5288,10 +5306,10 @@
         <v>45110</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>199</v>
       </c>
       <c r="D10" s="12">
         <v>962.5</v>
@@ -5309,7 +5327,7 @@
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1">
@@ -5320,7 +5338,7 @@
         <v>125</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="12">
         <v>900</v>
@@ -5333,7 +5351,7 @@
         <v>81</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" ref="H11:H19" si="1">D11+E11+F11+G11</f>
+        <f t="shared" ref="H11:H21" si="1">D11+E11+F11+G11</f>
         <v>1062</v>
       </c>
       <c r="I11" s="12"/>
@@ -5346,10 +5364,10 @@
         <v>45117</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>212</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>213</v>
       </c>
       <c r="D12" s="46">
         <v>42881.36</v>
@@ -5365,7 +5383,7 @@
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
@@ -5376,7 +5394,7 @@
         <v>105</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="46">
         <v>27040</v>
@@ -5403,7 +5421,7 @@
         <v>71</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="81">
         <v>3750</v>
@@ -5429,7 +5447,7 @@
         <v>45119</v>
       </c>
       <c r="B15" s="101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="102">
         <v>436</v>
@@ -5450,7 +5468,7 @@
       </c>
       <c r="I15" s="103"/>
       <c r="J15" s="102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.2" customHeight="1">
@@ -5458,10 +5476,10 @@
         <v>45121</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>205</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>206</v>
       </c>
       <c r="D16" s="36">
         <v>3250</v>
@@ -5479,7 +5497,7 @@
       </c>
       <c r="I16" s="36"/>
       <c r="J16" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
@@ -5487,10 +5505,10 @@
         <v>45121</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="D17" s="12">
         <v>10750</v>
@@ -5519,7 +5537,7 @@
         <v>105</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" s="12">
         <v>13620</v>
@@ -5543,7 +5561,7 @@
         <v>45131</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="12">
         <v>476</v>
@@ -5564,121 +5582,153 @@
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="121" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="106" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="11">
+        <v>45131</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="12">
+        <v>20205</v>
+      </c>
+      <c r="E20" s="12">
+        <v>3636.9</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
+        <f t="shared" si="1"/>
+        <v>23841.9</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="107" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A21" s="11">
+        <v>45136</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="12">
+        <v>152</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="G21" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="1"/>
+        <v>159.60000000000002</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21">
+      <c r="A22" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="51">
-        <f>SUM(D10:D19)</f>
-        <v>116953.87999999999</v>
-      </c>
-      <c r="E20" s="51">
-        <f>SUM(E10:E18)</f>
-        <v>15037.44</v>
-      </c>
-      <c r="F20" s="51">
-        <f>SUM(F10:F19)</f>
-        <v>2252.63</v>
-      </c>
-      <c r="G20" s="51">
-        <f>SUM(G10:G19)</f>
-        <v>2252.63</v>
-      </c>
-      <c r="H20" s="52">
-        <f>SUM(H10:H18)</f>
-        <v>131696.57</v>
-      </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-    </row>
-    <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="113" t="s">
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="51">
+        <f>SUM(D10:D21)</f>
+        <v>137310.88</v>
+      </c>
+      <c r="E22" s="51">
+        <f>SUM(E10:E20)</f>
+        <v>18674.34</v>
+      </c>
+      <c r="F22" s="51">
+        <f>SUM(F10:F21)</f>
+        <v>2256.4300000000003</v>
+      </c>
+      <c r="G22" s="51">
+        <f>SUM(G10:G21)</f>
+        <v>2256.4300000000003</v>
+      </c>
+      <c r="H22" s="52">
+        <f>SUM(H10:H20)</f>
+        <v>160338.48000000001</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="21">
+      <c r="A24" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
-    </row>
-    <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="110" t="s">
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117"/>
+    </row>
+    <row r="25" spans="1:10" ht="21">
+      <c r="A25" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="31.2">
-      <c r="A24" s="3" t="s">
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="31.2">
+      <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.6">
-      <c r="A25" s="27"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="27"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="54"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.6">
@@ -5717,140 +5767,140 @@
       <c r="I29" s="54"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="120" t="s">
+    <row r="30" spans="1:10" ht="15.6">
+      <c r="A30" s="27"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.6">
+      <c r="A31" s="27"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="21">
+      <c r="A32" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="42">
-        <f>SUM(D25:D29)</f>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="42">
+        <f>SUM(D27:D31)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="42">
-        <f>SUM(E25:E29)</f>
+      <c r="E32" s="42">
+        <f>SUM(E27:E31)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="42">
-        <f>SUM(F25:F29)</f>
+      <c r="F32" s="42">
+        <f>SUM(F27:F31)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="42">
-        <f>SUM(G25:G29)</f>
+      <c r="G32" s="42">
+        <f>SUM(G27:G31)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="42">
-        <f>SUM(H25:H29)</f>
+      <c r="H32" s="42">
+        <f>SUM(H27:H31)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="110" t="s">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="21">
+      <c r="A33" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="112"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="43" t="s">
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B34" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C34" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D34" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E34" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F34" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G34" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H34" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="44" t="s">
+      <c r="I34" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="44" t="s">
+      <c r="J34" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="27"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="27"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" ht="19.8" customHeight="1">
+    <row r="35" spans="1:10" ht="15.6">
       <c r="A35" s="27"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="57"/>
-    </row>
-    <row r="36" spans="1:10" ht="18" customHeight="1">
+      <c r="B35" s="22"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.6">
       <c r="A36" s="27"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="57"/>
-    </row>
-    <row r="37" spans="1:10" ht="18" customHeight="1">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="19.8" customHeight="1">
       <c r="A37" s="27"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="54"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="57"/>
     </row>
     <row r="38" spans="1:10" ht="15.6">
       <c r="A38" s="27"/>
@@ -6069,59 +6119,59 @@
       <c r="J55" s="34"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="123" t="s">
+      <c r="A56" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="123"/>
-      <c r="C56" s="123"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124"/>
       <c r="D56" s="60">
-        <f>SUM(D33:D55)</f>
+        <f>SUM(D35:D55)</f>
         <v>0</v>
       </c>
       <c r="E56" s="60">
-        <f>SUM(E33:E55)</f>
+        <f>SUM(E35:E55)</f>
         <v>0</v>
       </c>
       <c r="F56" s="60">
-        <f>SUM(F33:F55)</f>
+        <f>SUM(F35:F55)</f>
         <v>0</v>
       </c>
       <c r="G56" s="60">
-        <f>SUM(G33:G55)</f>
+        <f>SUM(G35:G55)</f>
         <v>0</v>
       </c>
       <c r="H56" s="61">
-        <f>SUM(H33:H55)</f>
+        <f>SUM(H35:H55)</f>
         <v>0</v>
       </c>
       <c r="I56" s="60"/>
       <c r="J56" s="60"/>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="113" t="s">
+      <c r="A58" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="115"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="117"/>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="111"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="112"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="114"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
@@ -6190,11 +6240,11 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="120" t="s">
+      <c r="A64" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="120"/>
-      <c r="C64" s="120"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
       <c r="D64" s="42">
         <f>SUM(D61:D63)</f>
         <v>0</v>
@@ -6219,18 +6269,18 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="111"/>
-      <c r="C65" s="111"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
-      <c r="J65" s="112"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="113"/>
+      <c r="J65" s="114"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="62" t="s">
@@ -6481,11 +6531,11 @@
       <c r="J84" s="75"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="122" t="s">
+      <c r="A85" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
       <c r="D85" s="77">
         <f>SUM(D67:D84)</f>
         <v>0</v>
@@ -6511,21 +6561,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:H59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6556,30 +6606,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6696,11 +6746,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6725,18 +6775,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6855,11 +6905,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="108"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6884,30 +6934,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="112"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="114"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -7012,11 +7062,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -7041,18 +7091,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="112"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="114"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7363,11 +7413,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="117" t="s">
+      <c r="A59" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="118"/>
-      <c r="C59" s="119"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="121"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7392,30 +7442,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="113" t="s">
+      <c r="A61" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="115"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="117"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="110" t="s">
+      <c r="A62" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="111"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="111"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="112"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="114"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7544,11 +7594,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="109" t="s">
+      <c r="A72" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="109"/>
-      <c r="C72" s="109"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="111"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7573,18 +7623,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="110" t="s">
+      <c r="A73" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="111"/>
-      <c r="C73" s="111"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="112"/>
+      <c r="B73" s="113"/>
+      <c r="C73" s="113"/>
+      <c r="D73" s="113"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="113"/>
+      <c r="G73" s="113"/>
+      <c r="H73" s="113"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="114"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7895,11 +7945,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="117" t="s">
+      <c r="A98" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="118"/>
-      <c r="C98" s="119"/>
+      <c r="B98" s="120"/>
+      <c r="C98" s="121"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7924,26 +7974,21 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="124"/>
-      <c r="B100" s="124"/>
-      <c r="C100" s="124"/>
-      <c r="D100" s="124"/>
-      <c r="E100" s="124"/>
+      <c r="A100" s="126"/>
+      <c r="B100" s="126"/>
+      <c r="C100" s="126"/>
+      <c r="D100" s="126"/>
+      <c r="E100" s="126"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="124"/>
-      <c r="B108" s="124"/>
-      <c r="C108" s="124"/>
-      <c r="D108" s="124"/>
-      <c r="E108" s="124"/>
+      <c r="A108" s="126"/>
+      <c r="B108" s="126"/>
+      <c r="C108" s="126"/>
+      <c r="D108" s="126"/>
+      <c r="E108" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -7956,6 +8001,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7965,8 +8015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -7985,30 +8035,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -8143,11 +8193,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -8172,18 +8222,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="112"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8362,11 +8412,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8396,30 +8446,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="114"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="117"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="114"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8512,11 +8562,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="120"/>
-      <c r="C39" s="120"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8541,18 +8591,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="112"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="114"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8863,11 +8913,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="123" t="s">
+      <c r="A65" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="123"/>
-      <c r="C65" s="123"/>
+      <c r="B65" s="124"/>
+      <c r="C65" s="124"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8892,30 +8942,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="113" t="s">
+      <c r="A67" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="115"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="116"/>
+      <c r="H67" s="116"/>
+      <c r="I67" s="116"/>
+      <c r="J67" s="117"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="111"/>
-      <c r="C68" s="111"/>
-      <c r="D68" s="111"/>
-      <c r="E68" s="111"/>
-      <c r="F68" s="111"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="112"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="113"/>
+      <c r="E68" s="113"/>
+      <c r="F68" s="113"/>
+      <c r="G68" s="113"/>
+      <c r="H68" s="114"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -8984,11 +9034,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="120" t="s">
+      <c r="A73" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="120"/>
-      <c r="C73" s="120"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="122"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -9013,18 +9063,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="110" t="s">
+      <c r="A74" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="111"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="111"/>
-      <c r="I74" s="111"/>
-      <c r="J74" s="112"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="113"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="113"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="114"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -9275,11 +9325,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="122" t="s">
+      <c r="A94" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="122"/>
-      <c r="C94" s="122"/>
+      <c r="B94" s="123"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -9305,6 +9355,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9314,12 +9370,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="220">
   <si>
     <t>APRIL</t>
   </si>
@@ -672,13 +672,16 @@
     <t>Jaylaxmi Electricals</t>
   </si>
   <si>
-    <t>navind Times &amp; Production</t>
-  </si>
-  <si>
     <t>PNJ-GC23016578</t>
   </si>
   <si>
     <t>30AAACUI705FIZ3</t>
+  </si>
+  <si>
+    <t>Navind Times &amp; Production</t>
+  </si>
+  <si>
+    <t>SLH/1416</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1250,6 +1253,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1295,13 +1301,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1609,30 +1615,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1852,11 +1858,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1881,18 +1887,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2680,11 +2686,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="109"/>
-      <c r="C42" s="110"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2709,30 +2715,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="115" t="s">
+      <c r="A44" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="117"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="118"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="112" t="s">
+      <c r="A45" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="114"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="115"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -3008,11 +3014,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="111" t="s">
+      <c r="A56" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="111"/>
-      <c r="C56" s="111"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -3037,18 +3043,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="112" t="s">
+      <c r="A57" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="113"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="113"/>
-      <c r="J57" s="114"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="115"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3886,11 +3892,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="119" t="s">
+      <c r="A88" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="120"/>
-      <c r="C88" s="121"/>
+      <c r="B88" s="121"/>
+      <c r="C88" s="122"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3915,30 +3921,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="115" t="s">
+      <c r="A90" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="116"/>
-      <c r="C90" s="116"/>
-      <c r="D90" s="116"/>
-      <c r="E90" s="116"/>
-      <c r="F90" s="116"/>
-      <c r="G90" s="116"/>
-      <c r="H90" s="116"/>
-      <c r="I90" s="116"/>
-      <c r="J90" s="117"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="117"/>
+      <c r="D90" s="117"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="117"/>
+      <c r="H90" s="117"/>
+      <c r="I90" s="117"/>
+      <c r="J90" s="118"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="112" t="s">
+      <c r="A91" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
-      <c r="G91" s="113"/>
-      <c r="H91" s="114"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
+      <c r="G91" s="114"/>
+      <c r="H91" s="115"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4160,11 +4166,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="111" t="s">
+      <c r="A100" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="111"/>
-      <c r="C100" s="111"/>
+      <c r="B100" s="112"/>
+      <c r="C100" s="112"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4189,18 +4195,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="112" t="s">
+      <c r="A101" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="113"/>
-      <c r="C101" s="113"/>
-      <c r="D101" s="113"/>
-      <c r="E101" s="113"/>
-      <c r="F101" s="113"/>
-      <c r="G101" s="113"/>
-      <c r="H101" s="113"/>
-      <c r="I101" s="113"/>
-      <c r="J101" s="114"/>
+      <c r="B101" s="114"/>
+      <c r="C101" s="114"/>
+      <c r="D101" s="114"/>
+      <c r="E101" s="114"/>
+      <c r="F101" s="114"/>
+      <c r="G101" s="114"/>
+      <c r="H101" s="114"/>
+      <c r="I101" s="114"/>
+      <c r="J101" s="115"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4855,11 +4861,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="110"/>
+      <c r="B125" s="110"/>
+      <c r="C125" s="111"/>
       <c r="D125" s="29">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -5095,10 +5101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J85"/>
+  <dimension ref="A2:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5117,30 +5123,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5227,11 +5233,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="42">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -5256,18 +5262,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="43" t="s">
@@ -5351,7 +5357,7 @@
         <v>81</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" ref="H11:H21" si="1">D11+E11+F11+G11</f>
+        <f t="shared" ref="H11:H22" si="1">D11+E11+F11+G11</f>
         <v>1062</v>
       </c>
       <c r="I11" s="12"/>
@@ -5612,135 +5618,152 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="107" customFormat="1" ht="16.5" customHeight="1">
+    <row r="21" spans="1:10" s="108" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="11">
-        <v>45136</v>
+        <v>45132</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D21" s="12">
-        <v>152</v>
+        <v>875</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12">
-        <v>3.8</v>
+        <v>78.75</v>
       </c>
       <c r="G21" s="12">
-        <v>3.8</v>
+        <v>78.75</v>
       </c>
       <c r="H21" s="12">
         <f t="shared" si="1"/>
-        <v>159.60000000000002</v>
+        <v>1032.5</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="107" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A22" s="11">
+        <v>45136</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="125" t="s">
+      <c r="C22" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="12">
+        <v>152</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="G22" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="1"/>
+        <v>159.60000000000002</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21">
+      <c r="A23" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="51">
-        <f>SUM(D10:D21)</f>
-        <v>137310.88</v>
-      </c>
-      <c r="E22" s="51">
-        <f>SUM(E10:E20)</f>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="51">
+        <f>SUM(D10:D22)</f>
+        <v>138185.88</v>
+      </c>
+      <c r="E23" s="51">
+        <f>SUM(E10:E22)</f>
         <v>18674.34</v>
       </c>
-      <c r="F22" s="51">
-        <f>SUM(F10:F21)</f>
-        <v>2256.4300000000003</v>
-      </c>
-      <c r="G22" s="51">
-        <f>SUM(G10:G21)</f>
-        <v>2256.4300000000003</v>
-      </c>
-      <c r="H22" s="52">
-        <f>SUM(H10:H20)</f>
-        <v>160338.48000000001</v>
-      </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-    </row>
-    <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="115" t="s">
+      <c r="F23" s="51">
+        <f>SUM(F10:F22)</f>
+        <v>2335.1800000000003</v>
+      </c>
+      <c r="G23" s="51">
+        <f>SUM(G10:G22)</f>
+        <v>2335.1800000000003</v>
+      </c>
+      <c r="H23" s="52">
+        <f>SUM(H10:H22)</f>
+        <v>161530.58000000002</v>
+      </c>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+    </row>
+    <row r="25" spans="1:10" ht="21">
+      <c r="A25" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
-    </row>
-    <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="112" t="s">
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+    </row>
+    <row r="26" spans="1:10" ht="21">
+      <c r="A26" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="31.2">
-      <c r="A26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6">
-      <c r="A27" s="27"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="54"/>
+    <row r="27" spans="1:10" ht="31.2">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.6">
@@ -5791,128 +5814,128 @@
       <c r="I31" s="54"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="122" t="s">
+    <row r="32" spans="1:10" ht="15.6">
+      <c r="A32" s="27"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="21">
+      <c r="A33" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="42">
-        <f>SUM(D27:D31)</f>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="42">
+        <f>SUM(D28:D32)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="42">
-        <f>SUM(E27:E31)</f>
+      <c r="E33" s="42">
+        <f>SUM(E28:E32)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="42">
-        <f>SUM(F27:F31)</f>
+      <c r="F33" s="42">
+        <f>SUM(F28:F32)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="42">
-        <f>SUM(G27:G31)</f>
+      <c r="G33" s="42">
+        <f>SUM(G28:G32)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="42">
-        <f>SUM(H27:H31)</f>
+      <c r="H33" s="42">
+        <f>SUM(H28:H32)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="112" t="s">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="21">
+      <c r="A34" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="43" t="s">
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="115"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B35" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C35" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E35" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F35" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="43" t="s">
+      <c r="G35" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="44" t="s">
+      <c r="H35" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="44" t="s">
+      <c r="I35" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="44" t="s">
+      <c r="J35" s="44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="27"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" ht="15.6">
       <c r="A36" s="27"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="56"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="1:10" ht="19.8" customHeight="1">
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.6">
       <c r="A37" s="27"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="57"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.6">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" ht="19.8" customHeight="1">
       <c r="A38" s="27"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="57"/>
     </row>
     <row r="39" spans="1:10" ht="15.6">
       <c r="A39" s="27"/>
@@ -5928,27 +5951,27 @@
     </row>
     <row r="40" spans="1:10" ht="15.6">
       <c r="A40" s="27"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="57"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="57"/>
     </row>
     <row r="42" spans="1:10" ht="15.6">
       <c r="A42" s="11"/>
@@ -5988,27 +6011,27 @@
     </row>
     <row r="45" spans="1:10" ht="15.6">
       <c r="A45" s="11"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="56"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="54"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10" ht="15.6">
       <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="56"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
       <c r="A47" s="11"/>
@@ -6024,15 +6047,15 @@
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="11"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="56"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="22"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="1:10" ht="15.6">
       <c r="A49" s="11"/>
@@ -6056,19 +6079,19 @@
       <c r="G50" s="12"/>
       <c r="H50" s="56"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="54"/>
+      <c r="J50" s="22"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="56"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="11"/>
@@ -6096,122 +6119,122 @@
     </row>
     <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="11"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="22"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="56"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="22"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
-      <c r="A55" s="33"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="56"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="34"/>
-    </row>
-    <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="124" t="s">
+      <c r="I55" s="12"/>
+      <c r="J55" s="22"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.6">
+      <c r="A56" s="33"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="34"/>
+    </row>
+    <row r="57" spans="1:10" ht="21">
+      <c r="A57" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="124"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="60">
-        <f>SUM(D35:D55)</f>
+      <c r="B57" s="126"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="60">
+        <f>SUM(D36:D56)</f>
         <v>0</v>
       </c>
-      <c r="E56" s="60">
-        <f>SUM(E35:E55)</f>
+      <c r="E57" s="60">
+        <f>SUM(E36:E56)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="60">
-        <f>SUM(F35:F55)</f>
+      <c r="F57" s="60">
+        <f>SUM(F36:F56)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="60">
-        <f>SUM(G35:G55)</f>
+      <c r="G57" s="60">
+        <f>SUM(G36:G56)</f>
         <v>0</v>
       </c>
-      <c r="H56" s="61">
-        <f>SUM(H35:H55)</f>
+      <c r="H57" s="61">
+        <f>SUM(H36:H56)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-    </row>
-    <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="115" t="s">
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+    </row>
+    <row r="59" spans="1:10" ht="21">
+      <c r="A59" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="117"/>
-    </row>
-    <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="112" t="s">
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="118"/>
+    </row>
+    <row r="60" spans="1:10" ht="21">
+      <c r="A60" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" ht="31.2">
-      <c r="A60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="115"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
+    <row r="61" spans="1:10" ht="31.2">
+      <c r="A61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
@@ -6229,7 +6252,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.6">
       <c r="A63" s="21"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -6239,96 +6262,96 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="122" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="122"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="42">
-        <f>SUM(D61:D63)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="42">
-        <f>SUM(E61:E63)</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="42">
-        <f>SUM(F61:F63)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="42">
-        <f>SUM(G61:G63)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="42">
-        <f>SUM(H61:H63)</f>
-        <v>0</v>
-      </c>
+    <row r="64" spans="1:10" ht="15.6">
+      <c r="A64" s="21"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="112" t="s">
+      <c r="A65" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="123"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="42">
+        <f>SUM(D62:D64)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="42">
+        <f>SUM(E62:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="42">
+        <f>SUM(F62:F64)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="42">
+        <f>SUM(G62:G64)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="42">
+        <f>SUM(H62:H64)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" ht="21">
+      <c r="A66" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
-      <c r="J65" s="114"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="62" t="s">
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="115"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B67" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C67" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="62" t="s">
+      <c r="D67" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="62" t="s">
+      <c r="E67" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="62" t="s">
+      <c r="F67" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="62" t="s">
+      <c r="G67" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="63" t="s">
+      <c r="H67" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I66" s="63" t="s">
+      <c r="I67" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J66" s="63" t="s">
+      <c r="J67" s="63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.6">
-      <c r="A67" s="64"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
     </row>
     <row r="68" spans="1:10" ht="15.6">
       <c r="A68" s="64"/>
-      <c r="B68" s="12"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="65"/>
       <c r="D68" s="65"/>
       <c r="E68" s="65"/>
@@ -6339,16 +6362,16 @@
       <c r="J68" s="65"/>
     </row>
     <row r="69" spans="1:10" ht="15.6">
-      <c r="A69" s="66"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
       <c r="H69" s="65"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
     </row>
     <row r="70" spans="1:10" ht="15.6">
       <c r="A70" s="66"/>
@@ -6358,7 +6381,7 @@
       <c r="E70" s="67"/>
       <c r="F70" s="67"/>
       <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
+      <c r="H70" s="65"/>
       <c r="I70" s="67"/>
       <c r="J70" s="67"/>
     </row>
@@ -6374,41 +6397,41 @@
       <c r="I71" s="67"/>
       <c r="J71" s="67"/>
     </row>
-    <row r="72" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="22"/>
+    <row r="72" spans="1:10" ht="15.6">
+      <c r="A72" s="66"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:10" ht="16.2" thickBot="1">
       <c r="A73" s="11"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
       <c r="H73" s="12"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="68"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="66"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="22"/>
+    </row>
+    <row r="74" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A74" s="11"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="68"/>
     </row>
     <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="66"/>
@@ -6447,135 +6470,147 @@
       <c r="J77" s="67"/>
     </row>
     <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="11"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="22"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
     </row>
     <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="33"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="35"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="22"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="69"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="45"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="72"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="70"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="11"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="22"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="72"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="45"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="71"/>
-    </row>
-    <row r="84" spans="1:10" ht="15">
-      <c r="A84" s="73"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="76"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="75"/>
-    </row>
-    <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="123" t="s">
+      <c r="A83" s="11"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="22"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.6">
+      <c r="A84" s="45"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="71"/>
+    </row>
+    <row r="85" spans="1:10" ht="15">
+      <c r="A85" s="73"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="75"/>
+    </row>
+    <row r="86" spans="1:10" ht="21">
+      <c r="A86" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="77">
-        <f>SUM(D67:D84)</f>
+      <c r="B86" s="125"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="77">
+        <f>SUM(D68:D85)</f>
         <v>0</v>
       </c>
-      <c r="E85" s="77">
-        <f>SUM(E67:E84)</f>
+      <c r="E86" s="77">
+        <f>SUM(E68:E85)</f>
         <v>0</v>
       </c>
-      <c r="F85" s="77">
-        <f>SUM(F67:F84)</f>
+      <c r="F86" s="77">
+        <f>SUM(F68:F85)</f>
         <v>0</v>
       </c>
-      <c r="G85" s="77">
-        <f>SUM(G67:G84)</f>
+      <c r="G86" s="77">
+        <f>SUM(G68:G85)</f>
         <v>0</v>
       </c>
-      <c r="H85" s="77">
-        <f>SUM(H67:H84)</f>
+      <c r="H86" s="77">
+        <f>SUM(H68:H85)</f>
         <v>0</v>
       </c>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6606,30 +6641,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6746,11 +6781,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6775,18 +6810,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6905,11 +6940,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6934,30 +6969,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -7062,11 +7097,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -7091,18 +7126,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="115"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7413,11 +7448,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="119" t="s">
+      <c r="A59" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="120"/>
-      <c r="C59" s="121"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="122"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7442,30 +7477,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="115" t="s">
+      <c r="A61" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="117"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="118"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="113"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="114"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="115"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7594,11 +7629,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="111" t="s">
+      <c r="A72" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="111"/>
-      <c r="C72" s="111"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="112"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7623,18 +7658,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="112" t="s">
+      <c r="A73" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="113"/>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="113"/>
-      <c r="G73" s="113"/>
-      <c r="H73" s="113"/>
-      <c r="I73" s="113"/>
-      <c r="J73" s="114"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="114"/>
+      <c r="H73" s="114"/>
+      <c r="I73" s="114"/>
+      <c r="J73" s="115"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7945,11 +7980,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="119" t="s">
+      <c r="A98" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="120"/>
-      <c r="C98" s="121"/>
+      <c r="B98" s="121"/>
+      <c r="C98" s="122"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -7974,21 +8009,26 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="126"/>
-      <c r="B100" s="126"/>
-      <c r="C100" s="126"/>
-      <c r="D100" s="126"/>
-      <c r="E100" s="126"/>
+      <c r="A100" s="127"/>
+      <c r="B100" s="127"/>
+      <c r="C100" s="127"/>
+      <c r="D100" s="127"/>
+      <c r="E100" s="127"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="126"/>
-      <c r="B108" s="126"/>
-      <c r="C108" s="126"/>
-      <c r="D108" s="126"/>
-      <c r="E108" s="126"/>
+      <c r="A108" s="127"/>
+      <c r="B108" s="127"/>
+      <c r="C108" s="127"/>
+      <c r="D108" s="127"/>
+      <c r="E108" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -8001,11 +8041,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8035,30 +8070,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -8193,11 +8228,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -8222,18 +8257,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8412,11 +8447,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8446,30 +8481,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="114"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="115"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8562,11 +8597,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8591,18 +8626,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="114"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="115"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8913,11 +8948,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="124" t="s">
+      <c r="A65" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="124"/>
-      <c r="C65" s="124"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="126"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8942,30 +8977,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="115" t="s">
+      <c r="A67" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="116"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="116"/>
-      <c r="E67" s="116"/>
-      <c r="F67" s="116"/>
-      <c r="G67" s="116"/>
-      <c r="H67" s="116"/>
-      <c r="I67" s="116"/>
-      <c r="J67" s="117"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="117"/>
+      <c r="I67" s="117"/>
+      <c r="J67" s="118"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="112" t="s">
+      <c r="A68" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="113"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="113"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="113"/>
-      <c r="H68" s="114"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="115"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -9034,11 +9069,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="122" t="s">
+      <c r="A73" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="122"/>
-      <c r="C73" s="122"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -9063,18 +9098,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="112" t="s">
+      <c r="A74" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="113"/>
-      <c r="C74" s="113"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113"/>
-      <c r="F74" s="113"/>
-      <c r="G74" s="113"/>
-      <c r="H74" s="113"/>
-      <c r="I74" s="113"/>
-      <c r="J74" s="114"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="114"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="114"/>
+      <c r="H74" s="114"/>
+      <c r="I74" s="114"/>
+      <c r="J74" s="115"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -9325,11 +9360,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="123" t="s">
+      <c r="A94" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="123"/>
-      <c r="C94" s="123"/>
+      <c r="B94" s="125"/>
+      <c r="C94" s="125"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -9355,12 +9390,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9370,6 +9399,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="227">
   <si>
     <t>APRIL</t>
   </si>
@@ -682,13 +682,34 @@
   </si>
   <si>
     <t>SLH/1416</t>
+  </si>
+  <si>
+    <t>35/23-24</t>
+  </si>
+  <si>
+    <t>Flexaflex Hoses International</t>
+  </si>
+  <si>
+    <t>G-23241047</t>
+  </si>
+  <si>
+    <t>24AADFF7818C1ZQ</t>
+  </si>
+  <si>
+    <t>DEMPO INDUSTRIES PVT. LTD.</t>
+  </si>
+  <si>
+    <t>30AAACU1705F1Z3</t>
+  </si>
+  <si>
+    <t>C23003254</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +776,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="5">
@@ -930,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1256,6 +1282,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1312,6 +1344,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,30 +1656,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1858,11 +1899,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1887,18 +1928,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="117"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2686,11 +2727,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="109" t="s">
+      <c r="A42" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="111"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="113"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2715,30 +2756,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="116" t="s">
+      <c r="A44" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="117"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="118"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="113" t="s">
+      <c r="A45" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="117"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -3014,11 +3055,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="112" t="s">
+      <c r="A56" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="112"/>
-      <c r="C56" s="112"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -3043,18 +3084,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
-      <c r="J57" s="115"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="117"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3892,11 +3933,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="120" t="s">
+      <c r="A88" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="121"/>
-      <c r="C88" s="122"/>
+      <c r="B88" s="123"/>
+      <c r="C88" s="124"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3921,30 +3962,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="116" t="s">
+      <c r="A90" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="117"/>
-      <c r="C90" s="117"/>
-      <c r="D90" s="117"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="117"/>
-      <c r="H90" s="117"/>
-      <c r="I90" s="117"/>
-      <c r="J90" s="118"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="119"/>
+      <c r="E90" s="119"/>
+      <c r="F90" s="119"/>
+      <c r="G90" s="119"/>
+      <c r="H90" s="119"/>
+      <c r="I90" s="119"/>
+      <c r="J90" s="120"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="114"/>
-      <c r="C91" s="114"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="114"/>
-      <c r="F91" s="114"/>
-      <c r="G91" s="114"/>
-      <c r="H91" s="115"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="116"/>
+      <c r="D91" s="116"/>
+      <c r="E91" s="116"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="116"/>
+      <c r="H91" s="117"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4166,11 +4207,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="112" t="s">
+      <c r="A100" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="112"/>
-      <c r="C100" s="112"/>
+      <c r="B100" s="114"/>
+      <c r="C100" s="114"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4195,18 +4236,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="113" t="s">
+      <c r="A101" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="114"/>
-      <c r="C101" s="114"/>
-      <c r="D101" s="114"/>
-      <c r="E101" s="114"/>
-      <c r="F101" s="114"/>
-      <c r="G101" s="114"/>
-      <c r="H101" s="114"/>
-      <c r="I101" s="114"/>
-      <c r="J101" s="115"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="116"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
+      <c r="G101" s="116"/>
+      <c r="H101" s="116"/>
+      <c r="I101" s="116"/>
+      <c r="J101" s="117"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4861,11 +4902,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="110"/>
-      <c r="C125" s="111"/>
+      <c r="B125" s="112"/>
+      <c r="C125" s="113"/>
       <c r="D125" s="29">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -5101,10 +5142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J86"/>
+  <dimension ref="A2:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5123,30 +5164,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5233,11 +5274,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="42">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -5262,18 +5303,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="43" t="s">
@@ -5357,7 +5398,7 @@
         <v>81</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" ref="H11:H22" si="1">D11+E11+F11+G11</f>
+        <f t="shared" ref="H11:H25" si="1">D11+E11+F11+G11</f>
         <v>1062</v>
       </c>
       <c r="I11" s="12"/>
@@ -5647,159 +5688,206 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="107" customFormat="1" ht="16.5" customHeight="1">
+    <row r="22" spans="1:10" s="109" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="11">
-        <v>45136</v>
+        <v>45133</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D22" s="12">
-        <v>152</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="G22" s="12">
-        <v>3.8</v>
-      </c>
+        <v>16550</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2979</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="12">
         <f t="shared" si="1"/>
-        <v>159.60000000000002</v>
+        <v>19529</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="107" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A23" s="11">
+        <v>45136</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="12">
+        <v>152</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="G23" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="1"/>
+        <v>159.60000000000002</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="124" t="s">
+    <row r="24" spans="1:10" s="110" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A24" s="130">
+        <v>45136</v>
+      </c>
+      <c r="B24" s="131" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="132">
+        <v>152</v>
+      </c>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132">
+        <v>3.8</v>
+      </c>
+      <c r="G24" s="132">
+        <v>3.8</v>
+      </c>
+      <c r="H24" s="132">
+        <f t="shared" si="1"/>
+        <v>159.60000000000002</v>
+      </c>
+      <c r="I24" s="132"/>
+      <c r="J24" s="131" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="109" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A25" s="11">
+        <v>45138</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="12">
+        <v>66250</v>
+      </c>
+      <c r="E25" s="12">
+        <v>11925</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
+        <f t="shared" si="1"/>
+        <v>78175</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21">
+      <c r="A26" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="51">
-        <f>SUM(D10:D22)</f>
-        <v>138185.88</v>
-      </c>
-      <c r="E23" s="51">
-        <f>SUM(E10:E22)</f>
-        <v>18674.34</v>
-      </c>
-      <c r="F23" s="51">
-        <f>SUM(F10:F22)</f>
-        <v>2335.1800000000003</v>
-      </c>
-      <c r="G23" s="51">
-        <f>SUM(G10:G22)</f>
-        <v>2335.1800000000003</v>
-      </c>
-      <c r="H23" s="52">
-        <f>SUM(H10:H22)</f>
-        <v>161530.58000000002</v>
-      </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-    </row>
-    <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="116" t="s">
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="51">
+        <f>SUM(D10:D25)</f>
+        <v>221137.88</v>
+      </c>
+      <c r="E26" s="51">
+        <f>SUM(E10:E25)</f>
+        <v>33578.339999999997</v>
+      </c>
+      <c r="F26" s="51">
+        <f>SUM(F10:F25)</f>
+        <v>2338.9800000000005</v>
+      </c>
+      <c r="G26" s="51">
+        <f>SUM(F10:F25)</f>
+        <v>2338.9800000000005</v>
+      </c>
+      <c r="H26" s="52">
+        <f>SUM(H10:H25)</f>
+        <v>259394.18000000002</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" ht="21">
+      <c r="A28" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
-    </row>
-    <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="113" t="s">
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="120"/>
+    </row>
+    <row r="29" spans="1:10" ht="21">
+      <c r="A29" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="31.2">
-      <c r="A27" s="3" t="s">
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="31.2">
+      <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="27"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.6">
-      <c r="A29" s="27"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.6">
-      <c r="A30" s="27"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="54"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="15.6">
@@ -5826,128 +5914,128 @@
       <c r="I32" s="54"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="123" t="s">
+    <row r="33" spans="1:10" ht="15.6">
+      <c r="A33" s="27"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.6">
+      <c r="A34" s="27"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.6">
+      <c r="A35" s="27"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="21">
+      <c r="A36" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="42">
-        <f>SUM(D28:D32)</f>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="42">
+        <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="42">
-        <f>SUM(E28:E32)</f>
+      <c r="E36" s="42">
+        <f>SUM(E31:E35)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="42">
-        <f>SUM(F28:F32)</f>
+      <c r="F36" s="42">
+        <f>SUM(F31:F35)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="42">
-        <f>SUM(G28:G32)</f>
+      <c r="G36" s="42">
+        <f>SUM(G31:G35)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="42">
-        <f>SUM(H28:H32)</f>
+      <c r="H36" s="42">
+        <f>SUM(H31:H35)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="113" t="s">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="21">
+      <c r="A37" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="115"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="43" t="s">
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="117"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B38" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C38" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D38" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E38" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F38" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G38" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H38" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="44" t="s">
+      <c r="I38" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="J38" s="44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.6">
-      <c r="A36" s="27"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.6">
-      <c r="A37" s="27"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="57"/>
     </row>
     <row r="39" spans="1:10" ht="15.6">
       <c r="A39" s="27"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="56"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" ht="15.6">
       <c r="A40" s="27"/>
@@ -5961,7 +6049,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6">
+    <row r="41" spans="1:10" ht="19.8" customHeight="1">
       <c r="A41" s="27"/>
       <c r="B41" s="57"/>
       <c r="C41" s="57"/>
@@ -5974,7 +6062,7 @@
       <c r="J41" s="57"/>
     </row>
     <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="11"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -5986,7 +6074,7 @@
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="11"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -5998,16 +6086,16 @@
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="57"/>
     </row>
     <row r="45" spans="1:10" ht="15.6">
       <c r="A45" s="11"/>
@@ -6023,15 +6111,15 @@
     </row>
     <row r="46" spans="1:10" ht="15.6">
       <c r="A46" s="11"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="56"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="54"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" ht="15.6">
       <c r="A47" s="11"/>
@@ -6059,379 +6147,379 @@
     </row>
     <row r="49" spans="1:10" ht="15.6">
       <c r="A49" s="11"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="56"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="22"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="11"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="56"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="22"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="11"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="56"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="54"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="56"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
+      <c r="J52" s="22"/>
     </row>
     <row r="53" spans="1:10" ht="15.6">
       <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="56"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
+      <c r="J53" s="22"/>
     </row>
     <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="56"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
+      <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="11"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="22"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="56"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="22"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="33"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="56"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="34"/>
-    </row>
-    <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="126" t="s">
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.6">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.6">
+      <c r="A58" s="11"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="22"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.6">
+      <c r="A59" s="33"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="34"/>
+    </row>
+    <row r="60" spans="1:10" ht="21">
+      <c r="A60" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="60">
-        <f>SUM(D36:D56)</f>
+      <c r="B60" s="128"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="60">
+        <f>SUM(D39:D59)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="60">
-        <f>SUM(E36:E56)</f>
+      <c r="E60" s="60">
+        <f>SUM(E39:E59)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="60">
-        <f>SUM(F36:F56)</f>
+      <c r="F60" s="60">
+        <f>SUM(F39:F59)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="60">
-        <f>SUM(G36:G56)</f>
+      <c r="G60" s="60">
+        <f>SUM(G39:G59)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="61">
-        <f>SUM(H36:H56)</f>
+      <c r="H60" s="61">
+        <f>SUM(H39:H59)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-    </row>
-    <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="116" t="s">
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+    </row>
+    <row r="62" spans="1:10" ht="21">
+      <c r="A62" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="117"/>
-      <c r="J59" s="118"/>
-    </row>
-    <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="113" t="s">
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="119"/>
+      <c r="G62" s="119"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="119"/>
+      <c r="J62" s="120"/>
+    </row>
+    <row r="63" spans="1:10" ht="21">
+      <c r="A63" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" ht="31.2">
-      <c r="A61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.6">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="117"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="21"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+    <row r="64" spans="1:10" ht="31.2">
+      <c r="A64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="123"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="42">
-        <f>SUM(D62:D64)</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="42">
-        <f>SUM(E62:E64)</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="42">
-        <f>SUM(F62:F64)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="42">
-        <f>SUM(G62:G64)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="42">
-        <f>SUM(H62:H64)</f>
-        <v>0</v>
-      </c>
+    <row r="65" spans="1:10" ht="15.6">
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="113" t="s">
+    <row r="66" spans="1:10" ht="15.6">
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.6">
+      <c r="A67" s="21"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" ht="21">
+      <c r="A68" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="125"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="42">
+        <f>SUM(D65:D67)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="42">
+        <f>SUM(E65:E67)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="42">
+        <f>SUM(F65:F67)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="42">
+        <f>SUM(G65:G67)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="42">
+        <f>SUM(H65:H67)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" ht="21">
+      <c r="A69" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="114"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="114"/>
-      <c r="J66" s="115"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="62" t="s">
+      <c r="B69" s="116"/>
+      <c r="C69" s="116"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="116"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="116"/>
+      <c r="H69" s="116"/>
+      <c r="I69" s="116"/>
+      <c r="J69" s="117"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B70" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C70" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="62" t="s">
+      <c r="D70" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="62" t="s">
+      <c r="E70" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="62" t="s">
+      <c r="F70" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="62" t="s">
+      <c r="G70" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="63" t="s">
+      <c r="H70" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I67" s="63" t="s">
+      <c r="I70" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J67" s="63" t="s">
+      <c r="J70" s="63" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.6">
-      <c r="A68" s="64"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.6">
-      <c r="A69" s="64"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.6">
-      <c r="A70" s="66"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-    </row>
     <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="66"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
     </row>
     <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="66"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
-    </row>
-    <row r="73" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="22"/>
-    </row>
-    <row r="74" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="68"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.6">
+      <c r="A73" s="66"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.6">
+      <c r="A74" s="66"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
     </row>
     <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="66"/>
@@ -6445,29 +6533,29 @@
       <c r="I75" s="67"/>
       <c r="J75" s="67"/>
     </row>
-    <row r="76" spans="1:10" ht="15.6">
-      <c r="A76" s="66"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.6">
-      <c r="A77" s="66"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
+    <row r="76" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A76" s="11"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="22"/>
+    </row>
+    <row r="77" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A77" s="11"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="68"/>
     </row>
     <row r="78" spans="1:10" ht="15.6">
       <c r="A78" s="66"/>
@@ -6482,135 +6570,171 @@
       <c r="J78" s="67"/>
     </row>
     <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="11"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="22"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="67"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="33"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="35"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="69"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="70"/>
+      <c r="A81" s="66"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="45"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="72"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="22"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="11"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="22"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="35"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="45"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="71"/>
-    </row>
-    <row r="85" spans="1:10" ht="15">
-      <c r="A85" s="73"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="76"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="75"/>
-    </row>
-    <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="125" t="s">
+      <c r="A84" s="69"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="70"/>
+      <c r="J84" s="70"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.6">
+      <c r="A85" s="45"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="72"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.6">
+      <c r="A86" s="11"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="22"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.6">
+      <c r="A87" s="45"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="71"/>
+    </row>
+    <row r="88" spans="1:10" ht="15">
+      <c r="A88" s="73"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="76"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="75"/>
+    </row>
+    <row r="89" spans="1:10" ht="21">
+      <c r="A89" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="77">
-        <f>SUM(D68:D85)</f>
+      <c r="B89" s="127"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="77">
+        <f>SUM(D71:D88)</f>
         <v>0</v>
       </c>
-      <c r="E86" s="77">
-        <f>SUM(E68:E85)</f>
+      <c r="E89" s="77">
+        <f>SUM(E71:E88)</f>
         <v>0</v>
       </c>
-      <c r="F86" s="77">
-        <f>SUM(F68:F85)</f>
+      <c r="F89" s="77">
+        <f>SUM(F71:F88)</f>
         <v>0</v>
       </c>
-      <c r="G86" s="77">
-        <f>SUM(G68:G85)</f>
+      <c r="G89" s="77">
+        <f>SUM(G71:G88)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="77">
-        <f>SUM(H68:H85)</f>
+      <c r="H89" s="77">
+        <f>SUM(H71:H88)</f>
         <v>0</v>
       </c>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A28:J28"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6641,30 +6765,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6781,11 +6905,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6810,18 +6934,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="117"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -6940,11 +7064,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -6969,30 +7093,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="116" t="s">
+      <c r="A24" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="120"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="113" t="s">
+      <c r="A25" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="117"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -7097,11 +7221,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -7126,18 +7250,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7448,11 +7572,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="120" t="s">
+      <c r="A59" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="121"/>
-      <c r="C59" s="122"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="124"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7477,30 +7601,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="116" t="s">
+      <c r="A61" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="117"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="118"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
+      <c r="G61" s="119"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="120"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="113" t="s">
+      <c r="A62" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="115"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="117"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7629,11 +7753,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="112" t="s">
+      <c r="A72" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="112"/>
-      <c r="C72" s="112"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="114"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7658,18 +7782,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="113" t="s">
+      <c r="A73" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="114"/>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="114"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="114"/>
-      <c r="J73" s="115"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="117"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -7980,11 +8104,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="120" t="s">
+      <c r="A98" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="121"/>
-      <c r="C98" s="122"/>
+      <c r="B98" s="123"/>
+      <c r="C98" s="124"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -8009,18 +8133,18 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="127"/>
-      <c r="B100" s="127"/>
-      <c r="C100" s="127"/>
-      <c r="D100" s="127"/>
-      <c r="E100" s="127"/>
+      <c r="A100" s="129"/>
+      <c r="B100" s="129"/>
+      <c r="C100" s="129"/>
+      <c r="D100" s="129"/>
+      <c r="E100" s="129"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="127"/>
-      <c r="B108" s="127"/>
-      <c r="C108" s="127"/>
-      <c r="D108" s="127"/>
-      <c r="E108" s="127"/>
+      <c r="A108" s="129"/>
+      <c r="B108" s="129"/>
+      <c r="C108" s="129"/>
+      <c r="D108" s="129"/>
+      <c r="E108" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -8070,30 +8194,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -8228,11 +8352,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -8257,18 +8381,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="117"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8447,11 +8571,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="124" t="s">
+      <c r="A29" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8481,30 +8605,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="118"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="115"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="117"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8597,11 +8721,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="123" t="s">
+      <c r="A39" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="123"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8626,18 +8750,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="113" t="s">
+      <c r="A40" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="117"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -8948,11 +9072,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="126" t="s">
+      <c r="A65" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="126"/>
-      <c r="C65" s="126"/>
+      <c r="B65" s="128"/>
+      <c r="C65" s="128"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -8977,30 +9101,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="116" t="s">
+      <c r="A67" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="117"/>
-      <c r="C67" s="117"/>
-      <c r="D67" s="117"/>
-      <c r="E67" s="117"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="117"/>
-      <c r="J67" s="118"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="119"/>
+      <c r="D67" s="119"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="119"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="119"/>
+      <c r="J67" s="120"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="113" t="s">
+      <c r="A68" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="114"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="114"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="115"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="117"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -9069,11 +9193,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="123" t="s">
+      <c r="A73" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="123"/>
-      <c r="C73" s="123"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="125"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -9098,18 +9222,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="113" t="s">
+      <c r="A74" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="114"/>
-      <c r="C74" s="114"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="114"/>
-      <c r="H74" s="114"/>
-      <c r="I74" s="114"/>
-      <c r="J74" s="115"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="116"/>
+      <c r="G74" s="116"/>
+      <c r="H74" s="116"/>
+      <c r="I74" s="116"/>
+      <c r="J74" s="117"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -9360,11 +9484,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="125" t="s">
+      <c r="A94" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="125"/>
-      <c r="C94" s="125"/>
+      <c r="B94" s="127"/>
+      <c r="C94" s="127"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -663,9 +663,6 @@
     <t>IN-2</t>
   </si>
   <si>
-    <t>09afapm2472f1zl</t>
-  </si>
-  <si>
     <t>33/23-24</t>
   </si>
   <si>
@@ -703,13 +700,16 @@
   </si>
   <si>
     <t>C23003254</t>
+  </si>
+  <si>
+    <t>09AFAPM2472F1ZL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,6 +780,11 @@
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Calibri  "/>
     </font>
   </fonts>
@@ -956,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1288,6 +1293,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1333,25 +1347,19 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1656,30 +1664,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1899,11 +1907,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1928,18 +1936,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2727,11 +2735,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="112"/>
-      <c r="C42" s="113"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="116"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2756,30 +2764,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="120"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="123"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="115" t="s">
+      <c r="A45" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="117"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="120"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -3055,11 +3063,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="114" t="s">
+      <c r="A56" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -3084,18 +3092,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="115" t="s">
+      <c r="A57" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="117"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="119"/>
+      <c r="J57" s="120"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3933,11 +3941,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="122" t="s">
+      <c r="A88" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="123"/>
-      <c r="C88" s="124"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="127"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3962,30 +3970,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="118" t="s">
+      <c r="A90" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="119"/>
-      <c r="C90" s="119"/>
-      <c r="D90" s="119"/>
-      <c r="E90" s="119"/>
-      <c r="F90" s="119"/>
-      <c r="G90" s="119"/>
-      <c r="H90" s="119"/>
-      <c r="I90" s="119"/>
-      <c r="J90" s="120"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="122"/>
+      <c r="D90" s="122"/>
+      <c r="E90" s="122"/>
+      <c r="F90" s="122"/>
+      <c r="G90" s="122"/>
+      <c r="H90" s="122"/>
+      <c r="I90" s="122"/>
+      <c r="J90" s="123"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="115" t="s">
+      <c r="A91" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="116"/>
-      <c r="C91" s="116"/>
-      <c r="D91" s="116"/>
-      <c r="E91" s="116"/>
-      <c r="F91" s="116"/>
-      <c r="G91" s="116"/>
-      <c r="H91" s="117"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="119"/>
+      <c r="F91" s="119"/>
+      <c r="G91" s="119"/>
+      <c r="H91" s="120"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4207,11 +4215,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="114" t="s">
+      <c r="A100" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="114"/>
-      <c r="C100" s="114"/>
+      <c r="B100" s="117"/>
+      <c r="C100" s="117"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4236,18 +4244,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="115" t="s">
+      <c r="A101" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="116"/>
-      <c r="C101" s="116"/>
-      <c r="D101" s="116"/>
-      <c r="E101" s="116"/>
-      <c r="F101" s="116"/>
-      <c r="G101" s="116"/>
-      <c r="H101" s="116"/>
-      <c r="I101" s="116"/>
-      <c r="J101" s="117"/>
+      <c r="B101" s="119"/>
+      <c r="C101" s="119"/>
+      <c r="D101" s="119"/>
+      <c r="E101" s="119"/>
+      <c r="F101" s="119"/>
+      <c r="G101" s="119"/>
+      <c r="H101" s="119"/>
+      <c r="I101" s="119"/>
+      <c r="J101" s="120"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4902,11 +4910,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="111" t="s">
+      <c r="A125" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="112"/>
-      <c r="C125" s="113"/>
+      <c r="B125" s="115"/>
+      <c r="C125" s="116"/>
       <c r="D125" s="29">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -5144,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5164,30 +5172,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5274,11 +5282,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="42">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -5303,18 +5311,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="43" t="s">
@@ -5353,7 +5361,7 @@
         <v>45110</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>198</v>
@@ -5430,7 +5438,7 @@
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="46" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
@@ -5485,7 +5493,7 @@
         <v>4800</v>
       </c>
       <c r="I14" s="81"/>
-      <c r="J14" s="80" t="s">
+      <c r="J14" s="133" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5640,7 +5648,7 @@
         <v>105</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="12">
         <v>20205</v>
@@ -5667,7 +5675,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="12">
         <v>875</v>
@@ -5693,10 +5701,10 @@
         <v>45133</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>222</v>
       </c>
       <c r="D22" s="12">
         <v>16550</v>
@@ -5712,7 +5720,7 @@
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="107" customFormat="1" ht="16.5" customHeight="1">
@@ -5720,10 +5728,10 @@
         <v>45136</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" s="12">
         <v>152</v>
@@ -5741,36 +5749,36 @@
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="110" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A24" s="130">
+      <c r="A24" s="111">
         <v>45136</v>
       </c>
-      <c r="B24" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="131" t="s">
-        <v>226</v>
-      </c>
-      <c r="D24" s="132">
+      <c r="B24" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="113">
         <v>152</v>
       </c>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132">
+      <c r="E24" s="113"/>
+      <c r="F24" s="113">
         <v>3.8</v>
       </c>
-      <c r="G24" s="132">
+      <c r="G24" s="113">
         <v>3.8</v>
       </c>
-      <c r="H24" s="132">
+      <c r="H24" s="113">
         <f t="shared" si="1"/>
         <v>159.60000000000002</v>
       </c>
-      <c r="I24" s="132"/>
-      <c r="J24" s="131" t="s">
-        <v>225</v>
+      <c r="I24" s="113"/>
+      <c r="J24" s="112" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="109" customFormat="1" ht="16.5" customHeight="1">
@@ -5781,7 +5789,7 @@
         <v>105</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" s="12">
         <v>66250</v>
@@ -5801,11 +5809,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="51">
         <f>SUM(D10:D25)</f>
         <v>221137.88</v>
@@ -5835,30 +5843,30 @@
       <c r="C27" s="53"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="120"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="123"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="117"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="120"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
@@ -5951,11 +5959,11 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="125" t="s">
+      <c r="A36" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
       <c r="D36" s="42">
         <f>SUM(D31:D35)</f>
         <v>0</v>
@@ -5980,18 +5988,18 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="115" t="s">
+      <c r="A37" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="117"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="120"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="43" t="s">
@@ -6278,11 +6286,11 @@
       <c r="J59" s="34"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="128" t="s">
+      <c r="A60" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="128"/>
-      <c r="C60" s="128"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="130"/>
       <c r="D60" s="60">
         <f>SUM(D39:D59)</f>
         <v>0</v>
@@ -6307,30 +6315,30 @@
       <c r="J60" s="60"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="118" t="s">
+      <c r="A62" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="119"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
-      <c r="J62" s="120"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="122"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="122"/>
+      <c r="J62" s="123"/>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="115" t="s">
+      <c r="A63" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="117"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="119"/>
+      <c r="H63" s="120"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
@@ -6399,11 +6407,11 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="125" t="s">
+      <c r="A68" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="125"/>
-      <c r="C68" s="125"/>
+      <c r="B68" s="128"/>
+      <c r="C68" s="128"/>
       <c r="D68" s="42">
         <f>SUM(D65:D67)</f>
         <v>0</v>
@@ -6428,18 +6436,18 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="115" t="s">
+      <c r="A69" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="116"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="116"/>
-      <c r="E69" s="116"/>
-      <c r="F69" s="116"/>
-      <c r="G69" s="116"/>
-      <c r="H69" s="116"/>
-      <c r="I69" s="116"/>
-      <c r="J69" s="117"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="119"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="119"/>
+      <c r="J69" s="120"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="62" t="s">
@@ -6511,10 +6519,10 @@
     </row>
     <row r="74" spans="1:10" ht="15.6">
       <c r="A74" s="66"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
       <c r="F74" s="67"/>
       <c r="G74" s="67"/>
       <c r="H74" s="67"/>
@@ -6523,10 +6531,10 @@
     </row>
     <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="66"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
       <c r="F75" s="67"/>
       <c r="G75" s="67"/>
       <c r="H75" s="67"/>
@@ -6547,10 +6555,10 @@
     </row>
     <row r="77" spans="1:10" ht="16.2" thickBot="1">
       <c r="A77" s="11"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="46"/>
       <c r="G77" s="46"/>
       <c r="H77" s="12"/>
@@ -6559,10 +6567,10 @@
     </row>
     <row r="78" spans="1:10" ht="15.6">
       <c r="A78" s="66"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
       <c r="F78" s="67"/>
       <c r="G78" s="67"/>
       <c r="H78" s="67"/>
@@ -6571,10 +6579,10 @@
     </row>
     <row r="79" spans="1:10" ht="15.6">
       <c r="A79" s="66"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
       <c r="F79" s="67"/>
       <c r="G79" s="67"/>
       <c r="H79" s="67"/>
@@ -6690,11 +6698,11 @@
       <c r="J88" s="75"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="127" t="s">
+      <c r="A89" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="127"/>
-      <c r="C89" s="127"/>
+      <c r="B89" s="129"/>
+      <c r="C89" s="129"/>
       <c r="D89" s="77">
         <f>SUM(D71:D88)</f>
         <v>0</v>
@@ -6720,6 +6728,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A89:C89"/>
@@ -6729,12 +6743,6 @@
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6765,30 +6773,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6905,11 +6913,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6934,18 +6942,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -7064,11 +7072,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="113"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -7093,30 +7101,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="118" t="s">
+      <c r="A24" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="123"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="117"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -7221,11 +7229,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -7250,18 +7258,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="117"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="120"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7572,11 +7580,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="122" t="s">
+      <c r="A59" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="123"/>
-      <c r="C59" s="124"/>
+      <c r="B59" s="126"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7601,30 +7609,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="118" t="s">
+      <c r="A61" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
-      <c r="J61" s="120"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="123"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="115" t="s">
+      <c r="A62" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="117"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="119"/>
+      <c r="G62" s="119"/>
+      <c r="H62" s="120"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7753,11 +7761,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="114" t="s">
+      <c r="A72" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="114"/>
-      <c r="C72" s="114"/>
+      <c r="B72" s="117"/>
+      <c r="C72" s="117"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7782,18 +7790,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="115" t="s">
+      <c r="A73" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="116"/>
-      <c r="C73" s="116"/>
-      <c r="D73" s="116"/>
-      <c r="E73" s="116"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="116"/>
-      <c r="H73" s="116"/>
-      <c r="I73" s="116"/>
-      <c r="J73" s="117"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="119"/>
+      <c r="D73" s="119"/>
+      <c r="E73" s="119"/>
+      <c r="F73" s="119"/>
+      <c r="G73" s="119"/>
+      <c r="H73" s="119"/>
+      <c r="I73" s="119"/>
+      <c r="J73" s="120"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -8104,11 +8112,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="122" t="s">
+      <c r="A98" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="123"/>
-      <c r="C98" s="124"/>
+      <c r="B98" s="126"/>
+      <c r="C98" s="127"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -8133,26 +8141,21 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="129"/>
-      <c r="B100" s="129"/>
-      <c r="C100" s="129"/>
-      <c r="D100" s="129"/>
-      <c r="E100" s="129"/>
+      <c r="A100" s="132"/>
+      <c r="B100" s="132"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="132"/>
+      <c r="E100" s="132"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="129"/>
-      <c r="B108" s="129"/>
-      <c r="C108" s="129"/>
-      <c r="D108" s="129"/>
-      <c r="E108" s="129"/>
+      <c r="A108" s="132"/>
+      <c r="B108" s="132"/>
+      <c r="C108" s="132"/>
+      <c r="D108" s="132"/>
+      <c r="E108" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -8165,6 +8168,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8194,30 +8202,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -8352,11 +8360,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -8381,18 +8389,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8571,11 +8579,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8605,30 +8613,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="119"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="120"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="123"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="117"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="120"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8721,11 +8729,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8750,18 +8758,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="117"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="120"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -9072,11 +9080,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="128" t="s">
+      <c r="A65" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="128"/>
-      <c r="C65" s="128"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="130"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -9101,30 +9109,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="118" t="s">
+      <c r="A67" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="119"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="119"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="119"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="119"/>
-      <c r="J67" s="120"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="122"/>
+      <c r="D67" s="122"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="122"/>
+      <c r="G67" s="122"/>
+      <c r="H67" s="122"/>
+      <c r="I67" s="122"/>
+      <c r="J67" s="123"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="116"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="116"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="116"/>
-      <c r="G68" s="116"/>
-      <c r="H68" s="117"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="119"/>
+      <c r="D68" s="119"/>
+      <c r="E68" s="119"/>
+      <c r="F68" s="119"/>
+      <c r="G68" s="119"/>
+      <c r="H68" s="120"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -9193,11 +9201,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="125" t="s">
+      <c r="A73" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="125"/>
-      <c r="C73" s="125"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="128"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -9222,18 +9230,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="115" t="s">
+      <c r="A74" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="116"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="116"/>
-      <c r="E74" s="116"/>
-      <c r="F74" s="116"/>
-      <c r="G74" s="116"/>
-      <c r="H74" s="116"/>
-      <c r="I74" s="116"/>
-      <c r="J74" s="117"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="119"/>
+      <c r="E74" s="119"/>
+      <c r="F74" s="119"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="119"/>
+      <c r="I74" s="119"/>
+      <c r="J74" s="120"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -9484,11 +9492,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="127" t="s">
+      <c r="A94" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="127"/>
-      <c r="C94" s="127"/>
+      <c r="B94" s="129"/>
+      <c r="C94" s="129"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -9514,6 +9522,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9523,12 +9537,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="254">
   <si>
     <t>APRIL</t>
   </si>
@@ -703,6 +703,87 @@
   </si>
   <si>
     <t>09AFAPM2472F1ZL</t>
+  </si>
+  <si>
+    <t>b23-24MQ203</t>
+  </si>
+  <si>
+    <t>b23-24MQ204</t>
+  </si>
+  <si>
+    <t>I-C-1-23-452097</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Bharat Plywood &amp; Laminate</t>
+  </si>
+  <si>
+    <t>30BKOPS6371P1ZD</t>
+  </si>
+  <si>
+    <t>450/2023-2024</t>
+  </si>
+  <si>
+    <t>Bajaj Allianz</t>
+  </si>
+  <si>
+    <t>HIIB3823207</t>
+  </si>
+  <si>
+    <t>30AABCB5730G1ZA</t>
+  </si>
+  <si>
+    <t>Fone Solutions</t>
+  </si>
+  <si>
+    <t>POS 2935</t>
+  </si>
+  <si>
+    <t>30EFNPK8070Q1ZS</t>
+  </si>
+  <si>
+    <t>I-C-1-23-452174</t>
+  </si>
+  <si>
+    <t>A K Traders</t>
+  </si>
+  <si>
+    <t>30ABJPV6558N1ZY</t>
+  </si>
+  <si>
+    <t>Cassun Electricals</t>
+  </si>
+  <si>
+    <t>INV/23-24/0774</t>
+  </si>
+  <si>
+    <t>30AADPF5016A1ZU</t>
+  </si>
+  <si>
+    <t>Business Nirvana Inc</t>
+  </si>
+  <si>
+    <t>IGN-3877</t>
+  </si>
+  <si>
+    <t>30ADPPK9842G3ZB</t>
   </si>
 </sst>
 </file>
@@ -961,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1302,6 +1383,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1347,20 +1434,17 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1644,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J290"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1664,30 +1748,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1907,11 +1991,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -1936,18 +2020,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2735,11 +2819,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="114" t="s">
+      <c r="A42" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="115"/>
-      <c r="C42" s="116"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2764,30 +2848,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="122"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="123"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="125"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="120"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="122"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -3063,11 +3147,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="117"/>
-      <c r="C56" s="117"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -3092,18 +3176,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="118" t="s">
+      <c r="A57" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="120"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="122"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -3941,11 +4025,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="125" t="s">
+      <c r="A88" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="127"/>
+      <c r="B88" s="128"/>
+      <c r="C88" s="129"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -3970,30 +4054,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="121" t="s">
+      <c r="A90" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="122"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
-      <c r="E90" s="122"/>
-      <c r="F90" s="122"/>
-      <c r="G90" s="122"/>
-      <c r="H90" s="122"/>
-      <c r="I90" s="122"/>
-      <c r="J90" s="123"/>
+      <c r="B90" s="124"/>
+      <c r="C90" s="124"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="124"/>
+      <c r="F90" s="124"/>
+      <c r="G90" s="124"/>
+      <c r="H90" s="124"/>
+      <c r="I90" s="124"/>
+      <c r="J90" s="125"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="118" t="s">
+      <c r="A91" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="119"/>
-      <c r="C91" s="119"/>
-      <c r="D91" s="119"/>
-      <c r="E91" s="119"/>
-      <c r="F91" s="119"/>
-      <c r="G91" s="119"/>
-      <c r="H91" s="120"/>
+      <c r="B91" s="121"/>
+      <c r="C91" s="121"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="121"/>
+      <c r="F91" s="121"/>
+      <c r="G91" s="121"/>
+      <c r="H91" s="122"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4215,11 +4299,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="117" t="s">
+      <c r="A100" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="117"/>
-      <c r="C100" s="117"/>
+      <c r="B100" s="119"/>
+      <c r="C100" s="119"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4244,18 +4328,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="118" t="s">
+      <c r="A101" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="119"/>
-      <c r="C101" s="119"/>
-      <c r="D101" s="119"/>
-      <c r="E101" s="119"/>
-      <c r="F101" s="119"/>
-      <c r="G101" s="119"/>
-      <c r="H101" s="119"/>
-      <c r="I101" s="119"/>
-      <c r="J101" s="120"/>
+      <c r="B101" s="121"/>
+      <c r="C101" s="121"/>
+      <c r="D101" s="121"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="121"/>
+      <c r="G101" s="121"/>
+      <c r="H101" s="121"/>
+      <c r="I101" s="121"/>
+      <c r="J101" s="122"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4910,11 +4994,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="114" t="s">
+      <c r="A125" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="115"/>
-      <c r="C125" s="116"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="118"/>
       <c r="D125" s="29">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -5150,10 +5234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J89"/>
+  <dimension ref="A2:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5172,30 +5256,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5282,11 +5366,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
       <c r="D7" s="42">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -5311,18 +5395,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="43" t="s">
@@ -5406,7 +5490,7 @@
         <v>81</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" ref="H11:H25" si="1">D11+E11+F11+G11</f>
+        <f t="shared" ref="H11:H26" si="1">D11+E11+F11+G11</f>
         <v>1062</v>
       </c>
       <c r="I11" s="12"/>
@@ -5493,7 +5577,7 @@
         <v>4800</v>
       </c>
       <c r="I14" s="81"/>
-      <c r="J14" s="133" t="s">
+      <c r="J14" s="115" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5808,198 +5892,249 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="131" t="s">
+    <row r="26" spans="1:10" s="114" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="11">
+        <v>45138</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="12">
+        <v>84300</v>
+      </c>
+      <c r="E26" s="12">
+        <v>15174</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12">
+        <f t="shared" si="1"/>
+        <v>99474</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21">
+      <c r="A27" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="51">
-        <f>SUM(D10:D25)</f>
-        <v>221137.88</v>
-      </c>
-      <c r="E26" s="51">
-        <f>SUM(E10:E25)</f>
-        <v>33578.339999999997</v>
-      </c>
-      <c r="F26" s="51">
-        <f>SUM(F10:F25)</f>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="51">
+        <f>SUM(D10:D26)</f>
+        <v>305437.88</v>
+      </c>
+      <c r="E27" s="51">
+        <f>SUM(E10:E26)</f>
+        <v>48752.34</v>
+      </c>
+      <c r="F27" s="51">
+        <f>SUM(F10:F26)</f>
         <v>2338.9800000000005</v>
       </c>
-      <c r="G26" s="51">
-        <f>SUM(F10:F25)</f>
+      <c r="G27" s="51">
+        <f>SUM(G10:G26)</f>
         <v>2338.9800000000005</v>
       </c>
-      <c r="H26" s="52">
-        <f>SUM(H10:H25)</f>
-        <v>259394.18000000002</v>
-      </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-    </row>
-    <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="121" t="s">
+      <c r="H27" s="52">
+        <f>SUM(H10:H26)</f>
+        <v>358868.18000000005</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+    </row>
+    <row r="29" spans="1:10" ht="21">
+      <c r="A29" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
-    </row>
-    <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="118" t="s">
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="125"/>
+    </row>
+    <row r="30" spans="1:10" ht="21">
+      <c r="A30" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="31.2">
-      <c r="A30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="122"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="15.6">
-      <c r="A31" s="27"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="54"/>
+    <row r="31" spans="1:10" ht="31.2">
+      <c r="A31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="27"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="27">
+        <v>45143</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="22">
+        <v>305810</v>
+      </c>
       <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
+      <c r="F32" s="22">
+        <v>27522.9</v>
+      </c>
+      <c r="G32" s="22">
+        <v>27522.9</v>
+      </c>
+      <c r="H32" s="22">
+        <f>D32+E32+F32+G32</f>
+        <v>360855.80000000005</v>
+      </c>
       <c r="I32" s="54"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="27"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="27">
+        <v>45148</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="22">
+        <v>155660</v>
+      </c>
       <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="F33" s="22">
+        <v>14009.4</v>
+      </c>
+      <c r="G33" s="22">
+        <v>14009.4</v>
+      </c>
+      <c r="H33" s="22">
+        <f t="shared" ref="H33:H35" si="2">D33+E33+F33+G33</f>
+        <v>183678.8</v>
+      </c>
       <c r="I33" s="54"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="15.6">
+    <row r="34" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A34" s="27"/>
-      <c r="B34" s="22"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="H34" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I34" s="54"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6">
+    <row r="35" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A35" s="27"/>
-      <c r="B35" s="22"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="H35" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I35" s="54"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
       <c r="D36" s="42">
-        <f>SUM(D31:D35)</f>
+        <f>SUM(D32:D33)</f>
+        <v>461470</v>
+      </c>
+      <c r="E36" s="42">
+        <f>SUM(E32:E33)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="42">
-        <f>SUM(E31:E35)</f>
-        <v>0</v>
-      </c>
       <c r="F36" s="42">
-        <f>SUM(F31:F35)</f>
-        <v>0</v>
+        <f>SUM(F32:F33)</f>
+        <v>41532.300000000003</v>
       </c>
       <c r="G36" s="42">
-        <f>SUM(G31:G35)</f>
-        <v>0</v>
+        <f>SUM(G32:G33)</f>
+        <v>41532.300000000003</v>
       </c>
       <c r="H36" s="42">
-        <f>SUM(H31:H35)</f>
-        <v>0</v>
+        <f>SUM(H32:H33)</f>
+        <v>544534.60000000009</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="118" t="s">
+      <c r="A37" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="120"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="122"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="43" t="s">
@@ -6034,715 +6169,592 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="27"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="27">
+        <v>45139</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="55">
+        <v>1376</v>
+      </c>
+      <c r="D39" s="22">
+        <v>1936.43</v>
+      </c>
       <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="56"/>
+      <c r="F39" s="22">
+        <v>174.27</v>
+      </c>
+      <c r="G39" s="22">
+        <v>174.27</v>
+      </c>
+      <c r="H39" s="56">
+        <f>D39+E39+F39+G39</f>
+        <v>2284.9700000000003</v>
+      </c>
       <c r="I39" s="12"/>
-      <c r="J39" s="22"/>
+      <c r="J39" s="22" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="27"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="A40" s="27">
+        <v>45139</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="12">
+        <v>11232</v>
+      </c>
+      <c r="E40" s="12">
+        <v>2021.76</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="56"/>
+      <c r="H40" s="56">
+        <f t="shared" ref="H40:H45" si="3">D40+E40+F40+G40</f>
+        <v>13253.76</v>
+      </c>
       <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A41" s="27"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="57"/>
+      <c r="J40" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6">
+      <c r="A41" s="11">
+        <v>45140</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="12">
+        <v>18465</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12">
+        <v>1662</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1662</v>
+      </c>
+      <c r="H41" s="56">
+        <f t="shared" si="3"/>
+        <v>21789</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="27"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="11">
+        <v>45140</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="12">
+        <v>105932.2</v>
+      </c>
       <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="56"/>
+      <c r="F42" s="12">
+        <v>9533.9</v>
+      </c>
+      <c r="G42" s="12">
+        <v>9533.9</v>
+      </c>
+      <c r="H42" s="56">
+        <f t="shared" si="3"/>
+        <v>124999.99999999999</v>
+      </c>
       <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="J42" s="12" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="27"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="A43" s="11">
+        <v>45141</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="12">
+        <v>4450</v>
+      </c>
+      <c r="E43" s="12">
+        <v>801</v>
+      </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="56"/>
+      <c r="H43" s="56">
+        <f t="shared" si="3"/>
+        <v>5251</v>
+      </c>
       <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
+      <c r="J43" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="27"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="57"/>
+      <c r="A44" s="11">
+        <v>45143</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" s="12">
+        <v>3544</v>
+      </c>
+      <c r="D44" s="12">
+        <v>2097</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12">
+        <v>188.73</v>
+      </c>
+      <c r="G44" s="12">
+        <v>188.73</v>
+      </c>
+      <c r="H44" s="56">
+        <f t="shared" si="3"/>
+        <v>2474.46</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="A45" s="11">
+        <v>45146</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="12">
+        <v>688</v>
+      </c>
+      <c r="D45" s="12">
+        <v>3751</v>
+      </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="56"/>
+      <c r="F45" s="12">
+        <v>525</v>
+      </c>
+      <c r="G45" s="12">
+        <v>525</v>
+      </c>
+      <c r="H45" s="56">
+        <f t="shared" si="3"/>
+        <v>4801</v>
+      </c>
       <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
+      <c r="J45" s="85" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="15.6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="11">
+        <v>45146</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="12">
+        <v>24195</v>
+      </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="56"/>
+      <c r="F46" s="12">
+        <v>2177.6</v>
+      </c>
+      <c r="G46" s="12">
+        <v>2177.6</v>
+      </c>
+      <c r="H46" s="56">
+        <v>28551</v>
+      </c>
       <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
+      <c r="J46" s="22" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="15.6">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.6">
-      <c r="A49" s="11"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="54"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.6">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.6">
-      <c r="A52" s="11"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="22"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.6">
-      <c r="A53" s="11"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="22"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.6">
-      <c r="A54" s="11"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="54"/>
+      <c r="A47" s="33">
+        <v>45146</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="36">
+        <v>32099</v>
+      </c>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36">
+        <v>2888.91</v>
+      </c>
+      <c r="G47" s="36">
+        <v>2888.91</v>
+      </c>
+      <c r="H47" s="56">
+        <v>37876.82</v>
+      </c>
+      <c r="I47" s="36"/>
+      <c r="J47" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="114" customFormat="1" ht="15.6">
+      <c r="A48" s="33"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="56">
+        <f>D48+E48+F48+G48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="36"/>
+      <c r="J48" s="34"/>
+    </row>
+    <row r="49" spans="1:10" s="114" customFormat="1" ht="15.6">
+      <c r="A49" s="53"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="56">
+        <f>D49+E49+F49+G49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="36"/>
+      <c r="J49" s="34"/>
+    </row>
+    <row r="50" spans="1:10" ht="21">
+      <c r="A50" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="133"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="60">
+        <f>SUM(D39:D49)</f>
+        <v>204157.63</v>
+      </c>
+      <c r="E50" s="60">
+        <f>SUM(E39:E49)</f>
+        <v>2822.76</v>
+      </c>
+      <c r="F50" s="60">
+        <f>SUM(F39:F49)</f>
+        <v>17150.41</v>
+      </c>
+      <c r="G50" s="60">
+        <f>SUM(G39:G49)</f>
+        <v>17150.41</v>
+      </c>
+      <c r="H50" s="61">
+        <f>SUM(H39:H49)</f>
+        <v>241282.00999999998</v>
+      </c>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+    </row>
+    <row r="52" spans="1:10" ht="21">
+      <c r="A52" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="124"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="125"/>
+    </row>
+    <row r="53" spans="1:10" ht="21">
+      <c r="A53" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="31.2">
+      <c r="A54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="15.6">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.6">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.6">
-      <c r="A58" s="11"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="22"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.6">
-      <c r="A59" s="33"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="34"/>
-    </row>
-    <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="130" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="21">
+      <c r="A57" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="130"/>
-      <c r="C60" s="130"/>
-      <c r="D60" s="60">
-        <f>SUM(D39:D59)</f>
+      <c r="B57" s="130"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="42">
+        <f>SUM(D55:D56)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="60">
-        <f>SUM(E39:E59)</f>
+      <c r="E57" s="42">
+        <f>SUM(E55:E56)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="60">
-        <f>SUM(F39:F59)</f>
+      <c r="F57" s="42">
+        <f>SUM(F55:F56)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="60">
-        <f>SUM(G39:G59)</f>
+      <c r="G57" s="42">
+        <f>SUM(G55:G56)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="61">
-        <f>SUM(H39:H59)</f>
+      <c r="H57" s="42">
+        <f>SUM(H55:H56)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-    </row>
-    <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122"/>
-      <c r="J62" s="123"/>
-    </row>
-    <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="119"/>
-      <c r="G63" s="119"/>
-      <c r="H63" s="120"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" ht="31.2">
-      <c r="A64" s="3" t="s">
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="21">
+      <c r="A58" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="122"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B59" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="C59" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="E59" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G59" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H59" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="I59" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.6">
+      <c r="A60" s="64"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.6">
+      <c r="A61" s="64"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.6">
+      <c r="A62" s="11"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="22"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.6">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="35"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.6">
+      <c r="A64" s="69"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
     </row>
     <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="21"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.6">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.6">
-      <c r="A67" s="21"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="128" t="s">
+      <c r="C65" s="28"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="22"/>
+    </row>
+    <row r="66" spans="1:10" ht="21">
+      <c r="A66" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="128"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="42">
-        <f>SUM(D65:D67)</f>
+      <c r="B66" s="132"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="77">
+        <f>SUM(D60:D65)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="42">
-        <f>SUM(E65:E67)</f>
+      <c r="E66" s="77">
+        <f>SUM(E60:E65)</f>
         <v>0</v>
       </c>
-      <c r="F68" s="42">
-        <f>SUM(F65:F67)</f>
+      <c r="F66" s="77">
+        <f>SUM(F60:F65)</f>
         <v>0</v>
       </c>
-      <c r="G68" s="42">
-        <f>SUM(G65:G67)</f>
+      <c r="G66" s="77">
+        <f>SUM(G60:G65)</f>
         <v>0</v>
       </c>
-      <c r="H68" s="42">
-        <f>SUM(H65:H67)</f>
+      <c r="H66" s="77">
+        <f>SUM(H60:H65)</f>
         <v>0</v>
       </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="118" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="119"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="119"/>
-      <c r="E69" s="119"/>
-      <c r="F69" s="119"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="120"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" s="63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.6">
-      <c r="A71" s="64"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="64"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.6">
-      <c r="A73" s="66"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.6">
-      <c r="A74" s="66"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.6">
-      <c r="A75" s="66"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-    </row>
-    <row r="76" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="22"/>
-    </row>
-    <row r="77" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="68"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.6">
-      <c r="A78" s="66"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.6">
-      <c r="A79" s="66"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.6">
-      <c r="A80" s="66"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.6">
-      <c r="A81" s="66"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.6">
-      <c r="A82" s="11"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="22"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.6">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="35"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="69"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="70"/>
-      <c r="H84" s="70"/>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.6">
-      <c r="A85" s="45"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="72"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.6">
-      <c r="A86" s="11"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="22"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="45"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="71"/>
-    </row>
-    <row r="88" spans="1:10" ht="15">
-      <c r="A88" s="73"/>
-      <c r="B88" s="74"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="76"/>
-      <c r="I88" s="76"/>
-      <c r="J88" s="75"/>
-    </row>
-    <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="129" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="129"/>
-      <c r="C89" s="129"/>
-      <c r="D89" s="77">
-        <f>SUM(D71:D88)</f>
-        <v>0</v>
-      </c>
-      <c r="E89" s="77">
-        <f>SUM(E71:E88)</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="77">
-        <f>SUM(F71:F88)</f>
-        <v>0</v>
-      </c>
-      <c r="G89" s="77">
-        <f>SUM(G71:G88)</f>
-        <v>0</v>
-      </c>
-      <c r="H89" s="77">
-        <f>SUM(H71:H88)</f>
-        <v>0</v>
-      </c>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A29:J29"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6753,8 +6765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -6773,30 +6785,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="123" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6913,11 +6925,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6942,18 +6954,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -7072,11 +7084,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -7101,30 +7113,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
+      <c r="A24" s="123" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="122"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -7229,11 +7241,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -7258,18 +7270,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="120"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="122"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7580,11 +7592,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="125" t="s">
+      <c r="A59" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="126"/>
-      <c r="C59" s="127"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7609,30 +7621,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="122"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="123"/>
+      <c r="A61" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" s="124"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="125"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="118" t="s">
+      <c r="A62" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="119"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="120"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="121"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="122"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7761,11 +7773,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="117" t="s">
+      <c r="A72" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="117"/>
-      <c r="C72" s="117"/>
+      <c r="B72" s="119"/>
+      <c r="C72" s="119"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7790,18 +7802,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="118" t="s">
+      <c r="A73" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="119"/>
-      <c r="C73" s="119"/>
-      <c r="D73" s="119"/>
-      <c r="E73" s="119"/>
-      <c r="F73" s="119"/>
-      <c r="G73" s="119"/>
-      <c r="H73" s="119"/>
-      <c r="I73" s="119"/>
-      <c r="J73" s="120"/>
+      <c r="B73" s="121"/>
+      <c r="C73" s="121"/>
+      <c r="D73" s="121"/>
+      <c r="E73" s="121"/>
+      <c r="F73" s="121"/>
+      <c r="G73" s="121"/>
+      <c r="H73" s="121"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="122"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -8112,11 +8124,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="125" t="s">
+      <c r="A98" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="126"/>
-      <c r="C98" s="127"/>
+      <c r="B98" s="128"/>
+      <c r="C98" s="129"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -8141,21 +8153,26 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="132"/>
-      <c r="B100" s="132"/>
-      <c r="C100" s="132"/>
-      <c r="D100" s="132"/>
-      <c r="E100" s="132"/>
+      <c r="A100" s="134"/>
+      <c r="B100" s="134"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="134"/>
+      <c r="E100" s="134"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="132"/>
-      <c r="B108" s="132"/>
-      <c r="C108" s="132"/>
-      <c r="D108" s="132"/>
-      <c r="E108" s="132"/>
+      <c r="A108" s="134"/>
+      <c r="B108" s="134"/>
+      <c r="C108" s="134"/>
+      <c r="D108" s="134"/>
+      <c r="E108" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -8168,11 +8185,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8182,8 +8194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:J15"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -8202,30 +8214,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="121" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="123" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -8360,11 +8372,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -8389,18 +8401,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="120"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="122"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8613,30 +8625,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="121" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="123"/>
+      <c r="A31" s="123" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="125"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="118" t="s">
+      <c r="A32" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="120"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="122"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8729,11 +8741,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8758,18 +8770,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="120"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="122"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -9080,11 +9092,11 @@
       <c r="J64" s="34"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="130" t="s">
+      <c r="A65" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="130"/>
-      <c r="C65" s="130"/>
+      <c r="B65" s="133"/>
+      <c r="C65" s="133"/>
       <c r="D65" s="60">
         <f>SUM(D42:D64)</f>
         <v>0</v>
@@ -9109,30 +9121,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="122"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="122"/>
-      <c r="E67" s="122"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="122"/>
-      <c r="H67" s="122"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="123"/>
+      <c r="A67" s="123" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="124"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="125"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="118" t="s">
+      <c r="A68" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="119"/>
-      <c r="C68" s="119"/>
-      <c r="D68" s="119"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="119"/>
-      <c r="G68" s="119"/>
-      <c r="H68" s="120"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="121"/>
+      <c r="D68" s="121"/>
+      <c r="E68" s="121"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="122"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -9201,11 +9213,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="128" t="s">
+      <c r="A73" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="128"/>
-      <c r="C73" s="128"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="130"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -9230,18 +9242,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="118" t="s">
+      <c r="A74" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="119"/>
-      <c r="C74" s="119"/>
-      <c r="D74" s="119"/>
-      <c r="E74" s="119"/>
-      <c r="F74" s="119"/>
-      <c r="G74" s="119"/>
-      <c r="H74" s="119"/>
-      <c r="I74" s="119"/>
-      <c r="J74" s="120"/>
+      <c r="B74" s="121"/>
+      <c r="C74" s="121"/>
+      <c r="D74" s="121"/>
+      <c r="E74" s="121"/>
+      <c r="F74" s="121"/>
+      <c r="G74" s="121"/>
+      <c r="H74" s="121"/>
+      <c r="I74" s="121"/>
+      <c r="J74" s="122"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -9492,11 +9504,11 @@
       <c r="J93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="129" t="s">
+      <c r="A94" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="129"/>
-      <c r="C94" s="129"/>
+      <c r="B94" s="132"/>
+      <c r="C94" s="132"/>
       <c r="D94" s="77">
         <f>SUM(D76:D93)</f>
         <v>0</v>
@@ -9522,12 +9534,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9537,6 +9543,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="260">
   <si>
     <t>APRIL</t>
   </si>
@@ -784,6 +784,24 @@
   </si>
   <si>
     <t>30ADPPK9842G3ZB</t>
+  </si>
+  <si>
+    <t>24301C0000048512</t>
+  </si>
+  <si>
+    <t>24301C0000048712</t>
+  </si>
+  <si>
+    <t>MD/23/24/06957</t>
+  </si>
+  <si>
+    <t>MD/23/24/08508</t>
+  </si>
+  <si>
+    <t>KRISHNA PAINTS AND SANITARY</t>
+  </si>
+  <si>
+    <t>CA-205</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1389,6 +1407,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1434,17 +1455,44 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1748,30 +1796,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="123"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -1991,11 +2039,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -2020,18 +2068,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="123"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2819,11 +2867,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="116" t="s">
+      <c r="A42" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="117"/>
-      <c r="C42" s="118"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="119"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2848,30 +2896,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="123" t="s">
+      <c r="A44" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="125"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="126"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="120" t="s">
+      <c r="A45" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="122"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="123"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -3147,11 +3195,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="119" t="s">
+      <c r="A56" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="120"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -3176,18 +3224,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="120" t="s">
+      <c r="A57" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="121"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="122"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="123"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -4025,11 +4073,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="127" t="s">
+      <c r="A88" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="128"/>
-      <c r="C88" s="129"/>
+      <c r="B88" s="129"/>
+      <c r="C88" s="130"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -4054,30 +4102,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="123" t="s">
+      <c r="A90" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="124"/>
-      <c r="C90" s="124"/>
-      <c r="D90" s="124"/>
-      <c r="E90" s="124"/>
-      <c r="F90" s="124"/>
-      <c r="G90" s="124"/>
-      <c r="H90" s="124"/>
-      <c r="I90" s="124"/>
-      <c r="J90" s="125"/>
+      <c r="B90" s="125"/>
+      <c r="C90" s="125"/>
+      <c r="D90" s="125"/>
+      <c r="E90" s="125"/>
+      <c r="F90" s="125"/>
+      <c r="G90" s="125"/>
+      <c r="H90" s="125"/>
+      <c r="I90" s="125"/>
+      <c r="J90" s="126"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="120" t="s">
+      <c r="A91" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="121"/>
-      <c r="C91" s="121"/>
-      <c r="D91" s="121"/>
-      <c r="E91" s="121"/>
-      <c r="F91" s="121"/>
-      <c r="G91" s="121"/>
-      <c r="H91" s="122"/>
+      <c r="B91" s="122"/>
+      <c r="C91" s="122"/>
+      <c r="D91" s="122"/>
+      <c r="E91" s="122"/>
+      <c r="F91" s="122"/>
+      <c r="G91" s="122"/>
+      <c r="H91" s="123"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4299,11 +4347,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="119" t="s">
+      <c r="A100" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="119"/>
-      <c r="C100" s="119"/>
+      <c r="B100" s="120"/>
+      <c r="C100" s="120"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4328,18 +4376,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="120" t="s">
+      <c r="A101" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="121"/>
-      <c r="C101" s="121"/>
-      <c r="D101" s="121"/>
-      <c r="E101" s="121"/>
-      <c r="F101" s="121"/>
-      <c r="G101" s="121"/>
-      <c r="H101" s="121"/>
-      <c r="I101" s="121"/>
-      <c r="J101" s="122"/>
+      <c r="B101" s="122"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="122"/>
+      <c r="E101" s="122"/>
+      <c r="F101" s="122"/>
+      <c r="G101" s="122"/>
+      <c r="H101" s="122"/>
+      <c r="I101" s="122"/>
+      <c r="J101" s="123"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -4994,11 +5042,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="116" t="s">
+      <c r="A125" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="117"/>
-      <c r="C125" s="118"/>
+      <c r="B125" s="118"/>
+      <c r="C125" s="119"/>
       <c r="D125" s="29">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -5234,10 +5282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J66"/>
+  <dimension ref="A2:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5256,30 +5304,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="123"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -5366,11 +5414,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="42">
         <f>SUM(D5:D6)</f>
         <v>132926</v>
@@ -5395,18 +5443,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="122"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="43" t="s">
@@ -5441,1320 +5489,1464 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="45">
         <v>45110</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="46">
         <v>962.5</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46">
         <v>86.63</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="46">
         <v>86.63</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="46">
         <f>D10+E10+F10+G10</f>
         <v>1135.7600000000002</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="46"/>
+      <c r="J10" s="46" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1">
-      <c r="A11" s="11">
+    <row r="11" spans="1:10" s="116" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A11" s="111">
+        <v>45112</v>
+      </c>
+      <c r="B11" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="137" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="113">
+        <v>428.55</v>
+      </c>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113">
+        <v>10.71</v>
+      </c>
+      <c r="G11" s="113">
+        <v>10.71</v>
+      </c>
+      <c r="H11" s="113">
+        <v>450</v>
+      </c>
+      <c r="I11" s="113"/>
+      <c r="J11" s="112" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1">
+      <c r="A12" s="33">
         <v>45113</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B12" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="36">
         <v>900</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36">
         <v>81</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="36">
         <v>81</v>
       </c>
-      <c r="H11" s="12">
-        <f t="shared" ref="H11:H26" si="1">D11+E11+F11+G11</f>
+      <c r="H12" s="36">
+        <f t="shared" ref="H12:H31" si="1">D12+E12+F12+G12</f>
         <v>1062</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
+      <c r="I12" s="36"/>
+      <c r="J12" s="36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="99" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A12" s="45">
+    <row r="13" spans="1:10" s="99" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A13" s="45">
         <v>45117</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B13" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C13" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D13" s="46">
         <v>42881.36</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E13" s="46">
         <v>7718.64</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="12">
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="12">
         <f t="shared" si="1"/>
         <v>50600</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46" t="s">
+      <c r="I13" s="46"/>
+      <c r="J13" s="46" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="45">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A14" s="45">
         <v>45118</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B14" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C14" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D14" s="46">
         <v>27040</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E14" s="46">
         <v>4867.2</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46">
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46">
         <f t="shared" si="1"/>
         <v>31907.200000000001</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46" t="s">
+      <c r="I14" s="46"/>
+      <c r="J14" s="46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="98" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="104">
+    <row r="15" spans="1:10" s="98" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="104">
         <v>45118</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B15" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C15" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D15" s="81">
         <v>3750</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81">
         <v>525</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G15" s="81">
         <v>525</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H15" s="81">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
-      <c r="I14" s="81"/>
-      <c r="J14" s="115" t="s">
+      <c r="I15" s="81"/>
+      <c r="J15" s="115" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A15" s="100">
+    <row r="16" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A16" s="100">
         <v>45119</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B16" s="101" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="102">
+      <c r="C16" s="102">
         <v>436</v>
       </c>
-      <c r="D15" s="103">
+      <c r="D16" s="103">
         <v>9200.01</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103">
+      <c r="E16" s="103"/>
+      <c r="F16" s="103">
         <v>200</v>
       </c>
-      <c r="G15" s="103">
+      <c r="G16" s="103">
         <v>200</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H16" s="36">
         <f t="shared" si="1"/>
         <v>9600.01</v>
       </c>
-      <c r="I15" s="103"/>
-      <c r="J15" s="102" t="s">
+      <c r="I16" s="103"/>
+      <c r="J16" s="102" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A16" s="33">
+    <row r="17" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A17" s="33">
         <v>45121</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B17" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C17" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D17" s="36">
         <v>3250</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36">
+      <c r="E17" s="36"/>
+      <c r="F17" s="36">
         <v>292.5</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G17" s="36">
         <v>292.5</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H17" s="12">
         <f t="shared" si="1"/>
         <v>3835</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36" t="s">
+      <c r="I17" s="36"/>
+      <c r="J17" s="36" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="33">
+    <row r="18" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A18" s="33">
         <v>45121</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <v>10750</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12">
         <v>967.5</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="12">
         <v>967.5</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H18" s="12">
         <f t="shared" si="1"/>
         <v>12685</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A18" s="11">
+    <row r="19" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A19" s="11">
         <v>45121</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <v>13620</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>2451.6</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
         <f t="shared" si="1"/>
         <v>16071.6</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="105" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="11">
+    <row r="20" spans="1:10" s="105" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="11">
         <v>45131</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C20" s="12">
         <v>476</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <v>4600.01</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12">
         <v>100</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="12">
         <v>100</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H20" s="12">
         <f t="shared" si="1"/>
         <v>4800.01</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="106" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="11">
+    <row r="21" spans="1:10" s="106" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A21" s="11">
         <v>45131</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <v>20205</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>3636.9</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12">
         <f t="shared" si="1"/>
         <v>23841.9</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12" t="s">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="108" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="11">
+    <row r="22" spans="1:10" s="108" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A22" s="11">
         <v>45132</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <v>875</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12">
         <v>78.75</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="12">
         <v>78.75</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H22" s="12">
         <f t="shared" si="1"/>
         <v>1032.5</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="109" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="11">
+    <row r="23" spans="1:10" s="109" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A23" s="11">
         <v>45133</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <v>16550</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>2979</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12">
         <f t="shared" si="1"/>
         <v>19529</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="107" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="11">
+    <row r="24" spans="1:10" s="107" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A24" s="11">
         <v>45136</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <v>152</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12">
         <v>3.8</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="12">
         <v>3.8</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H24" s="12">
         <f t="shared" si="1"/>
         <v>159.60000000000002</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12" t="s">
+      <c r="I24" s="12"/>
+      <c r="J24" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="110" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A24" s="111">
+    <row r="25" spans="1:10" s="110" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A25" s="139">
         <v>45136</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B25" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C25" s="140" t="s">
         <v>225</v>
       </c>
-      <c r="D24" s="113">
+      <c r="D25" s="141">
         <v>152</v>
       </c>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113">
+      <c r="E25" s="141"/>
+      <c r="F25" s="141">
         <v>3.8</v>
       </c>
-      <c r="G24" s="113">
+      <c r="G25" s="141">
         <v>3.8</v>
       </c>
-      <c r="H24" s="113">
+      <c r="H25" s="141">
         <f t="shared" si="1"/>
         <v>159.60000000000002</v>
       </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="112" t="s">
+      <c r="I25" s="141"/>
+      <c r="J25" s="140" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="109" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A25" s="11">
+    <row r="26" spans="1:10" s="116" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="111">
+        <v>45136</v>
+      </c>
+      <c r="B26" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="113">
+        <v>661.02</v>
+      </c>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113">
+        <v>59.49</v>
+      </c>
+      <c r="G26" s="113">
+        <v>59.49</v>
+      </c>
+      <c r="H26" s="113">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+      <c r="I26" s="113"/>
+      <c r="J26" s="112" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="116" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="142">
+        <v>45137</v>
+      </c>
+      <c r="B27" s="143" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="143" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="144">
+        <v>1875</v>
+      </c>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144">
+        <v>262.5</v>
+      </c>
+      <c r="G27" s="144">
+        <v>262.5</v>
+      </c>
+      <c r="H27" s="144">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="I27" s="144"/>
+      <c r="J27" s="143" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="109" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="11">
         <v>45138</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D28" s="12">
         <v>66250</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E28" s="12">
         <v>11925</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12">
         <f t="shared" si="1"/>
         <v>78175</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12" t="s">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="114" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A26" s="11">
+    <row r="29" spans="1:10" s="114" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="45">
         <v>45138</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B29" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C29" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D29" s="46">
         <v>84300</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E29" s="46">
         <v>15174</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12">
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46">
         <f t="shared" si="1"/>
         <v>99474</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12" t="s">
+      <c r="I29" s="46"/>
+      <c r="J29" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="131" t="s">
+    <row r="30" spans="1:10" s="116" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="111">
+        <v>45138</v>
+      </c>
+      <c r="B30" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="112" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="113">
+        <v>49</v>
+      </c>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113">
+        <v>4.42</v>
+      </c>
+      <c r="G30" s="113">
+        <v>4.42</v>
+      </c>
+      <c r="H30" s="113">
+        <f t="shared" si="1"/>
+        <v>57.84</v>
+      </c>
+      <c r="I30" s="113"/>
+      <c r="J30" s="137" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="116" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="111">
+        <v>45138</v>
+      </c>
+      <c r="B31" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="112" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="113">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113">
+        <v>90</v>
+      </c>
+      <c r="G31" s="113">
+        <v>90</v>
+      </c>
+      <c r="H31" s="113">
+        <f t="shared" si="1"/>
+        <v>1180</v>
+      </c>
+      <c r="I31" s="113"/>
+      <c r="J31" s="137" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21">
+      <c r="A32" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="51">
-        <f>SUM(D10:D26)</f>
-        <v>305437.88</v>
-      </c>
-      <c r="E27" s="51">
-        <f>SUM(E10:E26)</f>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="60">
+        <f>SUM(D10:D31)</f>
+        <v>309451.44999999995</v>
+      </c>
+      <c r="E32" s="60">
+        <f>SUM(E10:E31)</f>
         <v>48752.34</v>
       </c>
-      <c r="F27" s="51">
-        <f>SUM(F10:F26)</f>
-        <v>2338.9800000000005</v>
-      </c>
-      <c r="G27" s="51">
-        <f>SUM(G10:G26)</f>
-        <v>2338.9800000000005</v>
-      </c>
-      <c r="H27" s="52">
-        <f>SUM(H10:H26)</f>
-        <v>358868.18000000005</v>
-      </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-    </row>
-    <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="123" t="s">
+      <c r="F32" s="60">
+        <f>SUM(F10:F31)</f>
+        <v>2766.1000000000004</v>
+      </c>
+      <c r="G32" s="60">
+        <f>SUM(G10:G31)</f>
+        <v>2766.1000000000004</v>
+      </c>
+      <c r="H32" s="136">
+        <f>SUM(H10:H31)</f>
+        <v>363736.02000000008</v>
+      </c>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+    </row>
+    <row r="34" spans="1:10" ht="21">
+      <c r="A34" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="125"/>
-    </row>
-    <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="120" t="s">
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="126"/>
+    </row>
+    <row r="35" spans="1:10" ht="21">
+      <c r="A35" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="31.2">
-      <c r="A31" s="3" t="s">
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="31.2">
+      <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.6">
-      <c r="A32" s="27">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.6">
+      <c r="A37" s="27">
         <v>45143</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C37" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D37" s="22">
         <v>305810</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22">
+      <c r="E37" s="22"/>
+      <c r="F37" s="22">
         <v>27522.9</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G37" s="22">
         <v>27522.9</v>
       </c>
-      <c r="H32" s="22">
-        <f>D32+E32+F32+G32</f>
+      <c r="H37" s="22">
+        <f>D37+E37+F37+G37</f>
         <v>360855.80000000005</v>
       </c>
-      <c r="I32" s="54"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="27">
+      <c r="I37" s="54"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.6">
+      <c r="A38" s="27">
         <v>45148</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B38" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C38" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D38" s="22">
         <v>155660</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22">
+      <c r="E38" s="22"/>
+      <c r="F38" s="22">
         <v>14009.4</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G38" s="22">
         <v>14009.4</v>
       </c>
-      <c r="H33" s="22">
-        <f t="shared" ref="H33:H35" si="2">D33+E33+F33+G33</f>
+      <c r="H38" s="22">
+        <f t="shared" ref="H38:H40" si="2">D38+E38+F38+G38</f>
         <v>183678.8</v>
       </c>
-      <c r="I33" s="54"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" s="114" customFormat="1" ht="15.6">
-      <c r="A34" s="27"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22">
+      <c r="I38" s="54"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" s="114" customFormat="1" ht="15.6">
+      <c r="A39" s="27"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34" s="54"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" s="114" customFormat="1" ht="15.6">
-      <c r="A35" s="27"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22">
+      <c r="I39" s="54"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" s="114" customFormat="1" ht="15.6">
+      <c r="A40" s="27"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="54"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="130" t="s">
+      <c r="I40" s="54"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="21">
+      <c r="A41" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="42">
-        <f>SUM(D32:D33)</f>
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="42">
+        <f>SUM(D37:D38)</f>
         <v>461470</v>
       </c>
-      <c r="E36" s="42">
-        <f>SUM(E32:E33)</f>
+      <c r="E41" s="42">
+        <f>SUM(E37:E38)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="42">
-        <f>SUM(F32:F33)</f>
+      <c r="F41" s="42">
+        <f>SUM(F37:F38)</f>
         <v>41532.300000000003</v>
       </c>
-      <c r="G36" s="42">
-        <f>SUM(G32:G33)</f>
+      <c r="G41" s="42">
+        <f>SUM(G37:G38)</f>
         <v>41532.300000000003</v>
       </c>
-      <c r="H36" s="42">
-        <f>SUM(H32:H33)</f>
+      <c r="H41" s="42">
+        <f>SUM(H37:H38)</f>
         <v>544534.60000000009</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="120" t="s">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="21">
+      <c r="A42" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="122"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="43" t="s">
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="123"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B43" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C43" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D43" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E43" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="44" t="s">
+      <c r="H43" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="44" t="s">
+      <c r="I43" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="44" t="s">
+      <c r="J43" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="27">
+    <row r="44" spans="1:10" ht="15.6">
+      <c r="A44" s="27">
         <v>45139</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B44" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C44" s="55">
         <v>1376</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D44" s="22">
         <v>1936.43</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22">
+      <c r="E44" s="22"/>
+      <c r="F44" s="22">
         <v>174.27</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G44" s="22">
         <v>174.27</v>
       </c>
-      <c r="H39" s="56">
-        <f>D39+E39+F39+G39</f>
+      <c r="H44" s="56">
+        <f>D44+E44+F44+G44</f>
         <v>2284.9700000000003</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="22" t="s">
+      <c r="I44" s="12"/>
+      <c r="J44" s="22" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6">
-      <c r="A40" s="27">
+    <row r="45" spans="1:10" ht="15.6">
+      <c r="A45" s="27">
         <v>45139</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D45" s="12">
         <v>11232</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E45" s="12">
         <v>2021.76</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="56">
-        <f t="shared" ref="H40:H45" si="3">D40+E40+F40+G40</f>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="56">
+        <f t="shared" ref="H45:H50" si="3">D45+E45+F45+G45</f>
         <v>13253.76</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12" t="s">
+      <c r="I45" s="12"/>
+      <c r="J45" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="11">
+    <row r="46" spans="1:10" ht="15.6">
+      <c r="A46" s="11">
         <v>45140</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D46" s="12">
         <v>18465</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12">
+      <c r="E46" s="12"/>
+      <c r="F46" s="12">
         <v>1662</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G46" s="12">
         <v>1662</v>
       </c>
-      <c r="H41" s="56">
+      <c r="H46" s="56">
         <f t="shared" si="3"/>
         <v>21789</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12" t="s">
+      <c r="I46" s="12"/>
+      <c r="J46" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="11">
+    <row r="47" spans="1:10" ht="15.6">
+      <c r="A47" s="11">
         <v>45140</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B47" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D47" s="12">
         <v>105932.2</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12">
+      <c r="E47" s="12"/>
+      <c r="F47" s="12">
         <v>9533.9</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G47" s="12">
         <v>9533.9</v>
       </c>
-      <c r="H42" s="56">
+      <c r="H47" s="56">
         <f t="shared" si="3"/>
         <v>124999.99999999999</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12" t="s">
+      <c r="I47" s="12"/>
+      <c r="J47" s="12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="11">
+    <row r="48" spans="1:10" ht="15.6">
+      <c r="A48" s="11">
         <v>45141</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B48" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D48" s="12">
         <v>4450</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E48" s="12">
         <v>801</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="56">
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="56">
         <f t="shared" si="3"/>
         <v>5251</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12" t="s">
+      <c r="I48" s="12"/>
+      <c r="J48" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="11">
+    <row r="49" spans="1:10" ht="15.6">
+      <c r="A49" s="11">
         <v>45143</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B49" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C49" s="12">
         <v>3544</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D49" s="12">
         <v>2097</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12">
         <v>188.73</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G49" s="12">
         <v>188.73</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H49" s="56">
         <f t="shared" si="3"/>
         <v>2474.46</v>
       </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12" t="s">
+      <c r="I49" s="12"/>
+      <c r="J49" s="12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6">
-      <c r="A45" s="11">
+    <row r="50" spans="1:10" ht="15.6">
+      <c r="A50" s="11">
         <v>45146</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B50" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C50" s="12">
         <v>688</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D50" s="12">
         <v>3751</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12">
+      <c r="E50" s="12"/>
+      <c r="F50" s="12">
         <v>525</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G50" s="12">
         <v>525</v>
       </c>
-      <c r="H45" s="56">
+      <c r="H50" s="56">
         <f t="shared" si="3"/>
         <v>4801</v>
       </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="85" t="s">
+      <c r="I50" s="12"/>
+      <c r="J50" s="85" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6">
-      <c r="A46" s="11">
+    <row r="51" spans="1:10" ht="15.6">
+      <c r="A51" s="11">
         <v>45146</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B51" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D51" s="12">
         <v>24195</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12">
+      <c r="E51" s="12"/>
+      <c r="F51" s="12">
         <v>2177.6</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G51" s="12">
         <v>2177.6</v>
       </c>
-      <c r="H46" s="56">
+      <c r="H51" s="56">
         <v>28551</v>
       </c>
-      <c r="I46" s="12"/>
-      <c r="J46" s="22" t="s">
+      <c r="I51" s="12"/>
+      <c r="J51" s="22" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.6">
-      <c r="A47" s="33">
+    <row r="52" spans="1:10" ht="15.6">
+      <c r="A52" s="33">
         <v>45146</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B52" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C52" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D52" s="36">
         <v>32099</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36">
+      <c r="E52" s="36"/>
+      <c r="F52" s="36">
         <v>2888.91</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G52" s="36">
         <v>2888.91</v>
       </c>
-      <c r="H47" s="56">
+      <c r="H52" s="56">
         <v>37876.82</v>
       </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="34" t="s">
+      <c r="I52" s="36"/>
+      <c r="J52" s="34" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="114" customFormat="1" ht="15.6">
-      <c r="A48" s="33"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="56">
-        <f>D48+E48+F48+G48</f>
+    <row r="53" spans="1:10" s="114" customFormat="1" ht="15.6">
+      <c r="A53" s="33"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="56">
+        <f>D53+E53+F53+G53</f>
         <v>0</v>
       </c>
-      <c r="I48" s="36"/>
-      <c r="J48" s="34"/>
-    </row>
-    <row r="49" spans="1:10" s="114" customFormat="1" ht="15.6">
-      <c r="A49" s="53"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="56">
-        <f>D49+E49+F49+G49</f>
+      <c r="I53" s="36"/>
+      <c r="J53" s="34"/>
+    </row>
+    <row r="54" spans="1:10" s="114" customFormat="1" ht="15.6">
+      <c r="A54" s="53"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="56">
+        <f>D54+E54+F54+G54</f>
         <v>0</v>
       </c>
-      <c r="I49" s="36"/>
-      <c r="J49" s="34"/>
-    </row>
-    <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="133" t="s">
+      <c r="I54" s="36"/>
+      <c r="J54" s="34"/>
+    </row>
+    <row r="55" spans="1:10" ht="21">
+      <c r="A55" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="133"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="60">
-        <f>SUM(D39:D49)</f>
+      <c r="B55" s="133"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="60">
+        <f>SUM(D44:D54)</f>
         <v>204157.63</v>
       </c>
-      <c r="E50" s="60">
-        <f>SUM(E39:E49)</f>
+      <c r="E55" s="60">
+        <f>SUM(E44:E54)</f>
         <v>2822.76</v>
       </c>
-      <c r="F50" s="60">
-        <f>SUM(F39:F49)</f>
+      <c r="F55" s="60">
+        <f>SUM(F44:F54)</f>
         <v>17150.41</v>
       </c>
-      <c r="G50" s="60">
-        <f>SUM(G39:G49)</f>
+      <c r="G55" s="60">
+        <f>SUM(G44:G54)</f>
         <v>17150.41</v>
       </c>
-      <c r="H50" s="61">
-        <f>SUM(H39:H49)</f>
+      <c r="H55" s="61">
+        <f>SUM(H44:H54)</f>
         <v>241282.00999999998</v>
       </c>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-    </row>
-    <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="123" t="s">
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+    </row>
+    <row r="57" spans="1:10" ht="21">
+      <c r="A57" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="124"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="125"/>
-    </row>
-    <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="120" t="s">
+      <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="126"/>
+    </row>
+    <row r="58" spans="1:10" ht="21">
+      <c r="A58" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="122"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" ht="31.2">
-      <c r="A54" s="3" t="s">
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="31.2">
+      <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.6">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.6">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="130" t="s">
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.6">
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.6">
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="21">
+      <c r="A62" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="130"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="42">
-        <f>SUM(D55:D56)</f>
+      <c r="B62" s="131"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="42">
+        <f>SUM(D60:D61)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="42">
-        <f>SUM(E55:E56)</f>
+      <c r="E62" s="42">
+        <f>SUM(E60:E61)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="42">
-        <f>SUM(F55:F56)</f>
+      <c r="F62" s="42">
+        <f>SUM(F60:F61)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="42">
-        <f>SUM(G55:G56)</f>
+      <c r="G62" s="42">
+        <f>SUM(G60:G61)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="42">
-        <f>SUM(H55:H56)</f>
+      <c r="H62" s="42">
+        <f>SUM(H60:H61)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="120" t="s">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="21">
+      <c r="A63" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="121"/>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="122"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="62" t="s">
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="123"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B64" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C64" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="62" t="s">
+      <c r="D64" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="62" t="s">
+      <c r="E64" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="62" t="s">
+      <c r="F64" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="62" t="s">
+      <c r="G64" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H59" s="63" t="s">
+      <c r="H64" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I59" s="63" t="s">
+      <c r="I64" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J59" s="63" t="s">
+      <c r="J64" s="63" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.6">
-      <c r="A60" s="64"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.6">
-      <c r="A61" s="64"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.6">
-      <c r="A62" s="11"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="22"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.6">
-      <c r="A63" s="33"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.6">
-      <c r="A64" s="69"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-    </row>
     <row r="65" spans="1:10" ht="15.6">
-      <c r="A65" s="11"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="22"/>
-    </row>
-    <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="132" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.6">
+      <c r="A66" s="64"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.6">
+      <c r="A67" s="11"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="22"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.6">
+      <c r="A68" s="33"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.6">
+      <c r="A69" s="69"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.6">
+      <c r="A70" s="11"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="22"/>
+    </row>
+    <row r="71" spans="1:10" ht="21">
+      <c r="A71" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="132"/>
-      <c r="C66" s="132"/>
-      <c r="D66" s="77">
-        <f>SUM(D60:D65)</f>
+      <c r="B71" s="132"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="77">
+        <f>SUM(D65:D70)</f>
         <v>0</v>
       </c>
-      <c r="E66" s="77">
-        <f>SUM(E60:E65)</f>
+      <c r="E71" s="77">
+        <f>SUM(E65:E70)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="77">
-        <f>SUM(F60:F65)</f>
+      <c r="F71" s="77">
+        <f>SUM(F65:F70)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="77">
-        <f>SUM(G60:G65)</f>
+      <c r="G71" s="77">
+        <f>SUM(G65:G70)</f>
         <v>0</v>
       </c>
-      <c r="H66" s="77">
-        <f>SUM(H60:H65)</f>
+      <c r="H71" s="77">
+        <f>SUM(H65:H70)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A34:J34"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:H58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6785,30 +6977,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="124" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="123"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -6925,11 +7117,11 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>0</v>
@@ -6954,18 +7146,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="123"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -7084,11 +7276,11 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="119"/>
       <c r="D22" s="29">
         <f>SUM(D15:D21)</f>
         <v>0</v>
@@ -7113,30 +7305,30 @@
       <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="124" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="126"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="123"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
@@ -7241,11 +7433,11 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A33" s="119" t="s">
+      <c r="A33" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
       <c r="D33" s="30">
         <f>SUM(D27:D32)</f>
         <v>0</v>
@@ -7270,18 +7462,18 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="122"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="A35" s="16" t="s">
@@ -7592,11 +7784,11 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A59" s="127" t="s">
+      <c r="A59" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="128"/>
-      <c r="C59" s="129"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="130"/>
       <c r="D59" s="30">
         <f>SUM(D36:D58)</f>
         <v>0</v>
@@ -7621,30 +7813,30 @@
       <c r="J59" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="123" t="s">
+      <c r="A61" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="B61" s="124"/>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="124"/>
-      <c r="G61" s="124"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="125"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="126"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="120" t="s">
+      <c r="A62" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="121"/>
-      <c r="F62" s="121"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="122"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="122"/>
+      <c r="H62" s="123"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
@@ -7773,11 +7965,11 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A72" s="119" t="s">
+      <c r="A72" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="119"/>
-      <c r="C72" s="119"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="120"/>
       <c r="D72" s="30">
         <f>SUM(D64:D71)</f>
         <v>0</v>
@@ -7802,18 +7994,18 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="120" t="s">
+      <c r="A73" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="121"/>
-      <c r="C73" s="121"/>
-      <c r="D73" s="121"/>
-      <c r="E73" s="121"/>
-      <c r="F73" s="121"/>
-      <c r="G73" s="121"/>
-      <c r="H73" s="121"/>
-      <c r="I73" s="121"/>
-      <c r="J73" s="122"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="123"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1">
       <c r="A74" s="16" t="s">
@@ -8124,11 +8316,11 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A98" s="127" t="s">
+      <c r="A98" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="128"/>
-      <c r="C98" s="129"/>
+      <c r="B98" s="129"/>
+      <c r="C98" s="130"/>
       <c r="D98" s="30">
         <f>SUM(D75:D97)</f>
         <v>0</v>
@@ -8153,26 +8345,21 @@
       <c r="J98" s="30"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="134"/>
-      <c r="B100" s="134"/>
-      <c r="C100" s="134"/>
-      <c r="D100" s="134"/>
-      <c r="E100" s="134"/>
+      <c r="A100" s="135"/>
+      <c r="B100" s="135"/>
+      <c r="C100" s="135"/>
+      <c r="D100" s="135"/>
+      <c r="E100" s="135"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="134"/>
-      <c r="B108" s="134"/>
-      <c r="C108" s="134"/>
-      <c r="D108" s="134"/>
-      <c r="E108" s="134"/>
+      <c r="A108" s="135"/>
+      <c r="B108" s="135"/>
+      <c r="C108" s="135"/>
+      <c r="D108" s="135"/>
+      <c r="E108" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
@@ -8185,6 +8372,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8214,30 +8406,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="124" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="123"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -8372,11 +8564,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="42">
         <f>SUM(D5:D13)</f>
         <v>0</v>
@@ -8401,18 +8593,18 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="123"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="43" t="s">
@@ -8591,11 +8783,11 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="51">
         <f>SUM(D17:D28)</f>
         <v>0</v>
@@ -8625,30 +8817,30 @@
       <c r="C30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="123" t="s">
+      <c r="A31" s="124" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="125"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="126"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="122"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="123"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
@@ -8741,11 +8933,11 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="130" t="s">
+      <c r="A39" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
       <c r="D39" s="42">
         <f>SUM(D34:D38)</f>
         <v>0</v>
@@ -8770,18 +8962,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="120" t="s">
+      <c r="A40" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="122"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="123"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="43" t="s">
@@ -9121,30 +9313,30 @@
       <c r="J65" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="123" t="s">
+      <c r="A67" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="124"/>
-      <c r="C67" s="124"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="124"/>
-      <c r="G67" s="124"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="125"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="126"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="120" t="s">
+      <c r="A68" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="121"/>
-      <c r="C68" s="121"/>
-      <c r="D68" s="121"/>
-      <c r="E68" s="121"/>
-      <c r="F68" s="121"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="122"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="122"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="122"/>
+      <c r="H68" s="123"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
@@ -9213,11 +9405,11 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="130" t="s">
+      <c r="A73" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="130"/>
-      <c r="C73" s="130"/>
+      <c r="B73" s="131"/>
+      <c r="C73" s="131"/>
       <c r="D73" s="42">
         <f>SUM(D70:D72)</f>
         <v>0</v>
@@ -9242,18 +9434,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="120" t="s">
+      <c r="A74" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="121"/>
-      <c r="C74" s="121"/>
-      <c r="D74" s="121"/>
-      <c r="E74" s="121"/>
-      <c r="F74" s="121"/>
-      <c r="G74" s="121"/>
-      <c r="H74" s="121"/>
-      <c r="I74" s="121"/>
-      <c r="J74" s="122"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="122"/>
+      <c r="D74" s="122"/>
+      <c r="E74" s="122"/>
+      <c r="F74" s="122"/>
+      <c r="G74" s="122"/>
+      <c r="H74" s="122"/>
+      <c r="I74" s="122"/>
+      <c r="J74" s="123"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="62" t="s">
@@ -9534,6 +9726,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9543,12 +9741,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="286">
   <si>
     <t>APRIL</t>
   </si>
@@ -802,13 +802,91 @@
   </si>
   <si>
     <t>CA-205</t>
+  </si>
+  <si>
+    <t>b23-24MQ205</t>
+  </si>
+  <si>
+    <t>b23-24AQ206</t>
+  </si>
+  <si>
+    <t>Retailez Private Limited</t>
+  </si>
+  <si>
+    <t>03AALCR3173P1ZX</t>
+  </si>
+  <si>
+    <t>EKWM-6778</t>
+  </si>
+  <si>
+    <t>SWMABHAN COMMERCE PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>06ABACS6473P1ZQ</t>
+  </si>
+  <si>
+    <t>VWJP-18423</t>
+  </si>
+  <si>
+    <t>SAMSUNG INDIA ELECTRONICS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>27AAACS5123K1ZD</t>
+  </si>
+  <si>
+    <t>27W3I0029670</t>
+  </si>
+  <si>
+    <t>APPARIO RETAIL PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>29AALCA0171E1ZV</t>
+  </si>
+  <si>
+    <t>BLR7-1575971</t>
+  </si>
+  <si>
+    <t>BLR8-1792419</t>
+  </si>
+  <si>
+    <t>EMBR-9071</t>
+  </si>
+  <si>
+    <t>EMBR-9109</t>
+  </si>
+  <si>
+    <t>Enn Ess Industries</t>
+  </si>
+  <si>
+    <t>29ANXPS9844G1ZT</t>
+  </si>
+  <si>
+    <t>BLR7-4726</t>
+  </si>
+  <si>
+    <t>MD/23/24/08792</t>
+  </si>
+  <si>
+    <t>33AALCA0171E1Z6</t>
+  </si>
+  <si>
+    <t>CJB1-1072328</t>
+  </si>
+  <si>
+    <t>460/2023-2024</t>
+  </si>
+  <si>
+    <t>38/23-24</t>
+  </si>
+  <si>
+    <t>40/23-24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +962,12 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri  "/>
     </font>
   </fonts>
@@ -1060,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1410,6 +1494,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1461,37 +1575,25 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1796,30 +1898,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="123"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="133"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2039,11 +2141,11 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" ht="21">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="15">
         <f>SUM(D5:D11)</f>
         <v>1050383</v>
@@ -2068,18 +2170,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="123"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="16" t="s">
@@ -2867,11 +2969,11 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="118"/>
-      <c r="C42" s="119"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="29">
         <f>SUM(D15:D41)</f>
         <v>486721.3</v>
@@ -2896,30 +2998,30 @@
       <c r="J42" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="124" t="s">
+      <c r="A44" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="126"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="135"/>
+      <c r="J44" s="136"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="123"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="133"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
@@ -3195,11 +3297,11 @@
       <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A56" s="120" t="s">
+      <c r="A56" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
       <c r="D56" s="30">
         <f>SUM(D47:D55)</f>
         <v>1748164</v>
@@ -3224,18 +3326,18 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="121" t="s">
+      <c r="A57" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="122"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="123"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="133"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1">
       <c r="A58" s="16" t="s">
@@ -4073,11 +4175,11 @@
       </c>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A88" s="128" t="s">
+      <c r="A88" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="129"/>
-      <c r="C88" s="130"/>
+      <c r="B88" s="139"/>
+      <c r="C88" s="140"/>
       <c r="D88" s="30">
         <f>SUM(D59:D87)</f>
         <v>1491956.4100000001</v>
@@ -4102,30 +4204,30 @@
       <c r="J88" s="30"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="124" t="s">
+      <c r="A90" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="125"/>
-      <c r="C90" s="125"/>
-      <c r="D90" s="125"/>
-      <c r="E90" s="125"/>
-      <c r="F90" s="125"/>
-      <c r="G90" s="125"/>
-      <c r="H90" s="125"/>
-      <c r="I90" s="125"/>
-      <c r="J90" s="126"/>
+      <c r="B90" s="135"/>
+      <c r="C90" s="135"/>
+      <c r="D90" s="135"/>
+      <c r="E90" s="135"/>
+      <c r="F90" s="135"/>
+      <c r="G90" s="135"/>
+      <c r="H90" s="135"/>
+      <c r="I90" s="135"/>
+      <c r="J90" s="136"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="121" t="s">
+      <c r="A91" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="122"/>
-      <c r="C91" s="122"/>
-      <c r="D91" s="122"/>
-      <c r="E91" s="122"/>
-      <c r="F91" s="122"/>
-      <c r="G91" s="122"/>
-      <c r="H91" s="123"/>
+      <c r="B91" s="132"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="132"/>
+      <c r="E91" s="132"/>
+      <c r="F91" s="132"/>
+      <c r="G91" s="132"/>
+      <c r="H91" s="133"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
@@ -4347,11 +4449,11 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A100" s="120" t="s">
+      <c r="A100" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="120"/>
-      <c r="C100" s="120"/>
+      <c r="B100" s="130"/>
+      <c r="C100" s="130"/>
       <c r="D100" s="30">
         <f>SUM(D93:D99)</f>
         <v>1657293</v>
@@ -4376,18 +4478,18 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="121" t="s">
+      <c r="A101" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="122"/>
-      <c r="C101" s="122"/>
-      <c r="D101" s="122"/>
-      <c r="E101" s="122"/>
-      <c r="F101" s="122"/>
-      <c r="G101" s="122"/>
-      <c r="H101" s="122"/>
-      <c r="I101" s="122"/>
-      <c r="J101" s="123"/>
+      <c r="B101" s="132"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="132"/>
+      <c r="E101" s="132"/>
+      <c r="F101" s="132"/>
+      <c r="G101" s="132"/>
+      <c r="H101" s="132"/>
+      <c r="I101" s="132"/>
+      <c r="J101" s="133"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" s="16" t="s">
@@ -5042,11 +5144,11 @@
       </c>
     </row>
     <row r="125" spans="1:10" s="6" customFormat="1" ht="21">
-      <c r="A125" s="117" t="s">
+      <c r="A125" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="118"/>
-      <c r="C125" s="119"/>
+      <c r="B125" s="128"/>
+      <c r="C125" s="129"/>
       <c r="D125" s="29">
         <f>SUM(D103:D124)</f>
         <v>381126.97</v>
@@ -5282,10 +5384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J71"/>
+  <dimension ref="A2:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5304,30 +5406,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="1